--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>Tgl</t>
   </si>
@@ -439,6 +439,21 @@
   </si>
   <si>
     <t>Jumadi</t>
+  </si>
+  <si>
+    <t>BL171111CBC2ELC</t>
+  </si>
+  <si>
+    <t>Bagus Prasojo</t>
+  </si>
+  <si>
+    <t>520530520059</t>
+  </si>
+  <si>
+    <t>Srini</t>
+  </si>
+  <si>
+    <t>08522904326</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -479,12 +494,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,84 +523,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +546,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,22 +634,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,7 +660,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +675,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +747,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,43 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,97 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,7 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,15 +921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -933,45 +932,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,6 +962,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1010,149 +1003,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1541,7 +1549,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3301,7 +3309,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="19">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>136</v>
@@ -3321,25 +3329,68 @@
       <c r="G77" t="s">
         <v>14</v>
       </c>
+      <c r="H77" s="23">
+        <v>51500</v>
+      </c>
       <c r="J77" s="23">
-        <v>50000</v>
+        <v>51500</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="19">
-        <v>43210</v>
-      </c>
-      <c r="B78" s="15"/>
-      <c r="F78" s="23"/>
-      <c r="J78" s="23"/>
+        <v>43211</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="23">
+        <v>51500</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="23">
+        <v>51500</v>
+      </c>
+      <c r="J78" s="23">
+        <v>51500</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="19">
         <v>43210</v>
       </c>
       <c r="B79" s="15"/>
-      <c r="F79" s="23"/>
-      <c r="J79" s="23"/>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="23">
+        <v>11000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>11000</v>
+      </c>
+      <c r="J79" s="23">
+        <v>11000</v>
+      </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="19">
@@ -3510,22 +3561,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3604,7 +3655,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3617,7 +3668,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E9" s="12">
         <v>1000000</v>
@@ -3625,7 +3676,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E10" s="5">
         <f>E9-E6</f>
@@ -3638,7 +3689,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E12" s="5">
         <v>300000</v>
@@ -3646,7 +3697,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -3654,7 +3705,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E14" s="12">
         <f>E13+E12</f>
@@ -3667,7 +3718,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E16" s="12">
         <f>E10-E14</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$82</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="156">
   <si>
     <t>Tgl</t>
   </si>
@@ -493,13 +493,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,345 +519,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -920,272 +594,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1198,63 +624,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1538,598 +927,598 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="16.7142857142857" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19" style="15" customWidth="1"/>
-    <col min="5" max="5" width="24.7142857142857" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="11.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="11.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="10.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="19" style="12" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="19">
+    <row r="2" spans="1:10" hidden="1">
+      <c r="A2" s="16">
         <v>42825</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="12"/>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>81548770586</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>57000</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="17">
         <v>57000</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="15"/>
+    <row r="3" spans="1:10" hidden="1">
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>11000</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="17">
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="15"/>
+    <row r="4" spans="1:10" hidden="1">
+      <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>10500</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="17">
         <v>11000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="19">
+    <row r="5" spans="1:10" hidden="1">
+      <c r="A5" s="16">
         <v>42825</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>26000</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:10" hidden="1">
+      <c r="B6" s="12"/>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>51500</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>51500</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="19">
+    <row r="7" spans="1:10" hidden="1">
+      <c r="A7" s="16">
         <v>42825</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="12"/>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>200000</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>250000</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:10" hidden="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>51500</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="19">
+    <row r="9" spans="1:10" hidden="1">
+      <c r="A9" s="16">
         <v>42826</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="12"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>51500</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>51500</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="19">
+    <row r="10" spans="1:10" hidden="1">
+      <c r="A10" s="16">
         <v>42826</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>25000</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>25500</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="19">
+    <row r="11" spans="1:10">
+      <c r="A11" s="16">
         <v>42826</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>11000</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="19">
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
+      <c r="A12" s="16">
         <v>42826</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="12"/>
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>11000</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>11000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="19">
+    <row r="13" spans="1:10" hidden="1">
+      <c r="A13" s="16">
         <v>42831</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="12"/>
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>101500</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>101500</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="19">
+    <row r="14" spans="1:10" hidden="1">
+      <c r="A14" s="16">
         <v>42831</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="12"/>
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="17">
         <v>6500</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>65000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="19">
+    <row r="15" spans="1:10" hidden="1">
+      <c r="A15" s="16">
         <v>42831</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="12"/>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="17">
         <v>51500</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="17">
         <v>51500</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="19">
+    <row r="16" spans="1:10" hidden="1">
+      <c r="A16" s="16">
         <v>42831</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="12"/>
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="17">
         <v>11500</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="17">
         <v>12000</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="19">
+    <row r="17" spans="1:12" hidden="1">
+      <c r="A17" s="16">
         <v>42832</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="12"/>
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="17">
         <v>11500</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="17">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="19">
+    <row r="18" spans="1:12">
+      <c r="A18" s="16">
         <v>42832</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="12"/>
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>11500</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="19">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" hidden="1">
+      <c r="A19" s="16">
         <v>42832</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="12"/>
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <v>101500</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="17">
         <v>100000</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="19">
+    <row r="20" spans="1:12" hidden="1">
+      <c r="A20" s="16">
         <v>42832</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="12"/>
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="17">
         <v>201500</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="17">
         <v>200000</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="19">
+    <row r="21" spans="1:12" hidden="1">
+      <c r="A21" s="16">
         <v>42833</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <v>201500</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="17">
         <v>100000</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="19">
+    <row r="22" spans="1:12" hidden="1">
+      <c r="A22" s="16">
         <v>42833</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="12"/>
       <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>51500</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="17">
         <v>50000</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="19">
+    <row r="23" spans="1:12" hidden="1">
+      <c r="A23" s="16">
         <v>42833</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <v>51500</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="17">
         <v>50000</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="19">
+    <row r="24" spans="1:12" hidden="1">
+      <c r="A24" s="16">
         <v>42833</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="12"/>
       <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <v>24900</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="17">
         <v>26000</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="19">
+    <row r="25" spans="1:12" hidden="1">
+      <c r="A25" s="16">
         <v>42833</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="12"/>
       <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="17">
         <v>100000</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="17">
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="19">
+    <row r="26" spans="1:12" hidden="1">
+      <c r="A26" s="16">
         <v>42833</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="17">
         <v>100000</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="17">
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="19">
+    <row r="27" spans="1:12">
+      <c r="A27" s="16">
         <v>42834</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="12"/>
       <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="17">
         <v>25000</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="19">
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" hidden="1">
+      <c r="A28" s="16">
         <v>42834</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <v>51500</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="17" t="s">
         <v>12</v>
       </c>
       <c r="L28">
@@ -2137,27 +1526,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="19">
+    <row r="29" spans="1:12" hidden="1">
+      <c r="A29" s="16">
         <v>42834</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="12"/>
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="17">
         <v>50000</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="17">
         <v>50000</v>
       </c>
       <c r="J29" t="s">
@@ -2167,208 +1556,208 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="19">
+    <row r="30" spans="1:12" hidden="1">
+      <c r="A30" s="16">
         <v>42834</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="12"/>
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="17">
         <v>50000</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="17">
         <v>50000</v>
       </c>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="19">
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" hidden="1">
+      <c r="A31" s="16">
         <v>42834</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="12"/>
       <c r="C31" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="17">
         <v>101500</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="17">
         <v>100000</v>
       </c>
       <c r="J31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="19">
+    <row r="32" spans="1:12" hidden="1">
+      <c r="A32" s="16">
         <v>42835</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="12"/>
       <c r="C32" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="17">
         <v>91500</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="17">
         <v>100000</v>
       </c>
       <c r="J32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="19">
+    <row r="33" spans="1:12" hidden="1">
+      <c r="A33" s="16">
         <v>42835</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="12"/>
       <c r="C33" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="17">
         <v>181350</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="17">
         <v>198000</v>
       </c>
       <c r="J33">
         <v>198000</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="19">
+    <row r="34" spans="1:12" hidden="1">
+      <c r="A34" s="16">
         <v>42836</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="12"/>
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="17">
         <v>24500</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="17">
         <v>25500</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="19">
+    <row r="35" spans="1:12" hidden="1">
+      <c r="A35" s="16">
         <v>42836</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="12"/>
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="17">
         <v>101500</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="17">
         <v>100000</v>
       </c>
       <c r="J35">
         <v>100000</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="19">
+    <row r="36" spans="1:12" hidden="1">
+      <c r="A36" s="16">
         <v>42837</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="12"/>
       <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="17">
         <v>25500</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="17">
         <v>25500</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="19">
+    <row r="37" spans="1:12" hidden="1">
+      <c r="A37" s="16">
         <v>42837</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="12"/>
       <c r="C37" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="17">
         <v>48500</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="17">
         <v>49500</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="19">
+    <row r="38" spans="1:12">
+      <c r="A38" s="16">
         <v>42838</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="12"/>
       <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="17">
         <v>11000</v>
       </c>
       <c r="G38" t="s">
@@ -2378,21 +1767,21 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="19">
+    <row r="39" spans="1:12">
+      <c r="A39" s="16">
         <v>42838</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="12"/>
       <c r="C39" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="17">
         <v>51500</v>
       </c>
       <c r="G39" t="s">
@@ -2402,18 +1791,18 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="19">
+    <row r="40" spans="1:12">
+      <c r="A40" s="16">
         <v>42838</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="12"/>
       <c r="C40" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="19">
         <v>54500</v>
       </c>
       <c r="G40" t="s">
@@ -2423,88 +1812,97 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="19">
+    <row r="41" spans="1:12" hidden="1">
+      <c r="A41" s="16">
         <v>42839</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="12"/>
       <c r="C41" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="19">
         <v>49400</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
+      </c>
+      <c r="H41">
+        <v>50500</v>
       </c>
       <c r="J41">
         <v>50500</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="19">
+    <row r="42" spans="1:12" hidden="1">
+      <c r="A42" s="16">
         <v>42839</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="12"/>
       <c r="C42" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="19">
         <v>24900</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
+      </c>
+      <c r="H42">
+        <v>25900</v>
       </c>
       <c r="J42">
         <v>25900</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="19">
+    <row r="43" spans="1:12" hidden="1">
+      <c r="A43" s="16">
         <v>42839</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="12"/>
       <c r="C43" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="19">
         <v>201500</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
+      </c>
+      <c r="H43">
+        <v>199000</v>
       </c>
       <c r="J43">
         <v>199000</v>
       </c>
-      <c r="L43" s="22"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="19">
+      <c r="A44" s="16">
         <v>42840</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="12"/>
       <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="19">
         <v>51500</v>
       </c>
       <c r="G44" t="s">
@@ -2513,23 +1911,23 @@
       <c r="J44">
         <v>50000</v>
       </c>
-      <c r="L44" s="22"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="19">
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="16">
         <v>42840</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="12"/>
       <c r="C45" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="19">
         <v>51500</v>
       </c>
       <c r="G45" t="s">
@@ -2539,18 +1937,18 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="19">
+    <row r="46" spans="1:12">
+      <c r="A46" s="16">
         <v>42840</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="12"/>
       <c r="C46" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="19">
         <v>5000</v>
       </c>
       <c r="G46" t="s">
@@ -2560,127 +1958,127 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="19">
+    <row r="47" spans="1:12" hidden="1">
+      <c r="A47" s="16">
         <v>42840</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="12"/>
       <c r="C47" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="19">
         <v>11000</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="17">
         <v>11500</v>
       </c>
       <c r="J47">
         <v>11500</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="19">
+    <row r="48" spans="1:12">
+      <c r="A48" s="16">
         <v>42840</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="12"/>
       <c r="C48" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="19">
         <v>11000</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="17"/>
       <c r="J48">
         <v>11500</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="19">
+    <row r="49" spans="1:10" hidden="1">
+      <c r="A49" s="16">
         <v>42841</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="12"/>
       <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E49" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="19">
         <v>201500</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="17">
         <v>198000</v>
       </c>
       <c r="J49">
         <v>198000</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="19">
+    <row r="50" spans="1:10" hidden="1">
+      <c r="A50" s="16">
         <v>42841</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="12"/>
       <c r="C50" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="19">
         <v>51500</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="17">
         <v>50000</v>
       </c>
       <c r="J50">
         <v>50000</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="19">
+    <row r="51" spans="1:10" hidden="1">
+      <c r="A51" s="16">
         <v>42841</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="12"/>
       <c r="C51" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="19">
         <v>21500</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="17">
         <v>21500</v>
       </c>
       <c r="J51">
@@ -2688,698 +2086,704 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="19">
+      <c r="A52" s="16">
         <v>42841</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="12"/>
       <c r="C52" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="19">
         <v>36000</v>
       </c>
       <c r="G52" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="20"/>
+      <c r="H52" s="17"/>
       <c r="J52">
         <v>36000</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="19">
+      <c r="A53" s="16">
         <v>42841</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="D53" s="15" t="s">
+      <c r="B53" s="12"/>
+      <c r="D53" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="19">
         <v>11000</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="20"/>
+      <c r="H53" s="17"/>
       <c r="J53">
         <v>11500</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="19">
+    <row r="54" spans="1:10" hidden="1">
+      <c r="A54" s="16">
         <v>42841</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="12"/>
       <c r="C54" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="19">
         <v>201500</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="20"/>
+      <c r="H54" s="17">
+        <v>200000</v>
+      </c>
       <c r="J54">
         <v>198000</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="19">
+    <row r="55" spans="1:10" hidden="1">
+      <c r="A55" s="16">
         <v>42841</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="12"/>
       <c r="C55" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="19">
         <v>201500</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="20"/>
+      <c r="H55" s="17">
+        <v>198000</v>
+      </c>
       <c r="J55">
         <v>198000</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="19">
+    <row r="56" spans="1:10" hidden="1">
+      <c r="A56" s="16">
         <v>42842</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="12"/>
       <c r="C56" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="19">
         <v>48500</v>
       </c>
       <c r="G56" t="s">
         <v>10</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="17">
         <v>49500</v>
       </c>
       <c r="J56">
         <v>49500</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="19">
+    <row r="57" spans="1:10" hidden="1">
+      <c r="A57" s="16">
         <v>42842</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="12"/>
       <c r="C57" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="19">
         <v>51500</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="20"/>
+      <c r="H57" s="17">
+        <v>50000</v>
+      </c>
       <c r="J57">
         <v>50000</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="19">
+    <row r="58" spans="1:10" hidden="1">
+      <c r="A58" s="16">
         <v>42842</v>
       </c>
-      <c r="B58" s="15"/>
+      <c r="B58" s="12"/>
       <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="19">
         <v>101500</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="17">
         <v>100000</v>
       </c>
       <c r="J58">
         <v>100000</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="19">
+    <row r="59" spans="1:10" hidden="1">
+      <c r="A59" s="16">
         <v>42842</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="12"/>
       <c r="C59" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="19">
         <v>11500</v>
       </c>
       <c r="G59" t="s">
         <v>10</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="19">
         <v>11500</v>
       </c>
       <c r="J59">
         <v>11500</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="19">
+    <row r="60" spans="1:10" hidden="1">
+      <c r="A60" s="16">
         <v>43208</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="12"/>
       <c r="C60" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="19">
         <v>501500</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="19">
         <v>497500</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="19">
         <v>497500</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="19">
+      <c r="A61" s="16">
         <v>43208</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="12"/>
       <c r="C61" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="19">
         <v>51500</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="17">
         <v>50000</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="19">
+    <row r="62" spans="1:10" hidden="1">
+      <c r="A62" s="16">
         <v>43208</v>
       </c>
-      <c r="B62" s="15"/>
+      <c r="B62" s="12"/>
       <c r="C62" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="19">
         <v>101500</v>
       </c>
       <c r="G62" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="19">
         <v>100000</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="17">
         <v>99000</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="19">
+      <c r="A63" s="16">
         <v>43209</v>
       </c>
-      <c r="B63" s="15"/>
+      <c r="B63" s="12"/>
       <c r="C63" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="19">
         <v>48500</v>
       </c>
       <c r="G63" t="s">
         <v>10</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="17">
         <v>48000</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="19">
+      <c r="A64" s="16">
         <v>43209</v>
       </c>
-      <c r="B64" s="15"/>
+      <c r="B64" s="12"/>
       <c r="C64" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="19">
         <v>48500</v>
       </c>
       <c r="G64" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="17">
         <v>48000</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="19">
+    <row r="65" spans="1:12" hidden="1">
+      <c r="A65" s="16">
         <v>43209</v>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="12"/>
       <c r="C65" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="19">
         <v>48500</v>
       </c>
       <c r="G65" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="17">
         <v>48000</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J65" s="17">
         <v>48000</v>
       </c>
       <c r="L65" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="19">
+    <row r="66" spans="1:12" hidden="1">
+      <c r="A66" s="16">
         <v>43209</v>
       </c>
-      <c r="B66" s="15"/>
+      <c r="B66" s="12"/>
       <c r="C66" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="19">
         <v>48500</v>
       </c>
       <c r="G66" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="17">
         <v>48000</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J66" s="17">
         <v>48000</v>
       </c>
       <c r="L66" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="19">
+    <row r="67" spans="1:12" hidden="1">
+      <c r="A67" s="16">
         <v>43209</v>
       </c>
-      <c r="B67" s="15"/>
+      <c r="B67" s="12"/>
       <c r="C67" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="19">
         <v>48500</v>
       </c>
       <c r="G67" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="17">
         <v>48000</v>
       </c>
-      <c r="J67" s="20">
+      <c r="J67" s="17">
         <v>48000</v>
       </c>
       <c r="L67" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="19">
+    <row r="68" spans="1:12" hidden="1">
+      <c r="A68" s="16">
         <v>43209</v>
       </c>
-      <c r="B68" s="15"/>
+      <c r="B68" s="12"/>
       <c r="C68" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="19">
         <v>48500</v>
       </c>
       <c r="G68" t="s">
         <v>10</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="17">
         <v>48000</v>
       </c>
-      <c r="J68" s="20">
+      <c r="J68" s="17">
         <v>48000</v>
       </c>
       <c r="L68" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="19">
+    <row r="69" spans="1:12" hidden="1">
+      <c r="A69" s="16">
         <v>43209</v>
       </c>
-      <c r="B69" s="15"/>
+      <c r="B69" s="12"/>
       <c r="C69" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="19">
         <v>100000</v>
       </c>
       <c r="G69" t="s">
         <v>10</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="17">
         <v>99000</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J69" s="17">
         <v>99000</v>
       </c>
       <c r="L69" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="19">
+    <row r="70" spans="1:12">
+      <c r="A70" s="16">
         <v>43209</v>
       </c>
-      <c r="B70" s="15"/>
+      <c r="B70" s="12"/>
       <c r="C70" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="19">
         <v>49300</v>
       </c>
       <c r="G70" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="20"/>
-      <c r="J70" s="20">
+      <c r="H70" s="17"/>
+      <c r="J70" s="17">
         <v>48000</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="19">
+    <row r="71" spans="1:12" hidden="1">
+      <c r="A71" s="16">
         <v>43210</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C71" t="s">
         <v>122</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="19">
         <v>48500</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="17">
         <v>48000</v>
       </c>
-      <c r="J71" s="20">
+      <c r="J71" s="17">
         <v>48000</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="19">
+    <row r="72" spans="1:12" hidden="1">
+      <c r="A72" s="16">
         <v>43210</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C72" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="19">
         <v>48500</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="17">
         <v>48000</v>
       </c>
-      <c r="J72" s="20">
+      <c r="J72" s="17">
         <v>48000</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="19">
+    <row r="73" spans="1:12">
+      <c r="A73" s="16">
         <v>43210</v>
       </c>
-      <c r="B73" s="15"/>
+      <c r="B73" s="12"/>
       <c r="C73" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="19">
         <v>51500</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J73" s="19">
         <v>51500</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="19">
+    <row r="74" spans="1:12" hidden="1">
+      <c r="A74" s="16">
         <v>43210</v>
       </c>
-      <c r="B74" s="15"/>
+      <c r="B74" s="12"/>
       <c r="C74" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="19">
         <v>101500</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="19">
         <v>100000</v>
       </c>
-      <c r="J74" s="22">
+      <c r="J74" s="19">
         <v>100000</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="19">
+    <row r="75" spans="1:12">
+      <c r="A75" s="16">
         <v>43210</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="19">
         <v>24500</v>
       </c>
       <c r="G75" t="s">
         <v>10</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J75" s="19">
         <v>25500</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="19">
+    <row r="76" spans="1:12">
+      <c r="A76" s="16">
         <v>43210</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="19">
         <v>10000</v>
       </c>
       <c r="G76" t="s">
         <v>10</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J76" s="19">
         <v>11000</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="19">
+    <row r="77" spans="1:12" hidden="1">
+      <c r="A77" s="16">
         <v>43211</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="12" t="s">
         <v>136</v>
       </c>
       <c r="C77" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F77" s="20">
         <v>51500</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="20">
         <v>51500</v>
       </c>
-      <c r="J77" s="23">
+      <c r="J77" s="20">
         <v>51500</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="19">
+    <row r="78" spans="1:12" hidden="1">
+      <c r="A78" s="16">
         <v>43211</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="12" t="s">
         <v>140</v>
       </c>
       <c r="C78" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F78" s="23">
+      <c r="F78" s="20">
         <v>51500</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="23">
+      <c r="H78" s="20">
         <v>51500</v>
       </c>
-      <c r="J78" s="23">
+      <c r="J78" s="20">
         <v>51500</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="19">
+    <row r="79" spans="1:12" hidden="1">
+      <c r="A79" s="16">
         <v>43210</v>
       </c>
-      <c r="B79" s="15"/>
+      <c r="B79" s="12"/>
       <c r="C79" t="s">
         <v>143</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F79" s="20">
         <v>11000</v>
       </c>
       <c r="G79" t="s">
@@ -3388,175 +2792,173 @@
       <c r="H79">
         <v>11000</v>
       </c>
-      <c r="J79" s="23">
+      <c r="J79" s="20">
         <v>11000</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="19">
+    <row r="80" spans="1:12">
+      <c r="A80" s="16">
         <v>43210</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="F80" s="23"/>
-      <c r="J80" s="23"/>
+      <c r="B80" s="12"/>
+      <c r="F80" s="20"/>
+      <c r="J80" s="20"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="19">
+      <c r="A81" s="16">
         <v>43210</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="F81" s="23"/>
-      <c r="J81" s="23"/>
+      <c r="B81" s="12"/>
+      <c r="F81" s="20"/>
+      <c r="J81" s="20"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="19">
+      <c r="A82" s="16">
         <v>43210</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="F82" s="23"/>
-      <c r="J82" s="23"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="15"/>
-      <c r="F83" s="23"/>
-      <c r="J83" s="23"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="15"/>
-      <c r="F84" s="23"/>
-      <c r="J84" s="23"/>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="15"/>
-      <c r="F85" s="23"/>
-      <c r="J85" s="23"/>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="15"/>
-      <c r="F86" s="23"/>
-      <c r="J86" s="23"/>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="15"/>
-      <c r="F87" s="23"/>
-      <c r="J87" s="23"/>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="B88" s="15"/>
-      <c r="F88" s="23"/>
-      <c r="J88" s="23"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="15"/>
-      <c r="F89" s="23"/>
-      <c r="J89" s="23"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="15"/>
-      <c r="F90" s="23"/>
-      <c r="J90" s="23"/>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="15"/>
-      <c r="F91" s="23"/>
-      <c r="J91" s="23"/>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="15"/>
-      <c r="F92" s="23"/>
-      <c r="J92" s="23"/>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="15"/>
-      <c r="F93" s="23"/>
-      <c r="J93" s="23"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="15"/>
-      <c r="F94" s="23"/>
-      <c r="J94" s="23"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="15"/>
-      <c r="F95" s="23"/>
-      <c r="J95" s="23"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="15"/>
-      <c r="J96" s="23"/>
+      <c r="B82" s="12"/>
+      <c r="F82" s="20"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" s="12"/>
+      <c r="F83" s="20"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" s="12"/>
+      <c r="F84" s="20"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" s="12"/>
+      <c r="F85" s="20"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" s="12"/>
+      <c r="F86" s="20"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" s="12"/>
+      <c r="F87" s="20"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" s="12"/>
+      <c r="F88" s="20"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="B89" s="12"/>
+      <c r="F89" s="20"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" s="12"/>
+      <c r="F90" s="20"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="B91" s="12"/>
+      <c r="F91" s="20"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="B92" s="12"/>
+      <c r="F92" s="20"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="B93" s="12"/>
+      <c r="F93" s="20"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" s="12"/>
+      <c r="F94" s="20"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="B95" s="12"/>
+      <c r="F95" s="20"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="B96" s="12"/>
+      <c r="J96" s="20"/>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="15"/>
-      <c r="J97" s="23"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="15"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="15"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="15"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="15"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="15"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="15"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="15"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="15"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="15"/>
+      <c r="B97" s="12"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="12"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="12"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="12"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="12"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="12"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H82"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <autoFilter ref="A1:H82">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3654,28 +3056,28 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="7">
         <f>SUM(E2:E5)</f>
         <v>137000</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="9" spans="4:5">
-      <c r="D9" s="11" t="s">
+    <row r="9" spans="1:6">
+      <c r="D9" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="13" t="s">
+    <row r="10" spans="1:6">
+      <c r="D10" s="10" t="s">
         <v>151</v>
       </c>
       <c r="E10" s="5">
@@ -3683,11 +3085,11 @@
         <v>863000</v>
       </c>
     </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="13"/>
+    <row r="11" spans="1:6">
+      <c r="D11" s="10"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:6">
       <c r="D12" s="3" t="s">
         <v>152</v>
       </c>
@@ -3695,32 +3097,32 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="13" t="s">
+    <row r="13" spans="1:6">
+      <c r="D13" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="11" t="s">
+    <row r="14" spans="1:6">
+      <c r="D14" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <f>E13+E12</f>
         <v>600000</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
-      <c r="D15" s="13"/>
+    <row r="15" spans="1:6">
+      <c r="D15" s="10"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="11" t="s">
+    <row r="16" spans="1:6">
+      <c r="D16" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <f>E10-E14</f>
         <v>263000</v>
       </c>
@@ -3729,8 +3131,7 @@
   <mergeCells count="1">
     <mergeCell ref="A6:D6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$98</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="205">
   <si>
     <t>Tgl</t>
   </si>
@@ -105,9 +105,6 @@
     <t>PERUM KRANGGAN INDAH</t>
   </si>
   <si>
-    <t>Amin S</t>
-  </si>
-  <si>
     <t>Sudadi</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>Srini</t>
   </si>
   <si>
-    <t>08522904326</t>
-  </si>
-  <si>
     <t>Tanggal</t>
   </si>
   <si>
@@ -487,6 +481,159 @@
   </si>
   <si>
     <t>Sisa Bayar - Total Spp</t>
+  </si>
+  <si>
+    <t>BL171111CPGWELC</t>
+  </si>
+  <si>
+    <t>BL171111CLYHELC</t>
+  </si>
+  <si>
+    <t>520511772327</t>
+  </si>
+  <si>
+    <t>Ust. Hamzah</t>
+  </si>
+  <si>
+    <t>ASRIANTO</t>
+  </si>
+  <si>
+    <t>BL171111CJCHELC</t>
+  </si>
+  <si>
+    <t>524020094161</t>
+  </si>
+  <si>
+    <t>NY MEDI</t>
+  </si>
+  <si>
+    <t>BL171111CHSMELC</t>
+  </si>
+  <si>
+    <t>RBTQ. AR-RIDLO</t>
+  </si>
+  <si>
+    <t>520530433585</t>
+  </si>
+  <si>
+    <t>SURONO HERY SURYANTO</t>
+  </si>
+  <si>
+    <t>SURONO</t>
+  </si>
+  <si>
+    <t>BL171111CPLCELC</t>
+  </si>
+  <si>
+    <t>170407705691</t>
+  </si>
+  <si>
+    <t>085291113512</t>
+  </si>
+  <si>
+    <t>Pak Utsman</t>
+  </si>
+  <si>
+    <t>170407740316</t>
+  </si>
+  <si>
+    <t>170407464741</t>
+  </si>
+  <si>
+    <t>085229049326</t>
+  </si>
+  <si>
+    <t>170406566341</t>
+  </si>
+  <si>
+    <t>0895324082769</t>
+  </si>
+  <si>
+    <t>170407167146</t>
+  </si>
+  <si>
+    <t>Via Ummi</t>
+  </si>
+  <si>
+    <t>08172847770</t>
+  </si>
+  <si>
+    <t>170407201391</t>
+  </si>
+  <si>
+    <t>BL171111CXLRELC</t>
+  </si>
+  <si>
+    <t>BL171111D9TMELC</t>
+  </si>
+  <si>
+    <t>520530440864</t>
+  </si>
+  <si>
+    <t>M. Fauzan</t>
+  </si>
+  <si>
+    <t>SUJITA</t>
+  </si>
+  <si>
+    <t>BL171111DAO7ELC</t>
+  </si>
+  <si>
+    <t>Pot Gaji Mei</t>
+  </si>
+  <si>
+    <t>520530653235</t>
+  </si>
+  <si>
+    <t>FITRI INDRARATMA</t>
+  </si>
+  <si>
+    <t>BL171111D2FHELC</t>
+  </si>
+  <si>
+    <t>170409038921</t>
+  </si>
+  <si>
+    <t>082140276544</t>
+  </si>
+  <si>
+    <t>Ust. Yahya</t>
+  </si>
+  <si>
+    <t>170408730986</t>
+  </si>
+  <si>
+    <t>081578462750</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>170407961156</t>
+  </si>
+  <si>
+    <t>085225971944</t>
+  </si>
+  <si>
+    <t>170407854486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL17112Z63IHINV </t>
+  </si>
+  <si>
+    <t>085850579449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL17112ZBGQWINV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL17112ZDZDWINV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL17112ZLCF2INV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL17112ZMBLWINV </t>
   </si>
 </sst>
 </file>
@@ -496,7 +643,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,24 +652,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9E897D"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -597,11 +758,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -609,35 +770,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -933,34 +1102,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -971,105 +1141,113 @@
       <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
+      <c r="F1" s="24" t="s">
+        <v>195</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
-      <c r="A2" s="16">
+    <row r="2" spans="1:10">
+      <c r="A2" s="12"/>
+      <c r="B2" s="16">
         <v>42825</v>
       </c>
-      <c r="B2" s="12"/>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="12">
         <v>81548770586</v>
       </c>
-      <c r="F2" s="17">
-        <v>57000</v>
-      </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="17">
         <v>57000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1">
-      <c r="B3" s="12"/>
+      <c r="I2" s="20">
+        <v>57000</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12"/>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="18">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="18">
         <v>11000</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="I3" s="20">
         <v>12000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1">
-      <c r="B4" s="12"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="17">
         <v>10500</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="I4" s="20">
         <v>11000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1">
-      <c r="A5" s="16">
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16">
         <v>42825</v>
       </c>
-      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="17">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17">
         <v>26000</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1">
-      <c r="B6" s="12"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12"/>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17">
-        <v>51500</v>
-      </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="17">
         <v>51500</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1">
-      <c r="A7" s="16">
+      <c r="I6" s="20">
+        <v>51500</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16">
         <v>42825</v>
       </c>
-      <c r="B7" s="12"/>
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -1079,107 +1257,116 @@
       <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="17">
         <v>200000</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="I7" s="20">
         <v>250000</v>
       </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16"/>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="17">
+      <c r="H8" s="17">
         <v>51500</v>
       </c>
-      <c r="H8" s="17">
+      <c r="I8" s="20">
         <v>50000</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1">
-      <c r="A9" s="16">
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12"/>
+      <c r="B9" s="16">
         <v>42826</v>
       </c>
-      <c r="B9" s="12"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="17">
-        <v>51500</v>
-      </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="17">
         <v>51500</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1">
-      <c r="A10" s="16">
+      <c r="I9" s="20">
+        <v>51500</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12"/>
+      <c r="B10" s="16">
         <v>42826</v>
       </c>
-      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="17">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17">
         <v>25000</v>
       </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="I10" s="20">
         <v>25500</v>
       </c>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="16">
+      <c r="A11" s="12"/>
+      <c r="B11" s="16">
         <v>42826</v>
       </c>
-      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11">
+        <v>11500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="17">
         <v>11000</v>
       </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" hidden="1">
-      <c r="A12" s="16">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12"/>
+      <c r="B12" s="16">
         <v>42826</v>
       </c>
-      <c r="B12" s="12"/>
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="17">
-        <v>11000</v>
-      </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1">
-      <c r="A13" s="16">
+      <c r="I12" s="20">
+        <v>11000</v>
+      </c>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12"/>
+      <c r="B13" s="16">
         <v>42831</v>
       </c>
-      <c r="B13" s="12"/>
       <c r="C13" t="s">
         <v>19</v>
       </c>
@@ -1189,39 +1376,41 @@
       <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="17">
-        <v>101500</v>
-      </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="17">
         <v>101500</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1">
-      <c r="A14" s="16">
+      <c r="I13" s="20">
+        <v>101500</v>
+      </c>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="12"/>
+      <c r="B14" s="16">
         <v>42831</v>
       </c>
-      <c r="B14" s="12"/>
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="17">
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="17">
         <v>6500</v>
       </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="I14" s="20">
         <v>65000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1">
-      <c r="A15" s="16">
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="12"/>
+      <c r="B15" s="16">
         <v>42831</v>
       </c>
-      <c r="B15" s="12"/>
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -1231,249 +1420,260 @@
       <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="17">
-        <v>51500</v>
-      </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="17">
         <v>51500</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1">
-      <c r="A16" s="16">
+      <c r="I15" s="20">
+        <v>51500</v>
+      </c>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="12"/>
+      <c r="B16" s="16">
         <v>42831</v>
       </c>
-      <c r="B16" s="12"/>
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="17">
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="17">
         <v>11500</v>
       </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="I16" s="20">
         <v>12000</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1">
-      <c r="A17" s="16">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="12"/>
+      <c r="B17" s="16">
         <v>42832</v>
       </c>
-      <c r="B17" s="12"/>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="17">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="17">
         <v>11500</v>
       </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="I17" s="20">
         <v>11000</v>
       </c>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="16">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16">
         <v>42832</v>
       </c>
-      <c r="B18" s="12"/>
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18">
         <v>11500</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" hidden="1">
-      <c r="A19" s="16">
+      <c r="H18" s="17">
+        <v>11500</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="12"/>
+      <c r="B19" s="16">
         <v>42832</v>
       </c>
-      <c r="B19" s="12"/>
       <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="17">
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="17">
         <v>101500</v>
       </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="17">
+      <c r="I19" s="20">
         <v>100000</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16">
+        <v>42832</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1">
-      <c r="A20" s="16">
-        <v>42832</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="17">
+        <v>201500</v>
+      </c>
+      <c r="I20" s="20">
+        <v>200000</v>
+      </c>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12"/>
+      <c r="B21" s="16">
+        <v>42833</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="17">
+      <c r="D21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="17">
         <v>201500</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="17">
-        <v>200000</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1">
-      <c r="A21" s="16">
+      <c r="I21" s="20">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="12"/>
+      <c r="B22" s="16">
         <v>42833</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="17">
-        <v>201500</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="17">
+      <c r="D22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="17">
+        <v>51500</v>
+      </c>
+      <c r="I22" s="20">
+        <v>50000</v>
+      </c>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="12"/>
+      <c r="B23" s="16">
+        <v>42833</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="17">
+        <v>51500</v>
+      </c>
+      <c r="I23" s="20">
+        <v>50000</v>
+      </c>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16">
+        <v>42833</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="17">
+        <v>24900</v>
+      </c>
+      <c r="I24" s="20">
+        <v>26000</v>
+      </c>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="12"/>
+      <c r="B25" s="16">
+        <v>42833</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="17">
         <v>100000</v>
       </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1">
-      <c r="A22" s="16">
+      <c r="I25" s="20">
+        <v>50000</v>
+      </c>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="12"/>
+      <c r="B26" s="16">
         <v>42833</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="17">
-        <v>51500</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="17">
-        <v>50000</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1">
-      <c r="A23" s="16">
-        <v>42833</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="17">
-        <v>51500</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="17">
-        <v>50000</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1">
-      <c r="A24" s="16">
-        <v>42833</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="17">
-        <v>24900</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="17">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1">
-      <c r="A25" s="16">
-        <v>42833</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="C26" t="s">
         <v>46</v>
-      </c>
-      <c r="F25" s="17">
-        <v>100000</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1">
-      <c r="A26" s="16">
-        <v>42833</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="17">
-        <v>100000</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1481,67 +1681,75 @@
       <c r="H26" s="17">
         <v>100000</v>
       </c>
+      <c r="I26" s="20">
+        <v>100000</v>
+      </c>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16">
+      <c r="A27" s="12"/>
+      <c r="B27" s="16">
         <v>42834</v>
       </c>
-      <c r="B27" s="12"/>
       <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="17">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="17">
         <v>25000</v>
       </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:12" hidden="1">
-      <c r="A28" s="16">
+      <c r="I27" s="20">
+        <v>25000</v>
+      </c>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="12"/>
+      <c r="B28" s="16">
         <v>42834</v>
       </c>
-      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="17">
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="17">
         <v>51500</v>
       </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="17" t="s">
+      <c r="I28" s="20" t="s">
         <v>12</v>
       </c>
+      <c r="J28" s="20"/>
       <c r="L28">
         <f>5%*L27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
-      <c r="A29" s="16">
+    <row r="29" spans="1:12">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16">
         <v>42834</v>
       </c>
-      <c r="B29" s="12"/>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="17">
-        <v>50000</v>
+      <c r="F29" t="s">
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -1549,26 +1757,24 @@
       <c r="H29" s="17">
         <v>50000</v>
       </c>
-      <c r="J29" t="s">
-        <v>32</v>
-      </c>
+      <c r="I29" s="20">
+        <v>50000</v>
+      </c>
+      <c r="J29" s="20"/>
       <c r="L29">
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1">
-      <c r="A30" s="16">
+    <row r="30" spans="1:12">
+      <c r="A30" s="12"/>
+      <c r="B30" s="16">
         <v>42834</v>
       </c>
-      <c r="B30" s="12"/>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="17">
-        <v>50000</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1576,112 +1782,120 @@
       <c r="H30" s="17">
         <v>50000</v>
       </c>
+      <c r="I30" s="20">
+        <v>50000</v>
+      </c>
+      <c r="J30" s="20"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="1:12" hidden="1">
-      <c r="A31" s="16">
+    <row r="31" spans="1:12">
+      <c r="A31" s="12"/>
+      <c r="B31" s="16">
         <v>42834</v>
       </c>
-      <c r="B31" s="12"/>
       <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="17">
+        <v>101500</v>
+      </c>
+      <c r="I31" s="20">
+        <v>100000</v>
+      </c>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="12"/>
+      <c r="B32" s="16">
+        <v>42835</v>
+      </c>
+      <c r="C32" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="17">
-        <v>101500</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="17">
+      <c r="D32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="17">
+        <v>91500</v>
+      </c>
+      <c r="I32" s="20">
         <v>100000</v>
       </c>
-      <c r="J31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1">
-      <c r="A32" s="16">
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="12"/>
+      <c r="B33" s="16">
         <v>42835</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="12" t="s">
+      <c r="C33" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="17">
-        <v>91500</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="17">
-        <v>100000</v>
-      </c>
-      <c r="J32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1">
-      <c r="A33" s="16">
-        <v>42835</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" t="s">
+      <c r="D33" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="17">
+      <c r="F33">
+        <v>198000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="17">
         <v>181350</v>
       </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="17">
+      <c r="I33" s="20">
         <v>198000</v>
       </c>
-      <c r="J33">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1">
-      <c r="A34" s="16">
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="12"/>
+      <c r="B34" s="16">
         <v>42836</v>
       </c>
-      <c r="B34" s="12"/>
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="17">
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="17">
         <v>24500</v>
       </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="17">
+      <c r="I34" s="20">
         <v>25500</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1">
-      <c r="A35" s="16">
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="12"/>
+      <c r="B35" s="16">
         <v>42836</v>
       </c>
-      <c r="B35" s="12"/>
       <c r="C35" t="s">
         <v>7</v>
       </c>
@@ -1691,32 +1905,30 @@
       <c r="E35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35">
+        <v>100000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="17">
         <v>101500</v>
       </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="17">
+      <c r="I35" s="20">
         <v>100000</v>
       </c>
-      <c r="J35">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1">
-      <c r="A36" s="16">
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="12"/>
+      <c r="B36" s="16">
         <v>42837</v>
       </c>
-      <c r="B36" s="12"/>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="17">
-        <v>25500</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1724,518 +1936,558 @@
       <c r="H36" s="17">
         <v>25500</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1">
-      <c r="A37" s="16">
+      <c r="I36" s="20">
+        <v>25500</v>
+      </c>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="12"/>
+      <c r="B37" s="16">
         <v>42837</v>
       </c>
-      <c r="B37" s="12"/>
       <c r="C37" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="17">
+        <v>48500</v>
+      </c>
+      <c r="I37" s="20">
+        <v>49500</v>
+      </c>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="12"/>
+      <c r="B38" s="16">
+        <v>42838</v>
+      </c>
+      <c r="C38" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="17">
-        <v>48500</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="17">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="16">
+      <c r="D38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38">
+        <v>11500</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="17">
+        <v>11000</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="12"/>
+      <c r="B39" s="16">
         <v>42838</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="C39" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="17">
-        <v>11000</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="16">
+      <c r="D39" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39">
+        <v>50000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="17">
+        <v>51500</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="12"/>
+      <c r="B40" s="16">
         <v>42838</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="17">
-        <v>51500</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="16">
-        <v>42838</v>
-      </c>
-      <c r="B40" s="12"/>
       <c r="C40" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="19">
-        <v>54500</v>
+        <v>69</v>
+      </c>
+      <c r="F40">
+        <v>55000</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
       </c>
-      <c r="J40">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1">
-      <c r="A41" s="16">
+      <c r="H40" s="19">
+        <v>54500</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="12"/>
+      <c r="B41" s="16">
         <v>42839</v>
       </c>
-      <c r="B41" s="12"/>
       <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="F41">
+        <v>50500</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="19">
+        <v>49400</v>
+      </c>
+      <c r="I41" s="20">
+        <v>50500</v>
+      </c>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="12"/>
+      <c r="B42" s="16">
+        <v>42839</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="19">
-        <v>49400</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41">
-        <v>50500</v>
-      </c>
-      <c r="J41">
-        <v>50500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1">
-      <c r="A42" s="16">
+      <c r="F42">
+        <v>25900</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="19">
+        <v>24900</v>
+      </c>
+      <c r="I42" s="20">
+        <v>25900</v>
+      </c>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="12"/>
+      <c r="B43" s="16">
         <v>42839</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="C43" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="19">
-        <v>24900</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42">
-        <v>25900</v>
-      </c>
-      <c r="J42">
-        <v>25900</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1">
-      <c r="A43" s="16">
-        <v>42839</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" t="s">
+      <c r="D43" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="F43">
+        <v>199000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="19">
+        <v>201500</v>
+      </c>
+      <c r="I43" s="20">
+        <v>199000</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="12"/>
+      <c r="B44" s="16">
+        <v>42840</v>
+      </c>
+      <c r="C44" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="19">
-        <v>201500</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43">
-        <v>199000</v>
-      </c>
-      <c r="J43">
-        <v>199000</v>
-      </c>
-      <c r="L43" s="19"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="16">
+      <c r="D44" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44">
+        <v>50000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="19">
+        <v>51500</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="12"/>
+      <c r="B45" s="16">
         <v>42840</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="C45" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="19">
+      <c r="D45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45">
+        <v>50000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="19">
         <v>51500</v>
       </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44">
+      <c r="I45" s="20">
         <v>50000</v>
       </c>
-      <c r="L44" s="19"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="16">
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="12"/>
+      <c r="B46" s="16">
         <v>42840</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="C46" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="19">
-        <v>51500</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="16">
+      <c r="D46" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46">
+        <v>6000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="19">
+        <v>5000</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="12"/>
+      <c r="B47" s="16">
         <v>42840</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="19">
-        <v>5000</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1">
-      <c r="A47" s="16">
+      <c r="F47">
+        <v>11500</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="19">
+        <v>11000</v>
+      </c>
+      <c r="I47" s="20">
+        <v>11500</v>
+      </c>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="12"/>
+      <c r="B48" s="16">
         <v>42840</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="19">
-        <v>11000</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="17">
-        <v>11500</v>
-      </c>
-      <c r="J47">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="16">
-        <v>42840</v>
-      </c>
-      <c r="B48" s="12"/>
       <c r="C48" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48">
+        <v>11500</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="19">
+        <v>11000</v>
+      </c>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="12"/>
+      <c r="B49" s="16">
+        <v>42841</v>
+      </c>
+      <c r="C49" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="19">
+      <c r="D49" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49">
+        <v>198000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="19">
+        <v>201500</v>
+      </c>
+      <c r="I49" s="20">
+        <v>198000</v>
+      </c>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="12"/>
+      <c r="B50" s="16">
+        <v>42841</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50">
+        <v>50000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="19">
+        <v>51500</v>
+      </c>
+      <c r="I50" s="20">
+        <v>50000</v>
+      </c>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="12"/>
+      <c r="B51" s="16">
+        <v>42841</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51">
+        <v>21500</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="19">
+        <v>21500</v>
+      </c>
+      <c r="I51" s="20">
+        <v>21500</v>
+      </c>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="12"/>
+      <c r="B52" s="16">
+        <v>42841</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52">
+        <v>36000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="19">
+        <v>36000</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="12"/>
+      <c r="B53" s="16">
+        <v>42841</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53">
+        <v>11500</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="19">
         <v>11000</v>
       </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="J48">
+      <c r="I53" s="20">
         <v>11500</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1">
-      <c r="A49" s="16">
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="12"/>
+      <c r="B54" s="16">
         <v>42841</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="19">
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54">
+        <v>198000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="19">
         <v>201500</v>
       </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="17">
+      <c r="I54" s="20">
+        <v>200000</v>
+      </c>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="12"/>
+      <c r="B55" s="16">
+        <v>42841</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55">
         <v>198000</v>
       </c>
-      <c r="J49">
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="19">
+        <v>201500</v>
+      </c>
+      <c r="I55" s="20">
         <v>198000</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1">
-      <c r="A50" s="16">
-        <v>42841</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50" s="19">
-        <v>51500</v>
-      </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="17">
-        <v>50000</v>
-      </c>
-      <c r="J50">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1">
-      <c r="A51" s="16">
-        <v>42841</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="19">
-        <v>21500</v>
-      </c>
-      <c r="G51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="17">
-        <v>21500</v>
-      </c>
-      <c r="J51">
-        <v>21500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="16">
-        <v>42841</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="19">
-        <v>36000</v>
-      </c>
-      <c r="G52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="17"/>
-      <c r="J52">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="16">
-        <v>42841</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="D53" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="19">
-        <v>11000</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="17"/>
-      <c r="J53">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1">
-      <c r="A54" s="16">
-        <v>42841</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="19">
-        <v>201500</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="17">
-        <v>200000</v>
-      </c>
-      <c r="J54">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1">
-      <c r="A55" s="16">
-        <v>42841</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="19">
-        <v>201500</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="17">
-        <v>198000</v>
-      </c>
-      <c r="J55">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1">
-      <c r="A56" s="16">
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="12"/>
+      <c r="B56" s="16">
         <v>42842</v>
       </c>
-      <c r="B56" s="12"/>
       <c r="C56" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56">
+        <v>49500</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="19">
+        <v>48500</v>
+      </c>
+      <c r="I56" s="20">
+        <v>49500</v>
+      </c>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="12"/>
+      <c r="B57" s="16">
+        <v>42842</v>
+      </c>
+      <c r="C57" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="19">
-        <v>48500</v>
-      </c>
-      <c r="G56" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="17">
-        <v>49500</v>
-      </c>
-      <c r="J56">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1">
-      <c r="A57" s="16">
+      <c r="D57" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57">
+        <v>50000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="19">
+        <v>51500</v>
+      </c>
+      <c r="I57" s="20">
+        <v>50000</v>
+      </c>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="12"/>
+      <c r="B58" s="16">
         <v>42842</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="19">
-        <v>51500</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="17">
-        <v>50000</v>
-      </c>
-      <c r="J57">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" hidden="1">
-      <c r="A58" s="16">
-        <v>42842</v>
-      </c>
-      <c r="B58" s="12"/>
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -2245,31 +2497,32 @@
       <c r="E58" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58">
+        <v>100000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="19">
         <v>101500</v>
       </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="17">
+      <c r="I58" s="20">
         <v>100000</v>
       </c>
-      <c r="J58">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1">
-      <c r="A59" s="16">
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="12"/>
+      <c r="B59" s="16">
         <v>42842</v>
       </c>
-      <c r="B59" s="12"/>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="19">
+        <v>62</v>
+      </c>
+      <c r="F59">
         <v>11500</v>
       </c>
       <c r="G59" t="s">
@@ -2278,355 +2531,374 @@
       <c r="H59" s="19">
         <v>11500</v>
       </c>
-      <c r="J59">
+      <c r="I59" s="20">
         <v>11500</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" hidden="1">
-      <c r="A60" s="16">
-        <v>43208</v>
-      </c>
-      <c r="B60" s="12"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="12"/>
+      <c r="B60" s="16">
+        <v>42843</v>
+      </c>
       <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="E60" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="F60" s="19">
+        <v>497500</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="19">
         <v>501500</v>
       </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="19">
+      <c r="I60" s="20">
         <v>497500</v>
       </c>
-      <c r="J60" s="19">
-        <v>497500</v>
-      </c>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="16">
-        <v>43208</v>
-      </c>
-      <c r="B61" s="12"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="16">
+        <v>42843</v>
+      </c>
       <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="E61" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" s="19">
+      <c r="F61" s="17">
+        <v>50000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="19">
         <v>51500</v>
       </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1">
-      <c r="A62" s="16">
-        <v>43208</v>
-      </c>
-      <c r="B62" s="12"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="12"/>
+      <c r="B62" s="16">
+        <v>42843</v>
+      </c>
       <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="E62" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="19">
+      <c r="F62" s="17">
+        <v>99000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="19">
         <v>101500</v>
       </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="19">
+      <c r="I62" s="20">
         <v>100000</v>
       </c>
-      <c r="J62" s="17">
-        <v>99000</v>
-      </c>
+      <c r="J62" s="20"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="16">
-        <v>43209</v>
-      </c>
-      <c r="B63" s="12"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="16">
+        <v>42844</v>
+      </c>
       <c r="C63" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="17">
+        <v>48000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="19">
+        <v>48500</v>
+      </c>
+      <c r="I63" s="20">
+        <v>48000</v>
+      </c>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="12"/>
+      <c r="B64" s="16">
+        <v>42844</v>
+      </c>
+      <c r="C64" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="19">
+      <c r="D64" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="17">
+        <v>48000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="19">
         <v>48500</v>
       </c>
-      <c r="G63" t="s">
-        <v>10</v>
-      </c>
-      <c r="J63" s="17">
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="12"/>
+      <c r="B65" s="16">
+        <v>42844</v>
+      </c>
+      <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="17">
         <v>48000</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="16">
-        <v>43209</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="12" t="s">
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="19">
+        <v>48500</v>
+      </c>
+      <c r="I65" s="20">
+        <v>48000</v>
+      </c>
+      <c r="J65" s="20"/>
+      <c r="L65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="12"/>
+      <c r="B66" s="16">
+        <v>42844</v>
+      </c>
+      <c r="C66" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="19">
+      <c r="D66" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="17">
+        <v>48000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="19">
         <v>48500</v>
       </c>
-      <c r="G64" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" s="17">
+      <c r="I66" s="20">
         <v>48000</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1">
-      <c r="A65" s="16">
-        <v>43209</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="12" t="s">
+      <c r="J66" s="20"/>
+      <c r="L66" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="19">
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="12"/>
+      <c r="B67" s="16">
+        <v>42844</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="17">
+        <v>48000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="19">
         <v>48500</v>
       </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="17">
+      <c r="I67" s="20">
         <v>48000</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J67" s="20"/>
+      <c r="L67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="12"/>
+      <c r="B68" s="16">
+        <v>42844</v>
+      </c>
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="17">
         <v>48000</v>
       </c>
-      <c r="L65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" hidden="1">
-      <c r="A66" s="16">
-        <v>43209</v>
-      </c>
-      <c r="B66" s="12"/>
-      <c r="C66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" s="19">
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="19">
         <v>48500</v>
       </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="17">
+      <c r="I68" s="20">
         <v>48000</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J68" s="20"/>
+      <c r="L68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="12"/>
+      <c r="B69" s="16">
+        <v>42844</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" s="17">
+        <v>99000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="19">
+        <v>100000</v>
+      </c>
+      <c r="I69" s="20">
+        <v>99000</v>
+      </c>
+      <c r="J69" s="20"/>
+      <c r="L69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="12"/>
+      <c r="B70" s="16">
+        <v>42844</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="17">
         <v>48000</v>
       </c>
-      <c r="L66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" hidden="1">
-      <c r="A67" s="16">
-        <v>43209</v>
-      </c>
-      <c r="B67" s="12"/>
-      <c r="C67" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F67" s="19">
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="19">
+        <v>49300</v>
+      </c>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="16">
+        <v>42845</v>
+      </c>
+      <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="17">
+        <v>48000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="19">
         <v>48500</v>
       </c>
-      <c r="G67" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="17">
+      <c r="I71" s="20">
         <v>48000</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="16">
+        <v>42845</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="17">
         <v>48000</v>
       </c>
-      <c r="L67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1">
-      <c r="A68" s="16">
-        <v>43209</v>
-      </c>
-      <c r="B68" s="12"/>
-      <c r="C68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F68" s="19">
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="19">
         <v>48500</v>
       </c>
-      <c r="G68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="17">
+      <c r="I72" s="20">
         <v>48000</v>
       </c>
-      <c r="J68" s="17">
-        <v>48000</v>
-      </c>
-      <c r="L68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1">
-      <c r="A69" s="16">
-        <v>43209</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="19">
-        <v>100000</v>
-      </c>
-      <c r="G69" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="17">
-        <v>99000</v>
-      </c>
-      <c r="J69" s="17">
-        <v>99000</v>
-      </c>
-      <c r="L69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="16">
-        <v>43209</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70" s="19">
-        <v>49300</v>
-      </c>
-      <c r="G70" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="17"/>
-      <c r="J70" s="17">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1">
-      <c r="A71" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" s="19">
-        <v>48500</v>
-      </c>
-      <c r="G71" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="17">
-        <v>48000</v>
-      </c>
-      <c r="J71" s="17">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" hidden="1">
-      <c r="A72" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F72" s="19">
-        <v>48500</v>
-      </c>
-      <c r="G72" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="17">
-        <v>48000</v>
-      </c>
-      <c r="J72" s="17">
-        <v>48000</v>
-      </c>
+      <c r="J72" s="20"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B73" s="12"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="16">
+        <v>42845</v>
+      </c>
       <c r="C73" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="F73" s="19">
         <v>51500</v>
@@ -2634,98 +2906,105 @@
       <c r="G73" t="s">
         <v>14</v>
       </c>
-      <c r="J73" s="19">
+      <c r="H73" s="19">
         <v>51500</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" hidden="1">
-      <c r="A74" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B74" s="12"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="12"/>
+      <c r="B74" s="16">
+        <v>42845</v>
+      </c>
       <c r="C74" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="E74" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="F74" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="19">
+        <v>101500</v>
+      </c>
+      <c r="I74" s="20">
+        <v>100000</v>
+      </c>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F74" s="19">
-        <v>101500</v>
-      </c>
-      <c r="G74" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="19">
-        <v>100000</v>
-      </c>
-      <c r="J74" s="19">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>132</v>
+      <c r="B75" s="16">
+        <v>42845</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="19">
+        <v>25500</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="19">
+        <v>24500</v>
+      </c>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F75" s="19">
-        <v>24500</v>
-      </c>
-      <c r="G75" t="s">
-        <v>10</v>
-      </c>
-      <c r="J75" s="19">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>134</v>
+      <c r="B76" s="16">
+        <v>42845</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="19">
+        <v>11000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="19">
+        <v>10000</v>
+      </c>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F76" s="19">
-        <v>10000</v>
-      </c>
-      <c r="G76" t="s">
-        <v>10</v>
-      </c>
-      <c r="J76" s="19">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" hidden="1">
-      <c r="A77" s="16">
-        <v>43211</v>
-      </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="16">
+        <v>42845</v>
+      </c>
+      <c r="C77" t="s">
         <v>136</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="E77" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="F77" s="20">
         <v>51500</v>
@@ -2736,25 +3015,26 @@
       <c r="H77" s="20">
         <v>51500</v>
       </c>
-      <c r="J77" s="20">
+      <c r="I77" s="20">
         <v>51500</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" hidden="1">
-      <c r="A78" s="16">
-        <v>43211</v>
-      </c>
-      <c r="B78" s="12" t="s">
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="16">
+        <v>42845</v>
+      </c>
+      <c r="C78" t="s">
         <v>140</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="12" t="s">
-        <v>142</v>
-      </c>
       <c r="E78" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F78" s="20">
         <v>51500</v>
@@ -2765,23 +3045,26 @@
       <c r="H78" s="20">
         <v>51500</v>
       </c>
-      <c r="J78" s="20">
+      <c r="I78" s="20">
         <v>51500</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" hidden="1">
-      <c r="A79" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B79" s="12"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="16">
+        <v>42846</v>
+      </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F79" s="20">
         <v>11000</v>
@@ -2789,142 +3072,798 @@
       <c r="G79" t="s">
         <v>10</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="20">
         <v>11000</v>
       </c>
-      <c r="J79" s="20">
+      <c r="I79" s="20">
         <v>11000</v>
       </c>
+      <c r="J79" s="20"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="F80" s="20"/>
+      <c r="A80" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="16">
+        <v>42848</v>
+      </c>
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="20">
+        <v>200000</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="20">
+        <v>201500</v>
+      </c>
+      <c r="I80" s="20"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="F81" s="20"/>
+    <row r="81" spans="1:14">
+      <c r="A81" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="16">
+        <v>42848</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" s="20">
+        <v>50000</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="20">
+        <v>51500</v>
+      </c>
+      <c r="I81" s="20"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="16">
-        <v>43210</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="F82" s="20"/>
+    <row r="82" spans="1:14">
+      <c r="A82" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="16">
+        <v>42848</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" s="20">
+        <v>50000</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="20">
+        <v>51500</v>
+      </c>
+      <c r="I82" s="20"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="1:10">
-      <c r="B83" s="12"/>
-      <c r="F83" s="20"/>
+    <row r="83" spans="1:14">
+      <c r="A83" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="16">
+        <v>42848</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" s="20">
+        <v>21500</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="20">
+        <v>21500</v>
+      </c>
+      <c r="I83" s="20">
+        <v>21500</v>
+      </c>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="1:10">
-      <c r="B84" s="12"/>
-      <c r="F84" s="20"/>
+    <row r="84" spans="1:14">
+      <c r="A84" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="16">
+        <v>42848</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="20">
+        <v>50000</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="20">
+        <v>51500</v>
+      </c>
+      <c r="I84" s="20"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="1:10">
-      <c r="B85" s="12"/>
-      <c r="F85" s="20"/>
+    <row r="85" spans="1:14">
+      <c r="A85" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="16">
+        <v>42848</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" s="20">
+        <v>6000</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="20">
+        <v>5000</v>
+      </c>
+      <c r="I85" s="20"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="1:10">
-      <c r="B86" s="12"/>
-      <c r="F86" s="20"/>
+    <row r="86" spans="1:14">
+      <c r="A86" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="16">
+        <v>42848</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" s="20">
+        <v>12000</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="20">
+        <v>11000</v>
+      </c>
+      <c r="I86" s="20">
+        <v>12000</v>
+      </c>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="1:10">
-      <c r="B87" s="12"/>
-      <c r="F87" s="20"/>
+    <row r="87" spans="1:14">
+      <c r="A87" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="16">
+        <v>42848</v>
+      </c>
+      <c r="C87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" s="20">
+        <v>50500</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="20">
+        <v>49400</v>
+      </c>
+      <c r="I87" s="20"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="1:10">
-      <c r="B88" s="12"/>
-      <c r="F88" s="20"/>
+    <row r="88" spans="1:14">
+      <c r="A88" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="16">
+        <v>42847</v>
+      </c>
+      <c r="C88" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="20">
+        <v>6000</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="20">
+        <v>5000</v>
+      </c>
+      <c r="I88" s="20"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="1:10">
-      <c r="B89" s="12"/>
-      <c r="F89" s="20"/>
+    <row r="89" spans="1:14">
+      <c r="A89" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="16">
+        <v>42847</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F89" s="20">
+        <v>6500</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="20">
+        <v>6000</v>
+      </c>
+      <c r="I89" s="20"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="1:10">
-      <c r="B90" s="12"/>
-      <c r="F90" s="20"/>
+    <row r="90" spans="1:14">
+      <c r="A90" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="16">
+        <v>42849</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90">
+        <v>100000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="19">
+        <v>101500</v>
+      </c>
+      <c r="I90" s="20">
+        <v>100000</v>
+      </c>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="1:10">
-      <c r="B91" s="12"/>
-      <c r="F91" s="20"/>
+    <row r="91" spans="1:14">
+      <c r="A91" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="16">
+        <v>42850</v>
+      </c>
+      <c r="C91" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F91" s="20">
+        <v>200000</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="20">
+        <v>201500</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>186</v>
+      </c>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="1:10">
-      <c r="B92" s="12"/>
-      <c r="F92" s="20"/>
+    <row r="92" spans="1:14">
+      <c r="A92" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="16">
+        <v>42850</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92" s="20">
+        <v>497500</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="20">
+        <v>501500</v>
+      </c>
+      <c r="I92" s="20">
+        <v>497500</v>
+      </c>
       <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="B93" s="12"/>
-      <c r="F93" s="20"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="16">
+        <v>42850</v>
+      </c>
+      <c r="C93" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F93" s="20">
+        <v>200000</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="20">
+        <v>201500</v>
+      </c>
+      <c r="I93" s="20"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="1:10">
-      <c r="B94" s="12"/>
-      <c r="F94" s="20"/>
+    <row r="94" spans="1:14">
+      <c r="A94" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="16">
+        <v>42851</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F94" s="20">
+        <v>26000</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="20">
+        <v>24900</v>
+      </c>
+      <c r="I94" s="20"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="1:10">
-      <c r="B95" s="12"/>
-      <c r="F95" s="20"/>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="16">
+        <v>42850</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" s="20">
+        <v>49500</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="20">
+        <v>48500</v>
+      </c>
+      <c r="I95" s="20">
+        <v>49500</v>
+      </c>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="1:10">
-      <c r="B96" s="12"/>
+    <row r="96" spans="1:14">
+      <c r="A96" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="16">
+        <v>42850</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" s="20">
+        <v>50500</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="20">
+        <v>49400</v>
+      </c>
+      <c r="I96" s="20"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="12"/>
+    <row r="97" spans="1:10">
+      <c r="A97" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="16">
+        <v>42849</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F97" s="20">
+        <v>21000</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="20">
+        <v>20500</v>
+      </c>
+      <c r="I97" s="20"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="12"/>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="12"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="12"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="12"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="12"/>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="12"/>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="12"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="12"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="12"/>
+    <row r="98" spans="1:10">
+      <c r="A98" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="16">
+        <v>42849</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" s="20">
+        <v>12000</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="20">
+        <v>11000</v>
+      </c>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="16">
+        <v>42851</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F99" s="20">
+        <v>25500</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="20">
+        <v>24900</v>
+      </c>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" s="16">
+        <v>42851</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F100" s="20">
+        <v>6000</v>
+      </c>
+      <c r="G100" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="20">
+        <v>6000</v>
+      </c>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="16">
+        <v>42851</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F101" s="20">
+        <v>6000</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="20">
+        <v>6000</v>
+      </c>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="16">
+        <v>42851</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" s="20">
+        <v>21000</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="20">
+        <v>20500</v>
+      </c>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="12"/>
+      <c r="B103" s="16">
+        <v>42851</v>
+      </c>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="12"/>
+      <c r="B104" s="16">
+        <v>42851</v>
+      </c>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="12"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="12"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="9:10">
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="9:10">
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="9:10">
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="9:10">
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="9:10">
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="9:10">
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="9:10">
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="9:10">
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="9:10">
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="9:10">
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="9:10">
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="9:10">
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="9:10">
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="9:10">
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="9:10">
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="9:10">
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="9:10">
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="9:10">
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="9:10">
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="9:10">
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="9:10">
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="9:10">
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="9:10">
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="9:10">
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="9:10">
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="9:10">
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="9:10">
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="9:10">
+      <c r="I140" s="20"/>
+      <c r="J140" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H82">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
+  <autoFilter ref="B1:I98">
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="7"/>
   </autoFilter>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2963,22 +3902,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2989,10 +3928,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="5">
         <v>50000</v>
@@ -3009,7 +3948,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5">
@@ -3027,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5">
@@ -3045,7 +3984,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6">
@@ -3056,12 +3995,12 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="7">
         <f>SUM(E2:E5)</f>
         <v>137000</v>
@@ -3070,7 +4009,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="D9" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="9">
         <v>1000000</v>
@@ -3078,7 +4017,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="5">
         <f>E9-E6</f>
@@ -3091,7 +4030,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="D12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" s="5">
         <v>300000</v>
@@ -3099,7 +4038,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="D13" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -3107,7 +4046,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="D14" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E14" s="9">
         <f>E13+E12</f>
@@ -3120,7 +4059,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="D16" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E16" s="9">
         <f>E10-E14</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$124</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="242">
   <si>
     <t>Tgl</t>
   </si>
@@ -634,6 +634,117 @@
   </si>
   <si>
     <t xml:space="preserve">BL17112ZMBLWINV </t>
+  </si>
+  <si>
+    <t>BL171111DS6CELC</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>520530503784/14003744563</t>
+  </si>
+  <si>
+    <t>BL171111DT72ELC</t>
+  </si>
+  <si>
+    <t>BL171111DTV2ELC</t>
+  </si>
+  <si>
+    <t>520511772327/01120229651</t>
+  </si>
+  <si>
+    <t>BL171111DWT2ELC</t>
+  </si>
+  <si>
+    <t>BL171131SE82INV</t>
+  </si>
+  <si>
+    <t>082333852871</t>
+  </si>
+  <si>
+    <t>085643862422</t>
+  </si>
+  <si>
+    <t>BL171131X6IHINV</t>
+  </si>
+  <si>
+    <t>BL1711323X2HINV</t>
+  </si>
+  <si>
+    <t>081213199936</t>
+  </si>
+  <si>
+    <t>BL171131XAKMINV</t>
+  </si>
+  <si>
+    <t>BL171111EPKMELC</t>
+  </si>
+  <si>
+    <t>BL171111EPZ7ELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BL17112ZRTEWINV </t>
+  </si>
+  <si>
+    <t>Mas Rian</t>
+  </si>
+  <si>
+    <t>087734946343</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>BL171111E4VCELC</t>
+  </si>
+  <si>
+    <t>082328564144</t>
+  </si>
+  <si>
+    <t>Abu Falih Rasyid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BL171131SAN2INV </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BL171131SM8CINV </t>
+  </si>
+  <si>
+    <t>BL171131SUFCINV</t>
+  </si>
+  <si>
+    <t>085292997788</t>
+  </si>
+  <si>
+    <t>087836007077</t>
+  </si>
+  <si>
+    <t>BL171131WJ1WINV</t>
+  </si>
+  <si>
+    <t>BL171131Y6CHINV</t>
+  </si>
+  <si>
+    <t>BL171131ZOMCINV</t>
+  </si>
+  <si>
+    <t>085229722916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BL171111EPJWELC </t>
+  </si>
+  <si>
+    <t>BL17112ZR1CHINV</t>
+  </si>
+  <si>
+    <t>087734946272</t>
+  </si>
+  <si>
+    <t>BL17112ZP7KHINV</t>
+  </si>
+  <si>
+    <t>089671649347</t>
   </si>
 </sst>
 </file>
@@ -643,12 +754,19 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,11 +876,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -770,43 +888,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1102,11 +1224,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N140"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1114,13 +1237,13 @@
     <col min="1" max="1" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19" style="12" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
     <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1154,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="12"/>
       <c r="B2" s="16">
         <v>42825</v>
@@ -1176,7 +1299,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="12"/>
       <c r="C3" t="s">
         <v>9</v>
@@ -1192,7 +1315,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="12"/>
       <c r="C4" t="s">
         <v>11</v>
@@ -1208,7 +1331,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="12"/>
       <c r="B5" s="16">
         <v>42825</v>
@@ -1227,7 +1350,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="12"/>
       <c r="C6" t="s">
         <v>13</v>
@@ -1243,7 +1366,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="12"/>
       <c r="B7" s="16">
         <v>42825</v>
@@ -1271,7 +1394,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="16"/>
       <c r="C8" t="s">
@@ -1285,7 +1408,7 @@
       </c>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="12"/>
       <c r="B9" s="16">
         <v>42826</v>
@@ -1304,7 +1427,7 @@
       </c>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="12"/>
       <c r="B10" s="16">
         <v>42826</v>
@@ -1323,7 +1446,7 @@
       </c>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="12"/>
       <c r="B11" s="16">
         <v>42826</v>
@@ -1343,7 +1466,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="12"/>
       <c r="B12" s="16">
         <v>42826</v>
@@ -1362,7 +1485,7 @@
       </c>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="12"/>
       <c r="B13" s="16">
         <v>42831</v>
@@ -1387,7 +1510,7 @@
       </c>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="12"/>
       <c r="B14" s="16">
         <v>42831</v>
@@ -1406,7 +1529,7 @@
       </c>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="12"/>
       <c r="B15" s="16">
         <v>42831</v>
@@ -1431,7 +1554,7 @@
       </c>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="12"/>
       <c r="B16" s="16">
         <v>42831</v>
@@ -1450,7 +1573,7 @@
       </c>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1">
       <c r="A17" s="12"/>
       <c r="B17" s="16">
         <v>42832</v>
@@ -1469,7 +1592,7 @@
       </c>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" s="12"/>
       <c r="B18" s="16">
         <v>42832</v>
@@ -1489,7 +1612,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="12"/>
       <c r="B19" s="16">
         <v>42832</v>
@@ -1517,7 +1640,7 @@
       </c>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20" s="12"/>
       <c r="B20" s="16">
         <v>42832</v>
@@ -1539,7 +1662,7 @@
       </c>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" hidden="1">
       <c r="A21" s="12"/>
       <c r="B21" s="16">
         <v>42833</v>
@@ -1567,7 +1690,7 @@
       </c>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="12"/>
       <c r="B22" s="16">
         <v>42833</v>
@@ -1595,7 +1718,7 @@
       </c>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1">
       <c r="A23" s="12"/>
       <c r="B23" s="16">
         <v>42833</v>
@@ -1623,7 +1746,7 @@
       </c>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="12"/>
       <c r="B24" s="16">
         <v>42833</v>
@@ -1642,7 +1765,7 @@
       </c>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25" s="12"/>
       <c r="B25" s="16">
         <v>42833</v>
@@ -1667,7 +1790,7 @@
       </c>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="12"/>
       <c r="B26" s="16">
         <v>42833</v>
@@ -1686,7 +1809,7 @@
       </c>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="12"/>
       <c r="B27" s="16">
         <v>42834</v>
@@ -1705,7 +1828,7 @@
       </c>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="12"/>
       <c r="B28" s="16">
         <v>42834</v>
@@ -1734,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" s="12"/>
       <c r="B29" s="16">
         <v>42834</v>
@@ -1765,7 +1888,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="12"/>
       <c r="B30" s="16">
         <v>42834</v>
@@ -1788,7 +1911,7 @@
       <c r="J30" s="20"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="12"/>
       <c r="B31" s="16">
         <v>42834</v>
@@ -1816,7 +1939,7 @@
       </c>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="12"/>
       <c r="B32" s="16">
         <v>42835</v>
@@ -1844,7 +1967,7 @@
       </c>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" s="12"/>
       <c r="B33" s="16">
         <v>42835</v>
@@ -1872,7 +1995,7 @@
       </c>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" s="12"/>
       <c r="B34" s="16">
         <v>42836</v>
@@ -1891,7 +2014,7 @@
       </c>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" s="12"/>
       <c r="B35" s="16">
         <v>42836</v>
@@ -1919,7 +2042,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" s="12"/>
       <c r="B36" s="16">
         <v>42837</v>
@@ -1941,7 +2064,7 @@
       </c>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" s="12"/>
       <c r="B37" s="16">
         <v>42837</v>
@@ -1963,7 +2086,7 @@
       </c>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38" s="12"/>
       <c r="B38" s="16">
         <v>42838</v>
@@ -1988,7 +2111,7 @@
       </c>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" s="12"/>
       <c r="B39" s="16">
         <v>42838</v>
@@ -2011,10 +2134,12 @@
       <c r="H39" s="17">
         <v>51500</v>
       </c>
-      <c r="I39" s="20"/>
+      <c r="I39" s="20">
+        <v>50000</v>
+      </c>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40" s="12"/>
       <c r="B40" s="16">
         <v>42838</v>
@@ -2037,7 +2162,7 @@
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41" s="12"/>
       <c r="B41" s="16">
         <v>42839</v>
@@ -2062,7 +2187,7 @@
       </c>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" s="12"/>
       <c r="B42" s="16">
         <v>42839</v>
@@ -2087,7 +2212,7 @@
       </c>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43" s="12"/>
       <c r="B43" s="16">
         <v>42839</v>
@@ -2116,7 +2241,7 @@
       <c r="J43" s="20"/>
       <c r="L43" s="19"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44" s="12"/>
       <c r="B44" s="16">
         <v>42840</v>
@@ -2139,11 +2264,13 @@
       <c r="H44" s="19">
         <v>51500</v>
       </c>
-      <c r="I44" s="20"/>
+      <c r="I44" s="20">
+        <v>50000</v>
+      </c>
       <c r="J44" s="20"/>
       <c r="L44" s="19"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" s="12"/>
       <c r="B45" s="16">
         <v>42840</v>
@@ -2171,7 +2298,7 @@
       </c>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46" s="12"/>
       <c r="B46" s="16">
         <v>42840</v>
@@ -2191,10 +2318,12 @@
       <c r="H46" s="19">
         <v>5000</v>
       </c>
-      <c r="I46" s="20"/>
+      <c r="I46" s="20">
+        <v>6000</v>
+      </c>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47" s="12"/>
       <c r="B47" s="16">
         <v>42840</v>
@@ -2219,7 +2348,7 @@
       </c>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48" s="12"/>
       <c r="B48" s="16">
         <v>42840</v>
@@ -2242,7 +2371,7 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="12"/>
       <c r="B49" s="16">
         <v>42841</v>
@@ -2270,7 +2399,7 @@
       </c>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="12"/>
       <c r="B50" s="16">
         <v>42841</v>
@@ -2298,7 +2427,7 @@
       </c>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="12"/>
       <c r="B51" s="16">
         <v>42841</v>
@@ -2326,7 +2455,7 @@
       </c>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="12"/>
       <c r="B52" s="16">
         <v>42841</v>
@@ -2346,10 +2475,12 @@
       <c r="H52" s="19">
         <v>36000</v>
       </c>
-      <c r="I52" s="20"/>
+      <c r="I52" s="20">
+        <v>36000</v>
+      </c>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="12"/>
       <c r="B53" s="16">
         <v>42841</v>
@@ -2374,7 +2505,7 @@
       </c>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="12"/>
       <c r="B54" s="16">
         <v>42841</v>
@@ -2402,7 +2533,7 @@
       </c>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="12"/>
       <c r="B55" s="16">
         <v>42841</v>
@@ -2430,7 +2561,7 @@
       </c>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="12"/>
       <c r="B56" s="16">
         <v>42842</v>
@@ -2455,7 +2586,7 @@
       </c>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="12"/>
       <c r="B57" s="16">
         <v>42842</v>
@@ -2483,7 +2614,7 @@
       </c>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="12"/>
       <c r="B58" s="16">
         <v>42842</v>
@@ -2511,7 +2642,7 @@
       </c>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="12"/>
       <c r="B59" s="16">
         <v>42842</v>
@@ -2536,7 +2667,7 @@
       </c>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="12"/>
       <c r="B60" s="16">
         <v>42843</v>
@@ -2564,7 +2695,7 @@
       </c>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="12"/>
       <c r="B61" s="16">
         <v>42843</v>
@@ -2587,10 +2718,12 @@
       <c r="H61" s="19">
         <v>51500</v>
       </c>
-      <c r="I61" s="20"/>
+      <c r="I61" s="20">
+        <v>50000</v>
+      </c>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="12"/>
       <c r="B62" s="16">
         <v>42843</v>
@@ -2618,7 +2751,7 @@
       </c>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="12"/>
       <c r="B63" s="16">
         <v>42844</v>
@@ -2666,7 +2799,7 @@
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" hidden="1">
       <c r="A65" s="12"/>
       <c r="B65" s="16">
         <v>42844</v>
@@ -2694,7 +2827,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" hidden="1">
       <c r="A66" s="12"/>
       <c r="B66" s="16">
         <v>42844</v>
@@ -2722,7 +2855,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" hidden="1">
       <c r="A67" s="12"/>
       <c r="B67" s="16">
         <v>42844</v>
@@ -2750,7 +2883,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" hidden="1">
       <c r="A68" s="12"/>
       <c r="B68" s="16">
         <v>42844</v>
@@ -2778,7 +2911,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" hidden="1">
       <c r="A69" s="12"/>
       <c r="B69" s="16">
         <v>42844</v>
@@ -2806,7 +2939,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" hidden="1">
       <c r="A70" s="12"/>
       <c r="B70" s="16">
         <v>42844</v>
@@ -2829,7 +2962,7 @@
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" hidden="1">
       <c r="A71" s="12" t="s">
         <v>120</v>
       </c>
@@ -2856,7 +2989,7 @@
       </c>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" hidden="1">
       <c r="A72" s="12" t="s">
         <v>123</v>
       </c>
@@ -2886,7 +3019,7 @@
       </c>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" hidden="1">
       <c r="A73" s="12"/>
       <c r="B73" s="16">
         <v>42845</v>
@@ -2912,7 +3045,7 @@
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" hidden="1">
       <c r="A74" s="12"/>
       <c r="B74" s="16">
         <v>42845</v>
@@ -2940,7 +3073,7 @@
       </c>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" hidden="1">
       <c r="A75" s="12" t="s">
         <v>131</v>
       </c>
@@ -2962,10 +3095,12 @@
       <c r="H75" s="19">
         <v>24500</v>
       </c>
-      <c r="I75" s="20"/>
+      <c r="I75" s="20">
+        <v>25500</v>
+      </c>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" hidden="1">
       <c r="A76" s="12" t="s">
         <v>133</v>
       </c>
@@ -2987,10 +3122,12 @@
       <c r="H76" s="19">
         <v>10000</v>
       </c>
-      <c r="I76" s="20"/>
+      <c r="I76" s="20">
+        <v>11000</v>
+      </c>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" hidden="1">
       <c r="A77" s="12" t="s">
         <v>135</v>
       </c>
@@ -3020,7 +3157,7 @@
       </c>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" hidden="1">
       <c r="A78" s="12" t="s">
         <v>139</v>
       </c>
@@ -3050,7 +3187,7 @@
       </c>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" hidden="1">
       <c r="A79" s="12" t="s">
         <v>174</v>
       </c>
@@ -3080,7 +3217,7 @@
       </c>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" hidden="1">
       <c r="A80" s="12" t="s">
         <v>154</v>
       </c>
@@ -3105,10 +3242,12 @@
       <c r="H80" s="20">
         <v>201500</v>
       </c>
-      <c r="I80" s="20"/>
+      <c r="I80" s="20">
+        <v>200000</v>
+      </c>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" hidden="1">
       <c r="A81" s="12" t="s">
         <v>155</v>
       </c>
@@ -3136,7 +3275,7 @@
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" hidden="1">
       <c r="A82" s="12" t="s">
         <v>159</v>
       </c>
@@ -3161,10 +3300,12 @@
       <c r="H82" s="20">
         <v>51500</v>
       </c>
-      <c r="I82" s="20"/>
+      <c r="I82" s="20">
+        <v>50000</v>
+      </c>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" hidden="1">
       <c r="A83" s="12" t="s">
         <v>162</v>
       </c>
@@ -3194,7 +3335,7 @@
       </c>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" hidden="1">
       <c r="A84" s="12" t="s">
         <v>167</v>
       </c>
@@ -3219,10 +3360,12 @@
       <c r="H84" s="20">
         <v>51500</v>
       </c>
-      <c r="I84" s="20"/>
+      <c r="I84" s="20">
+        <v>50000</v>
+      </c>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" hidden="1">
       <c r="A85" s="12" t="s">
         <v>168</v>
       </c>
@@ -3244,10 +3387,12 @@
       <c r="H85" s="20">
         <v>5000</v>
       </c>
-      <c r="I85" s="20"/>
+      <c r="I85" s="20">
+        <v>6000</v>
+      </c>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" hidden="1">
       <c r="A86" s="12" t="s">
         <v>171</v>
       </c>
@@ -3274,7 +3419,7 @@
       </c>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" hidden="1">
       <c r="A87" s="12" t="s">
         <v>172</v>
       </c>
@@ -3296,18 +3441,20 @@
       <c r="H87" s="20">
         <v>49400</v>
       </c>
-      <c r="I87" s="20"/>
+      <c r="I87" s="20">
+        <v>50000</v>
+      </c>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" hidden="1">
       <c r="A88" s="12" t="s">
         <v>176</v>
       </c>
       <c r="B88" s="16">
         <v>42847</v>
       </c>
-      <c r="C88" t="s">
-        <v>177</v>
+      <c r="C88" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>175</v>
@@ -3321,10 +3468,12 @@
       <c r="H88" s="20">
         <v>5000</v>
       </c>
-      <c r="I88" s="20"/>
+      <c r="I88" s="20">
+        <v>6000</v>
+      </c>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" hidden="1">
       <c r="A89" s="12" t="s">
         <v>179</v>
       </c>
@@ -3349,7 +3498,7 @@
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" hidden="1">
       <c r="A90" s="12" t="s">
         <v>180</v>
       </c>
@@ -3379,7 +3528,7 @@
       </c>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" hidden="1">
       <c r="A91" s="12" t="s">
         <v>181</v>
       </c>
@@ -3409,7 +3558,7 @@
       </c>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" hidden="1">
       <c r="A92" s="22" t="s">
         <v>185</v>
       </c>
@@ -3470,7 +3619,7 @@
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" hidden="1">
       <c r="A94" s="22" t="s">
         <v>190</v>
       </c>
@@ -3492,10 +3641,12 @@
       <c r="H94" s="20">
         <v>24900</v>
       </c>
-      <c r="I94" s="20"/>
+      <c r="I94" s="20">
+        <v>26000</v>
+      </c>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" hidden="1">
       <c r="A95" t="s">
         <v>199</v>
       </c>
@@ -3547,7 +3698,7 @@
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="22" t="s">
         <v>196</v>
       </c>
@@ -3572,7 +3723,7 @@
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="22" t="s">
         <v>198</v>
       </c>
@@ -3597,14 +3748,14 @@
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="28" t="s">
+    <row r="99" spans="1:10" hidden="1">
+      <c r="A99" s="25" t="s">
         <v>201</v>
       </c>
       <c r="B99" s="16">
         <v>42851</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="26" t="s">
         <v>47</v>
       </c>
       <c r="D99" s="12" t="s">
@@ -3613,7 +3764,7 @@
       <c r="F99" s="20">
         <v>25500</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G99" s="26" t="s">
         <v>10</v>
       </c>
       <c r="H99" s="20">
@@ -3622,14 +3773,14 @@
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" t="s">
         <v>202</v>
       </c>
       <c r="B100" s="16">
         <v>42851</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="26" t="s">
         <v>82</v>
       </c>
       <c r="D100" s="12" t="s">
@@ -3638,7 +3789,7 @@
       <c r="F100" s="20">
         <v>6000</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" s="26" t="s">
         <v>10</v>
       </c>
       <c r="H100" s="20">
@@ -3647,14 +3798,14 @@
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" t="s">
         <v>203</v>
       </c>
       <c r="B101" s="16">
         <v>42851</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="26" t="s">
         <v>82</v>
       </c>
       <c r="D101" s="12" t="s">
@@ -3663,7 +3814,7 @@
       <c r="F101" s="20">
         <v>6000</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G101" s="26" t="s">
         <v>10</v>
       </c>
       <c r="H101" s="20">
@@ -3672,14 +3823,14 @@
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" t="s">
         <v>204</v>
       </c>
       <c r="B102" s="16">
         <v>42851</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="12" t="s">
@@ -3688,7 +3839,7 @@
       <c r="F102" s="20">
         <v>21000</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="26" t="s">
         <v>10</v>
       </c>
       <c r="H102" s="20">
@@ -3697,117 +3848,586 @@
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="12"/>
+    <row r="103" spans="1:10" hidden="1">
+      <c r="A103" s="31" t="s">
+        <v>205</v>
+      </c>
       <c r="B103" s="16">
-        <v>42851</v>
+        <v>42852</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F103" s="20">
+        <v>50000</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="20">
+        <v>51500</v>
       </c>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="12"/>
+    <row r="104" spans="1:10" hidden="1">
+      <c r="A104" s="31" t="s">
+        <v>208</v>
+      </c>
       <c r="B104" s="16">
-        <v>42851</v>
-      </c>
-      <c r="I104" s="20"/>
+        <v>42852</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" s="20">
+        <v>200000</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="20">
+        <v>201500</v>
+      </c>
+      <c r="I104" s="20">
+        <v>200000</v>
+      </c>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="12"/>
-      <c r="I105" s="20"/>
+    <row r="105" spans="1:10" hidden="1">
+      <c r="A105" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" s="16">
+        <v>42852</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F105" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="20">
+        <v>101500</v>
+      </c>
+      <c r="I105" s="20">
+        <v>100000</v>
+      </c>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="12"/>
+    <row r="106" spans="1:10" hidden="1">
+      <c r="A106" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="16">
+        <v>42852</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="20">
+        <v>100000</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="20">
+        <v>101500</v>
+      </c>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:10">
-      <c r="I107" s="20"/>
+    <row r="107" spans="1:10" hidden="1">
+      <c r="A107" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" s="20">
+        <v>12000</v>
+      </c>
+      <c r="G107" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="20">
+        <v>11300</v>
+      </c>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="1:10">
-      <c r="I108" s="20"/>
+    <row r="108" spans="1:10" hidden="1">
+      <c r="A108" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" s="20">
+        <v>50500</v>
+      </c>
+      <c r="G108" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="20">
+        <v>49500</v>
+      </c>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:10">
-      <c r="I109" s="20"/>
+    <row r="109" spans="1:10" hidden="1">
+      <c r="A109" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" s="20">
+        <v>12000</v>
+      </c>
+      <c r="G109" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="20">
+        <v>11300</v>
+      </c>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="1:10">
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
+      <c r="A110" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="20">
+        <v>200000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110">
+        <v>201500</v>
+      </c>
+      <c r="I110" s="20">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1">
+      <c r="A111" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C111" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F111" s="20">
+        <v>200000</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111">
+        <v>201500</v>
+      </c>
       <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="1:10">
+    </row>
+    <row r="112" spans="1:10" hidden="1">
+      <c r="A112" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="16">
+        <v>42852</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F112" s="20">
+        <v>54000</v>
+      </c>
+      <c r="G112" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="H112" s="20">
+        <v>53100</v>
+      </c>
       <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="9:10">
+    </row>
+    <row r="113" spans="1:10" hidden="1">
+      <c r="A113" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="16">
+        <v>42853</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" s="20">
+        <v>200000</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="20">
+        <v>201500</v>
+      </c>
       <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="9:10">
+    </row>
+    <row r="114" spans="1:10" hidden="1">
+      <c r="A114" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F114" s="20">
+        <v>25500</v>
+      </c>
+      <c r="G114" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="20">
+        <v>24800</v>
+      </c>
       <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="9:10">
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="9:10">
+    </row>
+    <row r="115" spans="1:10" hidden="1">
+      <c r="A115" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F115" s="20">
+        <v>50500</v>
+      </c>
+      <c r="G115" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="20">
+        <v>49500</v>
+      </c>
+      <c r="I115" s="20">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1">
+      <c r="A116" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="F116" s="20">
+        <v>12000</v>
+      </c>
+      <c r="G116" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="20">
+        <v>11300</v>
+      </c>
       <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="9:10">
+    </row>
+    <row r="117" spans="1:10" hidden="1">
+      <c r="A117" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" s="20">
+        <v>12000</v>
+      </c>
+      <c r="G117" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="20">
+        <v>11300</v>
+      </c>
       <c r="I117" s="20"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="9:10">
+    </row>
+    <row r="118" spans="1:10" hidden="1">
+      <c r="A118" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F118" s="20">
+        <v>11000</v>
+      </c>
+      <c r="G118" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="20">
+        <v>10300</v>
+      </c>
       <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="9:10">
+    </row>
+    <row r="119" spans="1:10" hidden="1">
+      <c r="A119" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" s="20">
+        <v>12000</v>
+      </c>
+      <c r="G119" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="20">
+        <v>11300</v>
+      </c>
       <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="9:10">
+    </row>
+    <row r="120" spans="1:10" hidden="1">
+      <c r="A120" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F120" s="20">
+        <v>200000</v>
+      </c>
+      <c r="G120" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="20">
+        <v>201500</v>
+      </c>
       <c r="I120" s="20"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="9:10">
-      <c r="I121" s="20"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="9:10">
+    </row>
+    <row r="121" spans="1:10" hidden="1">
+      <c r="A121" s="12"/>
+      <c r="B121" s="16">
+        <v>42855</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F121" s="20">
+        <v>50000</v>
+      </c>
+      <c r="G121" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="20">
+        <v>51500</v>
+      </c>
+      <c r="I121" s="20">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1">
+      <c r="A122" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" s="16">
+        <v>42856</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F122" s="20">
+        <v>12000</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="20">
+        <v>11300</v>
+      </c>
       <c r="I122" s="20"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="9:10">
+    </row>
+    <row r="123" spans="1:10" hidden="1">
+      <c r="A123" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" s="16">
+        <v>42852</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="F123" s="20">
+        <v>54000</v>
+      </c>
+      <c r="G123" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="H123" s="20">
+        <v>53100</v>
+      </c>
       <c r="I123" s="20"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="9:10">
+    </row>
+    <row r="124" spans="1:10" hidden="1">
+      <c r="A124" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" s="16">
+        <v>42852</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F124" s="20">
+        <v>11000</v>
+      </c>
+      <c r="G124" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="20">
+        <v>10000</v>
+      </c>
       <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="9:10">
+    </row>
+    <row r="125" spans="1:10">
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="9:10">
+    <row r="126" spans="1:10">
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="9:10">
+    <row r="127" spans="1:10">
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="9:10">
+    <row r="128" spans="1:10">
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
     </row>
@@ -3859,14 +4479,25 @@
       <c r="I140" s="20"/>
       <c r="J140" s="20"/>
     </row>
+    <row r="141" spans="9:10">
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:I98">
+  <autoFilter ref="B1:I124">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Rohmadi"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
-    <filterColumn colId="7"/>
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3995,12 +4626,12 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="7">
         <f>SUM(E2:E5)</f>
         <v>137000</v>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="248">
   <si>
     <t>Tgl</t>
   </si>
@@ -745,6 +745,24 @@
   </si>
   <si>
     <t>089671649347</t>
+  </si>
+  <si>
+    <t>BL171111EU27ELC</t>
+  </si>
+  <si>
+    <t>BL171132ASJCINV</t>
+  </si>
+  <si>
+    <t>BL171111EQDWELC</t>
+  </si>
+  <si>
+    <t>081393801526</t>
+  </si>
+  <si>
+    <t>BL171132BDY7INV</t>
+  </si>
+  <si>
+    <t>BL171111F152ELC</t>
   </si>
 </sst>
 </file>
@@ -754,12 +772,19 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,11 +901,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -888,47 +913,50 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1224,12 +1252,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1277,7 +1304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="12"/>
       <c r="B2" s="16">
         <v>42825</v>
@@ -1299,7 +1326,7 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="12"/>
       <c r="C3" t="s">
         <v>9</v>
@@ -1315,7 +1342,7 @@
       </c>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="12"/>
       <c r="C4" t="s">
         <v>11</v>
@@ -1331,7 +1358,7 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="12"/>
       <c r="B5" s="16">
         <v>42825</v>
@@ -1350,7 +1377,7 @@
       </c>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="12"/>
       <c r="C6" t="s">
         <v>13</v>
@@ -1366,7 +1393,7 @@
       </c>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="12"/>
       <c r="B7" s="16">
         <v>42825</v>
@@ -1394,7 +1421,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="12"/>
       <c r="B8" s="16"/>
       <c r="C8" t="s">
@@ -1408,7 +1435,7 @@
       </c>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="12"/>
       <c r="B9" s="16">
         <v>42826</v>
@@ -1427,7 +1454,7 @@
       </c>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="12"/>
       <c r="B10" s="16">
         <v>42826</v>
@@ -1446,7 +1473,7 @@
       </c>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="12"/>
       <c r="B11" s="16">
         <v>42826</v>
@@ -1466,7 +1493,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="16">
         <v>42826</v>
@@ -1485,7 +1512,7 @@
       </c>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="12"/>
       <c r="B13" s="16">
         <v>42831</v>
@@ -1510,7 +1537,7 @@
       </c>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="12"/>
       <c r="B14" s="16">
         <v>42831</v>
@@ -1529,7 +1556,7 @@
       </c>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="12"/>
       <c r="B15" s="16">
         <v>42831</v>
@@ -1554,7 +1581,7 @@
       </c>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="12"/>
       <c r="B16" s="16">
         <v>42831</v>
@@ -1573,7 +1600,7 @@
       </c>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12">
       <c r="A17" s="12"/>
       <c r="B17" s="16">
         <v>42832</v>
@@ -1592,7 +1619,7 @@
       </c>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12">
       <c r="A18" s="12"/>
       <c r="B18" s="16">
         <v>42832</v>
@@ -1612,7 +1639,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12">
       <c r="A19" s="12"/>
       <c r="B19" s="16">
         <v>42832</v>
@@ -1640,7 +1667,7 @@
       </c>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12">
       <c r="A20" s="12"/>
       <c r="B20" s="16">
         <v>42832</v>
@@ -1662,7 +1689,7 @@
       </c>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:12" hidden="1">
+    <row r="21" spans="1:12">
       <c r="A21" s="12"/>
       <c r="B21" s="16">
         <v>42833</v>
@@ -1690,7 +1717,7 @@
       </c>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12">
       <c r="A22" s="12"/>
       <c r="B22" s="16">
         <v>42833</v>
@@ -1718,7 +1745,7 @@
       </c>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12">
       <c r="A23" s="12"/>
       <c r="B23" s="16">
         <v>42833</v>
@@ -1746,7 +1773,7 @@
       </c>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12">
       <c r="A24" s="12"/>
       <c r="B24" s="16">
         <v>42833</v>
@@ -1765,7 +1792,7 @@
       </c>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12">
       <c r="A25" s="12"/>
       <c r="B25" s="16">
         <v>42833</v>
@@ -1790,7 +1817,7 @@
       </c>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12">
       <c r="A26" s="12"/>
       <c r="B26" s="16">
         <v>42833</v>
@@ -1809,7 +1836,7 @@
       </c>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12">
       <c r="A27" s="12"/>
       <c r="B27" s="16">
         <v>42834</v>
@@ -1828,7 +1855,7 @@
       </c>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12">
       <c r="A28" s="12"/>
       <c r="B28" s="16">
         <v>42834</v>
@@ -1857,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12">
       <c r="A29" s="12"/>
       <c r="B29" s="16">
         <v>42834</v>
@@ -1888,7 +1915,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1">
+    <row r="30" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="16">
         <v>42834</v>
@@ -1911,7 +1938,7 @@
       <c r="J30" s="20"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="1:12" hidden="1">
+    <row r="31" spans="1:12">
       <c r="A31" s="12"/>
       <c r="B31" s="16">
         <v>42834</v>
@@ -1939,7 +1966,7 @@
       </c>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="1:12" hidden="1">
+    <row r="32" spans="1:12">
       <c r="A32" s="12"/>
       <c r="B32" s="16">
         <v>42835</v>
@@ -1967,7 +1994,7 @@
       </c>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:12">
       <c r="A33" s="12"/>
       <c r="B33" s="16">
         <v>42835</v>
@@ -1995,7 +2022,7 @@
       </c>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="1:12" hidden="1">
+    <row r="34" spans="1:12">
       <c r="A34" s="12"/>
       <c r="B34" s="16">
         <v>42836</v>
@@ -2014,7 +2041,7 @@
       </c>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:12" hidden="1">
+    <row r="35" spans="1:12">
       <c r="A35" s="12"/>
       <c r="B35" s="16">
         <v>42836</v>
@@ -2042,7 +2069,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:12" hidden="1">
+    <row r="36" spans="1:12">
       <c r="A36" s="12"/>
       <c r="B36" s="16">
         <v>42837</v>
@@ -2064,7 +2091,7 @@
       </c>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:12" hidden="1">
+    <row r="37" spans="1:12">
       <c r="A37" s="12"/>
       <c r="B37" s="16">
         <v>42837</v>
@@ -2086,7 +2113,7 @@
       </c>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:12" hidden="1">
+    <row r="38" spans="1:12">
       <c r="A38" s="12"/>
       <c r="B38" s="16">
         <v>42838</v>
@@ -2111,7 +2138,7 @@
       </c>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:12" hidden="1">
+    <row r="39" spans="1:12">
       <c r="A39" s="12"/>
       <c r="B39" s="16">
         <v>42838</v>
@@ -2139,7 +2166,7 @@
       </c>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12">
       <c r="A40" s="12"/>
       <c r="B40" s="16">
         <v>42838</v>
@@ -2162,7 +2189,7 @@
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:12" hidden="1">
+    <row r="41" spans="1:12">
       <c r="A41" s="12"/>
       <c r="B41" s="16">
         <v>42839</v>
@@ -2187,7 +2214,7 @@
       </c>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:12" hidden="1">
+    <row r="42" spans="1:12">
       <c r="A42" s="12"/>
       <c r="B42" s="16">
         <v>42839</v>
@@ -2212,7 +2239,7 @@
       </c>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="1:12" hidden="1">
+    <row r="43" spans="1:12">
       <c r="A43" s="12"/>
       <c r="B43" s="16">
         <v>42839</v>
@@ -2241,7 +2268,7 @@
       <c r="J43" s="20"/>
       <c r="L43" s="19"/>
     </row>
-    <row r="44" spans="1:12" hidden="1">
+    <row r="44" spans="1:12">
       <c r="A44" s="12"/>
       <c r="B44" s="16">
         <v>42840</v>
@@ -2270,7 +2297,7 @@
       <c r="J44" s="20"/>
       <c r="L44" s="19"/>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12">
       <c r="A45" s="12"/>
       <c r="B45" s="16">
         <v>42840</v>
@@ -2298,7 +2325,7 @@
       </c>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:12" hidden="1">
+    <row r="46" spans="1:12">
       <c r="A46" s="12"/>
       <c r="B46" s="16">
         <v>42840</v>
@@ -2323,7 +2350,7 @@
       </c>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:12" hidden="1">
+    <row r="47" spans="1:12">
       <c r="A47" s="12"/>
       <c r="B47" s="16">
         <v>42840</v>
@@ -2348,7 +2375,7 @@
       </c>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12">
       <c r="A48" s="12"/>
       <c r="B48" s="16">
         <v>42840</v>
@@ -2371,7 +2398,7 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="12"/>
       <c r="B49" s="16">
         <v>42841</v>
@@ -2399,7 +2426,7 @@
       </c>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="12"/>
       <c r="B50" s="16">
         <v>42841</v>
@@ -2427,7 +2454,7 @@
       </c>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="12"/>
       <c r="B51" s="16">
         <v>42841</v>
@@ -2455,7 +2482,7 @@
       </c>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="12"/>
       <c r="B52" s="16">
         <v>42841</v>
@@ -2480,7 +2507,7 @@
       </c>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="12"/>
       <c r="B53" s="16">
         <v>42841</v>
@@ -2505,7 +2532,7 @@
       </c>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="12"/>
       <c r="B54" s="16">
         <v>42841</v>
@@ -2533,7 +2560,7 @@
       </c>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="12"/>
       <c r="B55" s="16">
         <v>42841</v>
@@ -2561,7 +2588,7 @@
       </c>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="12"/>
       <c r="B56" s="16">
         <v>42842</v>
@@ -2586,7 +2613,7 @@
       </c>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="12"/>
       <c r="B57" s="16">
         <v>42842</v>
@@ -2614,7 +2641,7 @@
       </c>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="12"/>
       <c r="B58" s="16">
         <v>42842</v>
@@ -2642,7 +2669,7 @@
       </c>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="12"/>
       <c r="B59" s="16">
         <v>42842</v>
@@ -2667,7 +2694,7 @@
       </c>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="12"/>
       <c r="B60" s="16">
         <v>42843</v>
@@ -2695,7 +2722,7 @@
       </c>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="12"/>
       <c r="B61" s="16">
         <v>42843</v>
@@ -2723,7 +2750,7 @@
       </c>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="12"/>
       <c r="B62" s="16">
         <v>42843</v>
@@ -2751,7 +2778,7 @@
       </c>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="12"/>
       <c r="B63" s="16">
         <v>42844</v>
@@ -2799,7 +2826,7 @@
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="1:12" hidden="1">
+    <row r="65" spans="1:12">
       <c r="A65" s="12"/>
       <c r="B65" s="16">
         <v>42844</v>
@@ -2827,7 +2854,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1">
+    <row r="66" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="16">
         <v>42844</v>
@@ -2855,7 +2882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1">
+    <row r="67" spans="1:12">
       <c r="A67" s="12"/>
       <c r="B67" s="16">
         <v>42844</v>
@@ -2883,7 +2910,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1">
+    <row r="68" spans="1:12">
       <c r="A68" s="12"/>
       <c r="B68" s="16">
         <v>42844</v>
@@ -2911,7 +2938,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1">
+    <row r="69" spans="1:12">
       <c r="A69" s="12"/>
       <c r="B69" s="16">
         <v>42844</v>
@@ -2939,7 +2966,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1">
+    <row r="70" spans="1:12">
       <c r="A70" s="12"/>
       <c r="B70" s="16">
         <v>42844</v>
@@ -2962,7 +2989,7 @@
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:12">
       <c r="A71" s="12" t="s">
         <v>120</v>
       </c>
@@ -2989,7 +3016,7 @@
       </c>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="1:12" hidden="1">
+    <row r="72" spans="1:12">
       <c r="A72" s="12" t="s">
         <v>123</v>
       </c>
@@ -3019,7 +3046,7 @@
       </c>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="1:12" hidden="1">
+    <row r="73" spans="1:12">
       <c r="A73" s="12"/>
       <c r="B73" s="16">
         <v>42845</v>
@@ -3045,7 +3072,7 @@
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="1:12" hidden="1">
+    <row r="74" spans="1:12">
       <c r="A74" s="12"/>
       <c r="B74" s="16">
         <v>42845</v>
@@ -3073,7 +3100,7 @@
       </c>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="1:12" hidden="1">
+    <row r="75" spans="1:12">
       <c r="A75" s="12" t="s">
         <v>131</v>
       </c>
@@ -3100,7 +3127,7 @@
       </c>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="1:12" hidden="1">
+    <row r="76" spans="1:12">
       <c r="A76" s="12" t="s">
         <v>133</v>
       </c>
@@ -3127,7 +3154,7 @@
       </c>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="1:12" hidden="1">
+    <row r="77" spans="1:12">
       <c r="A77" s="12" t="s">
         <v>135</v>
       </c>
@@ -3157,7 +3184,7 @@
       </c>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="1:12" hidden="1">
+    <row r="78" spans="1:12">
       <c r="A78" s="12" t="s">
         <v>139</v>
       </c>
@@ -3187,7 +3214,7 @@
       </c>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="1:12" hidden="1">
+    <row r="79" spans="1:12">
       <c r="A79" s="12" t="s">
         <v>174</v>
       </c>
@@ -3217,7 +3244,7 @@
       </c>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="1:12" hidden="1">
+    <row r="80" spans="1:12">
       <c r="A80" s="12" t="s">
         <v>154</v>
       </c>
@@ -3247,7 +3274,7 @@
       </c>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="1:14" hidden="1">
+    <row r="81" spans="1:14">
       <c r="A81" s="12" t="s">
         <v>155</v>
       </c>
@@ -3275,7 +3302,7 @@
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="1:14" hidden="1">
+    <row r="82" spans="1:14">
       <c r="A82" s="12" t="s">
         <v>159</v>
       </c>
@@ -3305,7 +3332,7 @@
       </c>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="1:14" hidden="1">
+    <row r="83" spans="1:14">
       <c r="A83" s="12" t="s">
         <v>162</v>
       </c>
@@ -3335,7 +3362,7 @@
       </c>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="1:14" hidden="1">
+    <row r="84" spans="1:14">
       <c r="A84" s="12" t="s">
         <v>167</v>
       </c>
@@ -3365,7 +3392,7 @@
       </c>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="1:14" hidden="1">
+    <row r="85" spans="1:14">
       <c r="A85" s="12" t="s">
         <v>168</v>
       </c>
@@ -3392,7 +3419,7 @@
       </c>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="1:14" hidden="1">
+    <row r="86" spans="1:14">
       <c r="A86" s="12" t="s">
         <v>171</v>
       </c>
@@ -3419,7 +3446,7 @@
       </c>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="1:14" hidden="1">
+    <row r="87" spans="1:14">
       <c r="A87" s="12" t="s">
         <v>172</v>
       </c>
@@ -3446,14 +3473,14 @@
       </c>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="1:14" hidden="1">
+    <row r="88" spans="1:14">
       <c r="A88" s="12" t="s">
         <v>176</v>
       </c>
       <c r="B88" s="16">
         <v>42847</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="27" t="s">
         <v>82</v>
       </c>
       <c r="D88" s="12" t="s">
@@ -3473,7 +3500,7 @@
       </c>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="1:14" hidden="1">
+    <row r="89" spans="1:14">
       <c r="A89" s="12" t="s">
         <v>179</v>
       </c>
@@ -3498,7 +3525,7 @@
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="1:14" hidden="1">
+    <row r="90" spans="1:14">
       <c r="A90" s="12" t="s">
         <v>180</v>
       </c>
@@ -3528,7 +3555,7 @@
       </c>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="1:14" hidden="1">
+    <row r="91" spans="1:14">
       <c r="A91" s="12" t="s">
         <v>181</v>
       </c>
@@ -3558,7 +3585,7 @@
       </c>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="1:14" hidden="1">
+    <row r="92" spans="1:14">
       <c r="A92" s="22" t="s">
         <v>185</v>
       </c>
@@ -3619,7 +3646,7 @@
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="1:14" hidden="1">
+    <row r="94" spans="1:14">
       <c r="A94" s="22" t="s">
         <v>190</v>
       </c>
@@ -3646,7 +3673,7 @@
       </c>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="1:14" hidden="1">
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>199</v>
       </c>
@@ -3698,7 +3725,7 @@
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="22" t="s">
         <v>196</v>
       </c>
@@ -3723,7 +3750,7 @@
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="22" t="s">
         <v>198</v>
       </c>
@@ -3748,7 +3775,7 @@
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="25" t="s">
         <v>201</v>
       </c>
@@ -3773,7 +3800,7 @@
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -3798,7 +3825,7 @@
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -3823,7 +3850,7 @@
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -3848,23 +3875,23 @@
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="1:10" hidden="1">
-      <c r="A103" s="31" t="s">
+    <row r="103" spans="1:10">
+      <c r="A103" s="28" t="s">
         <v>205</v>
       </c>
       <c r="B103" s="16">
         <v>42852</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="28" t="s">
         <v>207</v>
       </c>
       <c r="F103" s="20">
         <v>50000</v>
       </c>
-      <c r="G103" s="30" t="s">
+      <c r="G103" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H103" s="20">
@@ -3873,14 +3900,14 @@
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="1:10" hidden="1">
-      <c r="A104" s="31" t="s">
+    <row r="104" spans="1:10">
+      <c r="A104" s="28" t="s">
         <v>208</v>
       </c>
       <c r="B104" s="16">
         <v>42852</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="27" t="s">
         <v>98</v>
       </c>
       <c r="D104" s="12" t="s">
@@ -3892,7 +3919,7 @@
       <c r="F104" s="20">
         <v>200000</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G104" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H104" s="20">
@@ -3903,26 +3930,26 @@
       </c>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="1:10" hidden="1">
-      <c r="A105" s="31" t="s">
+    <row r="105" spans="1:10">
+      <c r="A105" s="28" t="s">
         <v>209</v>
       </c>
       <c r="B105" s="16">
         <v>42852</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="28" t="s">
         <v>158</v>
       </c>
       <c r="F105" s="20">
         <v>100000</v>
       </c>
-      <c r="G105" s="30" t="s">
+      <c r="G105" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H105" s="20">
@@ -3933,8 +3960,8 @@
       </c>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="1:10" hidden="1">
-      <c r="A106" s="31" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" s="28" t="s">
         <v>211</v>
       </c>
       <c r="B106" s="16">
@@ -3961,23 +3988,23 @@
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="1:10" hidden="1">
-      <c r="A107" s="33" t="s">
+    <row r="107" spans="1:10">
+      <c r="A107" s="30" t="s">
         <v>212</v>
       </c>
       <c r="B107" s="16">
         <v>42855</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="28" t="s">
         <v>213</v>
       </c>
       <c r="F107" s="20">
         <v>12000</v>
       </c>
-      <c r="G107" s="30" t="s">
+      <c r="G107" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H107" s="20">
@@ -3985,23 +4012,23 @@
       </c>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="1:10" hidden="1">
-      <c r="A108" s="33" t="s">
+    <row r="108" spans="1:10">
+      <c r="A108" s="30" t="s">
         <v>215</v>
       </c>
       <c r="B108" s="16">
         <v>42855</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="28" t="s">
         <v>214</v>
       </c>
       <c r="F108" s="20">
         <v>50500</v>
       </c>
-      <c r="G108" s="30" t="s">
+      <c r="G108" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H108" s="20">
@@ -4009,23 +4036,23 @@
       </c>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="1:10" hidden="1">
-      <c r="A109" s="33" t="s">
+    <row r="109" spans="1:10">
+      <c r="A109" s="30" t="s">
         <v>218</v>
       </c>
       <c r="B109" s="16">
         <v>42855</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="28" t="s">
         <v>214</v>
       </c>
       <c r="F109" s="20">
         <v>12000</v>
       </c>
-      <c r="G109" s="30" t="s">
+      <c r="G109" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H109" s="20">
@@ -4033,8 +4060,8 @@
       </c>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="1:10" hidden="1">
-      <c r="A110" s="33" t="s">
+    <row r="110" spans="1:10">
+      <c r="A110" s="30" t="s">
         <v>219</v>
       </c>
       <c r="B110" s="16">
@@ -4062,8 +4089,8 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
-      <c r="A111" s="33" t="s">
+    <row r="111" spans="1:10">
+      <c r="A111" s="30" t="s">
         <v>220</v>
       </c>
       <c r="B111" s="16">
@@ -4089,23 +4116,23 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:10" hidden="1">
-      <c r="A112" s="33" t="s">
+    <row r="112" spans="1:10">
+      <c r="A112" s="30" t="s">
         <v>221</v>
       </c>
       <c r="B112" s="16">
         <v>42852</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="28" t="s">
         <v>223</v>
       </c>
       <c r="F112" s="20">
         <v>54000</v>
       </c>
-      <c r="G112" s="30" t="s">
+      <c r="G112" s="27" t="s">
         <v>224</v>
       </c>
       <c r="H112" s="20">
@@ -4113,26 +4140,26 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:10" hidden="1">
-      <c r="A113" s="33" t="s">
+    <row r="113" spans="1:10">
+      <c r="A113" s="30" t="s">
         <v>225</v>
       </c>
       <c r="B113" s="16">
         <v>42853</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="31" t="s">
+      <c r="E113" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F113" s="20">
         <v>200000</v>
       </c>
-      <c r="G113" s="30" t="s">
+      <c r="G113" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H113" s="20">
@@ -4140,26 +4167,26 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:10" hidden="1">
-      <c r="A114" s="33" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" s="30" t="s">
         <v>228</v>
       </c>
       <c r="B114" s="16">
         <v>42855</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C114" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="28" t="s">
         <v>227</v>
       </c>
       <c r="F114" s="20">
         <v>25500</v>
       </c>
-      <c r="G114" s="30" t="s">
+      <c r="G114" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="20">
@@ -4167,23 +4194,23 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:10" hidden="1">
-      <c r="A115" s="33" t="s">
+    <row r="115" spans="1:10">
+      <c r="A115" s="30" t="s">
         <v>229</v>
       </c>
       <c r="B115" s="16">
         <v>42855</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="C115" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="28" t="s">
         <v>71</v>
       </c>
       <c r="F115" s="20">
         <v>50500</v>
       </c>
-      <c r="G115" s="30" t="s">
+      <c r="G115" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H115" s="20">
@@ -4193,23 +4220,23 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1">
-      <c r="A116" s="33" t="s">
+    <row r="116" spans="1:10">
+      <c r="A116" s="30" t="s">
         <v>230</v>
       </c>
       <c r="B116" s="16">
         <v>42855</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="28" t="s">
         <v>231</v>
       </c>
       <c r="F116" s="20">
         <v>12000</v>
       </c>
-      <c r="G116" s="30" t="s">
+      <c r="G116" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H116" s="20">
@@ -4217,23 +4244,23 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:10" hidden="1">
-      <c r="A117" s="33" t="s">
+    <row r="117" spans="1:10">
+      <c r="A117" s="30" t="s">
         <v>233</v>
       </c>
       <c r="B117" s="16">
         <v>42855</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="28" t="s">
         <v>232</v>
       </c>
       <c r="F117" s="20">
         <v>12000</v>
       </c>
-      <c r="G117" s="30" t="s">
+      <c r="G117" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H117" s="20">
@@ -4241,23 +4268,23 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:10" hidden="1">
-      <c r="A118" s="33" t="s">
+    <row r="118" spans="1:10">
+      <c r="A118" s="30" t="s">
         <v>234</v>
       </c>
       <c r="B118" s="16">
         <v>42855</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="28" t="s">
         <v>134</v>
       </c>
       <c r="F118" s="20">
         <v>11000</v>
       </c>
-      <c r="G118" s="30" t="s">
+      <c r="G118" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H118" s="20">
@@ -4265,23 +4292,23 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:10" hidden="1">
-      <c r="A119" s="33" t="s">
+    <row r="119" spans="1:10">
+      <c r="A119" s="30" t="s">
         <v>235</v>
       </c>
       <c r="B119" s="16">
         <v>42855</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="C119" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="28" t="s">
         <v>236</v>
       </c>
       <c r="F119" s="20">
         <v>12000</v>
       </c>
-      <c r="G119" s="30" t="s">
+      <c r="G119" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H119" s="20">
@@ -4289,26 +4316,26 @@
       </c>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:10" hidden="1">
-      <c r="A120" s="33" t="s">
+    <row r="120" spans="1:10">
+      <c r="A120" s="30" t="s">
         <v>237</v>
       </c>
       <c r="B120" s="16">
         <v>42855</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E120" s="31" t="s">
+      <c r="E120" s="28" t="s">
         <v>75</v>
       </c>
       <c r="F120" s="20">
         <v>200000</v>
       </c>
-      <c r="G120" s="30" t="s">
+      <c r="G120" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H120" s="20">
@@ -4316,24 +4343,24 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:10" hidden="1">
+    <row r="121" spans="1:10">
       <c r="A121" s="12"/>
       <c r="B121" s="16">
         <v>42855</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E121" s="28" t="s">
         <v>140</v>
       </c>
       <c r="F121" s="20">
         <v>50000</v>
       </c>
-      <c r="G121" s="30" t="s">
+      <c r="G121" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H121" s="20">
@@ -4343,23 +4370,23 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1">
-      <c r="A122" s="33" t="s">
+    <row r="122" spans="1:10">
+      <c r="A122" s="30" t="s">
         <v>216</v>
       </c>
       <c r="B122" s="16">
         <v>42856</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="C122" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="28" t="s">
         <v>217</v>
       </c>
       <c r="F122" s="20">
         <v>12000</v>
       </c>
-      <c r="G122" s="32" t="s">
+      <c r="G122" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H122" s="20">
@@ -4367,23 +4394,23 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:10" hidden="1">
-      <c r="A123" s="33" t="s">
+    <row r="123" spans="1:10">
+      <c r="A123" s="30" t="s">
         <v>238</v>
       </c>
       <c r="B123" s="16">
         <v>42852</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C123" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="28" t="s">
         <v>239</v>
       </c>
       <c r="F123" s="20">
         <v>54000</v>
       </c>
-      <c r="G123" s="30" t="s">
+      <c r="G123" s="27" t="s">
         <v>224</v>
       </c>
       <c r="H123" s="20">
@@ -4391,23 +4418,23 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:10" hidden="1">
-      <c r="A124" s="33" t="s">
+    <row r="124" spans="1:10">
+      <c r="A124" s="30" t="s">
         <v>240</v>
       </c>
       <c r="B124" s="16">
         <v>42852</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="28" t="s">
         <v>241</v>
       </c>
       <c r="F124" s="20">
         <v>11000</v>
       </c>
-      <c r="G124" s="30" t="s">
+      <c r="G124" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H124" s="20">
@@ -4416,85 +4443,204 @@
       <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="I125" s="20"/>
+      <c r="A125" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" s="16">
+        <v>42856</v>
+      </c>
+      <c r="C125" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F125" s="20">
+        <v>50000</v>
+      </c>
+      <c r="G125" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="20">
+        <v>51500</v>
+      </c>
+      <c r="I125" s="20">
+        <v>50000</v>
+      </c>
       <c r="J125" s="20"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="I126" s="20"/>
+      <c r="A126" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B126" s="16">
+        <v>42856</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E126" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F126" s="20">
+        <v>50000</v>
+      </c>
+      <c r="G126" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="20">
+        <v>51500</v>
+      </c>
+      <c r="I126" s="20">
+        <v>50000</v>
+      </c>
       <c r="J126" s="20"/>
     </row>
     <row r="127" spans="1:10">
+      <c r="A127" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" s="16">
+        <v>42856</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F127" s="20">
+        <v>12000</v>
+      </c>
+      <c r="G127" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="20">
+        <v>11300</v>
+      </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="I128" s="20"/>
+      <c r="A128" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" s="16">
+        <v>42856</v>
+      </c>
+      <c r="C128" t="s">
+        <v>142</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F128" s="20">
+        <v>24800</v>
+      </c>
+      <c r="G128" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="20">
+        <v>24800</v>
+      </c>
+      <c r="I128" s="20">
+        <v>24800</v>
+      </c>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="9:10">
-      <c r="I129" s="20"/>
+    <row r="129" spans="1:10">
+      <c r="A129" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" s="16">
+        <v>42856</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="20">
+        <v>495000</v>
+      </c>
+      <c r="G129" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="20">
+        <v>501500</v>
+      </c>
+      <c r="I129" s="20">
+        <v>495000</v>
+      </c>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="9:10">
+    <row r="130" spans="1:10">
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="9:10">
+    <row r="131" spans="1:10">
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="9:10">
+    <row r="132" spans="1:10">
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="9:10">
+    <row r="133" spans="1:10">
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="9:10">
+    <row r="134" spans="1:10">
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="9:10">
+    <row r="135" spans="1:10">
       <c r="I135" s="20"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="9:10">
+    <row r="136" spans="1:10">
       <c r="I136" s="20"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="9:10">
+    <row r="137" spans="1:10">
       <c r="I137" s="20"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="9:10">
+    <row r="138" spans="1:10">
       <c r="I138" s="20"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="9:10">
+    <row r="139" spans="1:10">
       <c r="I139" s="20"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="9:10">
+    <row r="140" spans="1:10">
       <c r="I140" s="20"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="9:10">
+    <row r="141" spans="1:10">
       <c r="I141" s="20"/>
       <c r="J141" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I124">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Rohmadi"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="1"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="7"/>
   </autoFilter>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4626,12 +4772,12 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="7">
         <f>SUM(E2:E5)</f>
         <v>137000</v>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19890" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$158</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302">
   <si>
     <t>No Transaksi</t>
   </si>
@@ -135,7 +135,7 @@
     <t>YULI RAHMANTO</t>
   </si>
   <si>
-    <t>Joko Las</t>
+    <t>Mas Joko</t>
   </si>
   <si>
     <t>520530122763</t>
@@ -225,9 +225,6 @@
     <t>Pot Gaji Mei</t>
   </si>
   <si>
-    <t>Mas Joko</t>
-  </si>
-  <si>
     <t>520530561551</t>
   </si>
   <si>
@@ -799,6 +796,102 @@
   </si>
   <si>
     <t>520591521219</t>
+  </si>
+  <si>
+    <t>BL171111G48MELC</t>
+  </si>
+  <si>
+    <t>BL171111FVDCELC</t>
+  </si>
+  <si>
+    <t>520530571933</t>
+  </si>
+  <si>
+    <t>DEKA MUJAHIDIN A</t>
+  </si>
+  <si>
+    <t>BL171111FTFMELC</t>
+  </si>
+  <si>
+    <t>BL171111GH9WELC</t>
+  </si>
+  <si>
+    <t>BL171111GH6HELC</t>
+  </si>
+  <si>
+    <t>AsRIANTO</t>
+  </si>
+  <si>
+    <t>170415190021</t>
+  </si>
+  <si>
+    <t>Umi</t>
+  </si>
+  <si>
+    <t>0895801987058</t>
+  </si>
+  <si>
+    <t>170415199606</t>
+  </si>
+  <si>
+    <t>085327279648</t>
+  </si>
+  <si>
+    <t>170415199796</t>
+  </si>
+  <si>
+    <t>085869438530</t>
+  </si>
+  <si>
+    <t>170415455996</t>
+  </si>
+  <si>
+    <t>081559582818</t>
+  </si>
+  <si>
+    <t>170415850621</t>
+  </si>
+  <si>
+    <t>170416073741</t>
+  </si>
+  <si>
+    <t>Bang Dedy</t>
+  </si>
+  <si>
+    <t>081329398003</t>
+  </si>
+  <si>
+    <t>BL171111GUORELC</t>
+  </si>
+  <si>
+    <t>524030341817/32005365005</t>
+  </si>
+  <si>
+    <t>SUPONO</t>
+  </si>
+  <si>
+    <t>170416097151</t>
+  </si>
+  <si>
+    <t>170416113026</t>
+  </si>
+  <si>
+    <t>BL171111GVQ7ELC</t>
+  </si>
+  <si>
+    <t>Pak Seti</t>
+  </si>
+  <si>
+    <t>520530610655/56501469722</t>
+  </si>
+  <si>
+    <t>MA'HAD DAARUS-SALAF</t>
+  </si>
+  <si>
+    <t>170416094646</t>
+  </si>
+  <si>
+    <t>0895390655752</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -839,13 +932,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,7 +964,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,6 +975,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -889,9 +1068,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,113 +1104,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1028,13 +1114,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,7 +1138,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,43 +1186,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,31 +1234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,13 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,49 +1264,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,17 +1375,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1308,7 +1388,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,11 +1408,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,25 +1457,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1390,134 +1476,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1556,14 +1642,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1909,9 +1994,9 @@
   <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
+      <selection pane="bottomLeft" activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2787,7 +2872,7 @@
       <c r="H38" s="21">
         <v>11000</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="21" t="s">
         <v>67</v>
       </c>
       <c r="J38" s="21"/>
@@ -2798,13 +2883,13 @@
         <v>42838</v>
       </c>
       <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="E39" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="F39">
         <v>50000</v>
@@ -2829,7 +2914,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40">
         <v>55000</v>
@@ -2849,10 +2934,10 @@
         <v>42839</v>
       </c>
       <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F41">
         <v>50500</v>
@@ -2874,10 +2959,10 @@
         <v>42839</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F42">
         <v>25900</v>
@@ -2899,13 +2984,13 @@
         <v>42839</v>
       </c>
       <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="E43" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="F43">
         <v>199000</v>
@@ -2928,13 +3013,13 @@
         <v>42840</v>
       </c>
       <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="F44">
         <v>50000</v>
@@ -2957,13 +3042,13 @@
         <v>42840</v>
       </c>
       <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="F45">
         <v>50000</v>
@@ -2985,10 +3070,10 @@
         <v>42840</v>
       </c>
       <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="F46">
         <v>6000</v>
@@ -3010,10 +3095,10 @@
         <v>42840</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47">
         <v>11500</v>
@@ -3038,7 +3123,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F48">
         <v>11500</v>
@@ -3058,13 +3143,13 @@
         <v>42841</v>
       </c>
       <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49">
         <v>198000</v>
@@ -3086,13 +3171,13 @@
         <v>42841</v>
       </c>
       <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="E50" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="F50">
         <v>50000</v>
@@ -3114,13 +3199,13 @@
         <v>42841</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="F51">
         <v>21500</v>
@@ -3142,10 +3227,10 @@
         <v>42841</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52">
         <v>36000</v>
@@ -3170,7 +3255,7 @@
         <v>45</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53">
         <v>11500</v>
@@ -3192,13 +3277,13 @@
         <v>42841</v>
       </c>
       <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="E54" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="F54">
         <v>198000</v>
@@ -3220,13 +3305,13 @@
         <v>42841</v>
       </c>
       <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="F55">
         <v>198000</v>
@@ -3251,7 +3336,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F56">
         <v>49500</v>
@@ -3273,13 +3358,13 @@
         <v>42842</v>
       </c>
       <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="E57" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="F57">
         <v>50000</v>
@@ -3354,13 +3439,13 @@
         <v>42843</v>
       </c>
       <c r="C60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="E60" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="F60" s="23">
         <v>497500</v>
@@ -3441,7 +3526,7 @@
         <v>22</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F63" s="21">
         <v>48000</v>
@@ -3463,10 +3548,10 @@
         <v>42844</v>
       </c>
       <c r="C64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="F64" s="21">
         <v>48000</v>
@@ -3477,7 +3562,9 @@
       <c r="H64" s="23">
         <v>48500</v>
       </c>
-      <c r="I64" s="21"/>
+      <c r="I64" s="21">
+        <v>48000</v>
+      </c>
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="1:12">
@@ -3486,10 +3573,10 @@
         <v>42844</v>
       </c>
       <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="F65" s="21">
         <v>48000</v>
@@ -3501,11 +3588,11 @@
         <v>48500</v>
       </c>
       <c r="I65" s="21">
-        <v>48000</v>
+        <v>200000</v>
       </c>
       <c r="J65" s="21"/>
       <c r="L65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3514,10 +3601,10 @@
         <v>42844</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" s="21">
         <v>48000</v>
@@ -3529,11 +3616,11 @@
         <v>48500</v>
       </c>
       <c r="I66" s="21">
-        <v>48000</v>
+        <v>50500</v>
       </c>
       <c r="J66" s="21"/>
       <c r="L66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3542,10 +3629,10 @@
         <v>42844</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F67" s="21">
         <v>48000</v>
@@ -3556,12 +3643,12 @@
       <c r="H67" s="23">
         <v>48500</v>
       </c>
-      <c r="I67" s="21">
-        <v>48000</v>
+      <c r="I67" s="28">
+        <v>200000</v>
       </c>
       <c r="J67" s="21"/>
       <c r="L67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3570,10 +3657,10 @@
         <v>42844</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F68" s="21">
         <v>48000</v>
@@ -3589,7 +3676,7 @@
       </c>
       <c r="J68" s="21"/>
       <c r="L68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3598,10 +3685,10 @@
         <v>42844</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F69" s="21">
         <v>99000</v>
@@ -3617,7 +3704,7 @@
       </c>
       <c r="J69" s="21"/>
       <c r="L69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3626,10 +3713,10 @@
         <v>42844</v>
       </c>
       <c r="C70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="F70" s="21">
         <v>48000</v>
@@ -3645,16 +3732,16 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="20">
         <v>42845</v>
       </c>
       <c r="C71" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="F71" s="21">
         <v>48000</v>
@@ -3672,19 +3759,19 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" s="20">
         <v>42845</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D72" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="F72" s="21">
         <v>48000</v>
@@ -3709,10 +3796,10 @@
         <v>23</v>
       </c>
       <c r="D73" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="F73" s="23">
         <v>51500</v>
@@ -3732,13 +3819,13 @@
         <v>42845</v>
       </c>
       <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="E74" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="F74" s="23">
         <v>100000</v>
@@ -3756,7 +3843,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="20">
         <v>42845</v>
@@ -3765,7 +3852,7 @@
         <v>10</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F75" s="23">
         <v>25500</v>
@@ -3783,7 +3870,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" s="20">
         <v>42845</v>
@@ -3792,7 +3879,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F76" s="23">
         <v>11000</v>
@@ -3810,19 +3897,19 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B77" s="20">
         <v>42845</v>
       </c>
       <c r="C77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="E77" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="F77" s="21">
         <v>51500</v>
@@ -3840,19 +3927,19 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B78" s="20">
         <v>42845</v>
       </c>
       <c r="C78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>143</v>
-      </c>
       <c r="E78" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F78" s="21">
         <v>51500</v>
@@ -3870,19 +3957,19 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B79" s="20">
         <v>42846</v>
       </c>
       <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="E79" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F79" s="21">
         <v>11000</v>
@@ -3900,7 +3987,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" s="20">
         <v>42848</v>
@@ -3930,7 +4017,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" s="20">
         <v>42848</v>
@@ -3958,19 +4045,19 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" s="20">
         <v>42848</v>
       </c>
       <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="E82" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="F82" s="21">
         <v>50000</v>
@@ -3988,19 +4075,19 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B83" s="20">
         <v>42848</v>
       </c>
       <c r="C83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="E83" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="F83" s="21">
         <v>21500</v>
@@ -4018,19 +4105,19 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" s="20">
         <v>42848</v>
       </c>
       <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="E84" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="F84" s="21">
         <v>50000</v>
@@ -4048,7 +4135,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" s="20">
         <v>42848</v>
@@ -4057,7 +4144,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F85" s="21">
         <v>6000</v>
@@ -4075,16 +4162,16 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" s="20">
         <v>42848</v>
       </c>
       <c r="C86" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="F86" s="21">
         <v>12000</v>
@@ -4102,16 +4189,16 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" s="20">
         <v>42848</v>
       </c>
       <c r="C87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F87" s="21">
         <v>50500</v>
@@ -4129,16 +4216,16 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B88" s="20">
         <v>42847</v>
       </c>
-      <c r="C88" s="25" t="s">
-        <v>84</v>
+      <c r="C88" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F88" s="21">
         <v>6000</v>
@@ -4156,7 +4243,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B89" s="20">
         <v>42847</v>
@@ -4165,7 +4252,7 @@
         <v>20</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F89" s="21">
         <v>6500</v>
@@ -4181,7 +4268,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B90" s="20">
         <v>42849</v>
@@ -4211,7 +4298,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91" s="20">
         <v>42850</v>
@@ -4220,10 +4307,10 @@
         <v>65</v>
       </c>
       <c r="D91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E91" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>173</v>
       </c>
       <c r="F91" s="21">
         <v>200000</v>
@@ -4234,31 +4321,31 @@
       <c r="H91" s="21">
         <v>201500</v>
       </c>
-      <c r="I91" s="24" t="s">
+      <c r="I91" s="21" t="s">
         <v>67</v>
       </c>
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="26" t="s">
-        <v>174</v>
+      <c r="A92" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="B92" s="20">
         <v>42850</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D92" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>175</v>
+      <c r="E92" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="F92" s="21">
         <v>497500</v>
       </c>
-      <c r="G92" s="25" t="s">
+      <c r="G92" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="21">
@@ -4273,50 +4360,52 @@
       <c r="N92" s="23"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="26" t="s">
-        <v>176</v>
+      <c r="A93" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="B93" s="20">
         <v>42850</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="F93" s="21">
         <v>200000</v>
       </c>
-      <c r="G93" s="25" t="s">
+      <c r="G93" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H93" s="21">
         <v>201500</v>
       </c>
-      <c r="I93" s="21"/>
+      <c r="I93" s="21">
+        <v>200000</v>
+      </c>
       <c r="J93" s="21"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="26" t="s">
-        <v>179</v>
+      <c r="A94" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="B94" s="20">
         <v>42851</v>
       </c>
-      <c r="C94" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>73</v>
+      <c r="C94" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="F94" s="21">
         <v>26000</v>
       </c>
-      <c r="G94" s="25" t="s">
+      <c r="G94" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H94" s="21">
@@ -4329,21 +4418,21 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" s="20">
         <v>42850</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="25" t="s">
         <v>182</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>183</v>
       </c>
       <c r="F95" s="21">
         <v>49500</v>
       </c>
-      <c r="G95" s="25" t="s">
+      <c r="G95" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H95" s="21">
@@ -4355,47 +4444,49 @@
       <c r="J95" s="21"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="26" t="s">
-        <v>184</v>
+      <c r="A96" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="B96" s="20">
         <v>42850</v>
       </c>
-      <c r="C96" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>185</v>
+      <c r="C96" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="F96" s="21">
         <v>50500</v>
       </c>
-      <c r="G96" s="25" t="s">
+      <c r="G96" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H96" s="21">
         <v>49400</v>
       </c>
-      <c r="I96" s="21"/>
+      <c r="I96" s="21">
+        <v>50500</v>
+      </c>
       <c r="J96" s="21"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="26" t="s">
-        <v>186</v>
+      <c r="A97" s="25" t="s">
+        <v>185</v>
       </c>
       <c r="B97" s="20">
         <v>42849</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="26" t="s">
-        <v>187</v>
+      <c r="D97" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="F97" s="21">
         <v>21000</v>
       </c>
-      <c r="G97" s="25" t="s">
+      <c r="G97" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H97" s="21">
@@ -4405,22 +4496,22 @@
       <c r="J97" s="21"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="26" t="s">
-        <v>188</v>
+      <c r="A98" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="B98" s="20">
         <v>42849</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F98" s="21">
         <v>12000</v>
       </c>
-      <c r="G98" s="25" t="s">
+      <c r="G98" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H98" s="21">
@@ -4430,22 +4521,22 @@
       <c r="J98" s="21"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="27" t="s">
-        <v>189</v>
+      <c r="A99" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="B99" s="20">
         <v>42851</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F99" s="21">
         <v>25500</v>
       </c>
-      <c r="G99" s="25" t="s">
+      <c r="G99" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H99" s="21">
@@ -4456,21 +4547,21 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B100" s="20">
         <v>42851</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="F100" s="21">
         <v>6000</v>
       </c>
-      <c r="G100" s="25" t="s">
+      <c r="G100" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H100" s="21">
@@ -4481,21 +4572,21 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B101" s="20">
         <v>42851</v>
       </c>
-      <c r="C101" s="25" t="s">
-        <v>84</v>
+      <c r="C101" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F101" s="21">
         <v>6000</v>
       </c>
-      <c r="G101" s="25" t="s">
+      <c r="G101" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H101" s="21">
@@ -4506,21 +4597,21 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B102" s="20">
         <v>42851</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F102" s="21">
         <v>21000</v>
       </c>
-      <c r="G102" s="25" t="s">
+      <c r="G102" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H102" s="21">
@@ -4530,22 +4621,22 @@
       <c r="J102" s="21"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="26" t="s">
-        <v>194</v>
+      <c r="A103" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="B103" s="20">
         <v>42852</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="F103" s="21">
         <v>50000</v>
       </c>
-      <c r="G103" s="25" t="s">
+      <c r="G103" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H103" s="21">
@@ -4555,25 +4646,25 @@
       <c r="J103" s="21"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="26" t="s">
-        <v>197</v>
+      <c r="A104" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="B104" s="20">
         <v>42852</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="E104" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="F104" s="21">
         <v>200000</v>
       </c>
-      <c r="G104" s="25" t="s">
+      <c r="G104" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H104" s="21">
@@ -4585,25 +4676,25 @@
       <c r="J104" s="21"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="26" t="s">
-        <v>198</v>
+      <c r="A105" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="B105" s="20">
         <v>42852</v>
       </c>
-      <c r="C105" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>152</v>
+      <c r="C105" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="F105" s="21">
         <v>100000</v>
       </c>
-      <c r="G105" s="25" t="s">
+      <c r="G105" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H105" s="21">
@@ -4615,8 +4706,8 @@
       <c r="J105" s="21"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="26" t="s">
-        <v>200</v>
+      <c r="A106" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="B106" s="20">
         <v>42852</v>
@@ -4643,22 +4734,22 @@
       <c r="J106" s="21"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="28" t="s">
-        <v>201</v>
+      <c r="A107" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="B107" s="20">
         <v>42855</v>
       </c>
-      <c r="C107" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>202</v>
+      <c r="C107" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>201</v>
       </c>
       <c r="F107" s="21">
         <v>12000</v>
       </c>
-      <c r="G107" s="25" t="s">
+      <c r="G107" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H107" s="21">
@@ -4667,22 +4758,22 @@
       <c r="J107" s="21"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="28" t="s">
-        <v>203</v>
+      <c r="A108" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="B108" s="20">
         <v>42855</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="26" t="s">
-        <v>204</v>
+      <c r="D108" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="F108" s="21">
         <v>50500</v>
       </c>
-      <c r="G108" s="25" t="s">
+      <c r="G108" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H108" s="21">
@@ -4691,22 +4782,22 @@
       <c r="J108" s="21"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="28" t="s">
-        <v>205</v>
+      <c r="A109" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="B109" s="20">
         <v>42855</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="26" t="s">
-        <v>204</v>
+      <c r="D109" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="F109" s="21">
         <v>12000</v>
       </c>
-      <c r="G109" s="25" t="s">
+      <c r="G109" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H109" s="21">
@@ -4715,8 +4806,8 @@
       <c r="J109" s="21"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="28" t="s">
-        <v>206</v>
+      <c r="A110" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="B110" s="20">
         <v>42855</v>
@@ -4744,8 +4835,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="28" t="s">
-        <v>207</v>
+      <c r="A111" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="B111" s="20">
         <v>42855</v>
@@ -4771,23 +4862,23 @@
       <c r="I111" s="21"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="28" t="s">
-        <v>208</v>
+      <c r="A112" s="27" t="s">
+        <v>207</v>
       </c>
       <c r="B112" s="20">
         <v>42852</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="25" t="s">
         <v>209</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>210</v>
       </c>
       <c r="F112" s="21">
         <v>54000</v>
       </c>
-      <c r="G112" s="25" t="s">
-        <v>211</v>
+      <c r="G112" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="H112" s="21">
         <v>53100</v>
@@ -4795,52 +4886,54 @@
       <c r="I112" s="21"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="28" t="s">
-        <v>212</v>
+      <c r="A113" s="27" t="s">
+        <v>211</v>
       </c>
       <c r="B113" s="20">
         <v>42853</v>
       </c>
-      <c r="C113" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D113" s="26" t="s">
+      <c r="C113" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="25" t="s">
         <v>37</v>
       </c>
       <c r="F113" s="21">
         <v>200000</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G113" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H113" s="21">
         <v>201500</v>
       </c>
-      <c r="I113" s="21"/>
+      <c r="I113" s="21">
+        <v>200000</v>
+      </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="28" t="s">
-        <v>213</v>
+      <c r="A114" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="B114" s="20">
         <v>42855</v>
       </c>
-      <c r="C114" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D114" s="26" t="s">
+      <c r="C114" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E114" s="25" t="s">
         <v>214</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>215</v>
       </c>
       <c r="F114" s="21">
         <v>25500</v>
       </c>
-      <c r="G114" s="25" t="s">
+      <c r="G114" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H114" s="21">
@@ -4849,22 +4942,22 @@
       <c r="I114" s="21"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="28" t="s">
-        <v>216</v>
+      <c r="A115" s="27" t="s">
+        <v>215</v>
       </c>
       <c r="B115" s="20">
         <v>42855</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D115" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>73</v>
       </c>
       <c r="F115" s="21">
         <v>50500</v>
       </c>
-      <c r="G115" s="25" t="s">
+      <c r="G115" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H115" s="21">
@@ -4875,22 +4968,22 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="28" t="s">
-        <v>217</v>
+      <c r="A116" s="27" t="s">
+        <v>216</v>
       </c>
       <c r="B116" s="20">
         <v>42855</v>
       </c>
-      <c r="C116" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>218</v>
+      <c r="C116" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="F116" s="21">
         <v>12000</v>
       </c>
-      <c r="G116" s="25" t="s">
+      <c r="G116" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H116" s="21">
@@ -4899,22 +4992,22 @@
       <c r="I116" s="21"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="28" t="s">
-        <v>219</v>
+      <c r="A117" s="27" t="s">
+        <v>218</v>
       </c>
       <c r="B117" s="20">
         <v>42855</v>
       </c>
-      <c r="C117" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>220</v>
+      <c r="C117" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="F117" s="21">
         <v>12000</v>
       </c>
-      <c r="G117" s="25" t="s">
+      <c r="G117" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H117" s="21">
@@ -4923,73 +5016,77 @@
       <c r="I117" s="21"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="28" t="s">
-        <v>221</v>
+      <c r="A118" s="27" t="s">
+        <v>220</v>
       </c>
       <c r="B118" s="20">
         <v>42855</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="26" t="s">
-        <v>136</v>
+      <c r="D118" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="F118" s="21">
         <v>11000</v>
       </c>
-      <c r="G118" s="25" t="s">
+      <c r="G118" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H118" s="21">
         <v>10300</v>
       </c>
-      <c r="I118" s="21"/>
+      <c r="I118" s="21">
+        <v>11000</v>
+      </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="28" t="s">
-        <v>222</v>
+      <c r="A119" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="B119" s="20">
         <v>42855</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="26" t="s">
-        <v>223</v>
+      <c r="D119" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="F119" s="21">
         <v>12000</v>
       </c>
-      <c r="G119" s="25" t="s">
+      <c r="G119" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H119" s="21">
         <v>11300</v>
       </c>
-      <c r="I119" s="21"/>
+      <c r="I119" s="21">
+        <v>12000</v>
+      </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="28" t="s">
-        <v>224</v>
+      <c r="A120" s="27" t="s">
+        <v>223</v>
       </c>
       <c r="B120" s="20">
         <v>42855</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="E120" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="F120" s="21">
         <v>200000</v>
       </c>
-      <c r="G120" s="25" t="s">
+      <c r="G120" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H120" s="21">
@@ -5002,19 +5099,19 @@
       <c r="B121" s="20">
         <v>42855</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>142</v>
+      <c r="E121" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="F121" s="21">
         <v>50000</v>
       </c>
-      <c r="G121" s="25" t="s">
+      <c r="G121" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H121" s="21">
@@ -5025,22 +5122,22 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="28" t="s">
-        <v>225</v>
+      <c r="A122" s="27" t="s">
+        <v>224</v>
       </c>
       <c r="B122" s="20">
         <v>42856</v>
       </c>
-      <c r="C122" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>226</v>
+      <c r="C122" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="F122" s="21">
         <v>12000</v>
       </c>
-      <c r="G122" s="24" t="s">
+      <c r="G122" s="21" t="s">
         <v>11</v>
       </c>
       <c r="H122" s="21">
@@ -5049,23 +5146,23 @@
       <c r="I122" s="21"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="28" t="s">
-        <v>227</v>
+      <c r="A123" s="27" t="s">
+        <v>226</v>
       </c>
       <c r="B123" s="20">
         <v>42852</v>
       </c>
-      <c r="C123" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D123" s="26" t="s">
-        <v>228</v>
+      <c r="C123" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>227</v>
       </c>
       <c r="F123" s="21">
         <v>54000</v>
       </c>
-      <c r="G123" s="25" t="s">
-        <v>211</v>
+      <c r="G123" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="H123" s="21">
         <v>53100</v>
@@ -5073,22 +5170,22 @@
       <c r="I123" s="21"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="28" t="s">
-        <v>229</v>
+      <c r="A124" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="B124" s="20">
         <v>42852</v>
       </c>
-      <c r="C124" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>230</v>
+      <c r="C124" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="F124" s="21">
         <v>11000</v>
       </c>
-      <c r="G124" s="25" t="s">
+      <c r="G124" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H124" s="21">
@@ -5097,25 +5194,25 @@
       <c r="I124" s="21"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="28" t="s">
-        <v>231</v>
+      <c r="A125" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="B125" s="20">
         <v>42856</v>
       </c>
       <c r="C125" t="s">
+        <v>137</v>
+      </c>
+      <c r="D125" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="E125" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="F125" s="21">
         <v>50000</v>
       </c>
-      <c r="G125" s="25" t="s">
+      <c r="G125" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H125" s="21">
@@ -5127,25 +5224,25 @@
       <c r="J125" s="21"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="28" t="s">
-        <v>232</v>
+      <c r="A126" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="B126" s="20">
         <v>42856</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E126" s="26" t="s">
-        <v>142</v>
+      <c r="E126" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="F126" s="21">
         <v>50000</v>
       </c>
-      <c r="G126" s="25" t="s">
+      <c r="G126" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H126" s="21">
@@ -5157,22 +5254,22 @@
       <c r="J126" s="21"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="28" t="s">
-        <v>233</v>
+      <c r="A127" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="B127" s="20">
         <v>42856</v>
       </c>
-      <c r="C127" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>234</v>
+      <c r="C127" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>233</v>
       </c>
       <c r="F127" s="21">
         <v>12000</v>
       </c>
-      <c r="G127" s="25" t="s">
+      <c r="G127" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H127" s="21">
@@ -5182,25 +5279,25 @@
       <c r="J127" s="21"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="28" t="s">
-        <v>235</v>
+      <c r="A128" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="B128" s="20">
         <v>42856</v>
       </c>
       <c r="C128" t="s">
+        <v>144</v>
+      </c>
+      <c r="D128" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D128" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="E128" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F128" s="21">
         <v>24800</v>
       </c>
-      <c r="G128" s="25" t="s">
+      <c r="G128" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H128" s="21">
@@ -5212,25 +5309,25 @@
       <c r="J128" s="21"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="28" t="s">
-        <v>236</v>
+      <c r="A129" s="27" t="s">
+        <v>235</v>
       </c>
       <c r="B129" s="20">
         <v>42856</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F129" s="21">
         <v>495000</v>
       </c>
-      <c r="G129" s="25" t="s">
+      <c r="G129" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H129" s="21">
@@ -5242,8 +5339,8 @@
       <c r="J129" s="21"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="30" t="s">
-        <v>237</v>
+      <c r="A130" s="29" t="s">
+        <v>236</v>
       </c>
       <c r="B130" s="20">
         <v>42857</v>
@@ -5252,82 +5349,84 @@
         <v>8</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E130" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F130" s="29">
+      <c r="F130" s="28">
         <v>58000</v>
       </c>
       <c r="G130" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="29">
+      <c r="H130" s="28">
         <v>57000</v>
       </c>
-      <c r="I130" s="21"/>
+      <c r="I130" s="21">
+        <v>58000</v>
+      </c>
       <c r="J130" s="21"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="30" t="s">
-        <v>239</v>
+      <c r="A131" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="B131" s="20">
         <v>42857</v>
       </c>
       <c r="C131" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D131" s="15" t="s">
-        <v>241</v>
-      </c>
       <c r="E131" t="s">
-        <v>240</v>
-      </c>
-      <c r="F131" s="29">
+        <v>239</v>
+      </c>
+      <c r="F131" s="28">
         <v>12000</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
       </c>
-      <c r="H131" s="29">
+      <c r="H131" s="28">
         <v>11300</v>
       </c>
       <c r="I131" s="21"/>
       <c r="J131" s="21"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="30" t="s">
-        <v>242</v>
+      <c r="A132" s="29" t="s">
+        <v>241</v>
       </c>
       <c r="B132" s="20">
         <v>42858</v>
       </c>
       <c r="C132" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E132" t="s">
-        <v>243</v>
-      </c>
-      <c r="F132" s="29">
+        <v>242</v>
+      </c>
+      <c r="F132" s="28">
         <v>37000</v>
       </c>
       <c r="G132" t="s">
         <v>9</v>
       </c>
-      <c r="H132" s="29">
+      <c r="H132" s="28">
         <v>36000</v>
       </c>
       <c r="I132" s="21"/>
       <c r="J132" s="21"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="30" t="s">
-        <v>244</v>
+      <c r="A133" s="29" t="s">
+        <v>243</v>
       </c>
       <c r="B133" s="20">
         <v>42858</v>
@@ -5336,18 +5435,18 @@
         <v>23</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F133" s="29">
+        <v>242</v>
+      </c>
+      <c r="F133" s="28">
         <v>12000</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="29">
+      <c r="H133" s="28">
         <v>11300</v>
       </c>
       <c r="I133" s="21"/>
@@ -5355,35 +5454,37 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B134" s="20">
         <v>42858</v>
       </c>
       <c r="C134" t="s">
+        <v>246</v>
+      </c>
+      <c r="D134" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="E134" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="F134" s="28">
+        <v>50000</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="28">
+        <v>51500</v>
+      </c>
+      <c r="I134" s="21">
+        <v>50000</v>
+      </c>
+      <c r="J134" s="21"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="F134" s="29">
-        <v>50000</v>
-      </c>
-      <c r="G134" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="29">
-        <v>51500</v>
-      </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21"/>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="30" t="s">
-        <v>250</v>
       </c>
       <c r="B135" s="20">
         <v>42857</v>
@@ -5397,41 +5498,41 @@
       <c r="E135" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="29">
+      <c r="F135" s="28">
         <v>12000</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
-      <c r="H135" s="29">
+      <c r="H135" s="28">
         <v>11300</v>
       </c>
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="30" t="s">
-        <v>251</v>
+      <c r="A136" s="29" t="s">
+        <v>250</v>
       </c>
       <c r="B136" s="20">
         <v>42857</v>
       </c>
       <c r="C136" t="s">
+        <v>251</v>
+      </c>
+      <c r="D136" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="D136" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="E136" t="s">
-        <v>252</v>
-      </c>
-      <c r="F136" s="29">
+        <v>251</v>
+      </c>
+      <c r="F136" s="28">
         <v>12000</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
       </c>
-      <c r="H136" s="29">
+      <c r="H136" s="28">
         <v>11300</v>
       </c>
       <c r="I136" s="21">
@@ -5440,81 +5541,81 @@
       <c r="J136" s="21"/>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="30" t="s">
-        <v>254</v>
+      <c r="A137" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="B137" s="20">
         <v>42857</v>
       </c>
       <c r="C137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E137" t="s">
-        <v>84</v>
-      </c>
-      <c r="F137" s="29">
+        <v>83</v>
+      </c>
+      <c r="F137" s="28">
         <v>7000</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
       </c>
-      <c r="H137" s="29">
+      <c r="H137" s="28">
         <v>6500</v>
       </c>
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="30" t="s">
-        <v>256</v>
+      <c r="A138" s="29" t="s">
+        <v>255</v>
       </c>
       <c r="B138" s="20">
         <v>42857</v>
       </c>
-      <c r="C138" s="25" t="s">
-        <v>84</v>
+      <c r="C138" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F138" s="29">
+        <v>166</v>
+      </c>
+      <c r="F138" s="28">
         <v>6000</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
       </c>
-      <c r="H138" s="29">
+      <c r="H138" s="28">
         <v>5500</v>
       </c>
       <c r="I138" s="21"/>
       <c r="J138" s="21"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="30" t="s">
-        <v>257</v>
+      <c r="A139" s="29" t="s">
+        <v>256</v>
       </c>
       <c r="B139" s="20">
         <v>42857</v>
       </c>
       <c r="C139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E139" t="s">
-        <v>113</v>
-      </c>
-      <c r="F139" s="29">
+        <v>112</v>
+      </c>
+      <c r="F139" s="28">
         <v>99000</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
       </c>
-      <c r="H139" s="29">
+      <c r="H139" s="28">
         <v>100000</v>
       </c>
       <c r="I139" s="21"/>
@@ -5522,191 +5623,533 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B140" s="20">
         <v>42859</v>
       </c>
       <c r="C140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D140" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E140" t="s">
+        <v>110</v>
+      </c>
+      <c r="F140" s="28">
+        <v>200000</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="28">
+        <v>201500</v>
+      </c>
+      <c r="I140" s="28">
+        <v>200000</v>
+      </c>
+      <c r="J140" s="21"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E140" t="s">
-        <v>111</v>
-      </c>
-      <c r="F140" s="29">
-        <v>200000</v>
-      </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" s="29">
-        <v>201500</v>
-      </c>
-      <c r="I140" s="21"/>
-      <c r="J140" s="21"/>
-    </row>
-    <row r="141" spans="6:10">
-      <c r="F141" s="29"/>
-      <c r="H141" s="29"/>
+      <c r="B141" s="20">
+        <v>42861</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F141" s="28">
+        <v>50000</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="28">
+        <v>51500</v>
+      </c>
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
     </row>
-    <row r="142" spans="6:8">
-      <c r="F142" s="29"/>
-      <c r="H142" s="29"/>
-    </row>
-    <row r="143" spans="6:8">
-      <c r="F143" s="29"/>
-      <c r="H143" s="29"/>
-    </row>
-    <row r="144" spans="6:8">
-      <c r="F144" s="29"/>
-      <c r="H144" s="29"/>
-    </row>
-    <row r="145" spans="6:8">
-      <c r="F145" s="29"/>
-      <c r="H145" s="29"/>
-    </row>
-    <row r="146" spans="6:8">
-      <c r="F146" s="29"/>
-      <c r="H146" s="29"/>
-    </row>
-    <row r="147" spans="6:8">
-      <c r="F147" s="29"/>
-      <c r="H147" s="29"/>
-    </row>
-    <row r="148" spans="6:8">
-      <c r="F148" s="29"/>
-      <c r="H148" s="29"/>
-    </row>
-    <row r="149" spans="6:8">
-      <c r="F149" s="29"/>
-      <c r="H149" s="29"/>
-    </row>
-    <row r="150" spans="6:8">
-      <c r="F150" s="29"/>
-      <c r="H150" s="29"/>
-    </row>
-    <row r="151" spans="6:8">
-      <c r="F151" s="29"/>
-      <c r="H151" s="29"/>
-    </row>
-    <row r="152" spans="6:8">
-      <c r="F152" s="29"/>
-      <c r="H152" s="29"/>
-    </row>
-    <row r="153" spans="6:8">
-      <c r="F153" s="29"/>
-      <c r="H153" s="29"/>
-    </row>
-    <row r="154" spans="6:8">
-      <c r="F154" s="29"/>
-      <c r="H154" s="29"/>
-    </row>
-    <row r="155" spans="6:8">
-      <c r="F155" s="29"/>
-      <c r="H155" s="29"/>
-    </row>
-    <row r="156" spans="6:8">
-      <c r="F156" s="29"/>
-      <c r="H156" s="29"/>
-    </row>
-    <row r="157" spans="6:8">
-      <c r="F157" s="29"/>
-      <c r="H157" s="29"/>
-    </row>
-    <row r="158" spans="6:8">
-      <c r="F158" s="29"/>
-      <c r="H158" s="29"/>
+    <row r="142" spans="1:9">
+      <c r="A142" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B142" s="20">
+        <v>42861</v>
+      </c>
+      <c r="C142" t="s">
+        <v>246</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E142" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F142" s="28">
+        <v>50000</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="28">
+        <v>51500</v>
+      </c>
+      <c r="I142">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" s="20">
+        <v>42861</v>
+      </c>
+      <c r="C143" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F143" s="28">
+        <v>50000</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="28">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" s="20">
+        <v>42862</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="28">
+        <v>50000</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="28">
+        <v>51500</v>
+      </c>
+      <c r="I144">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B145" s="20">
+        <v>42862</v>
+      </c>
+      <c r="C145" t="s">
+        <v>149</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F145" s="28">
+        <v>50000</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="28">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B146" s="20">
+        <v>42861</v>
+      </c>
+      <c r="C146" t="s">
+        <v>268</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F146" s="28">
+        <v>5500</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" s="28">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" s="20">
+        <v>42861</v>
+      </c>
+      <c r="C147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F147" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" s="28">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B148" s="20">
+        <v>42861</v>
+      </c>
+      <c r="C148" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F148" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="28">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="20">
+        <v>42861</v>
+      </c>
+      <c r="C149" t="s">
+        <v>162</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F149" s="28">
+        <v>58000</v>
+      </c>
+      <c r="G149" t="s">
+        <v>9</v>
+      </c>
+      <c r="H149" s="28">
+        <v>57000</v>
+      </c>
+      <c r="I149">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150" s="20">
+        <v>42862</v>
+      </c>
+      <c r="C150" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F150" s="28">
+        <v>50000</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="28">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" s="20">
+        <v>42862</v>
+      </c>
+      <c r="C151" t="s">
+        <v>278</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F151" s="28">
+        <v>50000</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="28">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B152" s="20">
+        <v>42862</v>
+      </c>
+      <c r="C152" t="s">
+        <v>278</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F152" s="28">
+        <v>200000</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="28">
+        <v>201500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B153" s="20">
+        <v>42862</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F153" s="28">
+        <v>6500</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="28">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B154" s="20">
+        <v>42862</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F154" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+      <c r="H154" s="28">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155" s="20">
+        <v>42862</v>
+      </c>
+      <c r="C155" t="s">
+        <v>286</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" s="28">
+        <v>495000</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="28">
+        <v>501500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B156" s="20">
+        <v>42862</v>
+      </c>
+      <c r="C156" t="s">
+        <v>246</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F156" s="28">
+        <v>34500</v>
+      </c>
+      <c r="G156" t="s">
+        <v>9</v>
+      </c>
+      <c r="H156" s="28">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="20">
+        <v>42862</v>
+      </c>
+      <c r="F157" s="28"/>
+      <c r="H157" s="28"/>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="20">
+        <v>42862</v>
+      </c>
+      <c r="F158" s="28"/>
+      <c r="H158" s="28"/>
     </row>
     <row r="159" spans="6:8">
-      <c r="F159" s="29"/>
-      <c r="H159" s="29"/>
+      <c r="F159" s="28"/>
+      <c r="H159" s="28"/>
     </row>
     <row r="160" spans="6:8">
-      <c r="F160" s="29"/>
-      <c r="H160" s="29"/>
+      <c r="F160" s="28"/>
+      <c r="H160" s="28"/>
     </row>
     <row r="161" spans="6:8">
-      <c r="F161" s="29"/>
-      <c r="H161" s="29"/>
+      <c r="F161" s="28"/>
+      <c r="H161" s="28"/>
     </row>
     <row r="162" spans="6:8">
-      <c r="F162" s="29"/>
-      <c r="H162" s="29"/>
+      <c r="F162" s="28"/>
+      <c r="H162" s="28"/>
     </row>
     <row r="163" spans="6:8">
-      <c r="F163" s="29"/>
-      <c r="H163" s="29"/>
+      <c r="F163" s="28"/>
+      <c r="H163" s="28"/>
     </row>
     <row r="164" spans="6:8">
-      <c r="F164" s="29"/>
-      <c r="H164" s="29"/>
+      <c r="F164" s="28"/>
+      <c r="H164" s="28"/>
     </row>
     <row r="165" spans="6:8">
-      <c r="F165" s="29"/>
-      <c r="H165" s="29"/>
+      <c r="F165" s="28"/>
+      <c r="H165" s="28"/>
     </row>
     <row r="166" spans="6:8">
-      <c r="F166" s="29"/>
-      <c r="H166" s="29"/>
+      <c r="F166" s="28"/>
+      <c r="H166" s="28"/>
     </row>
     <row r="167" spans="6:8">
-      <c r="F167" s="29"/>
-      <c r="H167" s="29"/>
+      <c r="F167" s="28"/>
+      <c r="H167" s="28"/>
     </row>
     <row r="168" spans="6:8">
-      <c r="F168" s="29"/>
-      <c r="H168" s="29"/>
+      <c r="F168" s="28"/>
+      <c r="H168" s="28"/>
     </row>
     <row r="169" spans="6:8">
-      <c r="F169" s="29"/>
-      <c r="H169" s="29"/>
+      <c r="F169" s="28"/>
+      <c r="H169" s="28"/>
     </row>
     <row r="170" spans="6:8">
-      <c r="F170" s="29"/>
-      <c r="H170" s="29"/>
+      <c r="F170" s="28"/>
+      <c r="H170" s="28"/>
     </row>
     <row r="171" spans="6:8">
-      <c r="F171" s="29"/>
-      <c r="H171" s="29"/>
+      <c r="F171" s="28"/>
+      <c r="H171" s="28"/>
     </row>
     <row r="172" spans="6:8">
-      <c r="F172" s="29"/>
-      <c r="H172" s="29"/>
+      <c r="F172" s="28"/>
+      <c r="H172" s="28"/>
     </row>
     <row r="173" spans="6:6">
-      <c r="F173" s="29"/>
+      <c r="F173" s="28"/>
     </row>
     <row r="174" spans="6:6">
-      <c r="F174" s="29"/>
+      <c r="F174" s="28"/>
     </row>
     <row r="175" spans="6:6">
-      <c r="F175" s="29"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="6:6">
-      <c r="F176" s="29"/>
+      <c r="F176" s="28"/>
     </row>
     <row r="177" spans="6:6">
-      <c r="F177" s="29"/>
+      <c r="F177" s="28"/>
     </row>
     <row r="178" spans="6:6">
-      <c r="F178" s="29"/>
+      <c r="F178" s="28"/>
     </row>
     <row r="179" spans="6:6">
-      <c r="F179" s="29"/>
+      <c r="F179" s="28"/>
     </row>
     <row r="180" spans="6:6">
-      <c r="F180" s="29"/>
+      <c r="F180" s="28"/>
     </row>
     <row r="181" spans="6:6">
-      <c r="F181" s="29"/>
+      <c r="F181" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I129"/>
+  <autoFilter ref="B1:I158"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -5750,22 +6193,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5844,7 +6287,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5857,7 +6300,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="11" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="E9" s="12">
         <v>1000000</v>
@@ -5865,7 +6308,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="13" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="E10" s="5">
         <f>E9-E6</f>
@@ -5878,7 +6321,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="E12" s="5">
         <v>300000</v>
@@ -5886,7 +6329,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="13" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -5894,7 +6337,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="11" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="E14" s="12">
         <f>E13+E12</f>
@@ -5907,7 +6350,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="11" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="E16" s="12">
         <f>E10-E14</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$175</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309">
   <si>
     <t>No Transaksi</t>
   </si>
@@ -892,6 +892,27 @@
   </si>
   <si>
     <t>0895390655752</t>
+  </si>
+  <si>
+    <t>BL171111H11CELC</t>
+  </si>
+  <si>
+    <t>170416411581</t>
+  </si>
+  <si>
+    <t>BL171111H8Y7ELC</t>
+  </si>
+  <si>
+    <t>170416760966</t>
+  </si>
+  <si>
+    <t>Abu Dzaki</t>
+  </si>
+  <si>
+    <t>081329340428</t>
+  </si>
+  <si>
+    <t>BL171111HDPMELC</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -932,11 +953,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -962,14 +983,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,7 +998,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,11 +1034,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1015,7 +1051,31 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1037,14 +1097,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1052,9 +1104,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,37 +1120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,7 +1135,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,31 +1189,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1219,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,121 +1315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,20 +1396,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1408,37 +1426,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,10 +1449,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1476,134 +1497,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1649,6 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1990,13 +2012,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I160" sqref="I160"/>
+      <selection pane="bottomLeft" activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2043,7 +2065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" hidden="1" spans="1:10">
       <c r="A2" s="15"/>
       <c r="B2" s="20">
         <v>42825</v>
@@ -2065,7 +2087,7 @@
       </c>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" hidden="1" spans="1:10">
       <c r="A3" s="15"/>
       <c r="C3" t="s">
         <v>10</v>
@@ -2081,7 +2103,7 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" hidden="1" spans="1:10">
       <c r="A4" s="15"/>
       <c r="C4" t="s">
         <v>12</v>
@@ -2097,7 +2119,7 @@
       </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" hidden="1" spans="1:10">
       <c r="A5" s="15"/>
       <c r="B5" s="20">
         <v>42825</v>
@@ -2116,7 +2138,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" hidden="1" spans="1:10">
       <c r="A6" s="15"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -2132,7 +2154,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" hidden="1" spans="1:10">
       <c r="A7" s="15"/>
       <c r="B7" s="20">
         <v>42825</v>
@@ -2160,7 +2182,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" hidden="1" spans="1:10">
       <c r="A8" s="15"/>
       <c r="B8" s="20"/>
       <c r="C8" t="s">
@@ -2174,7 +2196,7 @@
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" hidden="1" spans="1:10">
       <c r="A9" s="15"/>
       <c r="B9" s="20">
         <v>42826</v>
@@ -2193,7 +2215,7 @@
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" hidden="1" spans="1:10">
       <c r="A10" s="15"/>
       <c r="B10" s="20">
         <v>42826</v>
@@ -2212,7 +2234,7 @@
       </c>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" hidden="1" spans="1:10">
       <c r="A11" s="15"/>
       <c r="B11" s="20">
         <v>42826</v>
@@ -2229,10 +2251,12 @@
       <c r="H11" s="21">
         <v>11000</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11">
+        <v>11500</v>
+      </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" hidden="1" spans="1:10">
       <c r="A12" s="15"/>
       <c r="B12" s="20">
         <v>42826</v>
@@ -2251,7 +2275,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" hidden="1" spans="1:10">
       <c r="A13" s="15"/>
       <c r="B13" s="20">
         <v>42831</v>
@@ -2276,7 +2300,7 @@
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" hidden="1" spans="1:10">
       <c r="A14" s="15"/>
       <c r="B14" s="20">
         <v>42831</v>
@@ -2295,7 +2319,7 @@
       </c>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" hidden="1" spans="1:10">
       <c r="A15" s="15"/>
       <c r="B15" s="20">
         <v>42831</v>
@@ -2320,7 +2344,7 @@
       </c>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" hidden="1" spans="1:10">
       <c r="A16" s="15"/>
       <c r="B16" s="20">
         <v>42831</v>
@@ -2339,7 +2363,7 @@
       </c>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" hidden="1" spans="1:10">
       <c r="A17" s="15"/>
       <c r="B17" s="20">
         <v>42832</v>
@@ -2358,7 +2382,7 @@
       </c>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" hidden="1" spans="1:10">
       <c r="A18" s="15"/>
       <c r="B18" s="20">
         <v>42832</v>
@@ -2375,10 +2399,12 @@
       <c r="H18" s="21">
         <v>11500</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18">
+        <v>11500</v>
+      </c>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" hidden="1" spans="1:10">
       <c r="A19" s="15"/>
       <c r="B19" s="20">
         <v>42832</v>
@@ -2406,7 +2432,7 @@
       </c>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" hidden="1" spans="1:10">
       <c r="A20" s="15"/>
       <c r="B20" s="20">
         <v>42832</v>
@@ -2428,7 +2454,7 @@
       </c>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" hidden="1" spans="1:10">
       <c r="A21" s="15"/>
       <c r="B21" s="20">
         <v>42833</v>
@@ -2456,7 +2482,7 @@
       </c>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" hidden="1" spans="1:10">
       <c r="A22" s="15"/>
       <c r="B22" s="20">
         <v>42833</v>
@@ -2484,7 +2510,7 @@
       </c>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" hidden="1" spans="1:10">
       <c r="A23" s="15"/>
       <c r="B23" s="20">
         <v>42833</v>
@@ -2512,7 +2538,7 @@
       </c>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" hidden="1" spans="1:10">
       <c r="A24" s="15"/>
       <c r="B24" s="20">
         <v>42833</v>
@@ -2531,7 +2557,7 @@
       </c>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" hidden="1" spans="1:10">
       <c r="A25" s="15"/>
       <c r="B25" s="20">
         <v>42833</v>
@@ -2556,7 +2582,7 @@
       </c>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" hidden="1" spans="1:10">
       <c r="A26" s="15"/>
       <c r="B26" s="20">
         <v>42833</v>
@@ -2575,7 +2601,7 @@
       </c>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" hidden="1" spans="1:10">
       <c r="A27" s="15"/>
       <c r="B27" s="20">
         <v>42834</v>
@@ -2594,7 +2620,7 @@
       </c>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" hidden="1" spans="1:12">
       <c r="A28" s="15"/>
       <c r="B28" s="20">
         <v>42834</v>
@@ -2623,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" hidden="1" spans="1:12">
       <c r="A29" s="15"/>
       <c r="B29" s="20">
         <v>42834</v>
@@ -2654,7 +2680,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" hidden="1" spans="1:12">
       <c r="A30" s="15"/>
       <c r="B30" s="20">
         <v>42834</v>
@@ -2677,7 +2703,7 @@
       <c r="J30" s="21"/>
       <c r="L30" s="23"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" hidden="1" spans="1:10">
       <c r="A31" s="15"/>
       <c r="B31" s="20">
         <v>42834</v>
@@ -2705,7 +2731,7 @@
       </c>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" hidden="1" spans="1:10">
       <c r="A32" s="15"/>
       <c r="B32" s="20">
         <v>42835</v>
@@ -2733,7 +2759,7 @@
       </c>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" hidden="1" spans="1:10">
       <c r="A33" s="15"/>
       <c r="B33" s="20">
         <v>42835</v>
@@ -2761,7 +2787,7 @@
       </c>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" hidden="1" spans="1:10">
       <c r="A34" s="15"/>
       <c r="B34" s="20">
         <v>42836</v>
@@ -2780,7 +2806,7 @@
       </c>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" hidden="1" spans="1:10">
       <c r="A35" s="15"/>
       <c r="B35" s="20">
         <v>42836</v>
@@ -2808,7 +2834,7 @@
       </c>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" hidden="1" spans="1:10">
       <c r="A36" s="15"/>
       <c r="B36" s="20">
         <v>42837</v>
@@ -2830,7 +2856,7 @@
       </c>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" hidden="1" spans="1:10">
       <c r="A37" s="15"/>
       <c r="B37" s="20">
         <v>42837</v>
@@ -2852,7 +2878,7 @@
       </c>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" hidden="1" spans="1:10">
       <c r="A38" s="15"/>
       <c r="B38" s="20">
         <v>42838</v>
@@ -2877,7 +2903,7 @@
       </c>
       <c r="J38" s="21"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" hidden="1" spans="1:10">
       <c r="A39" s="15"/>
       <c r="B39" s="20">
         <v>42838</v>
@@ -2905,7 +2931,7 @@
       </c>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" hidden="1" spans="1:10">
       <c r="A40" s="15"/>
       <c r="B40" s="20">
         <v>42838</v>
@@ -2925,10 +2951,12 @@
       <c r="H40" s="23">
         <v>54500</v>
       </c>
-      <c r="I40" s="21"/>
+      <c r="I40">
+        <v>55000</v>
+      </c>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" hidden="1" spans="1:10">
       <c r="A41" s="15"/>
       <c r="B41" s="20">
         <v>42839</v>
@@ -2953,7 +2981,7 @@
       </c>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" hidden="1" spans="1:10">
       <c r="A42" s="15"/>
       <c r="B42" s="20">
         <v>42839</v>
@@ -2978,7 +3006,7 @@
       </c>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" hidden="1" spans="1:12">
       <c r="A43" s="15"/>
       <c r="B43" s="20">
         <v>42839</v>
@@ -3007,7 +3035,7 @@
       <c r="J43" s="21"/>
       <c r="L43" s="23"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" hidden="1" spans="1:12">
       <c r="A44" s="15"/>
       <c r="B44" s="20">
         <v>42840</v>
@@ -3036,7 +3064,7 @@
       <c r="J44" s="21"/>
       <c r="L44" s="23"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" hidden="1" spans="1:10">
       <c r="A45" s="15"/>
       <c r="B45" s="20">
         <v>42840</v>
@@ -3064,7 +3092,7 @@
       </c>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" hidden="1" spans="1:10">
       <c r="A46" s="15"/>
       <c r="B46" s="20">
         <v>42840</v>
@@ -3089,7 +3117,7 @@
       </c>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" hidden="1" spans="1:10">
       <c r="A47" s="15"/>
       <c r="B47" s="20">
         <v>42840</v>
@@ -3137,7 +3165,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" hidden="1" spans="1:10">
       <c r="A49" s="15"/>
       <c r="B49" s="20">
         <v>42841</v>
@@ -3165,7 +3193,7 @@
       </c>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" hidden="1" spans="1:10">
       <c r="A50" s="15"/>
       <c r="B50" s="20">
         <v>42841</v>
@@ -3193,7 +3221,7 @@
       </c>
       <c r="J50" s="21"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" hidden="1" spans="1:10">
       <c r="A51" s="15"/>
       <c r="B51" s="20">
         <v>42841</v>
@@ -3221,7 +3249,7 @@
       </c>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" hidden="1" spans="1:10">
       <c r="A52" s="15"/>
       <c r="B52" s="20">
         <v>42841</v>
@@ -3246,7 +3274,7 @@
       </c>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" hidden="1" spans="1:10">
       <c r="A53" s="15"/>
       <c r="B53" s="20">
         <v>42841</v>
@@ -3271,7 +3299,7 @@
       </c>
       <c r="J53" s="21"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" hidden="1" spans="1:10">
       <c r="A54" s="15"/>
       <c r="B54" s="20">
         <v>42841</v>
@@ -3299,7 +3327,7 @@
       </c>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" hidden="1" spans="1:10">
       <c r="A55" s="15"/>
       <c r="B55" s="20">
         <v>42841</v>
@@ -3327,7 +3355,7 @@
       </c>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" hidden="1" spans="1:10">
       <c r="A56" s="15"/>
       <c r="B56" s="20">
         <v>42842</v>
@@ -3352,7 +3380,7 @@
       </c>
       <c r="J56" s="21"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" hidden="1" spans="1:10">
       <c r="A57" s="15"/>
       <c r="B57" s="20">
         <v>42842</v>
@@ -3380,7 +3408,7 @@
       </c>
       <c r="J57" s="21"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" hidden="1" spans="1:10">
       <c r="A58" s="15"/>
       <c r="B58" s="20">
         <v>42842</v>
@@ -3408,7 +3436,7 @@
       </c>
       <c r="J58" s="21"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" hidden="1" spans="1:10">
       <c r="A59" s="15"/>
       <c r="B59" s="20">
         <v>42842</v>
@@ -3433,7 +3461,7 @@
       </c>
       <c r="J59" s="21"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" hidden="1" spans="1:10">
       <c r="A60" s="15"/>
       <c r="B60" s="20">
         <v>42843</v>
@@ -3461,7 +3489,7 @@
       </c>
       <c r="J60" s="21"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" hidden="1" spans="1:10">
       <c r="A61" s="15"/>
       <c r="B61" s="20">
         <v>42843</v>
@@ -3489,7 +3517,7 @@
       </c>
       <c r="J61" s="21"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" hidden="1" spans="1:10">
       <c r="A62" s="15"/>
       <c r="B62" s="20">
         <v>42843</v>
@@ -3517,7 +3545,7 @@
       </c>
       <c r="J62" s="21"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" hidden="1" spans="1:10">
       <c r="A63" s="15"/>
       <c r="B63" s="20">
         <v>42844</v>
@@ -3542,7 +3570,7 @@
       </c>
       <c r="J63" s="21"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" hidden="1" spans="1:10">
       <c r="A64" s="15"/>
       <c r="B64" s="20">
         <v>42844</v>
@@ -3567,7 +3595,7 @@
       </c>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" hidden="1" spans="1:12">
       <c r="A65" s="15"/>
       <c r="B65" s="20">
         <v>42844</v>
@@ -3595,7 +3623,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" hidden="1" spans="1:12">
       <c r="A66" s="15"/>
       <c r="B66" s="20">
         <v>42844</v>
@@ -3623,7 +3651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" hidden="1" spans="1:12">
       <c r="A67" s="15"/>
       <c r="B67" s="20">
         <v>42844</v>
@@ -3651,7 +3679,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" hidden="1" spans="1:12">
       <c r="A68" s="15"/>
       <c r="B68" s="20">
         <v>42844</v>
@@ -3679,7 +3707,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" hidden="1" spans="1:12">
       <c r="A69" s="15"/>
       <c r="B69" s="20">
         <v>42844</v>
@@ -3730,7 +3758,7 @@
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" hidden="1" spans="1:10">
       <c r="A71" s="15" t="s">
         <v>121</v>
       </c>
@@ -3757,7 +3785,7 @@
       </c>
       <c r="J71" s="21"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" hidden="1" spans="1:10">
       <c r="A72" s="15" t="s">
         <v>124</v>
       </c>
@@ -3787,7 +3815,7 @@
       </c>
       <c r="J72" s="21"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" hidden="1" spans="1:10">
       <c r="A73" s="15"/>
       <c r="B73" s="20">
         <v>42845</v>
@@ -3810,10 +3838,12 @@
       <c r="H73" s="23">
         <v>51500</v>
       </c>
-      <c r="I73" s="21"/>
+      <c r="I73" s="23">
+        <v>51500</v>
+      </c>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" hidden="1" spans="1:10">
       <c r="A74" s="15"/>
       <c r="B74" s="20">
         <v>42845</v>
@@ -3841,7 +3871,7 @@
       </c>
       <c r="J74" s="21"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" hidden="1" spans="1:10">
       <c r="A75" s="15" t="s">
         <v>132</v>
       </c>
@@ -3868,7 +3898,7 @@
       </c>
       <c r="J75" s="21"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" hidden="1" spans="1:10">
       <c r="A76" s="15" t="s">
         <v>134</v>
       </c>
@@ -3895,7 +3925,7 @@
       </c>
       <c r="J76" s="21"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" hidden="1" spans="1:10">
       <c r="A77" s="15" t="s">
         <v>136</v>
       </c>
@@ -3925,7 +3955,7 @@
       </c>
       <c r="J77" s="21"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" hidden="1" spans="1:10">
       <c r="A78" s="15" t="s">
         <v>140</v>
       </c>
@@ -3955,7 +3985,7 @@
       </c>
       <c r="J78" s="21"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" hidden="1" spans="1:10">
       <c r="A79" s="15" t="s">
         <v>143</v>
       </c>
@@ -3985,7 +4015,7 @@
       </c>
       <c r="J79" s="21"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" hidden="1" spans="1:10">
       <c r="A80" s="15" t="s">
         <v>146</v>
       </c>
@@ -4043,7 +4073,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" hidden="1" spans="1:10">
       <c r="A82" s="15" t="s">
         <v>148</v>
       </c>
@@ -4073,7 +4103,7 @@
       </c>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" hidden="1" spans="1:10">
       <c r="A83" s="15" t="s">
         <v>152</v>
       </c>
@@ -4103,7 +4133,7 @@
       </c>
       <c r="J83" s="21"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" hidden="1" spans="1:10">
       <c r="A84" s="15" t="s">
         <v>156</v>
       </c>
@@ -4133,7 +4163,7 @@
       </c>
       <c r="J84" s="21"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" hidden="1" spans="1:10">
       <c r="A85" s="15" t="s">
         <v>160</v>
       </c>
@@ -4160,7 +4190,7 @@
       </c>
       <c r="J85" s="21"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" hidden="1" spans="1:10">
       <c r="A86" s="15" t="s">
         <v>161</v>
       </c>
@@ -4187,7 +4217,7 @@
       </c>
       <c r="J86" s="21"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" hidden="1" spans="1:10">
       <c r="A87" s="15" t="s">
         <v>164</v>
       </c>
@@ -4214,7 +4244,7 @@
       </c>
       <c r="J87" s="21"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" hidden="1" spans="1:10">
       <c r="A88" s="15" t="s">
         <v>165</v>
       </c>
@@ -4266,7 +4296,7 @@
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" hidden="1" spans="1:10">
       <c r="A90" s="15" t="s">
         <v>169</v>
       </c>
@@ -4296,7 +4326,7 @@
       </c>
       <c r="J90" s="21"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" hidden="1" spans="1:10">
       <c r="A91" s="15" t="s">
         <v>170</v>
       </c>
@@ -4326,7 +4356,7 @@
       </c>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" hidden="1" spans="1:14">
       <c r="A92" s="25" t="s">
         <v>173</v>
       </c>
@@ -4359,7 +4389,7 @@
       <c r="M92" s="23"/>
       <c r="N92" s="23"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" hidden="1" spans="1:10">
       <c r="A93" s="25" t="s">
         <v>175</v>
       </c>
@@ -4389,7 +4419,7 @@
       </c>
       <c r="J93" s="21"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" hidden="1" spans="1:10">
       <c r="A94" s="25" t="s">
         <v>178</v>
       </c>
@@ -4416,7 +4446,7 @@
       </c>
       <c r="J94" s="21"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" hidden="1" spans="1:10">
       <c r="A95" t="s">
         <v>180</v>
       </c>
@@ -4443,7 +4473,7 @@
       </c>
       <c r="J95" s="21"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" hidden="1" spans="1:10">
       <c r="A96" s="25" t="s">
         <v>183</v>
       </c>
@@ -4645,7 +4675,7 @@
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" hidden="1" spans="1:10">
       <c r="A104" s="25" t="s">
         <v>196</v>
       </c>
@@ -4675,7 +4705,7 @@
       </c>
       <c r="J104" s="21"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" hidden="1" spans="1:10">
       <c r="A105" s="25" t="s">
         <v>197</v>
       </c>
@@ -4805,7 +4835,7 @@
       </c>
       <c r="J109" s="21"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" hidden="1" spans="1:9">
       <c r="A110" s="27" t="s">
         <v>205</v>
       </c>
@@ -4885,7 +4915,7 @@
       </c>
       <c r="I112" s="21"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" hidden="1" spans="1:9">
       <c r="A113" s="27" t="s">
         <v>211</v>
       </c>
@@ -4941,7 +4971,7 @@
       </c>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" hidden="1" spans="1:9">
       <c r="A115" s="27" t="s">
         <v>215</v>
       </c>
@@ -5015,7 +5045,7 @@
       </c>
       <c r="I117" s="21"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" hidden="1" spans="1:9">
       <c r="A118" s="27" t="s">
         <v>220</v>
       </c>
@@ -5041,7 +5071,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" hidden="1" spans="1:9">
       <c r="A119" s="27" t="s">
         <v>221</v>
       </c>
@@ -5094,7 +5124,7 @@
       </c>
       <c r="I120" s="21"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" hidden="1" spans="1:9">
       <c r="A121" s="15"/>
       <c r="B121" s="20">
         <v>42855</v>
@@ -5193,7 +5223,7 @@
       </c>
       <c r="I124" s="21"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" hidden="1" spans="1:10">
       <c r="A125" s="27" t="s">
         <v>230</v>
       </c>
@@ -5223,7 +5253,7 @@
       </c>
       <c r="J125" s="21"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" hidden="1" spans="1:10">
       <c r="A126" s="27" t="s">
         <v>231</v>
       </c>
@@ -5278,7 +5308,7 @@
       <c r="I127" s="21"/>
       <c r="J127" s="21"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" hidden="1" spans="1:10">
       <c r="A128" s="27" t="s">
         <v>234</v>
       </c>
@@ -5308,7 +5338,7 @@
       </c>
       <c r="J128" s="21"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" hidden="1" spans="1:10">
       <c r="A129" s="27" t="s">
         <v>235</v>
       </c>
@@ -5338,8 +5368,8 @@
       </c>
       <c r="J129" s="21"/>
     </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="29" t="s">
+    <row r="130" hidden="1" spans="1:10">
+      <c r="A130" s="30" t="s">
         <v>236</v>
       </c>
       <c r="B130" s="20">
@@ -5369,7 +5399,7 @@
       <c r="J130" s="21"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="30" t="s">
         <v>238</v>
       </c>
       <c r="B131" s="20">
@@ -5397,7 +5427,7 @@
       <c r="J131" s="21"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="30" t="s">
         <v>241</v>
       </c>
       <c r="B132" s="20">
@@ -5425,7 +5455,7 @@
       <c r="J132" s="21"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="30" t="s">
         <v>243</v>
       </c>
       <c r="B133" s="20">
@@ -5452,7 +5482,7 @@
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" hidden="1" spans="1:10">
       <c r="A134" s="14" t="s">
         <v>245</v>
       </c>
@@ -5483,7 +5513,7 @@
       <c r="J134" s="21"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="30" t="s">
         <v>249</v>
       </c>
       <c r="B135" s="20">
@@ -5510,8 +5540,8 @@
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
     </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="29" t="s">
+    <row r="136" hidden="1" spans="1:10">
+      <c r="A136" s="30" t="s">
         <v>250</v>
       </c>
       <c r="B136" s="20">
@@ -5541,7 +5571,7 @@
       <c r="J136" s="21"/>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="29" t="s">
+      <c r="A137" s="30" t="s">
         <v>253</v>
       </c>
       <c r="B137" s="20">
@@ -5569,7 +5599,7 @@
       <c r="J137" s="21"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="29" t="s">
+      <c r="A138" s="30" t="s">
         <v>255</v>
       </c>
       <c r="B138" s="20">
@@ -5594,7 +5624,7 @@
       <c r="J138" s="21"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="29" t="s">
+      <c r="A139" s="30" t="s">
         <v>256</v>
       </c>
       <c r="B139" s="20">
@@ -5621,7 +5651,7 @@
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" hidden="1" spans="1:10">
       <c r="A140" s="14" t="s">
         <v>257</v>
       </c>
@@ -5679,7 +5709,7 @@
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" hidden="1" spans="1:9">
       <c r="A142" s="14" t="s">
         <v>260</v>
       </c>
@@ -5734,7 +5764,7 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" hidden="1" spans="1:9">
       <c r="A144" s="14" t="s">
         <v>264</v>
       </c>
@@ -5763,7 +5793,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" hidden="1" spans="1:9">
       <c r="A145" s="14" t="s">
         <v>265</v>
       </c>
@@ -5788,9 +5818,12 @@
       <c r="H145" s="28">
         <v>51500</v>
       </c>
+      <c r="I145">
+        <v>50000</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="29" t="s">
+      <c r="A146" s="30" t="s">
         <v>267</v>
       </c>
       <c r="B146" s="20">
@@ -5813,7 +5846,7 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="29" t="s">
+      <c r="A147" s="30" t="s">
         <v>270</v>
       </c>
       <c r="B147" s="20">
@@ -5836,7 +5869,7 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="29" t="s">
+      <c r="A148" s="30" t="s">
         <v>272</v>
       </c>
       <c r="B148" s="20">
@@ -5858,8 +5891,8 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="29" t="s">
+    <row r="149" hidden="1" spans="1:9">
+      <c r="A149" s="30" t="s">
         <v>274</v>
       </c>
       <c r="B149" s="20">
@@ -5885,7 +5918,7 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="29" t="s">
+      <c r="A150" s="30" t="s">
         <v>276</v>
       </c>
       <c r="B150" s="20">
@@ -5908,7 +5941,7 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="29" t="s">
+      <c r="A151" s="30" t="s">
         <v>277</v>
       </c>
       <c r="B151" s="20">
@@ -5957,7 +5990,7 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="29" t="s">
+      <c r="A153" s="30" t="s">
         <v>283</v>
       </c>
       <c r="B153" s="20">
@@ -5980,7 +6013,7 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="29" t="s">
+      <c r="A154" s="30" t="s">
         <v>284</v>
       </c>
       <c r="B154" s="20">
@@ -6029,7 +6062,7 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="29" t="s">
+      <c r="A156" s="30" t="s">
         <v>289</v>
       </c>
       <c r="B156" s="20">
@@ -6051,83 +6084,226 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="1:8">
+      <c r="A157" s="14" t="s">
+        <v>291</v>
+      </c>
       <c r="B157" s="20">
-        <v>42862</v>
-      </c>
-      <c r="F157" s="28"/>
-      <c r="H157" s="28"/>
-    </row>
-    <row r="158" spans="2:8">
+        <v>42863</v>
+      </c>
+      <c r="C157" t="s">
+        <v>99</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F157" s="28">
+        <v>100000</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="28">
+        <v>101500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="30" t="s">
+        <v>292</v>
+      </c>
       <c r="B158" s="20">
-        <v>42862</v>
-      </c>
-      <c r="F158" s="28"/>
-      <c r="H158" s="28"/>
-    </row>
-    <row r="159" spans="6:8">
-      <c r="F159" s="28"/>
-      <c r="H159" s="28"/>
-    </row>
-    <row r="160" spans="6:8">
-      <c r="F160" s="28"/>
-      <c r="H160" s="28"/>
-    </row>
-    <row r="161" spans="6:8">
-      <c r="F161" s="28"/>
-      <c r="H161" s="28"/>
-    </row>
-    <row r="162" spans="6:8">
+        <v>42863</v>
+      </c>
+      <c r="C158" t="s">
+        <v>71</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F158" s="28">
+        <v>50500</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="28">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B159" s="20">
+        <v>42863</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F159" s="23">
+        <v>50000</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" s="23">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="160" hidden="1" spans="1:9">
+      <c r="A160" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B160" s="20">
+        <v>42863</v>
+      </c>
+      <c r="C160" t="s">
+        <v>295</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F160" s="28">
+        <v>22000</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="28">
+        <v>21000</v>
+      </c>
+      <c r="I160">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B161" s="20">
+        <v>42863</v>
+      </c>
+      <c r="C161" t="s">
+        <v>103</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F161" s="29">
+        <v>50000</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="23">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="20">
+        <v>42863</v>
+      </c>
       <c r="F162" s="28"/>
       <c r="H162" s="28"/>
     </row>
-    <row r="163" spans="6:8">
+    <row r="163" spans="2:8">
+      <c r="B163" s="20">
+        <v>42863</v>
+      </c>
       <c r="F163" s="28"/>
       <c r="H163" s="28"/>
     </row>
-    <row r="164" spans="6:8">
+    <row r="164" spans="2:8">
+      <c r="B164" s="20">
+        <v>42863</v>
+      </c>
       <c r="F164" s="28"/>
       <c r="H164" s="28"/>
     </row>
-    <row r="165" spans="6:8">
+    <row r="165" spans="2:8">
+      <c r="B165" s="20">
+        <v>42863</v>
+      </c>
       <c r="F165" s="28"/>
       <c r="H165" s="28"/>
     </row>
-    <row r="166" spans="6:8">
+    <row r="166" spans="2:8">
+      <c r="B166" s="20">
+        <v>42863</v>
+      </c>
       <c r="F166" s="28"/>
       <c r="H166" s="28"/>
     </row>
-    <row r="167" spans="6:8">
+    <row r="167" spans="2:8">
+      <c r="B167" s="20">
+        <v>42863</v>
+      </c>
       <c r="F167" s="28"/>
       <c r="H167" s="28"/>
     </row>
-    <row r="168" spans="6:8">
+    <row r="168" spans="2:8">
+      <c r="B168" s="20">
+        <v>42863</v>
+      </c>
       <c r="F168" s="28"/>
       <c r="H168" s="28"/>
     </row>
-    <row r="169" spans="6:8">
+    <row r="169" spans="2:8">
+      <c r="B169" s="20">
+        <v>42863</v>
+      </c>
       <c r="F169" s="28"/>
       <c r="H169" s="28"/>
     </row>
-    <row r="170" spans="6:8">
+    <row r="170" spans="2:8">
+      <c r="B170" s="20">
+        <v>42863</v>
+      </c>
       <c r="F170" s="28"/>
       <c r="H170" s="28"/>
     </row>
-    <row r="171" spans="6:8">
+    <row r="171" spans="2:8">
+      <c r="B171" s="20">
+        <v>42863</v>
+      </c>
       <c r="F171" s="28"/>
       <c r="H171" s="28"/>
     </row>
-    <row r="172" spans="6:8">
+    <row r="172" spans="2:8">
+      <c r="B172" s="20">
+        <v>42863</v>
+      </c>
       <c r="F172" s="28"/>
       <c r="H172" s="28"/>
     </row>
-    <row r="173" spans="6:6">
+    <row r="173" spans="2:6">
+      <c r="B173" s="20">
+        <v>42863</v>
+      </c>
       <c r="F173" s="28"/>
     </row>
-    <row r="174" spans="6:6">
+    <row r="174" spans="2:6">
+      <c r="B174" s="20">
+        <v>42863</v>
+      </c>
       <c r="F174" s="28"/>
     </row>
-    <row r="175" spans="6:6">
+    <row r="175" spans="2:6">
+      <c r="B175" s="20">
+        <v>42863</v>
+      </c>
       <c r="F175" s="28"/>
     </row>
     <row r="176" spans="6:6">
@@ -6149,7 +6325,11 @@
       <c r="F181" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I158"/>
+  <autoFilter ref="B1:I175">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -6193,22 +6373,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6287,7 +6467,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6300,7 +6480,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="11" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E9" s="12">
         <v>1000000</v>
@@ -6308,7 +6488,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="13" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E10" s="5">
         <f>E9-E6</f>
@@ -6321,7 +6501,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E12" s="5">
         <v>300000</v>
@@ -6329,7 +6509,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="13" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -6337,7 +6517,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E14" s="12">
         <f>E13+E12</f>
@@ -6350,7 +6530,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E16" s="12">
         <f>E10-E14</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
   <si>
     <t>No Transaksi</t>
   </si>
@@ -624,6 +624,9 @@
     <t>BL171131SE82INV</t>
   </si>
   <si>
+    <t>Syakri</t>
+  </si>
+  <si>
     <t>082333852871</t>
   </si>
   <si>
@@ -913,6 +916,63 @@
   </si>
   <si>
     <t>BL171111HDPMELC</t>
+  </si>
+  <si>
+    <t>170417508051</t>
+  </si>
+  <si>
+    <t>170417508521</t>
+  </si>
+  <si>
+    <t>170417262581</t>
+  </si>
+  <si>
+    <t>Ummu Rumaisho</t>
+  </si>
+  <si>
+    <t>082237881623</t>
+  </si>
+  <si>
+    <t>170417255936</t>
+  </si>
+  <si>
+    <t>170417203046</t>
+  </si>
+  <si>
+    <t>Ummu Saudah</t>
+  </si>
+  <si>
+    <t>081802599191</t>
+  </si>
+  <si>
+    <t>170417698051</t>
+  </si>
+  <si>
+    <t>081391824554</t>
+  </si>
+  <si>
+    <t>170418471696</t>
+  </si>
+  <si>
+    <t>170418475801</t>
+  </si>
+  <si>
+    <t>085647012334</t>
+  </si>
+  <si>
+    <t>170418612406</t>
+  </si>
+  <si>
+    <t>170418613021</t>
+  </si>
+  <si>
+    <t>081806688890</t>
+  </si>
+  <si>
+    <t>170418693416</t>
+  </si>
+  <si>
+    <t>Mas joko</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -954,10 +1014,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -983,15 +1043,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,14 +1057,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,30 +1171,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -1058,69 +1178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,7 +1195,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,19 +1231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,25 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,7 +1255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,25 +1291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,7 +1315,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,25 +1363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,25 +1375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,6 +1441,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1392,6 +1470,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,25 +1504,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1458,30 +1538,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1497,130 +1557,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2012,13 +2072,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I178" sqref="I178"/>
+      <selection pane="bottomLeft" activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2065,7 +2125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" s="15"/>
       <c r="B2" s="20">
         <v>42825</v>
@@ -2087,7 +2147,7 @@
       </c>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" hidden="1" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" s="15"/>
       <c r="C3" t="s">
         <v>10</v>
@@ -2103,7 +2163,7 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" hidden="1" spans="1:10">
+    <row r="4" spans="1:10">
       <c r="A4" s="15"/>
       <c r="C4" t="s">
         <v>12</v>
@@ -2119,7 +2179,7 @@
       </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" hidden="1" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5" s="15"/>
       <c r="B5" s="20">
         <v>42825</v>
@@ -2138,7 +2198,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" hidden="1" spans="1:10">
+    <row r="6" spans="1:10">
       <c r="A6" s="15"/>
       <c r="C6" t="s">
         <v>14</v>
@@ -2154,7 +2214,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" hidden="1" spans="1:10">
+    <row r="7" spans="1:10">
       <c r="A7" s="15"/>
       <c r="B7" s="20">
         <v>42825</v>
@@ -2182,7 +2242,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" hidden="1" spans="1:10">
+    <row r="8" spans="1:10">
       <c r="A8" s="15"/>
       <c r="B8" s="20"/>
       <c r="C8" t="s">
@@ -2196,7 +2256,7 @@
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" hidden="1" spans="1:10">
+    <row r="9" spans="1:10">
       <c r="A9" s="15"/>
       <c r="B9" s="20">
         <v>42826</v>
@@ -2215,7 +2275,7 @@
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" hidden="1" spans="1:10">
+    <row r="10" spans="1:10">
       <c r="A10" s="15"/>
       <c r="B10" s="20">
         <v>42826</v>
@@ -2234,7 +2294,7 @@
       </c>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" hidden="1" spans="1:10">
+    <row r="11" spans="1:10">
       <c r="A11" s="15"/>
       <c r="B11" s="20">
         <v>42826</v>
@@ -2256,7 +2316,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" hidden="1" spans="1:10">
+    <row r="12" spans="1:10">
       <c r="A12" s="15"/>
       <c r="B12" s="20">
         <v>42826</v>
@@ -2275,7 +2335,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" hidden="1" spans="1:10">
+    <row r="13" spans="1:10">
       <c r="A13" s="15"/>
       <c r="B13" s="20">
         <v>42831</v>
@@ -2300,7 +2360,7 @@
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" hidden="1" spans="1:10">
+    <row r="14" spans="1:10">
       <c r="A14" s="15"/>
       <c r="B14" s="20">
         <v>42831</v>
@@ -2319,7 +2379,7 @@
       </c>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" hidden="1" spans="1:10">
+    <row r="15" spans="1:10">
       <c r="A15" s="15"/>
       <c r="B15" s="20">
         <v>42831</v>
@@ -2344,7 +2404,7 @@
       </c>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" hidden="1" spans="1:10">
+    <row r="16" spans="1:10">
       <c r="A16" s="15"/>
       <c r="B16" s="20">
         <v>42831</v>
@@ -2363,7 +2423,7 @@
       </c>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" hidden="1" spans="1:10">
+    <row r="17" spans="1:10">
       <c r="A17" s="15"/>
       <c r="B17" s="20">
         <v>42832</v>
@@ -2382,7 +2442,7 @@
       </c>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" hidden="1" spans="1:10">
+    <row r="18" spans="1:10">
       <c r="A18" s="15"/>
       <c r="B18" s="20">
         <v>42832</v>
@@ -2404,7 +2464,7 @@
       </c>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" hidden="1" spans="1:10">
+    <row r="19" spans="1:10">
       <c r="A19" s="15"/>
       <c r="B19" s="20">
         <v>42832</v>
@@ -2432,7 +2492,7 @@
       </c>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" hidden="1" spans="1:10">
+    <row r="20" spans="1:10">
       <c r="A20" s="15"/>
       <c r="B20" s="20">
         <v>42832</v>
@@ -2454,7 +2514,7 @@
       </c>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" hidden="1" spans="1:10">
+    <row r="21" spans="1:10">
       <c r="A21" s="15"/>
       <c r="B21" s="20">
         <v>42833</v>
@@ -2482,7 +2542,7 @@
       </c>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" hidden="1" spans="1:10">
+    <row r="22" spans="1:10">
       <c r="A22" s="15"/>
       <c r="B22" s="20">
         <v>42833</v>
@@ -2510,7 +2570,7 @@
       </c>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" hidden="1" spans="1:10">
+    <row r="23" spans="1:10">
       <c r="A23" s="15"/>
       <c r="B23" s="20">
         <v>42833</v>
@@ -2538,7 +2598,7 @@
       </c>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" hidden="1" spans="1:10">
+    <row r="24" spans="1:10">
       <c r="A24" s="15"/>
       <c r="B24" s="20">
         <v>42833</v>
@@ -2557,7 +2617,7 @@
       </c>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" hidden="1" spans="1:10">
+    <row r="25" spans="1:10">
       <c r="A25" s="15"/>
       <c r="B25" s="20">
         <v>42833</v>
@@ -2582,7 +2642,7 @@
       </c>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" hidden="1" spans="1:10">
+    <row r="26" spans="1:10">
       <c r="A26" s="15"/>
       <c r="B26" s="20">
         <v>42833</v>
@@ -2601,7 +2661,7 @@
       </c>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" hidden="1" spans="1:10">
+    <row r="27" spans="1:10">
       <c r="A27" s="15"/>
       <c r="B27" s="20">
         <v>42834</v>
@@ -2620,7 +2680,7 @@
       </c>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" hidden="1" spans="1:12">
+    <row r="28" spans="1:12">
       <c r="A28" s="15"/>
       <c r="B28" s="20">
         <v>42834</v>
@@ -2649,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:12">
+    <row r="29" spans="1:12">
       <c r="A29" s="15"/>
       <c r="B29" s="20">
         <v>42834</v>
@@ -2680,7 +2740,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:12">
+    <row r="30" spans="1:12">
       <c r="A30" s="15"/>
       <c r="B30" s="20">
         <v>42834</v>
@@ -2703,7 +2763,7 @@
       <c r="J30" s="21"/>
       <c r="L30" s="23"/>
     </row>
-    <row r="31" hidden="1" spans="1:10">
+    <row r="31" spans="1:10">
       <c r="A31" s="15"/>
       <c r="B31" s="20">
         <v>42834</v>
@@ -2731,7 +2791,7 @@
       </c>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" hidden="1" spans="1:10">
+    <row r="32" spans="1:10">
       <c r="A32" s="15"/>
       <c r="B32" s="20">
         <v>42835</v>
@@ -2759,7 +2819,7 @@
       </c>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" hidden="1" spans="1:10">
+    <row r="33" spans="1:10">
       <c r="A33" s="15"/>
       <c r="B33" s="20">
         <v>42835</v>
@@ -2787,7 +2847,7 @@
       </c>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" hidden="1" spans="1:10">
+    <row r="34" spans="1:10">
       <c r="A34" s="15"/>
       <c r="B34" s="20">
         <v>42836</v>
@@ -2806,7 +2866,7 @@
       </c>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" hidden="1" spans="1:10">
+    <row r="35" spans="1:10">
       <c r="A35" s="15"/>
       <c r="B35" s="20">
         <v>42836</v>
@@ -2834,7 +2894,7 @@
       </c>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" hidden="1" spans="1:10">
+    <row r="36" spans="1:10">
       <c r="A36" s="15"/>
       <c r="B36" s="20">
         <v>42837</v>
@@ -2856,7 +2916,7 @@
       </c>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" hidden="1" spans="1:10">
+    <row r="37" spans="1:10">
       <c r="A37" s="15"/>
       <c r="B37" s="20">
         <v>42837</v>
@@ -2878,7 +2938,7 @@
       </c>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" hidden="1" spans="1:10">
+    <row r="38" spans="1:10">
       <c r="A38" s="15"/>
       <c r="B38" s="20">
         <v>42838</v>
@@ -2903,7 +2963,7 @@
       </c>
       <c r="J38" s="21"/>
     </row>
-    <row r="39" hidden="1" spans="1:10">
+    <row r="39" spans="1:10">
       <c r="A39" s="15"/>
       <c r="B39" s="20">
         <v>42838</v>
@@ -2931,7 +2991,7 @@
       </c>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" hidden="1" spans="1:10">
+    <row r="40" spans="1:10">
       <c r="A40" s="15"/>
       <c r="B40" s="20">
         <v>42838</v>
@@ -2956,7 +3016,7 @@
       </c>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" hidden="1" spans="1:10">
+    <row r="41" spans="1:10">
       <c r="A41" s="15"/>
       <c r="B41" s="20">
         <v>42839</v>
@@ -2981,7 +3041,7 @@
       </c>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" hidden="1" spans="1:10">
+    <row r="42" spans="1:10">
       <c r="A42" s="15"/>
       <c r="B42" s="20">
         <v>42839</v>
@@ -3006,7 +3066,7 @@
       </c>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" hidden="1" spans="1:12">
+    <row r="43" spans="1:12">
       <c r="A43" s="15"/>
       <c r="B43" s="20">
         <v>42839</v>
@@ -3035,7 +3095,7 @@
       <c r="J43" s="21"/>
       <c r="L43" s="23"/>
     </row>
-    <row r="44" hidden="1" spans="1:12">
+    <row r="44" spans="1:12">
       <c r="A44" s="15"/>
       <c r="B44" s="20">
         <v>42840</v>
@@ -3064,7 +3124,7 @@
       <c r="J44" s="21"/>
       <c r="L44" s="23"/>
     </row>
-    <row r="45" hidden="1" spans="1:10">
+    <row r="45" spans="1:10">
       <c r="A45" s="15"/>
       <c r="B45" s="20">
         <v>42840</v>
@@ -3092,7 +3152,7 @@
       </c>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" hidden="1" spans="1:10">
+    <row r="46" spans="1:10">
       <c r="A46" s="15"/>
       <c r="B46" s="20">
         <v>42840</v>
@@ -3117,7 +3177,7 @@
       </c>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" hidden="1" spans="1:10">
+    <row r="47" spans="1:10">
       <c r="A47" s="15"/>
       <c r="B47" s="20">
         <v>42840</v>
@@ -3162,10 +3222,12 @@
       <c r="H48" s="23">
         <v>11000</v>
       </c>
-      <c r="I48" s="21"/>
+      <c r="I48">
+        <v>11500</v>
+      </c>
       <c r="J48" s="21"/>
     </row>
-    <row r="49" hidden="1" spans="1:10">
+    <row r="49" spans="1:10">
       <c r="A49" s="15"/>
       <c r="B49" s="20">
         <v>42841</v>
@@ -3193,7 +3255,7 @@
       </c>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" hidden="1" spans="1:10">
+    <row r="50" spans="1:10">
       <c r="A50" s="15"/>
       <c r="B50" s="20">
         <v>42841</v>
@@ -3221,7 +3283,7 @@
       </c>
       <c r="J50" s="21"/>
     </row>
-    <row r="51" hidden="1" spans="1:10">
+    <row r="51" spans="1:10">
       <c r="A51" s="15"/>
       <c r="B51" s="20">
         <v>42841</v>
@@ -3249,7 +3311,7 @@
       </c>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" hidden="1" spans="1:10">
+    <row r="52" spans="1:10">
       <c r="A52" s="15"/>
       <c r="B52" s="20">
         <v>42841</v>
@@ -3274,7 +3336,7 @@
       </c>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" hidden="1" spans="1:10">
+    <row r="53" spans="1:10">
       <c r="A53" s="15"/>
       <c r="B53" s="20">
         <v>42841</v>
@@ -3299,7 +3361,7 @@
       </c>
       <c r="J53" s="21"/>
     </row>
-    <row r="54" hidden="1" spans="1:10">
+    <row r="54" spans="1:10">
       <c r="A54" s="15"/>
       <c r="B54" s="20">
         <v>42841</v>
@@ -3327,7 +3389,7 @@
       </c>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" hidden="1" spans="1:10">
+    <row r="55" spans="1:10">
       <c r="A55" s="15"/>
       <c r="B55" s="20">
         <v>42841</v>
@@ -3355,7 +3417,7 @@
       </c>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" hidden="1" spans="1:10">
+    <row r="56" spans="1:10">
       <c r="A56" s="15"/>
       <c r="B56" s="20">
         <v>42842</v>
@@ -3380,7 +3442,7 @@
       </c>
       <c r="J56" s="21"/>
     </row>
-    <row r="57" hidden="1" spans="1:10">
+    <row r="57" spans="1:10">
       <c r="A57" s="15"/>
       <c r="B57" s="20">
         <v>42842</v>
@@ -3408,7 +3470,7 @@
       </c>
       <c r="J57" s="21"/>
     </row>
-    <row r="58" hidden="1" spans="1:10">
+    <row r="58" spans="1:10">
       <c r="A58" s="15"/>
       <c r="B58" s="20">
         <v>42842</v>
@@ -3436,7 +3498,7 @@
       </c>
       <c r="J58" s="21"/>
     </row>
-    <row r="59" hidden="1" spans="1:10">
+    <row r="59" spans="1:10">
       <c r="A59" s="15"/>
       <c r="B59" s="20">
         <v>42842</v>
@@ -3461,7 +3523,7 @@
       </c>
       <c r="J59" s="21"/>
     </row>
-    <row r="60" hidden="1" spans="1:10">
+    <row r="60" spans="1:10">
       <c r="A60" s="15"/>
       <c r="B60" s="20">
         <v>42843</v>
@@ -3489,7 +3551,7 @@
       </c>
       <c r="J60" s="21"/>
     </row>
-    <row r="61" hidden="1" spans="1:10">
+    <row r="61" spans="1:10">
       <c r="A61" s="15"/>
       <c r="B61" s="20">
         <v>42843</v>
@@ -3517,7 +3579,7 @@
       </c>
       <c r="J61" s="21"/>
     </row>
-    <row r="62" hidden="1" spans="1:10">
+    <row r="62" spans="1:10">
       <c r="A62" s="15"/>
       <c r="B62" s="20">
         <v>42843</v>
@@ -3545,7 +3607,7 @@
       </c>
       <c r="J62" s="21"/>
     </row>
-    <row r="63" hidden="1" spans="1:10">
+    <row r="63" spans="1:10">
       <c r="A63" s="15"/>
       <c r="B63" s="20">
         <v>42844</v>
@@ -3570,7 +3632,7 @@
       </c>
       <c r="J63" s="21"/>
     </row>
-    <row r="64" hidden="1" spans="1:10">
+    <row r="64" spans="1:10">
       <c r="A64" s="15"/>
       <c r="B64" s="20">
         <v>42844</v>
@@ -3595,7 +3657,7 @@
       </c>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" hidden="1" spans="1:12">
+    <row r="65" spans="1:12">
       <c r="A65" s="15"/>
       <c r="B65" s="20">
         <v>42844</v>
@@ -3623,7 +3685,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:12">
+    <row r="66" spans="1:12">
       <c r="A66" s="15"/>
       <c r="B66" s="20">
         <v>42844</v>
@@ -3651,7 +3713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:12">
+    <row r="67" spans="1:12">
       <c r="A67" s="15"/>
       <c r="B67" s="20">
         <v>42844</v>
@@ -3679,7 +3741,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:12">
+    <row r="68" spans="1:12">
       <c r="A68" s="15"/>
       <c r="B68" s="20">
         <v>42844</v>
@@ -3707,7 +3769,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:12">
+    <row r="69" spans="1:12">
       <c r="A69" s="15"/>
       <c r="B69" s="20">
         <v>42844</v>
@@ -3755,10 +3817,12 @@
       <c r="H70" s="23">
         <v>49300</v>
       </c>
-      <c r="I70" s="21"/>
+      <c r="I70" s="21">
+        <v>48000</v>
+      </c>
       <c r="J70" s="21"/>
     </row>
-    <row r="71" hidden="1" spans="1:10">
+    <row r="71" spans="1:10">
       <c r="A71" s="15" t="s">
         <v>121</v>
       </c>
@@ -3785,7 +3849,7 @@
       </c>
       <c r="J71" s="21"/>
     </row>
-    <row r="72" hidden="1" spans="1:10">
+    <row r="72" spans="1:10">
       <c r="A72" s="15" t="s">
         <v>124</v>
       </c>
@@ -3815,7 +3879,7 @@
       </c>
       <c r="J72" s="21"/>
     </row>
-    <row r="73" hidden="1" spans="1:10">
+    <row r="73" spans="1:10">
       <c r="A73" s="15"/>
       <c r="B73" s="20">
         <v>42845</v>
@@ -3843,7 +3907,7 @@
       </c>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" hidden="1" spans="1:10">
+    <row r="74" spans="1:10">
       <c r="A74" s="15"/>
       <c r="B74" s="20">
         <v>42845</v>
@@ -3871,7 +3935,7 @@
       </c>
       <c r="J74" s="21"/>
     </row>
-    <row r="75" hidden="1" spans="1:10">
+    <row r="75" spans="1:10">
       <c r="A75" s="15" t="s">
         <v>132</v>
       </c>
@@ -3898,7 +3962,7 @@
       </c>
       <c r="J75" s="21"/>
     </row>
-    <row r="76" hidden="1" spans="1:10">
+    <row r="76" spans="1:10">
       <c r="A76" s="15" t="s">
         <v>134</v>
       </c>
@@ -3925,7 +3989,7 @@
       </c>
       <c r="J76" s="21"/>
     </row>
-    <row r="77" hidden="1" spans="1:10">
+    <row r="77" spans="1:10">
       <c r="A77" s="15" t="s">
         <v>136</v>
       </c>
@@ -3955,7 +4019,7 @@
       </c>
       <c r="J77" s="21"/>
     </row>
-    <row r="78" hidden="1" spans="1:10">
+    <row r="78" spans="1:10">
       <c r="A78" s="15" t="s">
         <v>140</v>
       </c>
@@ -3985,7 +4049,7 @@
       </c>
       <c r="J78" s="21"/>
     </row>
-    <row r="79" hidden="1" spans="1:10">
+    <row r="79" spans="1:10">
       <c r="A79" s="15" t="s">
         <v>143</v>
       </c>
@@ -4015,7 +4079,7 @@
       </c>
       <c r="J79" s="21"/>
     </row>
-    <row r="80" hidden="1" spans="1:10">
+    <row r="80" spans="1:10">
       <c r="A80" s="15" t="s">
         <v>146</v>
       </c>
@@ -4073,7 +4137,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
     </row>
-    <row r="82" hidden="1" spans="1:10">
+    <row r="82" spans="1:10">
       <c r="A82" s="15" t="s">
         <v>148</v>
       </c>
@@ -4103,7 +4167,7 @@
       </c>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" hidden="1" spans="1:10">
+    <row r="83" spans="1:10">
       <c r="A83" s="15" t="s">
         <v>152</v>
       </c>
@@ -4133,7 +4197,7 @@
       </c>
       <c r="J83" s="21"/>
     </row>
-    <row r="84" hidden="1" spans="1:10">
+    <row r="84" spans="1:10">
       <c r="A84" s="15" t="s">
         <v>156</v>
       </c>
@@ -4163,7 +4227,7 @@
       </c>
       <c r="J84" s="21"/>
     </row>
-    <row r="85" hidden="1" spans="1:10">
+    <row r="85" spans="1:10">
       <c r="A85" s="15" t="s">
         <v>160</v>
       </c>
@@ -4190,7 +4254,7 @@
       </c>
       <c r="J85" s="21"/>
     </row>
-    <row r="86" hidden="1" spans="1:10">
+    <row r="86" spans="1:10">
       <c r="A86" s="15" t="s">
         <v>161</v>
       </c>
@@ -4217,7 +4281,7 @@
       </c>
       <c r="J86" s="21"/>
     </row>
-    <row r="87" hidden="1" spans="1:10">
+    <row r="87" spans="1:10">
       <c r="A87" s="15" t="s">
         <v>164</v>
       </c>
@@ -4244,7 +4308,7 @@
       </c>
       <c r="J87" s="21"/>
     </row>
-    <row r="88" hidden="1" spans="1:10">
+    <row r="88" spans="1:10">
       <c r="A88" s="15" t="s">
         <v>165</v>
       </c>
@@ -4293,10 +4357,12 @@
       <c r="H89" s="21">
         <v>6000</v>
       </c>
-      <c r="I89" s="21"/>
+      <c r="I89" s="21">
+        <v>6500</v>
+      </c>
       <c r="J89" s="21"/>
     </row>
-    <row r="90" hidden="1" spans="1:10">
+    <row r="90" spans="1:10">
       <c r="A90" s="15" t="s">
         <v>169</v>
       </c>
@@ -4326,7 +4392,7 @@
       </c>
       <c r="J90" s="21"/>
     </row>
-    <row r="91" hidden="1" spans="1:10">
+    <row r="91" spans="1:10">
       <c r="A91" s="15" t="s">
         <v>170</v>
       </c>
@@ -4356,7 +4422,7 @@
       </c>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" hidden="1" spans="1:14">
+    <row r="92" spans="1:14">
       <c r="A92" s="25" t="s">
         <v>173</v>
       </c>
@@ -4389,7 +4455,7 @@
       <c r="M92" s="23"/>
       <c r="N92" s="23"/>
     </row>
-    <row r="93" hidden="1" spans="1:10">
+    <row r="93" spans="1:10">
       <c r="A93" s="25" t="s">
         <v>175</v>
       </c>
@@ -4419,7 +4485,7 @@
       </c>
       <c r="J93" s="21"/>
     </row>
-    <row r="94" hidden="1" spans="1:10">
+    <row r="94" spans="1:10">
       <c r="A94" s="25" t="s">
         <v>178</v>
       </c>
@@ -4446,7 +4512,7 @@
       </c>
       <c r="J94" s="21"/>
     </row>
-    <row r="95" hidden="1" spans="1:10">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>180</v>
       </c>
@@ -4473,7 +4539,7 @@
       </c>
       <c r="J95" s="21"/>
     </row>
-    <row r="96" hidden="1" spans="1:10">
+    <row r="96" spans="1:10">
       <c r="A96" s="25" t="s">
         <v>183</v>
       </c>
@@ -4672,10 +4738,12 @@
       <c r="H103" s="21">
         <v>51500</v>
       </c>
-      <c r="I103" s="21"/>
+      <c r="I103" s="21">
+        <v>50000</v>
+      </c>
       <c r="J103" s="21"/>
     </row>
-    <row r="104" hidden="1" spans="1:10">
+    <row r="104" spans="1:10">
       <c r="A104" s="25" t="s">
         <v>196</v>
       </c>
@@ -4705,7 +4773,7 @@
       </c>
       <c r="J104" s="21"/>
     </row>
-    <row r="105" hidden="1" spans="1:10">
+    <row r="105" spans="1:10">
       <c r="A105" s="25" t="s">
         <v>197</v>
       </c>
@@ -4760,7 +4828,9 @@
       <c r="H106" s="21">
         <v>101500</v>
       </c>
-      <c r="I106" s="21"/>
+      <c r="I106" s="21">
+        <v>100000</v>
+      </c>
       <c r="J106" s="21"/>
     </row>
     <row r="107" spans="1:10">
@@ -4771,10 +4841,10 @@
         <v>42855</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F107" s="21">
         <v>12000</v>
@@ -4785,11 +4855,14 @@
       <c r="H107" s="21">
         <v>11300</v>
       </c>
+      <c r="I107">
+        <v>12000</v>
+      </c>
       <c r="J107" s="21"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B108" s="20">
         <v>42855</v>
@@ -4798,7 +4871,7 @@
         <v>14</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F108" s="21">
         <v>50500</v>
@@ -4813,7 +4886,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B109" s="20">
         <v>42855</v>
@@ -4822,7 +4895,7 @@
         <v>14</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F109" s="21">
         <v>12000</v>
@@ -4835,9 +4908,9 @@
       </c>
       <c r="J109" s="21"/>
     </row>
-    <row r="110" hidden="1" spans="1:9">
+    <row r="110" spans="1:9">
       <c r="A110" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B110" s="20">
         <v>42855</v>
@@ -4866,7 +4939,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B111" s="20">
         <v>42855</v>
@@ -4893,31 +4966,33 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B112" s="20">
         <v>42852</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F112" s="21">
         <v>54000</v>
       </c>
       <c r="G112" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H112" s="21">
         <v>53100</v>
       </c>
-      <c r="I112" s="21"/>
-    </row>
-    <row r="113" hidden="1" spans="1:9">
+      <c r="I112" s="21">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B113" s="20">
         <v>42853</v>
@@ -4946,7 +5021,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B114" s="20">
         <v>42855</v>
@@ -4955,10 +5030,10 @@
         <v>103</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F114" s="21">
         <v>25500</v>
@@ -4969,11 +5044,13 @@
       <c r="H114" s="21">
         <v>24800</v>
       </c>
-      <c r="I114" s="21"/>
-    </row>
-    <row r="115" hidden="1" spans="1:9">
+      <c r="I114" s="21">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B115" s="20">
         <v>42855</v>
@@ -4999,7 +5076,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B116" s="20">
         <v>42855</v>
@@ -5008,7 +5085,7 @@
         <v>194</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F116" s="21">
         <v>12000</v>
@@ -5019,11 +5096,13 @@
       <c r="H116" s="21">
         <v>11300</v>
       </c>
-      <c r="I116" s="21"/>
+      <c r="I116" s="21">
+        <v>12000</v>
+      </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B117" s="20">
         <v>42855</v>
@@ -5032,7 +5111,7 @@
         <v>38</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F117" s="21">
         <v>12000</v>
@@ -5045,9 +5124,9 @@
       </c>
       <c r="I117" s="21"/>
     </row>
-    <row r="118" hidden="1" spans="1:9">
+    <row r="118" spans="1:9">
       <c r="A118" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B118" s="20">
         <v>42855</v>
@@ -5071,9 +5150,9 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:9">
+    <row r="119" spans="1:9">
       <c r="A119" s="27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B119" s="20">
         <v>42855</v>
@@ -5082,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F119" s="21">
         <v>12000</v>
@@ -5099,7 +5178,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B120" s="20">
         <v>42855</v>
@@ -5122,9 +5201,11 @@
       <c r="H120" s="21">
         <v>201500</v>
       </c>
-      <c r="I120" s="21"/>
-    </row>
-    <row r="121" hidden="1" spans="1:9">
+      <c r="I120" s="21">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="15"/>
       <c r="B121" s="20">
         <v>42855</v>
@@ -5153,7 +5234,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B122" s="20">
         <v>42856</v>
@@ -5162,7 +5243,7 @@
         <v>38</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F122" s="21">
         <v>12000</v>
@@ -5177,40 +5258,42 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B123" s="20">
         <v>42852</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F123" s="21">
         <v>54000</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H123" s="21">
         <v>53100</v>
       </c>
-      <c r="I123" s="21"/>
+      <c r="I123" s="21">
+        <v>54000</v>
+      </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B124" s="20">
         <v>42852</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F124" s="21">
         <v>11000</v>
@@ -5221,11 +5304,13 @@
       <c r="H124" s="21">
         <v>10000</v>
       </c>
-      <c r="I124" s="21"/>
-    </row>
-    <row r="125" hidden="1" spans="1:10">
+      <c r="I124" s="21">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B125" s="20">
         <v>42856</v>
@@ -5253,9 +5338,9 @@
       </c>
       <c r="J125" s="21"/>
     </row>
-    <row r="126" hidden="1" spans="1:10">
+    <row r="126" spans="1:10">
       <c r="A126" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B126" s="20">
         <v>42856</v>
@@ -5285,7 +5370,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B127" s="20">
         <v>42856</v>
@@ -5294,7 +5379,7 @@
         <v>38</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F127" s="21">
         <v>12000</v>
@@ -5308,9 +5393,9 @@
       <c r="I127" s="21"/>
       <c r="J127" s="21"/>
     </row>
-    <row r="128" hidden="1" spans="1:10">
+    <row r="128" spans="1:10">
       <c r="A128" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B128" s="20">
         <v>42856</v>
@@ -5338,9 +5423,9 @@
       </c>
       <c r="J128" s="21"/>
     </row>
-    <row r="129" hidden="1" spans="1:10">
+    <row r="129" spans="1:10">
       <c r="A129" s="27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B129" s="20">
         <v>42856</v>
@@ -5368,9 +5453,9 @@
       </c>
       <c r="J129" s="21"/>
     </row>
-    <row r="130" hidden="1" spans="1:10">
+    <row r="130" spans="1:10">
       <c r="A130" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B130" s="20">
         <v>42857</v>
@@ -5379,7 +5464,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E130" s="15" t="s">
         <v>8</v>
@@ -5400,19 +5485,19 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B131" s="20">
         <v>42857</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D131" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E131" t="s">
         <v>240</v>
-      </c>
-      <c r="E131" t="s">
-        <v>239</v>
       </c>
       <c r="F131" s="28">
         <v>12000</v>
@@ -5428,19 +5513,19 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B132" s="20">
         <v>42858</v>
       </c>
       <c r="C132" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E132" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F132" s="28">
         <v>37000</v>
@@ -5451,12 +5536,14 @@
       <c r="H132" s="28">
         <v>36000</v>
       </c>
-      <c r="I132" s="21"/>
+      <c r="I132" s="28">
+        <v>37000</v>
+      </c>
       <c r="J132" s="21"/>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B133" s="20">
         <v>42858</v>
@@ -5465,10 +5552,10 @@
         <v>23</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F133" s="28">
         <v>12000</v>
@@ -5479,24 +5566,26 @@
       <c r="H133" s="28">
         <v>11300</v>
       </c>
-      <c r="I133" s="21"/>
+      <c r="I133" s="28">
+        <v>12000</v>
+      </c>
       <c r="J133" s="21"/>
     </row>
-    <row r="134" hidden="1" spans="1:10">
+    <row r="134" spans="1:10">
       <c r="A134" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B134" s="20">
         <v>42858</v>
       </c>
       <c r="C134" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F134" s="28">
         <v>50000</v>
@@ -5507,14 +5596,14 @@
       <c r="H134" s="28">
         <v>51500</v>
       </c>
-      <c r="I134" s="21">
+      <c r="I134" s="23">
         <v>50000</v>
       </c>
       <c r="J134" s="21"/>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B135" s="20">
         <v>42857</v>
@@ -5540,21 +5629,21 @@
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
     </row>
-    <row r="136" hidden="1" spans="1:10">
+    <row r="136" spans="1:10">
       <c r="A136" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B136" s="20">
         <v>42857</v>
       </c>
       <c r="C136" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D136" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E136" t="s">
         <v>252</v>
-      </c>
-      <c r="E136" t="s">
-        <v>251</v>
       </c>
       <c r="F136" s="28">
         <v>12000</v>
@@ -5572,7 +5661,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B137" s="20">
         <v>42857</v>
@@ -5581,7 +5670,7 @@
         <v>83</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E137" t="s">
         <v>83</v>
@@ -5600,7 +5689,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B138" s="20">
         <v>42857</v>
@@ -5625,7 +5714,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B139" s="20">
         <v>42857</v>
@@ -5648,12 +5737,14 @@
       <c r="H139" s="28">
         <v>100000</v>
       </c>
-      <c r="I139" s="21"/>
+      <c r="I139" s="21">
+        <v>99000</v>
+      </c>
       <c r="J139" s="21"/>
     </row>
-    <row r="140" hidden="1" spans="1:10">
+    <row r="140" spans="1:10">
       <c r="A140" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B140" s="20">
         <v>42859</v>
@@ -5662,7 +5753,7 @@
         <v>110</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E140" t="s">
         <v>110</v>
@@ -5683,7 +5774,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B141" s="20">
         <v>42861</v>
@@ -5709,21 +5800,21 @@
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
     </row>
-    <row r="142" hidden="1" spans="1:9">
+    <row r="142" spans="1:9">
       <c r="A142" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B142" s="20">
         <v>42861</v>
       </c>
       <c r="C142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F142" s="28">
         <v>50000</v>
@@ -5740,7 +5831,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B143" s="20">
         <v>42861</v>
@@ -5764,9 +5855,9 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:9">
+    <row r="144" spans="1:9">
       <c r="A144" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B144" s="20">
         <v>42862</v>
@@ -5793,9 +5884,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:9">
+    <row r="145" spans="1:9">
       <c r="A145" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B145" s="20">
         <v>42862</v>
@@ -5807,7 +5898,7 @@
         <v>198</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F145" s="28">
         <v>50000</v>
@@ -5822,18 +5913,18 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:9">
       <c r="A146" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B146" s="20">
         <v>42861</v>
       </c>
       <c r="C146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F146" s="28">
         <v>5500</v>
@@ -5844,10 +5935,13 @@
       <c r="H146" s="28">
         <v>5500</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" s="28">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B147" s="20">
         <v>42861</v>
@@ -5856,7 +5950,7 @@
         <v>54</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F147" s="28">
         <v>12000</v>
@@ -5867,10 +5961,13 @@
       <c r="H147" s="28">
         <v>11300</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B148" s="20">
         <v>42861</v>
@@ -5879,7 +5976,7 @@
         <v>54</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F148" s="28">
         <v>12000</v>
@@ -5890,10 +5987,13 @@
       <c r="H148" s="28">
         <v>11300</v>
       </c>
-    </row>
-    <row r="149" hidden="1" spans="1:9">
+      <c r="I148">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B149" s="20">
         <v>42861</v>
@@ -5902,7 +6002,7 @@
         <v>162</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F149" s="28">
         <v>58000</v>
@@ -5919,7 +6019,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B150" s="20">
         <v>42862</v>
@@ -5942,16 +6042,16 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B151" s="20">
         <v>42862</v>
       </c>
       <c r="C151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F151" s="28">
         <v>50000</v>
@@ -5965,19 +6065,19 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B152" s="20">
         <v>42862</v>
       </c>
       <c r="C152" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F152" s="28">
         <v>200000</v>
@@ -5991,7 +6091,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B153" s="20">
         <v>42862</v>
@@ -6014,7 +6114,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B154" s="20">
         <v>42862</v>
@@ -6035,21 +6135,21 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:9">
       <c r="A155" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B155" s="20">
         <v>42862</v>
       </c>
       <c r="C155" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F155" s="28">
         <v>495000</v>
@@ -6060,19 +6160,22 @@
       <c r="H155" s="28">
         <v>501500</v>
       </c>
+      <c r="I155" s="28">
+        <v>495000</v>
+      </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B156" s="20">
         <v>42862</v>
       </c>
       <c r="C156" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F156" s="28">
         <v>34500</v>
@@ -6086,7 +6189,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B157" s="20">
         <v>42863</v>
@@ -6110,9 +6213,9 @@
         <v>101500</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:9">
       <c r="A158" s="30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B158" s="20">
         <v>42863</v>
@@ -6132,10 +6235,13 @@
       <c r="H158" s="28">
         <v>49500</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" s="21">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B159" s="20">
         <v>42863</v>
@@ -6158,19 +6264,22 @@
       <c r="H159" s="23">
         <v>51500</v>
       </c>
-    </row>
-    <row r="160" hidden="1" spans="1:9">
+      <c r="I159" s="23">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B160" s="20">
         <v>42863</v>
       </c>
       <c r="C160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F160" s="28">
         <v>22000</v>
@@ -6185,9 +6294,9 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:9">
       <c r="A161" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B161" s="20">
         <v>42863</v>
@@ -6210,106 +6319,306 @@
       <c r="H161" s="23">
         <v>51500</v>
       </c>
-    </row>
-    <row r="162" spans="2:8">
+      <c r="I161" s="29">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="30" t="s">
+        <v>299</v>
+      </c>
       <c r="B162" s="20">
         <v>42863</v>
       </c>
-      <c r="F162" s="28"/>
-      <c r="H162" s="28"/>
-    </row>
-    <row r="163" spans="2:8">
+      <c r="C162" t="s">
+        <v>201</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F162" s="28">
+        <v>11500</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" s="28">
+        <v>10300</v>
+      </c>
+      <c r="I162" s="28">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="30" t="s">
+        <v>300</v>
+      </c>
       <c r="B163" s="20">
         <v>42863</v>
       </c>
-      <c r="F163" s="28"/>
-      <c r="H163" s="28"/>
-    </row>
-    <row r="164" spans="2:8">
+      <c r="C163" t="s">
+        <v>201</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F163" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="28">
+        <v>11300</v>
+      </c>
+      <c r="I163" s="28">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="30" t="s">
+        <v>301</v>
+      </c>
       <c r="B164" s="20">
         <v>42863</v>
       </c>
-      <c r="F164" s="28"/>
-      <c r="H164" s="28"/>
-    </row>
-    <row r="165" spans="2:8">
+      <c r="C164" t="s">
+        <v>302</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F164" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" s="28">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="B165" s="20">
         <v>42863</v>
       </c>
-      <c r="F165" s="28"/>
-      <c r="H165" s="28"/>
-    </row>
-    <row r="166" spans="2:8">
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F165" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" s="28">
+        <v>11300</v>
+      </c>
+      <c r="I165">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="30" t="s">
+        <v>305</v>
+      </c>
       <c r="B166" s="20">
         <v>42863</v>
       </c>
-      <c r="F166" s="28"/>
-      <c r="H166" s="28"/>
-    </row>
-    <row r="167" spans="2:8">
+      <c r="C166" t="s">
+        <v>306</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F166" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" s="28">
+        <v>11300</v>
+      </c>
+      <c r="I166">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="30" t="s">
+        <v>308</v>
+      </c>
       <c r="B167" s="20">
-        <v>42863</v>
-      </c>
-      <c r="F167" s="28"/>
-      <c r="H167" s="28"/>
-    </row>
-    <row r="168" spans="2:8">
+        <v>42865</v>
+      </c>
+      <c r="C167" t="s">
+        <v>129</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F167" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="28">
+        <v>11300</v>
+      </c>
+      <c r="I167">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="B168" s="20">
-        <v>42863</v>
-      </c>
-      <c r="F168" s="28"/>
-      <c r="H168" s="28"/>
-    </row>
-    <row r="169" spans="2:8">
+        <v>42865</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F168" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="28">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="30" t="s">
+        <v>311</v>
+      </c>
       <c r="B169" s="20">
-        <v>42863</v>
-      </c>
-      <c r="F169" s="28"/>
-      <c r="H169" s="28"/>
-    </row>
-    <row r="170" spans="2:8">
+        <v>42865</v>
+      </c>
+      <c r="C169" t="s">
+        <v>96</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F169" s="28">
+        <v>26000</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="28">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="B170" s="20">
-        <v>42863</v>
-      </c>
-      <c r="F170" s="28"/>
-      <c r="H170" s="28"/>
-    </row>
-    <row r="171" spans="2:8">
+        <v>42866</v>
+      </c>
+      <c r="C170" t="s">
+        <v>65</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F170" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" s="28">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="30" t="s">
+        <v>314</v>
+      </c>
       <c r="B171" s="20">
-        <v>42863</v>
-      </c>
-      <c r="F171" s="28"/>
-      <c r="H171" s="28"/>
-    </row>
-    <row r="172" spans="2:8">
+        <v>42866</v>
+      </c>
+      <c r="C171" t="s">
+        <v>65</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F171" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" s="28">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="30" t="s">
+        <v>316</v>
+      </c>
       <c r="B172" s="20">
-        <v>42863</v>
-      </c>
-      <c r="F172" s="28"/>
-      <c r="H172" s="28"/>
+        <v>42866</v>
+      </c>
+      <c r="C172" t="s">
+        <v>317</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F172" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="28">
+        <v>11300</v>
+      </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="20">
-        <v>42863</v>
+        <v>42866</v>
       </c>
       <c r="F173" s="28"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="20">
-        <v>42863</v>
+        <v>42866</v>
       </c>
       <c r="F174" s="28"/>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="20">
-        <v>42863</v>
+        <v>42866</v>
       </c>
       <c r="F175" s="28"/>
     </row>
-    <row r="176" spans="6:6">
+    <row r="176" spans="2:6">
+      <c r="B176" s="20">
+        <v>42866</v>
+      </c>
       <c r="F176" s="28"/>
     </row>
-    <row r="177" spans="6:6">
+    <row r="177" spans="2:6">
+      <c r="B177" s="20">
+        <v>42866</v>
+      </c>
       <c r="F177" s="28"/>
     </row>
     <row r="178" spans="6:6">
@@ -6325,11 +6634,7 @@
       <c r="F181" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I175">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:I175"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -6373,22 +6678,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6467,7 +6772,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6480,7 +6785,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="11" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="E9" s="12">
         <v>1000000</v>
@@ -6488,7 +6793,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="13" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="E10" s="5">
         <f>E9-E6</f>
@@ -6501,7 +6806,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="3" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="E12" s="5">
         <v>300000</v>
@@ -6509,7 +6814,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="13" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -6517,7 +6822,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="11" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="E14" s="12">
         <f>E13+E12</f>
@@ -6530,7 +6835,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="11" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E16" s="12">
         <f>E10-E14</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$240</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
   <si>
     <t>No Transaksi</t>
   </si>
@@ -973,6 +973,222 @@
   </si>
   <si>
     <t>Mas joko</t>
+  </si>
+  <si>
+    <t>BL171111JKC7ELC</t>
+  </si>
+  <si>
+    <t>Abu Aqila</t>
+  </si>
+  <si>
+    <t>520530612763</t>
+  </si>
+  <si>
+    <t>SITI HANIFAH</t>
+  </si>
+  <si>
+    <t>BL171111JMU2ELC</t>
+  </si>
+  <si>
+    <t>BL171111JMY7ELC</t>
+  </si>
+  <si>
+    <t>listrik</t>
+  </si>
+  <si>
+    <t>BL171111JVT2ELC</t>
+  </si>
+  <si>
+    <t>BL171111KO52ELC</t>
+  </si>
+  <si>
+    <t>BL171111L1LRELC</t>
+  </si>
+  <si>
+    <t>Mbak Maryam</t>
+  </si>
+  <si>
+    <t>520530571917</t>
+  </si>
+  <si>
+    <t>JOKO MARYONO</t>
+  </si>
+  <si>
+    <t>BL171111L3BRELC</t>
+  </si>
+  <si>
+    <t>BL171111LG5HELC</t>
+  </si>
+  <si>
+    <t>BL171111M2JHELC</t>
+  </si>
+  <si>
+    <t>BL171111M66RELC</t>
+  </si>
+  <si>
+    <t>BL171111MHIHELC</t>
+  </si>
+  <si>
+    <t>TEGUH 4 B</t>
+  </si>
+  <si>
+    <t>520530451372</t>
+  </si>
+  <si>
+    <t>TEGUH PURWANTO</t>
+  </si>
+  <si>
+    <t>BL171111ML3RELC</t>
+  </si>
+  <si>
+    <t>BL171111MN8WELC</t>
+  </si>
+  <si>
+    <t>BL171111MTSWELC</t>
+  </si>
+  <si>
+    <t>BL171111MZFWELC</t>
+  </si>
+  <si>
+    <t>BL171111N2ZMELC</t>
+  </si>
+  <si>
+    <t>BL171111NDNCELC</t>
+  </si>
+  <si>
+    <t>BL171138UIO2INV</t>
+  </si>
+  <si>
+    <t>BL171111NEIWELC</t>
+  </si>
+  <si>
+    <t>BL171111NMJCELC</t>
+  </si>
+  <si>
+    <t>BL1711399GCWINV</t>
+  </si>
+  <si>
+    <t>BL1711399GYHINV</t>
+  </si>
+  <si>
+    <t>BL171139AIIMINV</t>
+  </si>
+  <si>
+    <t>BL171111NSM2ELC</t>
+  </si>
+  <si>
+    <t>BL171139FW9RINV</t>
+  </si>
+  <si>
+    <t>Dr. Didit</t>
+  </si>
+  <si>
+    <t>089531077107</t>
+  </si>
+  <si>
+    <t>BL171111NZ22ELC</t>
+  </si>
+  <si>
+    <t>BL171138N5E2INV</t>
+  </si>
+  <si>
+    <t>BL171138RAH7INV</t>
+  </si>
+  <si>
+    <t>BL171138UHX2INV</t>
+  </si>
+  <si>
+    <t>081392039052</t>
+  </si>
+  <si>
+    <t>BL171138UIB2INV</t>
+  </si>
+  <si>
+    <t>082114576383</t>
+  </si>
+  <si>
+    <t>BL1711381RWRINV</t>
+  </si>
+  <si>
+    <t>BL171137WOVMINV</t>
+  </si>
+  <si>
+    <t>081215424100</t>
+  </si>
+  <si>
+    <t>BL171137U9I2INV</t>
+  </si>
+  <si>
+    <t>BL171137RFOMINV</t>
+  </si>
+  <si>
+    <t>BL171137FT6RINV</t>
+  </si>
+  <si>
+    <t>BL1711379BIHINV</t>
+  </si>
+  <si>
+    <t>Paket Internet Indosat Freedom Combo L</t>
+  </si>
+  <si>
+    <t>BL1711372ICWINV</t>
+  </si>
+  <si>
+    <t>BL1711371ZZMINV</t>
+  </si>
+  <si>
+    <t>BL171136Y37WINV</t>
+  </si>
+  <si>
+    <t>BL171136XGHCINV</t>
+  </si>
+  <si>
+    <t>BL171136XG2HINV</t>
+  </si>
+  <si>
+    <t>BL171136SNWWINV</t>
+  </si>
+  <si>
+    <t>085867419820</t>
+  </si>
+  <si>
+    <t>BL171136LQD7INV</t>
+  </si>
+  <si>
+    <t>BL171136E5QCINV</t>
+  </si>
+  <si>
+    <t>BL171136E2V7INV</t>
+  </si>
+  <si>
+    <t>BL171136A5C2INV</t>
+  </si>
+  <si>
+    <t>BL1711368E97INV</t>
+  </si>
+  <si>
+    <t>NO TRANSAKSI</t>
+  </si>
+  <si>
+    <t>TANGGAL</t>
+  </si>
+  <si>
+    <t>ID METER</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>HARGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total   </t>
+  </si>
+  <si>
+    <t>Komisi 5%</t>
+  </si>
+  <si>
+    <t>Komisi 10%</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -1012,14 +1228,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,6 +1259,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF999999"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1056,6 +1292,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1064,7 +1316,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,31 +1346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,6 +1369,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1139,32 +1392,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,15 +1415,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,7 +1431,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,13 +1515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,37 +1527,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,25 +1605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,85 +1617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,24 +1683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1474,17 +1698,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1515,6 +1733,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1529,19 +1780,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1557,134 +1799,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1707,6 +1949,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1718,7 +1968,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1729,9 +1978,18 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2073,21 +2331,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H174" sqref="H174"/>
+      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7142857142857" style="14" customWidth="1"/>
+    <col min="1" max="1" width="22.7142857142857" style="20" customWidth="1"/>
     <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="25.2857142857143" style="15" customWidth="1"/>
-    <col min="5" max="5" width="24.7142857142857" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" style="21" customWidth="1"/>
+    <col min="5" max="5" width="24.7142857142857" style="21" customWidth="1"/>
     <col min="6" max="6" width="11.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="17.1428571428571" customWidth="1"/>
@@ -2097,91 +2355,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="15"/>
-      <c r="B2" s="20">
+      <c r="A2" s="21"/>
+      <c r="B2" s="25">
         <v>42825</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="21">
         <v>81548770586</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="26">
         <v>57000</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="26">
         <v>57000</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15"/>
+      <c r="A3" s="21"/>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="27">
         <v>11000</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="26">
         <v>12000</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
+      <c r="A4" s="21"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="26">
         <v>10500</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="26">
         <v>11000</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="20">
+      <c r="A5" s="21"/>
+      <c r="B5" s="25">
         <v>42825</v>
       </c>
       <c r="C5" t="s">
@@ -2190,42 +2448,42 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="26">
         <v>26000</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15"/>
+      <c r="A6" s="21"/>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="26">
         <v>51500</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="26">
         <v>51500</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="20">
+      <c r="A7" s="21"/>
+      <c r="B7" s="25">
         <v>42825</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
@@ -2234,31 +2492,31 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="26">
         <v>200000</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="26">
         <v>250000</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="26">
         <v>51500</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="26">
         <v>50000</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
-      <c r="B9" s="20">
+      <c r="A9" s="21"/>
+      <c r="B9" s="25">
         <v>42826</v>
       </c>
       <c r="C9" t="s">
@@ -2267,17 +2525,17 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="26">
         <v>51500</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="26">
         <v>51500</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="20">
+      <c r="A10" s="21"/>
+      <c r="B10" s="25">
         <v>42826</v>
       </c>
       <c r="C10" t="s">
@@ -2286,17 +2544,17 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="26">
         <v>25000</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="26">
         <v>25500</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="15"/>
-      <c r="B11" s="20">
+      <c r="A11" s="21"/>
+      <c r="B11" s="25">
         <v>42826</v>
       </c>
       <c r="C11" t="s">
@@ -2308,17 +2566,17 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="26">
         <v>11000</v>
       </c>
       <c r="I11">
         <v>11500</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20">
+      <c r="A12" s="21"/>
+      <c r="B12" s="25">
         <v>42826</v>
       </c>
       <c r="C12" t="s">
@@ -2327,42 +2585,42 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="26">
         <v>11000</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="26">
         <v>11000</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15"/>
-      <c r="B13" s="20">
+      <c r="A13" s="21"/>
+      <c r="B13" s="25">
         <v>42831</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="21" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="26">
         <v>101500</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="26">
         <v>101500</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="15"/>
-      <c r="B14" s="20">
+      <c r="A14" s="21"/>
+      <c r="B14" s="25">
         <v>42831</v>
       </c>
       <c r="C14" t="s">
@@ -2371,42 +2629,42 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="26">
         <v>6500</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="26">
         <v>65000</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="15"/>
-      <c r="B15" s="20">
+      <c r="A15" s="21"/>
+      <c r="B15" s="25">
         <v>42831</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="26">
         <v>51500</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="26">
         <v>51500</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="15"/>
-      <c r="B16" s="20">
+      <c r="A16" s="21"/>
+      <c r="B16" s="25">
         <v>42831</v>
       </c>
       <c r="C16" t="s">
@@ -2415,17 +2673,17 @@
       <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="26">
         <v>11500</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="26">
         <v>12000</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="15"/>
-      <c r="B17" s="20">
+      <c r="A17" s="21"/>
+      <c r="B17" s="25">
         <v>42832</v>
       </c>
       <c r="C17" t="s">
@@ -2434,17 +2692,17 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="26">
         <v>11500</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="26">
         <v>11000</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="20">
+      <c r="A18" s="21"/>
+      <c r="B18" s="25">
         <v>42832</v>
       </c>
       <c r="C18" t="s">
@@ -2456,26 +2714,26 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="26">
         <v>11500</v>
       </c>
       <c r="I18">
         <v>11500</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20">
+      <c r="A19" s="21"/>
+      <c r="B19" s="25">
         <v>42832</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
@@ -2484,17 +2742,17 @@
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="26">
         <v>101500</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="26">
         <v>100000</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="20">
+      <c r="A20" s="21"/>
+      <c r="B20" s="25">
         <v>42832</v>
       </c>
       <c r="C20" t="s">
@@ -2506,26 +2764,26 @@
       <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="26">
         <v>201500</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="26">
         <v>200000</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="20">
+      <c r="A21" s="21"/>
+      <c r="B21" s="25">
         <v>42833</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F21" t="s">
@@ -2534,26 +2792,26 @@
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="26">
         <v>201500</v>
       </c>
-      <c r="I21" s="21">
-        <v>100000</v>
-      </c>
-      <c r="J21" s="21"/>
+      <c r="I21" s="26">
+        <v>200000</v>
+      </c>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="20">
+      <c r="A22" s="21"/>
+      <c r="B22" s="25">
         <v>42833</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F22" t="s">
@@ -2562,26 +2820,26 @@
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="26">
         <v>51500</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="26">
         <v>50000</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="20">
+      <c r="A23" s="21"/>
+      <c r="B23" s="25">
         <v>42833</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F23" t="s">
@@ -2590,17 +2848,17 @@
       <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="26">
         <v>51500</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="26">
         <v>50000</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="20">
+      <c r="A24" s="21"/>
+      <c r="B24" s="25">
         <v>42833</v>
       </c>
       <c r="C24" t="s">
@@ -2609,42 +2867,42 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="26">
         <v>24900</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="26">
         <v>26000</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="20">
+      <c r="A25" s="21"/>
+      <c r="B25" s="25">
         <v>42833</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="21" t="s">
         <v>47</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="26">
         <v>100000</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="26">
         <v>50000</v>
       </c>
-      <c r="J25" s="21"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20">
+      <c r="A26" s="21"/>
+      <c r="B26" s="25">
         <v>42833</v>
       </c>
       <c r="C26" t="s">
@@ -2653,17 +2911,17 @@
       <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="26">
         <v>100000</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="26">
         <v>100000</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="20">
+      <c r="A27" s="21"/>
+      <c r="B27" s="25">
         <v>42834</v>
       </c>
       <c r="C27" t="s">
@@ -2672,55 +2930,55 @@
       <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="26">
         <v>25000</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="26">
         <v>25000</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="15"/>
-      <c r="B28" s="20">
+      <c r="A28" s="21"/>
+      <c r="B28" s="25">
         <v>42834</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="26">
         <v>51500</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="26"/>
       <c r="L28">
         <f>5%*L27</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
-      <c r="B29" s="20">
+      <c r="A29" s="21"/>
+      <c r="B29" s="25">
         <v>42834</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F29" t="s">
@@ -2729,52 +2987,55 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="26">
         <v>50000</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="26">
         <v>50000</v>
       </c>
-      <c r="J29" s="21"/>
+      <c r="J29" s="26"/>
       <c r="L29">
         <v>50000</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="15"/>
-      <c r="B30" s="20">
+      <c r="A30" s="21"/>
+      <c r="B30" s="25">
         <v>42834</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="21" t="s">
         <v>53</v>
       </c>
+      <c r="F30">
+        <v>50000</v>
+      </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="26">
         <v>50000</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="26">
         <v>50000</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="L30" s="23"/>
+      <c r="J30" s="26"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15"/>
-      <c r="B31" s="20">
+      <c r="A31" s="21"/>
+      <c r="B31" s="25">
         <v>42834</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F31" t="s">
@@ -2783,26 +3044,26 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="26">
         <v>101500</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="26">
         <v>100000</v>
       </c>
-      <c r="J31" s="21"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
-      <c r="B32" s="20">
+      <c r="A32" s="21"/>
+      <c r="B32" s="25">
         <v>42835</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F32" t="s">
@@ -2811,26 +3072,26 @@
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="26">
         <v>91500</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="26">
         <v>100000</v>
       </c>
-      <c r="J32" s="21"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="15"/>
-      <c r="B33" s="20">
+      <c r="A33" s="21"/>
+      <c r="B33" s="25">
         <v>42835</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="21" t="s">
         <v>62</v>
       </c>
       <c r="F33">
@@ -2839,17 +3100,17 @@
       <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="26">
         <v>181350</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="26">
         <v>198000</v>
       </c>
-      <c r="J33" s="21"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="15"/>
-      <c r="B34" s="20">
+      <c r="A34" s="21"/>
+      <c r="B34" s="25">
         <v>42836</v>
       </c>
       <c r="C34" t="s">
@@ -2858,26 +3119,26 @@
       <c r="G34" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="26">
         <v>24500</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="26">
         <v>25500</v>
       </c>
-      <c r="J34" s="21"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="15"/>
-      <c r="B35" s="20">
+      <c r="A35" s="21"/>
+      <c r="B35" s="25">
         <v>42836</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F35">
@@ -2886,67 +3147,67 @@
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="26">
         <v>101500</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="26">
         <v>100000</v>
       </c>
-      <c r="J35" s="21"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="15"/>
-      <c r="B36" s="20">
+      <c r="A36" s="21"/>
+      <c r="B36" s="25">
         <v>42837</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="21" t="s">
         <v>63</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="26">
         <v>25500</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="26">
         <v>25500</v>
       </c>
-      <c r="J36" s="21"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="15"/>
-      <c r="B37" s="20">
+      <c r="A37" s="21"/>
+      <c r="B37" s="25">
         <v>42837</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="21" t="s">
         <v>64</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="26">
         <v>48500</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="26">
         <v>49500</v>
       </c>
-      <c r="J37" s="21"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="15"/>
-      <c r="B38" s="20">
+      <c r="A38" s="21"/>
+      <c r="B38" s="25">
         <v>42838</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="21" t="s">
         <v>66</v>
       </c>
       <c r="F38">
@@ -2955,26 +3216,26 @@
       <c r="G38" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="26">
         <v>11000</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="21"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="15"/>
-      <c r="B39" s="20">
+      <c r="A39" s="21"/>
+      <c r="B39" s="25">
         <v>42838</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F39">
@@ -2983,23 +3244,23 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="26">
         <v>51500</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="26">
         <v>50000</v>
       </c>
-      <c r="J39" s="21"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="15"/>
-      <c r="B40" s="20">
+      <c r="A40" s="21"/>
+      <c r="B40" s="25">
         <v>42838</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F40">
@@ -3008,23 +3269,23 @@
       <c r="G40" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="28">
         <v>54500</v>
       </c>
       <c r="I40">
         <v>55000</v>
       </c>
-      <c r="J40" s="21"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="15"/>
-      <c r="B41" s="20">
+      <c r="A41" s="21"/>
+      <c r="B41" s="25">
         <v>42839</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F41">
@@ -3033,23 +3294,23 @@
       <c r="G41" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="28">
         <v>49400</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="26">
         <v>50500</v>
       </c>
-      <c r="J41" s="21"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="15"/>
-      <c r="B42" s="20">
+      <c r="A42" s="21"/>
+      <c r="B42" s="25">
         <v>42839</v>
       </c>
       <c r="C42" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F42">
@@ -3058,26 +3319,26 @@
       <c r="G42" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="28">
         <v>24900</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="26">
         <v>25900</v>
       </c>
-      <c r="J42" s="21"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="15"/>
-      <c r="B43" s="20">
+      <c r="A43" s="21"/>
+      <c r="B43" s="25">
         <v>42839</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F43">
@@ -3086,27 +3347,27 @@
       <c r="G43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="28">
         <v>201500</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="26">
         <v>199000</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="L43" s="23"/>
+      <c r="J43" s="26"/>
+      <c r="L43" s="28"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="15"/>
-      <c r="B44" s="20">
+      <c r="A44" s="21"/>
+      <c r="B44" s="25">
         <v>42840</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="21" t="s">
         <v>79</v>
       </c>
       <c r="F44">
@@ -3115,27 +3376,27 @@
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="28">
         <v>51500</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="26">
         <v>50000</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="L44" s="23"/>
+      <c r="J44" s="26"/>
+      <c r="L44" s="28"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="15"/>
-      <c r="B45" s="20">
+      <c r="A45" s="21"/>
+      <c r="B45" s="25">
         <v>42840</v>
       </c>
       <c r="C45" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="21" t="s">
         <v>82</v>
       </c>
       <c r="F45">
@@ -3144,23 +3405,23 @@
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="28">
         <v>51500</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="26">
         <v>50000</v>
       </c>
-      <c r="J45" s="21"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="15"/>
-      <c r="B46" s="20">
+      <c r="A46" s="21"/>
+      <c r="B46" s="25">
         <v>42840</v>
       </c>
       <c r="C46" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F46">
@@ -3169,23 +3430,23 @@
       <c r="G46" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="28">
         <v>5000</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="26">
         <v>6000</v>
       </c>
-      <c r="J46" s="21"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="15"/>
-      <c r="B47" s="20">
+      <c r="A47" s="21"/>
+      <c r="B47" s="25">
         <v>42840</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="21" t="s">
         <v>85</v>
       </c>
       <c r="F47">
@@ -3194,23 +3455,23 @@
       <c r="G47" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="28">
         <v>11000</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="26">
         <v>11500</v>
       </c>
-      <c r="J47" s="21"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="15"/>
-      <c r="B48" s="20">
+      <c r="A48" s="21"/>
+      <c r="B48" s="25">
         <v>42840</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="21" t="s">
         <v>86</v>
       </c>
       <c r="F48">
@@ -3219,23 +3480,23 @@
       <c r="G48" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="28">
         <v>11000</v>
       </c>
       <c r="I48">
         <v>11500</v>
       </c>
-      <c r="J48" s="21"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="15"/>
-      <c r="B49" s="20">
+      <c r="A49" s="21"/>
+      <c r="B49" s="25">
         <v>42841</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E49" t="s">
@@ -3247,26 +3508,26 @@
       <c r="G49" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="28">
         <v>201500</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="26">
         <v>198000</v>
       </c>
-      <c r="J49" s="21"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="15"/>
-      <c r="B50" s="20">
+      <c r="A50" s="21"/>
+      <c r="B50" s="25">
         <v>42841</v>
       </c>
       <c r="C50" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="21" t="s">
         <v>91</v>
       </c>
       <c r="F50">
@@ -3275,26 +3536,26 @@
       <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="28">
         <v>51500</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="26">
         <v>50000</v>
       </c>
-      <c r="J50" s="21"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="15"/>
-      <c r="B51" s="20">
+      <c r="A51" s="21"/>
+      <c r="B51" s="25">
         <v>42841</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="21" t="s">
         <v>93</v>
       </c>
       <c r="F51">
@@ -3303,23 +3564,23 @@
       <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="28">
         <v>21500</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="26">
         <v>21500</v>
       </c>
-      <c r="J51" s="21"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="15"/>
-      <c r="B52" s="20">
+      <c r="A52" s="21"/>
+      <c r="B52" s="25">
         <v>42841</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="21" t="s">
         <v>94</v>
       </c>
       <c r="F52">
@@ -3328,23 +3589,23 @@
       <c r="G52" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="28">
         <v>36000</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="26">
         <v>36000</v>
       </c>
-      <c r="J52" s="21"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="15"/>
-      <c r="B53" s="20">
+      <c r="A53" s="21"/>
+      <c r="B53" s="25">
         <v>42841</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="21" t="s">
         <v>95</v>
       </c>
       <c r="F53">
@@ -3353,26 +3614,26 @@
       <c r="G53" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="28">
         <v>11000</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="26">
         <v>11500</v>
       </c>
-      <c r="J53" s="21"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="15"/>
-      <c r="B54" s="20">
+      <c r="A54" s="21"/>
+      <c r="B54" s="25">
         <v>42841</v>
       </c>
       <c r="C54" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="21" t="s">
         <v>98</v>
       </c>
       <c r="F54">
@@ -3381,26 +3642,26 @@
       <c r="G54" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="28">
         <v>201500</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="26">
         <v>200000</v>
       </c>
-      <c r="J54" s="21"/>
+      <c r="J54" s="26"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="15"/>
-      <c r="B55" s="20">
+      <c r="A55" s="21"/>
+      <c r="B55" s="25">
         <v>42841</v>
       </c>
       <c r="C55" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F55">
@@ -3409,23 +3670,23 @@
       <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="28">
         <v>201500</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="26">
         <v>198000</v>
       </c>
-      <c r="J55" s="21"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="15"/>
-      <c r="B56" s="20">
+      <c r="A56" s="21"/>
+      <c r="B56" s="25">
         <v>42842</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="21" t="s">
         <v>102</v>
       </c>
       <c r="F56">
@@ -3434,26 +3695,26 @@
       <c r="G56" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="28">
         <v>48500</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="26">
         <v>49500</v>
       </c>
-      <c r="J56" s="21"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="15"/>
-      <c r="B57" s="20">
+      <c r="A57" s="21"/>
+      <c r="B57" s="25">
         <v>42842</v>
       </c>
       <c r="C57" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="21" t="s">
         <v>105</v>
       </c>
       <c r="F57">
@@ -3462,23 +3723,23 @@
       <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="28">
         <v>51500</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="26">
         <v>50000</v>
       </c>
-      <c r="J57" s="21"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="15"/>
-      <c r="B58" s="20">
+      <c r="A58" s="21"/>
+      <c r="B58" s="25">
         <v>42842</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E58" t="s">
@@ -3490,23 +3751,23 @@
       <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="28">
         <v>101500</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="26">
         <v>100000</v>
       </c>
-      <c r="J58" s="21"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="15"/>
-      <c r="B59" s="20">
+      <c r="A59" s="21"/>
+      <c r="B59" s="25">
         <v>42842</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F59">
@@ -3515,864 +3776,864 @@
       <c r="G59" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="28">
         <v>11500</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="26">
         <v>11500</v>
       </c>
-      <c r="J59" s="21"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="15"/>
-      <c r="B60" s="20">
+      <c r="A60" s="21"/>
+      <c r="B60" s="25">
         <v>42843</v>
       </c>
       <c r="C60" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="28">
         <v>497500</v>
       </c>
       <c r="G60" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="28">
         <v>501500</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="26">
         <v>497500</v>
       </c>
-      <c r="J60" s="21"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="15"/>
-      <c r="B61" s="20">
+      <c r="A61" s="21"/>
+      <c r="B61" s="25">
         <v>42843</v>
       </c>
       <c r="C61" t="s">
         <v>41</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="26">
         <v>50000</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="28">
         <v>51500</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="26">
         <v>50000</v>
       </c>
-      <c r="J61" s="21"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="15"/>
-      <c r="B62" s="20">
+      <c r="A62" s="21"/>
+      <c r="B62" s="25">
         <v>42843</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="26">
         <v>99000</v>
       </c>
       <c r="G62" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="28">
         <v>101500</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="26">
         <v>100000</v>
       </c>
-      <c r="J62" s="21"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="15"/>
-      <c r="B63" s="20">
+      <c r="A63" s="21"/>
+      <c r="B63" s="25">
         <v>42844</v>
       </c>
       <c r="C63" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="26">
         <v>48000</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="28">
         <v>48500</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="26">
         <v>48000</v>
       </c>
-      <c r="J63" s="21"/>
+      <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="15"/>
-      <c r="B64" s="20">
+      <c r="A64" s="21"/>
+      <c r="B64" s="25">
         <v>42844</v>
       </c>
       <c r="C64" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="26">
         <v>48000</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="28">
         <v>48500</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="26">
         <v>48000</v>
       </c>
-      <c r="J64" s="21"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="15"/>
-      <c r="B65" s="20">
+      <c r="A65" s="21"/>
+      <c r="B65" s="25">
         <v>42844</v>
       </c>
       <c r="C65" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="26">
         <v>48000</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="28">
         <v>48500</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="26">
         <v>200000</v>
       </c>
-      <c r="J65" s="21"/>
+      <c r="J65" s="26"/>
       <c r="L65" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="15"/>
-      <c r="B66" s="20">
+      <c r="A66" s="21"/>
+      <c r="B66" s="25">
         <v>42844</v>
       </c>
       <c r="C66" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="26">
         <v>48000</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="28">
         <v>48500</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="26">
         <v>50500</v>
       </c>
-      <c r="J66" s="21"/>
+      <c r="J66" s="26"/>
       <c r="L66" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="15"/>
-      <c r="B67" s="20">
+      <c r="A67" s="21"/>
+      <c r="B67" s="25">
         <v>42844</v>
       </c>
       <c r="C67" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="26">
         <v>48000</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="28">
         <v>48500</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="33">
         <v>200000</v>
       </c>
-      <c r="J67" s="21"/>
+      <c r="J67" s="26"/>
       <c r="L67" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20">
+      <c r="A68" s="21"/>
+      <c r="B68" s="25">
         <v>42844</v>
       </c>
       <c r="C68" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="26">
         <v>48000</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="28">
         <v>48500</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="26">
         <v>48000</v>
       </c>
-      <c r="J68" s="21"/>
+      <c r="J68" s="26"/>
       <c r="L68" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="15"/>
-      <c r="B69" s="20">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25">
         <v>42844</v>
       </c>
       <c r="C69" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="26">
         <v>99000</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="28">
         <v>100000</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I69" s="26">
         <v>99000</v>
       </c>
-      <c r="J69" s="21"/>
+      <c r="J69" s="26"/>
       <c r="L69" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="15"/>
-      <c r="B70" s="20">
+      <c r="A70" s="21"/>
+      <c r="B70" s="25">
         <v>42844</v>
       </c>
       <c r="C70" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="26">
         <v>48000</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="28">
         <v>49300</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="26">
         <v>48000</v>
       </c>
-      <c r="J70" s="21"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="25">
         <v>42845</v>
       </c>
       <c r="C71" t="s">
         <v>122</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="26">
         <v>48000</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="28">
         <v>48500</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I71" s="26">
         <v>48000</v>
       </c>
-      <c r="J71" s="21"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="25">
         <v>42845</v>
       </c>
       <c r="C72" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="26">
         <v>48000</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="28">
         <v>48500</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I72" s="26">
         <v>48000</v>
       </c>
-      <c r="J72" s="21"/>
+      <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="15"/>
-      <c r="B73" s="20">
+      <c r="A73" s="21"/>
+      <c r="B73" s="25">
         <v>42845</v>
       </c>
       <c r="C73" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F73" s="28">
         <v>51500</v>
       </c>
       <c r="G73" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="28">
         <v>51500</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I73" s="28">
         <v>51500</v>
       </c>
-      <c r="J73" s="21"/>
+      <c r="J73" s="26"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="15"/>
-      <c r="B74" s="20">
+      <c r="A74" s="21"/>
+      <c r="B74" s="25">
         <v>42845</v>
       </c>
       <c r="C74" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="28">
         <v>100000</v>
       </c>
       <c r="G74" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="23">
+      <c r="H74" s="28">
         <v>101500</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="26">
         <v>100000</v>
       </c>
-      <c r="J74" s="21"/>
+      <c r="J74" s="26"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="20">
+      <c r="B75" s="25">
         <v>42845</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="28">
         <v>25500</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="28">
         <v>24500</v>
       </c>
-      <c r="I75" s="21">
+      <c r="I75" s="26">
         <v>25500</v>
       </c>
-      <c r="J75" s="21"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="25">
         <v>42845</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="28">
         <v>11000</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="28">
         <v>10000</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="26">
         <v>11000</v>
       </c>
-      <c r="J76" s="21"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="20">
+      <c r="B77" s="25">
         <v>42845</v>
       </c>
       <c r="C77" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="26">
         <v>51500</v>
       </c>
       <c r="G77" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H77" s="26">
         <v>51500</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="26">
         <v>51500</v>
       </c>
-      <c r="J77" s="21"/>
+      <c r="J77" s="26"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="25">
         <v>42845</v>
       </c>
       <c r="C78" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="26">
         <v>51500</v>
       </c>
       <c r="G78" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="21">
+      <c r="H78" s="26">
         <v>51500</v>
       </c>
-      <c r="I78" s="21">
+      <c r="I78" s="26">
         <v>51500</v>
       </c>
-      <c r="J78" s="21"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="20">
+      <c r="B79" s="25">
         <v>42846</v>
       </c>
       <c r="C79" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="26">
         <v>11000</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="21">
+      <c r="H79" s="26">
         <v>11000</v>
       </c>
-      <c r="I79" s="21">
+      <c r="I79" s="26">
         <v>11000</v>
       </c>
-      <c r="J79" s="21"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="25">
         <v>42848</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="26">
         <v>200000</v>
       </c>
-      <c r="G80" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="21">
+      <c r="G80" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="26">
         <v>201500</v>
       </c>
-      <c r="I80" s="21">
+      <c r="I80" s="26">
         <v>200000</v>
       </c>
-      <c r="J80" s="21"/>
+      <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="20">
+      <c r="B81" s="25">
         <v>42848</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="26">
         <v>50000</v>
       </c>
-      <c r="G81" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="21">
+      <c r="G81" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="26">
         <v>51500</v>
       </c>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="20">
+      <c r="B82" s="25">
         <v>42848</v>
       </c>
       <c r="C82" t="s">
         <v>149</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="26">
         <v>50000</v>
       </c>
-      <c r="G82" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="21">
+      <c r="G82" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="26">
         <v>51500</v>
       </c>
-      <c r="I82" s="21">
+      <c r="I82" s="26">
         <v>50000</v>
       </c>
-      <c r="J82" s="21"/>
+      <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="20">
+      <c r="B83" s="25">
         <v>42848</v>
       </c>
       <c r="C83" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="26">
         <v>21500</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="21">
+      <c r="G83" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="26">
         <v>21500</v>
       </c>
-      <c r="I83" s="21">
+      <c r="I83" s="26">
         <v>21500</v>
       </c>
-      <c r="J83" s="21"/>
+      <c r="J83" s="26"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="20">
+      <c r="B84" s="25">
         <v>42848</v>
       </c>
       <c r="C84" t="s">
         <v>157</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="26">
         <v>50000</v>
       </c>
-      <c r="G84" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="21">
+      <c r="G84" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="26">
         <v>51500</v>
       </c>
-      <c r="I84" s="21">
+      <c r="I84" s="26">
         <v>50000</v>
       </c>
-      <c r="J84" s="21"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="25">
         <v>42848</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="26">
         <v>6000</v>
       </c>
-      <c r="G85" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="21">
+      <c r="G85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="26">
         <v>5000</v>
       </c>
-      <c r="I85" s="21">
+      <c r="I85" s="26">
         <v>6000</v>
       </c>
-      <c r="J85" s="21"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B86" s="20">
+      <c r="B86" s="25">
         <v>42848</v>
       </c>
       <c r="C86" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="26">
         <v>12000</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" s="21">
+      <c r="G86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="26">
         <v>11000</v>
       </c>
-      <c r="I86" s="21">
+      <c r="I86" s="26">
         <v>12000</v>
       </c>
-      <c r="J86" s="21"/>
+      <c r="J86" s="26"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="25">
         <v>42848</v>
       </c>
       <c r="C87" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="26">
         <v>50500</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="21">
+      <c r="G87" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="26">
         <v>49400</v>
       </c>
-      <c r="I87" s="21">
+      <c r="I87" s="26">
         <v>50000</v>
       </c>
-      <c r="J87" s="21"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B88" s="25">
         <v>42847</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="26">
         <v>6000</v>
       </c>
-      <c r="G88" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="21">
+      <c r="G88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="26">
         <v>5000</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I88" s="26">
         <v>6000</v>
       </c>
-      <c r="J88" s="21"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="25">
         <v>42847</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="26">
         <v>6500</v>
       </c>
-      <c r="G89" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="21">
+      <c r="G89" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="26">
         <v>6000</v>
       </c>
-      <c r="I89" s="21">
+      <c r="I89" s="26">
         <v>6500</v>
       </c>
-      <c r="J89" s="21"/>
+      <c r="J89" s="26"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B90" s="20">
+      <c r="B90" s="25">
         <v>42849</v>
       </c>
       <c r="C90" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E90" t="s">
@@ -4384,547 +4645,547 @@
       <c r="G90" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="23">
+      <c r="H90" s="28">
         <v>101500</v>
       </c>
-      <c r="I90" s="21">
+      <c r="I90" s="26">
         <v>100000</v>
       </c>
-      <c r="J90" s="21"/>
+      <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B91" s="20">
+      <c r="B91" s="25">
         <v>42850</v>
       </c>
       <c r="C91" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="26">
         <v>200000</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="21">
+      <c r="G91" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="26">
         <v>201500</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I91" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J91" s="21"/>
+      <c r="J91" s="26"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="20">
+      <c r="B92" s="25">
         <v>42850</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E92" s="25" t="s">
+      <c r="E92" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="26">
         <v>497500</v>
       </c>
-      <c r="G92" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="21">
+      <c r="G92" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="26">
         <v>501500</v>
       </c>
-      <c r="I92" s="21">
+      <c r="I92" s="26">
         <v>497500</v>
       </c>
-      <c r="J92" s="21"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
+      <c r="J92" s="26"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="20">
+      <c r="B93" s="25">
         <v>42850</v>
       </c>
       <c r="C93" t="s">
         <v>110</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="E93" s="25" t="s">
+      <c r="E93" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="26">
         <v>200000</v>
       </c>
-      <c r="G93" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="21">
+      <c r="G93" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="26">
         <v>201500</v>
       </c>
-      <c r="I93" s="21">
+      <c r="I93" s="26">
         <v>200000</v>
       </c>
-      <c r="J93" s="21"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="20">
+      <c r="B94" s="25">
         <v>42851</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="26">
         <v>26000</v>
       </c>
-      <c r="G94" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="21">
+      <c r="G94" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="26">
         <v>24900</v>
       </c>
-      <c r="I94" s="21">
+      <c r="I94" s="26">
         <v>26000</v>
       </c>
-      <c r="J94" s="21"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>180</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B95" s="25">
         <v>42850</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="26">
         <v>49500</v>
       </c>
-      <c r="G95" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="21">
+      <c r="G95" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="26">
         <v>48500</v>
       </c>
-      <c r="I95" s="21">
+      <c r="I95" s="26">
         <v>49500</v>
       </c>
-      <c r="J95" s="21"/>
+      <c r="J95" s="26"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="25">
         <v>42850</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="26">
         <v>50500</v>
       </c>
-      <c r="G96" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="21">
+      <c r="G96" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="26">
         <v>49400</v>
       </c>
-      <c r="I96" s="21">
+      <c r="I96" s="26">
         <v>50500</v>
       </c>
-      <c r="J96" s="21"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="25">
         <v>42849</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="26">
         <v>21000</v>
       </c>
-      <c r="G97" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="21">
+      <c r="G97" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="26">
         <v>20500</v>
       </c>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B98" s="25">
         <v>42849</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="26">
         <v>12000</v>
       </c>
-      <c r="G98" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="21">
+      <c r="G98" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="26">
         <v>11000</v>
       </c>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B99" s="20">
+      <c r="B99" s="25">
         <v>42851</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="26">
         <v>25500</v>
       </c>
-      <c r="G99" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" s="21">
+      <c r="G99" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="26">
         <v>24900</v>
       </c>
-      <c r="I99" s="21"/>
-      <c r="J99" s="21"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="25">
         <v>42851</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C100" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F100" s="21">
+      <c r="F100" s="26">
         <v>6000</v>
       </c>
-      <c r="G100" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="21">
+      <c r="G100" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="26">
         <v>6000</v>
       </c>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>191</v>
       </c>
-      <c r="B101" s="20">
+      <c r="B101" s="25">
         <v>42851</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="26">
         <v>6000</v>
       </c>
-      <c r="G101" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" s="21">
+      <c r="G101" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="26">
         <v>6000</v>
       </c>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>192</v>
       </c>
-      <c r="B102" s="20">
+      <c r="B102" s="25">
         <v>42851</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C102" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D102" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F102" s="21">
+      <c r="F102" s="26">
         <v>21000</v>
       </c>
-      <c r="G102" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="21">
+      <c r="G102" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="26">
         <v>20500</v>
       </c>
-      <c r="I102" s="21"/>
-      <c r="J102" s="21"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B103" s="20">
+      <c r="B103" s="25">
         <v>42852</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="F103" s="21">
+      <c r="F103" s="26">
         <v>50000</v>
       </c>
-      <c r="G103" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="21">
+      <c r="G103" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="26">
         <v>51500</v>
       </c>
-      <c r="I103" s="21">
+      <c r="I103" s="26">
         <v>50000</v>
       </c>
-      <c r="J103" s="21"/>
+      <c r="J103" s="26"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B104" s="20">
+      <c r="B104" s="25">
         <v>42852</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F104" s="21">
+      <c r="F104" s="26">
         <v>200000</v>
       </c>
-      <c r="G104" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="21">
+      <c r="G104" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="26">
         <v>201500</v>
       </c>
-      <c r="I104" s="21">
+      <c r="I104" s="26">
         <v>200000</v>
       </c>
-      <c r="J104" s="21"/>
+      <c r="J104" s="26"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="20">
+      <c r="B105" s="25">
         <v>42852</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C105" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E105" s="25" t="s">
+      <c r="E105" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="F105" s="21">
+      <c r="F105" s="26">
         <v>100000</v>
       </c>
-      <c r="G105" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="21">
+      <c r="G105" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="26">
         <v>101500</v>
       </c>
-      <c r="I105" s="21">
+      <c r="I105" s="26">
         <v>100000</v>
       </c>
-      <c r="J105" s="21"/>
+      <c r="J105" s="26"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B106" s="20">
+      <c r="B106" s="25">
         <v>42852</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F106" s="21">
+      <c r="F106" s="26">
         <v>100000</v>
       </c>
       <c r="G106" t="s">
         <v>15</v>
       </c>
-      <c r="H106" s="21">
+      <c r="H106" s="26">
         <v>101500</v>
       </c>
-      <c r="I106" s="21">
+      <c r="I106" s="26">
         <v>100000</v>
       </c>
-      <c r="J106" s="21"/>
+      <c r="J106" s="26"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="B107" s="20">
+      <c r="B107" s="25">
         <v>42855</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="F107" s="21">
+      <c r="F107" s="26">
         <v>12000</v>
       </c>
-      <c r="G107" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" s="21">
+      <c r="G107" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="26">
         <v>11300</v>
       </c>
       <c r="I107">
         <v>12000</v>
       </c>
-      <c r="J107" s="21"/>
+      <c r="J107" s="26"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="B108" s="20">
+      <c r="B108" s="25">
         <v>42855</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="25" t="s">
+      <c r="D108" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="F108" s="21">
+      <c r="F108" s="26">
         <v>50500</v>
       </c>
-      <c r="G108" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" s="21">
+      <c r="G108" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="26">
         <v>49500</v>
       </c>
-      <c r="J108" s="21"/>
+      <c r="J108" s="26"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B109" s="20">
+      <c r="B109" s="25">
         <v>42855</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="F109" s="21">
+      <c r="F109" s="26">
         <v>12000</v>
       </c>
-      <c r="G109" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H109" s="21">
+      <c r="G109" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="26">
         <v>11300</v>
       </c>
-      <c r="J109" s="21"/>
+      <c r="J109" s="26"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="27" t="s">
+      <c r="A110" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="B110" s="20">
+      <c r="B110" s="25">
         <v>42855</v>
       </c>
       <c r="C110" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="15" t="s">
+      <c r="D110" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F110" s="21">
+      <c r="F110" s="26">
         <v>200000</v>
       </c>
       <c r="G110" t="s">
@@ -4933,27 +5194,27 @@
       <c r="H110">
         <v>201500</v>
       </c>
-      <c r="I110" s="21">
+      <c r="I110" s="26">
         <v>200000</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="27" t="s">
+      <c r="A111" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B111" s="20">
+      <c r="B111" s="25">
         <v>42855</v>
       </c>
       <c r="C111" t="s">
         <v>60</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E111" s="15" t="s">
+      <c r="E111" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F111" s="21">
+      <c r="F111" s="26">
         <v>200000</v>
       </c>
       <c r="G111" t="s">
@@ -4962,867 +5223,867 @@
       <c r="H111">
         <v>201500</v>
       </c>
-      <c r="I111" s="21"/>
+      <c r="I111" s="26"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="27" t="s">
+      <c r="A112" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="B112" s="20">
+      <c r="B112" s="25">
         <v>42852</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C112" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="F112" s="21">
+      <c r="F112" s="26">
         <v>54000</v>
       </c>
-      <c r="G112" s="24" t="s">
+      <c r="G112" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="H112" s="21">
+      <c r="H112" s="26">
         <v>53100</v>
       </c>
-      <c r="I112" s="21">
+      <c r="I112" s="26">
         <v>54000</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B113" s="20">
+      <c r="B113" s="25">
         <v>42853</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E113" s="25" t="s">
+      <c r="E113" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="26">
         <v>200000</v>
       </c>
-      <c r="G113" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" s="21">
+      <c r="G113" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="26">
         <v>201500</v>
       </c>
-      <c r="I113" s="21">
+      <c r="I113" s="26">
         <v>200000</v>
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="27" t="s">
+      <c r="A114" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="B114" s="20">
+      <c r="B114" s="25">
         <v>42855</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="25" t="s">
+      <c r="D114" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="E114" s="25" t="s">
+      <c r="E114" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="F114" s="21">
+      <c r="F114" s="26">
         <v>25500</v>
       </c>
-      <c r="G114" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="21">
+      <c r="G114" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="26">
         <v>24800</v>
       </c>
-      <c r="I114" s="21">
+      <c r="I114" s="26">
         <v>25500</v>
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B115" s="20">
+      <c r="B115" s="25">
         <v>42855</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F115" s="21">
+      <c r="F115" s="26">
         <v>50500</v>
       </c>
-      <c r="G115" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="21">
+      <c r="G115" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="26">
         <v>49500</v>
       </c>
-      <c r="I115" s="21">
+      <c r="I115" s="26">
         <v>50500</v>
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B116" s="20">
+      <c r="B116" s="25">
         <v>42855</v>
       </c>
-      <c r="C116" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D116" s="25" t="s">
+      <c r="C116" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="F116" s="21">
+      <c r="F116" s="26">
         <v>12000</v>
       </c>
-      <c r="G116" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="21">
+      <c r="G116" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="26">
         <v>11300</v>
       </c>
-      <c r="I116" s="21">
+      <c r="I116" s="26">
         <v>12000</v>
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="B117" s="20">
+      <c r="B117" s="25">
         <v>42855</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="25" t="s">
+      <c r="D117" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="F117" s="21">
+      <c r="F117" s="26">
         <v>12000</v>
       </c>
-      <c r="G117" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="21">
+      <c r="G117" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="26">
         <v>11300</v>
       </c>
-      <c r="I117" s="21"/>
+      <c r="I117" s="26"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="B118" s="20">
+      <c r="B118" s="25">
         <v>42855</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F118" s="21">
+      <c r="F118" s="26">
         <v>11000</v>
       </c>
-      <c r="G118" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="21">
+      <c r="G118" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="26">
         <v>10300</v>
       </c>
-      <c r="I118" s="21">
+      <c r="I118" s="26">
         <v>11000</v>
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="27" t="s">
+      <c r="A119" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="B119" s="20">
+      <c r="B119" s="25">
         <v>42855</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="F119" s="21">
+      <c r="F119" s="26">
         <v>12000</v>
       </c>
-      <c r="G119" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="21">
+      <c r="G119" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="26">
         <v>11300</v>
       </c>
-      <c r="I119" s="21">
+      <c r="I119" s="26">
         <v>12000</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="B120" s="20">
+      <c r="B120" s="25">
         <v>42855</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D120" s="25" t="s">
+      <c r="D120" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E120" s="25" t="s">
+      <c r="E120" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F120" s="21">
+      <c r="F120" s="26">
         <v>200000</v>
       </c>
-      <c r="G120" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H120" s="21">
+      <c r="G120" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="26">
         <v>201500</v>
       </c>
-      <c r="I120" s="21">
+      <c r="I120" s="26">
         <v>200000</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="15"/>
-      <c r="B121" s="20">
+      <c r="A121" s="21"/>
+      <c r="B121" s="25">
         <v>42855</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E121" s="25" t="s">
+      <c r="E121" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F121" s="21">
+      <c r="F121" s="26">
         <v>50000</v>
       </c>
-      <c r="G121" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="21">
+      <c r="G121" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="26">
         <v>51500</v>
       </c>
-      <c r="I121" s="21">
+      <c r="I121" s="26">
         <v>50000</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="B122" s="20">
+      <c r="B122" s="25">
         <v>42856</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="F122" s="21">
+      <c r="F122" s="26">
         <v>12000</v>
       </c>
-      <c r="G122" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" s="21">
+      <c r="G122" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="26">
         <v>11300</v>
       </c>
-      <c r="I122" s="21"/>
+      <c r="I122" s="26"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="27" t="s">
+      <c r="A123" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B123" s="20">
+      <c r="B123" s="25">
         <v>42852</v>
       </c>
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="F123" s="21">
+      <c r="F123" s="26">
         <v>54000</v>
       </c>
-      <c r="G123" s="24" t="s">
+      <c r="G123" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="H123" s="21">
+      <c r="H123" s="26">
         <v>53100</v>
       </c>
-      <c r="I123" s="21">
+      <c r="I123" s="26">
         <v>54000</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="B124" s="20">
+      <c r="B124" s="25">
         <v>42852</v>
       </c>
-      <c r="C124" s="24" t="s">
+      <c r="C124" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="F124" s="21">
+      <c r="F124" s="26">
         <v>11000</v>
       </c>
-      <c r="G124" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="21">
+      <c r="G124" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="26">
         <v>10000</v>
       </c>
-      <c r="I124" s="21">
+      <c r="I124" s="26">
         <v>11000</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B125" s="20">
+      <c r="B125" s="25">
         <v>42856</v>
       </c>
       <c r="C125" t="s">
         <v>137</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E125" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F125" s="21">
+      <c r="F125" s="26">
         <v>50000</v>
       </c>
-      <c r="G125" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="21">
+      <c r="G125" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="26">
         <v>51500</v>
       </c>
-      <c r="I125" s="21">
+      <c r="I125" s="26">
         <v>50000</v>
       </c>
-      <c r="J125" s="21"/>
+      <c r="J125" s="26"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="B126" s="20">
+      <c r="B126" s="25">
         <v>42856</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="C126" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E126" s="25" t="s">
+      <c r="E126" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F126" s="21">
+      <c r="F126" s="26">
         <v>50000</v>
       </c>
-      <c r="G126" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="21">
+      <c r="G126" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="26">
         <v>51500</v>
       </c>
-      <c r="I126" s="21">
+      <c r="I126" s="26">
         <v>50000</v>
       </c>
-      <c r="J126" s="21"/>
+      <c r="J126" s="26"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B127" s="20">
+      <c r="B127" s="25">
         <v>42856</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="F127" s="21">
+      <c r="F127" s="26">
         <v>12000</v>
       </c>
-      <c r="G127" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" s="21">
+      <c r="G127" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="26">
         <v>11300</v>
       </c>
-      <c r="I127" s="21"/>
-      <c r="J127" s="21"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="27" t="s">
+      <c r="A128" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="B128" s="20">
+      <c r="B128" s="25">
         <v>42856</v>
       </c>
       <c r="C128" t="s">
         <v>144</v>
       </c>
-      <c r="D128" s="15" t="s">
+      <c r="D128" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E128" s="15" t="s">
+      <c r="E128" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F128" s="21">
+      <c r="F128" s="26">
         <v>24800</v>
       </c>
-      <c r="G128" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="21">
+      <c r="G128" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="26">
         <v>24800</v>
       </c>
-      <c r="I128" s="21">
+      <c r="I128" s="26">
         <v>24800</v>
       </c>
-      <c r="J128" s="21"/>
+      <c r="J128" s="26"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="27" t="s">
+      <c r="A129" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B129" s="20">
+      <c r="B129" s="25">
         <v>42856</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="C129" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D129" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E129" s="25" t="s">
+      <c r="E129" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F129" s="21">
+      <c r="F129" s="26">
         <v>495000</v>
       </c>
-      <c r="G129" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H129" s="21">
+      <c r="G129" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="26">
         <v>501500</v>
       </c>
-      <c r="I129" s="21">
+      <c r="I129" s="26">
         <v>495000</v>
       </c>
-      <c r="J129" s="21"/>
+      <c r="J129" s="26"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="30" t="s">
+      <c r="A130" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B130" s="20">
+      <c r="B130" s="25">
         <v>42857</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="D130" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="E130" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F130" s="28">
+      <c r="F130" s="33">
         <v>58000</v>
       </c>
       <c r="G130" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="28">
+      <c r="H130" s="33">
         <v>57000</v>
       </c>
-      <c r="I130" s="21">
+      <c r="I130" s="26">
         <v>58000</v>
       </c>
-      <c r="J130" s="21"/>
+      <c r="J130" s="26"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="30" t="s">
+      <c r="A131" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="B131" s="20">
+      <c r="B131" s="25">
         <v>42857</v>
       </c>
       <c r="C131" t="s">
         <v>240</v>
       </c>
-      <c r="D131" s="15" t="s">
+      <c r="D131" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E131" t="s">
         <v>240</v>
       </c>
-      <c r="F131" s="28">
+      <c r="F131" s="33">
         <v>12000</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
       </c>
-      <c r="H131" s="28">
+      <c r="H131" s="33">
         <v>11300</v>
       </c>
-      <c r="I131" s="21"/>
-      <c r="J131" s="21"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B132" s="20">
+      <c r="B132" s="25">
         <v>42858</v>
       </c>
       <c r="C132" t="s">
         <v>243</v>
       </c>
-      <c r="D132" s="15" t="s">
+      <c r="D132" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E132" t="s">
         <v>243</v>
       </c>
-      <c r="F132" s="28">
+      <c r="F132" s="33">
         <v>37000</v>
       </c>
       <c r="G132" t="s">
         <v>9</v>
       </c>
-      <c r="H132" s="28">
+      <c r="H132" s="33">
         <v>36000</v>
       </c>
-      <c r="I132" s="28">
+      <c r="I132" s="33">
         <v>37000</v>
       </c>
-      <c r="J132" s="21"/>
+      <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="B133" s="20">
+      <c r="B133" s="25">
         <v>42858</v>
       </c>
       <c r="C133" t="s">
         <v>23</v>
       </c>
-      <c r="D133" s="15" t="s">
+      <c r="D133" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E133" s="15" t="s">
+      <c r="E133" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="F133" s="28">
+      <c r="F133" s="33">
         <v>12000</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="28">
+      <c r="H133" s="33">
         <v>11300</v>
       </c>
-      <c r="I133" s="28">
+      <c r="I133" s="33">
         <v>12000</v>
       </c>
-      <c r="J133" s="21"/>
+      <c r="J133" s="26"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B134" s="20">
+      <c r="B134" s="25">
         <v>42858</v>
       </c>
       <c r="C134" t="s">
         <v>247</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="D134" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="F134" s="28">
+      <c r="F134" s="33">
         <v>50000</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
       </c>
-      <c r="H134" s="28">
+      <c r="H134" s="33">
         <v>51500</v>
       </c>
-      <c r="I134" s="23">
+      <c r="I134" s="28">
         <v>50000</v>
       </c>
-      <c r="J134" s="21"/>
+      <c r="J134" s="26"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="B135" s="20">
+      <c r="B135" s="25">
         <v>42857</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
-      <c r="D135" s="15" t="s">
+      <c r="D135" s="21" t="s">
         <v>63</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="28">
+      <c r="F135" s="33">
         <v>12000</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
-      <c r="H135" s="28">
+      <c r="H135" s="33">
         <v>11300</v>
       </c>
-      <c r="I135" s="21"/>
-      <c r="J135" s="21"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="30" t="s">
+      <c r="A136" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="B136" s="20">
+      <c r="B136" s="25">
         <v>42857</v>
       </c>
       <c r="C136" t="s">
         <v>252</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="D136" s="21" t="s">
         <v>253</v>
       </c>
       <c r="E136" t="s">
         <v>252</v>
       </c>
-      <c r="F136" s="28">
+      <c r="F136" s="33">
         <v>12000</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
       </c>
-      <c r="H136" s="28">
+      <c r="H136" s="33">
         <v>11300</v>
       </c>
-      <c r="I136" s="21">
+      <c r="I136" s="26">
         <v>12000</v>
       </c>
-      <c r="J136" s="21"/>
+      <c r="J136" s="26"/>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="B137" s="20">
+      <c r="B137" s="25">
         <v>42857</v>
       </c>
       <c r="C137" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="15" t="s">
+      <c r="D137" s="21" t="s">
         <v>255</v>
       </c>
       <c r="E137" t="s">
         <v>83</v>
       </c>
-      <c r="F137" s="28">
+      <c r="F137" s="33">
         <v>7000</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
       </c>
-      <c r="H137" s="28">
+      <c r="H137" s="33">
         <v>6500</v>
       </c>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="B138" s="20">
+      <c r="B138" s="25">
         <v>42857</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D138" s="15" t="s">
+      <c r="D138" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F138" s="28">
+      <c r="F138" s="33">
         <v>6000</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
       </c>
-      <c r="H138" s="28">
+      <c r="H138" s="33">
         <v>5500</v>
       </c>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="B139" s="20">
+      <c r="B139" s="25">
         <v>42857</v>
       </c>
       <c r="C139" t="s">
         <v>112</v>
       </c>
-      <c r="D139" s="15" t="s">
+      <c r="D139" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E139" t="s">
         <v>112</v>
       </c>
-      <c r="F139" s="28">
+      <c r="F139" s="33">
         <v>99000</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
       </c>
-      <c r="H139" s="28">
+      <c r="H139" s="33">
         <v>100000</v>
       </c>
-      <c r="I139" s="21">
+      <c r="I139" s="26">
         <v>99000</v>
       </c>
-      <c r="J139" s="21"/>
+      <c r="J139" s="26"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B140" s="20">
+      <c r="B140" s="25">
         <v>42859</v>
       </c>
       <c r="C140" t="s">
         <v>110</v>
       </c>
-      <c r="D140" s="15" t="s">
+      <c r="D140" s="21" t="s">
         <v>259</v>
       </c>
       <c r="E140" t="s">
         <v>110</v>
       </c>
-      <c r="F140" s="28">
+      <c r="F140" s="33">
         <v>200000</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
       </c>
-      <c r="H140" s="28">
+      <c r="H140" s="33">
         <v>201500</v>
       </c>
-      <c r="I140" s="28">
+      <c r="I140" s="33">
         <v>200000</v>
       </c>
-      <c r="J140" s="21"/>
+      <c r="J140" s="26"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B141" s="20">
+      <c r="B141" s="25">
         <v>42861</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
-      <c r="D141" s="15" t="s">
+      <c r="D141" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="E141" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F141" s="28">
+      <c r="F141" s="33">
         <v>50000</v>
       </c>
       <c r="G141" t="s">
         <v>15</v>
       </c>
-      <c r="H141" s="28">
+      <c r="H141" s="33">
         <v>51500</v>
       </c>
-      <c r="I141" s="21"/>
-      <c r="J141" s="21"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B142" s="20">
+      <c r="B142" s="25">
         <v>42861</v>
       </c>
       <c r="C142" t="s">
         <v>247</v>
       </c>
-      <c r="D142" s="15" t="s">
+      <c r="D142" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E142" s="15" t="s">
+      <c r="E142" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="F142" s="28">
+      <c r="F142" s="33">
         <v>50000</v>
       </c>
       <c r="G142" t="s">
         <v>15</v>
       </c>
-      <c r="H142" s="28">
+      <c r="H142" s="33">
         <v>51500</v>
       </c>
       <c r="I142">
@@ -5830,54 +6091,54 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B143" s="20">
+      <c r="B143" s="25">
         <v>42861</v>
       </c>
       <c r="C143" t="s">
         <v>21</v>
       </c>
-      <c r="D143" s="15" t="s">
+      <c r="D143" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E143" s="15" t="s">
+      <c r="E143" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F143" s="28">
+      <c r="F143" s="33">
         <v>50000</v>
       </c>
       <c r="G143" t="s">
         <v>15</v>
       </c>
-      <c r="H143" s="28">
+      <c r="H143" s="33">
         <v>51500</v>
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B144" s="20">
+      <c r="B144" s="25">
         <v>42862</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="15" t="s">
+      <c r="D144" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E144" s="15" t="s">
+      <c r="E144" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F144" s="28">
+      <c r="F144" s="33">
         <v>50000</v>
       </c>
       <c r="G144" t="s">
         <v>15</v>
       </c>
-      <c r="H144" s="28">
+      <c r="H144" s="33">
         <v>51500</v>
       </c>
       <c r="I144">
@@ -5885,28 +6146,28 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="B145" s="20">
+      <c r="B145" s="25">
         <v>42862</v>
       </c>
       <c r="C145" t="s">
         <v>149</v>
       </c>
-      <c r="D145" s="15" t="s">
+      <c r="D145" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="E145" s="15" t="s">
+      <c r="E145" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="F145" s="28">
+      <c r="F145" s="33">
         <v>50000</v>
       </c>
       <c r="G145" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="28">
+      <c r="H145" s="33">
         <v>51500</v>
       </c>
       <c r="I145">
@@ -5914,51 +6175,51 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="B146" s="20">
+      <c r="B146" s="25">
         <v>42861</v>
       </c>
       <c r="C146" t="s">
         <v>269</v>
       </c>
-      <c r="D146" s="15" t="s">
+      <c r="D146" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F146" s="28">
+      <c r="F146" s="33">
         <v>5500</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
       </c>
-      <c r="H146" s="28">
+      <c r="H146" s="33">
         <v>5500</v>
       </c>
-      <c r="I146" s="28">
+      <c r="I146" s="33">
         <v>5500</v>
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="30" t="s">
+      <c r="A147" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="B147" s="20">
+      <c r="B147" s="25">
         <v>42861</v>
       </c>
       <c r="C147" t="s">
         <v>54</v>
       </c>
-      <c r="D147" s="15" t="s">
+      <c r="D147" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F147" s="28">
+      <c r="F147" s="33">
         <v>12000</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
       </c>
-      <c r="H147" s="28">
+      <c r="H147" s="33">
         <v>11300</v>
       </c>
       <c r="I147">
@@ -5966,25 +6227,25 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="B148" s="20">
+      <c r="B148" s="25">
         <v>42861</v>
       </c>
       <c r="C148" t="s">
         <v>54</v>
       </c>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F148" s="28">
+      <c r="F148" s="33">
         <v>12000</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
       </c>
-      <c r="H148" s="28">
+      <c r="H148" s="33">
         <v>11300</v>
       </c>
       <c r="I148">
@@ -5992,25 +6253,25 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="B149" s="20">
+      <c r="B149" s="25">
         <v>42861</v>
       </c>
       <c r="C149" t="s">
         <v>162</v>
       </c>
-      <c r="D149" s="15" t="s">
+      <c r="D149" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F149" s="28">
+      <c r="F149" s="33">
         <v>58000</v>
       </c>
       <c r="G149" t="s">
         <v>9</v>
       </c>
-      <c r="H149" s="28">
+      <c r="H149" s="33">
         <v>57000</v>
       </c>
       <c r="I149">
@@ -6018,276 +6279,276 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="30" t="s">
+      <c r="A150" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B150" s="20">
+      <c r="B150" s="25">
         <v>42862</v>
       </c>
       <c r="C150" t="s">
         <v>110</v>
       </c>
-      <c r="D150" s="15" t="s">
+      <c r="D150" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F150" s="28">
+      <c r="F150" s="33">
         <v>50000</v>
       </c>
       <c r="G150" t="s">
         <v>11</v>
       </c>
-      <c r="H150" s="28">
+      <c r="H150" s="33">
         <v>49000</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="30" t="s">
+      <c r="A151" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="B151" s="20">
+      <c r="B151" s="25">
         <v>42862</v>
       </c>
       <c r="C151" t="s">
         <v>279</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="D151" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="F151" s="28">
+      <c r="F151" s="33">
         <v>50000</v>
       </c>
       <c r="G151" t="s">
         <v>11</v>
       </c>
-      <c r="H151" s="28">
+      <c r="H151" s="33">
         <v>49000</v>
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B152" s="20">
+      <c r="B152" s="25">
         <v>42862</v>
       </c>
       <c r="C152" t="s">
         <v>279</v>
       </c>
-      <c r="D152" s="15" t="s">
+      <c r="D152" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E152" s="15" t="s">
+      <c r="E152" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F152" s="28">
+      <c r="F152" s="33">
         <v>200000</v>
       </c>
       <c r="G152" t="s">
         <v>15</v>
       </c>
-      <c r="H152" s="28">
+      <c r="H152" s="33">
         <v>201500</v>
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="30" t="s">
+      <c r="A153" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="B153" s="20">
+      <c r="B153" s="25">
         <v>42862</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C153" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D153" s="15" t="s">
+      <c r="D153" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F153" s="28">
+      <c r="F153" s="33">
         <v>6500</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
       </c>
-      <c r="H153" s="28">
+      <c r="H153" s="33">
         <v>5500</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="30" t="s">
+      <c r="A154" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B154" s="20">
+      <c r="B154" s="25">
         <v>42862</v>
       </c>
       <c r="C154" t="s">
         <v>10</v>
       </c>
-      <c r="D154" s="15" t="s">
+      <c r="D154" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F154" s="28">
+      <c r="F154" s="33">
         <v>12000</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
       </c>
-      <c r="H154" s="28">
+      <c r="H154" s="33">
         <v>11300</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B155" s="20">
+      <c r="B155" s="25">
         <v>42862</v>
       </c>
       <c r="C155" t="s">
         <v>287</v>
       </c>
-      <c r="D155" s="15" t="s">
+      <c r="D155" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="E155" s="15" t="s">
+      <c r="E155" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="F155" s="28">
+      <c r="F155" s="33">
         <v>495000</v>
       </c>
       <c r="G155" t="s">
         <v>15</v>
       </c>
-      <c r="H155" s="28">
+      <c r="H155" s="33">
         <v>501500</v>
       </c>
-      <c r="I155" s="28">
+      <c r="I155" s="33">
         <v>495000</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="30" t="s">
+      <c r="A156" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B156" s="20">
+      <c r="B156" s="25">
         <v>42862</v>
       </c>
       <c r="C156" t="s">
         <v>247</v>
       </c>
-      <c r="D156" s="15" t="s">
+      <c r="D156" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="F156" s="28">
+      <c r="F156" s="33">
         <v>34500</v>
       </c>
       <c r="G156" t="s">
         <v>9</v>
       </c>
-      <c r="H156" s="28">
+      <c r="H156" s="33">
         <v>33500</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="B157" s="20">
+      <c r="B157" s="25">
         <v>42863</v>
       </c>
       <c r="C157" t="s">
         <v>99</v>
       </c>
-      <c r="D157" s="15" t="s">
+      <c r="D157" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="E157" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F157" s="28">
+      <c r="F157" s="33">
         <v>100000</v>
       </c>
       <c r="G157" t="s">
         <v>15</v>
       </c>
-      <c r="H157" s="28">
+      <c r="H157" s="33">
         <v>101500</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="B158" s="20">
+      <c r="B158" s="25">
         <v>42863</v>
       </c>
       <c r="C158" t="s">
         <v>71</v>
       </c>
-      <c r="D158" s="15" t="s">
+      <c r="D158" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F158" s="28">
+      <c r="F158" s="33">
         <v>50500</v>
       </c>
       <c r="G158" t="s">
         <v>15</v>
       </c>
-      <c r="H158" s="28">
+      <c r="H158" s="33">
         <v>49500</v>
       </c>
-      <c r="I158" s="21">
+      <c r="I158" s="26">
         <v>50500</v>
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="B159" s="20">
+      <c r="B159" s="25">
         <v>42863</v>
       </c>
       <c r="C159" t="s">
         <v>23</v>
       </c>
-      <c r="D159" s="15" t="s">
+      <c r="D159" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E159" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F159" s="23">
+      <c r="F159" s="28">
         <v>50000</v>
       </c>
       <c r="G159" t="s">
         <v>15</v>
       </c>
-      <c r="H159" s="23">
+      <c r="H159" s="28">
         <v>51500</v>
       </c>
-      <c r="I159" s="23">
+      <c r="I159" s="28">
         <v>50000</v>
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="B160" s="20">
+      <c r="B160" s="25">
         <v>42863</v>
       </c>
       <c r="C160" t="s">
         <v>296</v>
       </c>
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="F160" s="28">
+      <c r="F160" s="33">
         <v>22000</v>
       </c>
       <c r="G160" t="s">
         <v>11</v>
       </c>
-      <c r="H160" s="28">
+      <c r="H160" s="33">
         <v>21000</v>
       </c>
       <c r="I160">
@@ -6295,129 +6556,129 @@
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="B161" s="20">
+      <c r="B161" s="25">
         <v>42863</v>
       </c>
       <c r="C161" t="s">
         <v>103</v>
       </c>
-      <c r="D161" s="15" t="s">
+      <c r="D161" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E161" s="15" t="s">
+      <c r="E161" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F161" s="29">
+      <c r="F161" s="34">
         <v>50000</v>
       </c>
       <c r="G161" t="s">
         <v>15</v>
       </c>
-      <c r="H161" s="23">
+      <c r="H161" s="28">
         <v>51500</v>
       </c>
-      <c r="I161" s="29">
+      <c r="I161" s="34">
         <v>50000</v>
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="30" t="s">
+      <c r="A162" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="B162" s="20">
+      <c r="B162" s="25">
         <v>42863</v>
       </c>
       <c r="C162" t="s">
         <v>201</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D162" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F162" s="28">
+      <c r="F162" s="33">
         <v>11500</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
       </c>
-      <c r="H162" s="28">
+      <c r="H162" s="33">
         <v>10300</v>
       </c>
-      <c r="I162" s="28">
+      <c r="I162" s="33">
         <v>11500</v>
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="30" t="s">
+      <c r="A163" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="B163" s="20">
+      <c r="B163" s="25">
         <v>42863</v>
       </c>
       <c r="C163" t="s">
         <v>201</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="D163" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F163" s="28">
+      <c r="F163" s="33">
         <v>12000</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
       </c>
-      <c r="H163" s="28">
+      <c r="H163" s="33">
         <v>11300</v>
       </c>
-      <c r="I163" s="28">
+      <c r="I163" s="33">
         <v>12000</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="30" t="s">
+      <c r="A164" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B164" s="20">
+      <c r="B164" s="25">
         <v>42863</v>
       </c>
       <c r="C164" t="s">
         <v>302</v>
       </c>
-      <c r="D164" s="15" t="s">
+      <c r="D164" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="F164" s="28">
+      <c r="F164" s="33">
         <v>12000</v>
       </c>
       <c r="G164" t="s">
         <v>11</v>
       </c>
-      <c r="H164" s="28">
+      <c r="H164" s="33">
         <v>11300</v>
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="30" t="s">
+      <c r="A165" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="B165" s="20">
+      <c r="B165" s="25">
         <v>42863</v>
       </c>
       <c r="C165" t="s">
         <v>8</v>
       </c>
-      <c r="D165" s="15" t="s">
+      <c r="D165" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F165" s="28">
+      <c r="F165" s="33">
         <v>12000</v>
       </c>
       <c r="G165" t="s">
         <v>11</v>
       </c>
-      <c r="H165" s="28">
+      <c r="H165" s="33">
         <v>11300</v>
       </c>
       <c r="I165">
@@ -6425,25 +6686,25 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="30" t="s">
+      <c r="A166" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="B166" s="20">
+      <c r="B166" s="25">
         <v>42863</v>
       </c>
       <c r="C166" t="s">
         <v>306</v>
       </c>
-      <c r="D166" s="15" t="s">
+      <c r="D166" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="F166" s="28">
+      <c r="F166" s="33">
         <v>12000</v>
       </c>
       <c r="G166" t="s">
         <v>11</v>
       </c>
-      <c r="H166" s="28">
+      <c r="H166" s="33">
         <v>11300</v>
       </c>
       <c r="I166">
@@ -6451,25 +6712,25 @@
       </c>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="30" t="s">
+      <c r="A167" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="B167" s="20">
+      <c r="B167" s="25">
         <v>42865</v>
       </c>
       <c r="C167" t="s">
         <v>129</v>
       </c>
-      <c r="D167" s="15" t="s">
+      <c r="D167" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="F167" s="28">
+      <c r="F167" s="33">
         <v>12000</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
       </c>
-      <c r="H167" s="28">
+      <c r="H167" s="33">
         <v>11300</v>
       </c>
       <c r="I167">
@@ -6477,164 +6738,1485 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B168" s="20">
+      <c r="B168" s="25">
         <v>42865</v>
       </c>
       <c r="C168" t="s">
         <v>23</v>
       </c>
-      <c r="D168" s="15" t="s">
+      <c r="D168" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F168" s="28">
+      <c r="F168" s="33">
         <v>12000</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
       </c>
-      <c r="H168" s="28">
+      <c r="H168" s="33">
         <v>11300</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="B169" s="20">
+      <c r="B169" s="25">
         <v>42865</v>
       </c>
       <c r="C169" t="s">
         <v>96</v>
       </c>
-      <c r="D169" s="15" t="s">
+      <c r="D169" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="F169" s="28">
+      <c r="F169" s="33">
         <v>26000</v>
       </c>
       <c r="G169" t="s">
         <v>11</v>
       </c>
-      <c r="H169" s="28">
+      <c r="H169" s="33">
         <v>25000</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="30" t="s">
+      <c r="A170" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="B170" s="20">
+      <c r="B170" s="25">
         <v>42866</v>
       </c>
       <c r="C170" t="s">
         <v>65</v>
       </c>
-      <c r="D170" s="15" t="s">
+      <c r="D170" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F170" s="28">
+      <c r="F170" s="33">
         <v>12000</v>
       </c>
       <c r="G170" t="s">
         <v>11</v>
       </c>
-      <c r="H170" s="28">
+      <c r="H170" s="33">
         <v>11300</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="30" t="s">
+      <c r="A171" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="B171" s="20">
+      <c r="B171" s="25">
         <v>42866</v>
       </c>
       <c r="C171" t="s">
         <v>65</v>
       </c>
-      <c r="D171" s="15" t="s">
+      <c r="D171" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F171" s="28">
+      <c r="F171" s="33">
         <v>12000</v>
       </c>
       <c r="G171" t="s">
         <v>11</v>
       </c>
-      <c r="H171" s="28">
+      <c r="H171" s="33">
         <v>11300</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="30" t="s">
+      <c r="A172" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="B172" s="20">
+      <c r="B172" s="25">
         <v>42866</v>
       </c>
       <c r="C172" t="s">
         <v>317</v>
       </c>
-      <c r="D172" s="15" t="s">
+      <c r="D172" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F172" s="28">
+      <c r="F172" s="33">
         <v>12000</v>
       </c>
       <c r="G172" t="s">
         <v>11</v>
       </c>
-      <c r="H172" s="28">
+      <c r="H172" s="33">
         <v>11300</v>
       </c>
     </row>
-    <row r="173" spans="2:6">
-      <c r="B173" s="20">
+    <row r="173" spans="1:9">
+      <c r="A173" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B173" s="25">
+        <v>42867</v>
+      </c>
+      <c r="C173" t="s">
+        <v>319</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="F173" s="33">
+        <v>50000</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" s="33">
+        <v>51500</v>
+      </c>
+      <c r="I173">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B174" s="25">
+        <v>42867</v>
+      </c>
+      <c r="C174" t="s">
+        <v>99</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F174" s="33">
+        <v>100000</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174" s="33">
+        <v>101500</v>
+      </c>
+      <c r="I174">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B175" s="25">
+        <v>42867</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" s="33">
+        <v>500000</v>
+      </c>
+      <c r="G175" t="s">
+        <v>324</v>
+      </c>
+      <c r="H175" s="33">
+        <v>501500</v>
+      </c>
+      <c r="I175">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="B176" s="25">
+        <v>42868</v>
+      </c>
+      <c r="C176" t="s">
+        <v>137</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E176" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F176" s="33">
+        <v>50000</v>
+      </c>
+      <c r="G176" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176" s="33">
+        <v>51500</v>
+      </c>
+      <c r="I176">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B177" s="25">
+        <v>42869</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" s="33">
+        <v>100000</v>
+      </c>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" s="33">
+        <v>101500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B178" s="25">
+        <v>42870</v>
+      </c>
+      <c r="C178" t="s">
+        <v>328</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E178" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="F178" s="33">
+        <v>200000</v>
+      </c>
+      <c r="G178" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" s="33">
+        <v>201500</v>
+      </c>
+      <c r="I178">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B179" s="25">
+        <v>42870</v>
+      </c>
+      <c r="C179" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E179" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F179" s="33">
+        <v>200000</v>
+      </c>
+      <c r="G179" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="33">
+        <v>201500</v>
+      </c>
+      <c r="I179">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B180" s="25">
+        <v>42870</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F180" s="33">
+        <v>50000</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" s="33">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="B181" s="25">
+        <v>42871</v>
+      </c>
+      <c r="C181" t="s">
+        <v>141</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E181" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F181" s="26">
+        <v>51500</v>
+      </c>
+      <c r="G181" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="37">
+        <v>51500</v>
+      </c>
+      <c r="I181" s="26">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B182" s="25">
+        <v>42872</v>
+      </c>
+      <c r="C182" t="s">
+        <v>157</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E182" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F182" s="26">
+        <v>50000</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="37">
+        <v>51500</v>
+      </c>
+      <c r="I182" s="26">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B183" s="25">
+        <v>42872</v>
+      </c>
+      <c r="C183" t="s">
+        <v>336</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E183" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="F183">
+        <v>100000</v>
+      </c>
+      <c r="G183" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="33">
+        <v>101500</v>
+      </c>
+      <c r="I183">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B184" s="25">
+        <v>42872</v>
+      </c>
+      <c r="C184" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F184" s="26">
+        <v>50000</v>
+      </c>
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="37">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B185" s="25">
+        <v>42873</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F185" s="26">
+        <v>200000</v>
+      </c>
+      <c r="G185" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="37">
+        <v>201500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B186" s="25">
+        <v>42873</v>
+      </c>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E186" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F186" s="28">
+        <v>51500</v>
+      </c>
+      <c r="G186" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" s="33">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B187" s="25">
+        <v>42873</v>
+      </c>
+      <c r="C187" t="s">
+        <v>157</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F187">
+        <v>101500</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" s="33">
+        <v>101500</v>
+      </c>
+      <c r="I187">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B188" s="25">
+        <v>42873</v>
+      </c>
+      <c r="C188" t="s">
+        <v>38</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F188">
+        <v>50000</v>
+      </c>
+      <c r="G188" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188" s="37">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B189" s="25">
+        <v>42874</v>
+      </c>
+      <c r="C189" t="s">
+        <v>80</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E189" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F189">
+        <v>51000</v>
+      </c>
+      <c r="G189" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" s="33">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B190" s="25">
+        <v>42874</v>
+      </c>
+      <c r="C190" t="s">
+        <v>112</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F190">
+        <v>100000</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190">
+        <v>99000</v>
+      </c>
+      <c r="I190">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="B191" s="25">
+        <v>42874</v>
+      </c>
+      <c r="C191" t="s">
+        <v>80</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F191">
+        <v>50000</v>
+      </c>
+      <c r="G191" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" s="28">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B192" s="25">
+        <v>42874</v>
+      </c>
+      <c r="C192" t="s">
+        <v>35</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F192">
+        <v>200000</v>
+      </c>
+      <c r="G192" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" s="26">
+        <v>201500</v>
+      </c>
+      <c r="I192" s="26">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="B193" s="25">
+        <v>42875</v>
+      </c>
+      <c r="C193" t="s">
+        <v>319</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="F193" s="33">
+        <v>50000</v>
+      </c>
+      <c r="G193" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193" s="33">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B194" s="25">
+        <v>42875</v>
+      </c>
+      <c r="C194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F194">
+        <v>50000</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="28">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B195" s="25">
+        <v>42875</v>
+      </c>
+      <c r="C195" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F195">
+        <v>12000</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="B196" s="25">
+        <v>42875</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F196" s="28">
+        <v>12000</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B197" s="25">
+        <v>42875</v>
+      </c>
+      <c r="C197" t="s">
+        <v>65</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E197" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F197" s="26">
+        <v>200000</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" s="26">
+        <v>201500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="B198" s="25">
+        <v>42876</v>
+      </c>
+      <c r="C198" t="s">
+        <v>353</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="F198">
+        <v>100000</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198">
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B199" s="25">
+        <v>42876</v>
+      </c>
+      <c r="C199" t="s">
+        <v>103</v>
+      </c>
+      <c r="D199" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E199" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F199">
+        <v>51000</v>
+      </c>
+      <c r="G199" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199" s="28">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="B200" s="25">
+        <v>42873</v>
+      </c>
+      <c r="C200" t="s">
+        <v>71</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F200">
+        <v>50500</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B201" s="25">
+        <v>42873</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D201" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F201" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G201" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="26">
+        <v>10000</v>
+      </c>
+      <c r="I201" s="26">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B202" s="25">
+        <v>42874</v>
+      </c>
+      <c r="C202" t="s">
+        <v>96</v>
+      </c>
+      <c r="D202" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="F202">
+        <v>50000</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="B203" s="25">
+        <v>42874</v>
+      </c>
+      <c r="C203" t="s">
+        <v>96</v>
+      </c>
+      <c r="D203" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="F203">
+        <v>50000</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B204" s="25">
+        <v>42871</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D204" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F204" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G204" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" s="26">
+        <v>11300</v>
+      </c>
+      <c r="I204">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="B205" s="25">
+        <v>42871</v>
+      </c>
+      <c r="C205" t="s">
+        <v>353</v>
+      </c>
+      <c r="D205" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="F205">
+        <v>50000</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205">
+        <v>49000</v>
+      </c>
+      <c r="I205">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="B206" s="25">
+        <v>42871</v>
+      </c>
+      <c r="C206" t="s">
+        <v>302</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F206" s="33">
+        <v>12000</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" s="33">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="B207" s="25">
+        <v>42871</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F207">
+        <v>12000</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="B208" s="25">
+        <v>42870</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F208">
+        <v>37000</v>
+      </c>
+      <c r="G208" t="s">
+        <v>9</v>
+      </c>
+      <c r="H208">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="B209" s="25">
+        <v>42869</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E209" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="F209" s="33">
+        <v>96000</v>
+      </c>
+      <c r="G209" t="s">
+        <v>9</v>
+      </c>
+      <c r="H209">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" s="25">
+        <v>42869</v>
+      </c>
+      <c r="C210" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D210" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F210" s="26">
+        <v>50500</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" s="25">
+        <v>42869</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F211">
+        <v>12000</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="B212" s="25">
+        <v>42868</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D212" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F212" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G212" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" s="26">
+        <v>11300</v>
+      </c>
+      <c r="I212">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" s="25">
+        <v>42868</v>
+      </c>
+      <c r="C213" t="s">
+        <v>112</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F213">
+        <v>50000</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213">
+        <v>49000</v>
+      </c>
+      <c r="I213">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="B214" s="25">
+        <v>42868</v>
+      </c>
+      <c r="C214" t="s">
+        <v>112</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F214">
+        <v>50000</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214">
+        <v>49000</v>
+      </c>
+      <c r="I214">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" s="25">
+        <v>42868</v>
+      </c>
+      <c r="C215" t="s">
+        <v>353</v>
+      </c>
+      <c r="D215" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="F215">
+        <v>50500</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215">
+        <v>49500</v>
+      </c>
+      <c r="I215">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="B216" s="25">
+        <v>42868</v>
+      </c>
+      <c r="C216" t="s">
+        <v>38</v>
+      </c>
+      <c r="D216" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F216">
+        <v>12000</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B217" s="25">
+        <v>42867</v>
+      </c>
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F217">
+        <v>12000</v>
+      </c>
+      <c r="G217" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="26">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="B218" s="25">
+        <v>42867</v>
+      </c>
+      <c r="C218" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F218">
+        <v>50000</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" s="26">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="B219" s="25">
         <v>42866</v>
       </c>
-      <c r="F173" s="28"/>
-    </row>
-    <row r="174" spans="2:6">
-      <c r="B174" s="20">
+      <c r="C219" t="s">
+        <v>38</v>
+      </c>
+      <c r="D219" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F219">
+        <v>12000</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" s="28">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="B220" s="25">
         <v>42866</v>
       </c>
-      <c r="F174" s="28"/>
-    </row>
-    <row r="175" spans="2:6">
-      <c r="B175" s="20">
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="25">
         <v>42866</v>
       </c>
-      <c r="F175" s="28"/>
-    </row>
-    <row r="176" spans="2:6">
-      <c r="B176" s="20">
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="25">
         <v>42866</v>
       </c>
-      <c r="F176" s="28"/>
-    </row>
-    <row r="177" spans="2:6">
-      <c r="B177" s="20">
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="25">
         <v>42866</v>
       </c>
-      <c r="F177" s="28"/>
-    </row>
-    <row r="178" spans="6:6">
-      <c r="F178" s="28"/>
-    </row>
-    <row r="179" spans="6:6">
-      <c r="F179" s="28"/>
-    </row>
-    <row r="180" spans="6:6">
-      <c r="F180" s="28"/>
-    </row>
-    <row r="181" spans="6:6">
-      <c r="F181" s="28"/>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="25">
+        <v>42866</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I175"/>
+  <autoFilter ref="B1:I240"/>
+  <hyperlinks>
+    <hyperlink ref="A173" r:id="rId1" display="BL171111JKC7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/795416"/>
+    <hyperlink ref="A174" r:id="rId2" display="BL171111JMU2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/798491"/>
+    <hyperlink ref="A175" r:id="rId3" display="BL171111JMY7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/798636"/>
+    <hyperlink ref="A176" r:id="rId4" display="BL171111JVT2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/809481"/>
+    <hyperlink ref="A177" r:id="rId5" display="BL171111KO52ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/842941"/>
+    <hyperlink ref="A178" r:id="rId6" display="BL171111L1LRELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/858226"/>
+    <hyperlink ref="A179" r:id="rId7" display="BL171111L3BRELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/860326"/>
+    <hyperlink ref="A180" r:id="rId8" display="BL171111LG5HELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/876031"/>
+    <hyperlink ref="A181" r:id="rId9" display="BL171111M2JHELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/902246"/>
+    <hyperlink ref="A182" r:id="rId10" display="BL171111M66RELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/906701"/>
+    <hyperlink ref="A183" r:id="rId11" display="BL171111MHIHELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/920586"/>
+    <hyperlink ref="A184" r:id="rId12" display="BL171111ML3RELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/924971"/>
+    <hyperlink ref="A185" r:id="rId13" display="BL171111MN8WELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/927601"/>
+    <hyperlink ref="A186" r:id="rId14" display="BL171111MTSWELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/935651"/>
+    <hyperlink ref="A187" r:id="rId15" display="BL171111MZFWELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/942546"/>
+    <hyperlink ref="A188" r:id="rId16" display="BL171111N2ZMELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/945686"/>
+    <hyperlink ref="A189" r:id="rId17" display="BL171111NDNCELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/958731"/>
+    <hyperlink ref="A190" r:id="rId18" display="BL171138UIO2INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171138UIO2INV"/>
+    <hyperlink ref="A191" r:id="rId17" display="BL171111NDNCELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/958731"/>
+    <hyperlink ref="A192" r:id="rId19" display="BL171111NEIWELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/959801"/>
+    <hyperlink ref="A193" r:id="rId20" display="BL171111NMJCELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/969616"/>
+    <hyperlink ref="A194" r:id="rId21" display="BL1711399GCWINV" tooltip="https://www.bukalapak.com/payment/invoices/BL1711399GCWINV"/>
+    <hyperlink ref="A195" r:id="rId22" display="BL1711399GYHINV" tooltip="https://www.bukalapak.com/payment/invoices/BL1711399GYHINV"/>
+    <hyperlink ref="A196" r:id="rId23" display="BL171139AIIMINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171139AIIMINV"/>
+    <hyperlink ref="A197" r:id="rId24" display="BL171111NSM2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/977061"/>
+    <hyperlink ref="A198" r:id="rId25" display="BL171139FW9RINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171139FW9RINV"/>
+    <hyperlink ref="A199" r:id="rId26" display="BL171111NZ22ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/984936"/>
+    <hyperlink ref="A200" r:id="rId27" display="BL171138N5E2INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171138N5E2INV"/>
+    <hyperlink ref="A201" r:id="rId28" display="BL171138RAH7INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171138RAH7INV"/>
+    <hyperlink ref="A202" r:id="rId29" display="BL171138UHX2INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171138UHX2INV"/>
+    <hyperlink ref="A203" r:id="rId30" display="BL171138UIB2INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171138UIB2INV"/>
+    <hyperlink ref="A205" r:id="rId31" display="BL171137WOVMINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171137WOVMINV"/>
+    <hyperlink ref="A206" r:id="rId32" display="BL171137U9I2INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171137U9I2INV"/>
+    <hyperlink ref="A207" r:id="rId33" display="BL171137RFOMINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171137RFOMINV"/>
+    <hyperlink ref="A208" r:id="rId34" display="BL171137FT6RINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171137FT6RINV"/>
+    <hyperlink ref="A209" r:id="rId35" display="BL1711379BIHINV" tooltip="https://www.bukalapak.com/payment/invoices/BL1711379BIHINV"/>
+    <hyperlink ref="A210" r:id="rId36" display="BL1711372ICWINV" tooltip="https://www.bukalapak.com/payment/invoices/BL1711372ICWINV"/>
+    <hyperlink ref="A212" r:id="rId37" display="BL171136Y37WINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136Y37WINV"/>
+    <hyperlink ref="A213" r:id="rId38" display="BL171136XGHCINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136XGHCINV"/>
+    <hyperlink ref="A214" r:id="rId39" display="BL171136XG2HINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136XG2HINV"/>
+    <hyperlink ref="A215" r:id="rId40" display="BL171136SNWWINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136SNWWINV"/>
+    <hyperlink ref="A216" r:id="rId41" display="BL171136LQD7INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136LQD7INV"/>
+    <hyperlink ref="A217" r:id="rId42" display="BL171136E5QCINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136E5QCINV"/>
+    <hyperlink ref="A218" r:id="rId43" display="BL171136E2V7INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136E2V7INV"/>
+    <hyperlink ref="A219" r:id="rId44" display="BL171136A5C2INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136A5C2INV"/>
+    <hyperlink ref="A220" r:id="rId45" display="BL1711368E97INV" tooltip="https://www.bukalapak.com/payment/invoices/BL1711368E97INV"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -6644,14 +8226,344 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="26.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="15">
+        <v>42867</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="16">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="15">
+        <v>42867</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="16">
+        <v>101500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="15">
+        <v>42867</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16">
+        <v>501500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="15">
+        <v>42868</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="16">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="15">
+        <v>42869</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="16">
+        <v>101500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42870</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="16">
+        <v>201500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="15">
+        <v>42870</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="16">
+        <v>201500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="15">
+        <v>42870</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="16">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="15">
+        <v>42871</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="16">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="15">
+        <v>42872</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="16">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="15">
+        <v>42872</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="16">
+        <v>101500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="15">
+        <v>42872</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="16">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="15">
+        <v>42873</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="16">
+        <v>201500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="15">
+        <v>42873</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="16">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="15">
+        <v>42873</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="16">
+        <v>101500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="15">
+        <v>42873</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="16">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="17">
+        <f>SUM(E2:E17)</f>
+        <v>1924000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E20" s="19">
+        <f>5%*E18</f>
+        <v>96200</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="19">
+        <f>10%*E18</f>
+        <v>192400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -6678,22 +8590,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6772,7 +8684,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6785,7 +8697,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="11" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="E9" s="12">
         <v>1000000</v>
@@ -6793,7 +8705,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="13" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="E10" s="5">
         <f>E9-E6</f>
@@ -6806,7 +8718,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="3" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="E12" s="5">
         <v>300000</v>
@@ -6814,7 +8726,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="13" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -6822,7 +8734,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="11" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="E14" s="12">
         <f>E13+E12</f>
@@ -6835,7 +8747,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="11" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="E16" s="12">
         <f>E10-E14</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$240</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472">
   <si>
     <t>No Transaksi</t>
   </si>
@@ -954,19 +954,19 @@
     <t>081391824554</t>
   </si>
   <si>
-    <t>170418471696</t>
-  </si>
-  <si>
-    <t>170418475801</t>
+    <t>BL1711365DX2INV</t>
+  </si>
+  <si>
+    <t>BL1711365GY7INV</t>
   </si>
   <si>
     <t>085647012334</t>
   </si>
   <si>
-    <t>170418612406</t>
-  </si>
-  <si>
-    <t>170418613021</t>
+    <t>BL1711368DRCINV</t>
+  </si>
+  <si>
+    <t>BL1711368E97INV</t>
   </si>
   <si>
     <t>081806688890</t>
@@ -1167,9 +1167,6 @@
     <t>BL171136A5C2INV</t>
   </si>
   <si>
-    <t>BL1711368E97INV</t>
-  </si>
-  <si>
     <t>BL171111OORCELC</t>
   </si>
   <si>
@@ -1269,6 +1266,24 @@
     <t>085200191219</t>
   </si>
   <si>
+    <t>BL17113A1DVRINV</t>
+  </si>
+  <si>
+    <t>081227224969</t>
+  </si>
+  <si>
+    <t>BL171139UHRMINV</t>
+  </si>
+  <si>
+    <t>BL171139QJOHINV</t>
+  </si>
+  <si>
+    <t>Mas rian</t>
+  </si>
+  <si>
+    <t>BL171139PDUWINV</t>
+  </si>
+  <si>
     <t>BL17113AUY17INV</t>
   </si>
   <si>
@@ -1300,6 +1315,69 @@
   </si>
   <si>
     <t>081329604660</t>
+  </si>
+  <si>
+    <t>BL171111SBL8ELC</t>
+  </si>
+  <si>
+    <t>BL17113AAPERINV</t>
+  </si>
+  <si>
+    <t>Ummu Ja'far</t>
+  </si>
+  <si>
+    <t>085856868629</t>
+  </si>
+  <si>
+    <t>BL17113B217RINV</t>
+  </si>
+  <si>
+    <t>BL17113B28URINV</t>
+  </si>
+  <si>
+    <t>BL17113B2KK2INV</t>
+  </si>
+  <si>
+    <t>081329681861</t>
+  </si>
+  <si>
+    <t>BL171111RS9MELC</t>
+  </si>
+  <si>
+    <t>BL171111RSSCELC</t>
+  </si>
+  <si>
+    <t>Abu Muhammad Fajar Indah</t>
+  </si>
+  <si>
+    <t>520521115238</t>
+  </si>
+  <si>
+    <t>MICHIKO SOETANTYO</t>
+  </si>
+  <si>
+    <t>BL17113B6CAMINV</t>
+  </si>
+  <si>
+    <t>081348165013</t>
+  </si>
+  <si>
+    <t>BL171111RT77ELC</t>
+  </si>
+  <si>
+    <t>BL17113B78HWINV</t>
+  </si>
+  <si>
+    <t>083840492232</t>
+  </si>
+  <si>
+    <t>BL171111S4ZNELC</t>
+  </si>
+  <si>
+    <t>BL171111S7E8ELC</t>
+  </si>
+  <si>
+    <t>BL17113BJ828INV</t>
   </si>
   <si>
     <t>NO TRANSAKSI</t>
@@ -1364,14 +1442,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,13 +1472,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
@@ -1413,8 +1491,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFD71149"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FFC30F42"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1427,23 +1527,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1457,8 +1542,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1473,17 +1565,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,8 +1595,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1512,46 +1641,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1572,25 +1663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,7 +1687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,7 +1699,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,49 +1771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,7 +1783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,55 +1807,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,15 +1927,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1875,13 +1957,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1901,28 +1987,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1934,130 +2025,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2088,8 +2179,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2097,7 +2188,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2110,13 +2201,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2134,16 +2225,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2485,25 +2576,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N250"/>
+  <dimension ref="A1:N290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D232" sqref="D232"/>
+      <selection pane="bottomLeft" activeCell="H254" sqref="H254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7142857142857" style="20" customWidth="1"/>
     <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="28.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="25.2857142857143" style="21" customWidth="1"/>
     <col min="5" max="5" width="27.5714285714286" style="22" customWidth="1"/>
     <col min="6" max="6" width="11.5714285714286" style="23" customWidth="1"/>
     <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="17.1428571428571" style="23" customWidth="1"/>
-    <col min="9" max="9" width="11.5714285714286" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10" style="23" customWidth="1"/>
+    <col min="9" max="9" width="13.5714285714286" style="23" customWidth="1"/>
     <col min="10" max="10" width="13.5714285714286" customWidth="1"/>
     <col min="11" max="11" width="11.7142857142857" style="23"/>
     <col min="12" max="14" width="10.5714285714286" customWidth="1"/>
@@ -8134,11 +8225,11 @@
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="48" t="s">
+      <c r="A168" s="42" t="s">
         <v>311</v>
       </c>
       <c r="B168" s="30">
-        <v>42865</v>
+        <v>42866</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
@@ -8165,7 +8256,7 @@
       </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="48" t="s">
+      <c r="A169" s="42" t="s">
         <v>312</v>
       </c>
       <c r="B169" s="30">
@@ -8199,7 +8290,7 @@
       </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="48" t="s">
+      <c r="A170" s="42" t="s">
         <v>314</v>
       </c>
       <c r="B170" s="30">
@@ -8230,7 +8321,7 @@
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="48" t="s">
+      <c r="A171" s="42" t="s">
         <v>315</v>
       </c>
       <c r="B171" s="30">
@@ -8292,7 +8383,7 @@
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="42" t="s">
+      <c r="A173" s="43" t="s">
         <v>319</v>
       </c>
       <c r="B173" s="30">
@@ -8329,7 +8420,7 @@
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="43" t="s">
+      <c r="A174" s="42" t="s">
         <v>323</v>
       </c>
       <c r="B174" s="30">
@@ -8366,7 +8457,7 @@
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="43" t="s">
+      <c r="A175" s="42" t="s">
         <v>324</v>
       </c>
       <c r="B175" s="30">
@@ -8403,7 +8494,7 @@
       </c>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="43" t="s">
+      <c r="A176" s="42" t="s">
         <v>326</v>
       </c>
       <c r="B176" s="30">
@@ -8440,7 +8531,7 @@
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="43" t="s">
+      <c r="A177" s="42" t="s">
         <v>327</v>
       </c>
       <c r="B177" s="30">
@@ -8474,7 +8565,7 @@
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="43" t="s">
+      <c r="A178" s="42" t="s">
         <v>328</v>
       </c>
       <c r="B178" s="30">
@@ -8511,7 +8602,7 @@
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="43" t="s">
+      <c r="A179" s="42" t="s">
         <v>332</v>
       </c>
       <c r="B179" s="30">
@@ -8548,7 +8639,7 @@
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="43" t="s">
+      <c r="A180" s="42" t="s">
         <v>333</v>
       </c>
       <c r="B180" s="30">
@@ -8582,7 +8673,7 @@
       </c>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="43" t="s">
+      <c r="A181" s="42" t="s">
         <v>334</v>
       </c>
       <c r="B181" s="30">
@@ -8619,7 +8710,7 @@
       </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="43" t="s">
+      <c r="A182" s="42" t="s">
         <v>335</v>
       </c>
       <c r="B182" s="30">
@@ -8656,7 +8747,7 @@
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="43" t="s">
+      <c r="A183" s="42" t="s">
         <v>336</v>
       </c>
       <c r="B183" s="30">
@@ -8693,7 +8784,7 @@
       </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="43" t="s">
+      <c r="A184" s="42" t="s">
         <v>340</v>
       </c>
       <c r="B184" s="30">
@@ -8730,7 +8821,7 @@
       </c>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="43" t="s">
+      <c r="A185" s="42" t="s">
         <v>341</v>
       </c>
       <c r="B185" s="30">
@@ -8767,7 +8858,7 @@
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="43" t="s">
+      <c r="A186" s="42" t="s">
         <v>342</v>
       </c>
       <c r="B186" s="30">
@@ -8801,7 +8892,7 @@
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="42" t="s">
+      <c r="A187" s="43" t="s">
         <v>343</v>
       </c>
       <c r="B187" s="30">
@@ -8838,7 +8929,7 @@
       </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="42" t="s">
         <v>344</v>
       </c>
       <c r="B188" s="30">
@@ -8872,7 +8963,7 @@
       </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="43" t="s">
+      <c r="A189" s="42" t="s">
         <v>345</v>
       </c>
       <c r="B189" s="30">
@@ -8909,7 +9000,7 @@
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="43" t="s">
+      <c r="A190" s="42" t="s">
         <v>346</v>
       </c>
       <c r="B190" s="30">
@@ -8943,7 +9034,7 @@
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="43" t="s">
+      <c r="A191" s="42" t="s">
         <v>347</v>
       </c>
       <c r="B191" s="30">
@@ -8980,7 +9071,7 @@
       </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="43" t="s">
+      <c r="A192" s="42" t="s">
         <v>348</v>
       </c>
       <c r="B192" s="30">
@@ -9017,7 +9108,7 @@
       </c>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="43" t="s">
+      <c r="A193" s="42" t="s">
         <v>349</v>
       </c>
       <c r="B193" s="30">
@@ -9051,7 +9142,7 @@
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="43" t="s">
+      <c r="A194" s="42" t="s">
         <v>350</v>
       </c>
       <c r="B194" s="30">
@@ -9073,16 +9164,16 @@
         <v>11300</v>
       </c>
       <c r="J194" s="35">
-        <f t="shared" ref="J194:J257" si="6">H194*5%</f>
+        <f t="shared" ref="J194:J218" si="6">H194*5%</f>
         <v>565</v>
       </c>
       <c r="K194" s="23">
-        <f t="shared" ref="K194:K257" si="7">J194-(H194-F194)</f>
+        <f t="shared" ref="K194:K218" si="7">J194-(H194-F194)</f>
         <v>1265</v>
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="43" t="s">
+      <c r="A195" s="42" t="s">
         <v>351</v>
       </c>
       <c r="B195" s="30">
@@ -9116,7 +9207,7 @@
       </c>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="43" t="s">
+      <c r="A196" s="42" t="s">
         <v>352</v>
       </c>
       <c r="B196" s="30">
@@ -9150,7 +9241,7 @@
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="43" t="s">
+      <c r="A197" s="42" t="s">
         <v>353</v>
       </c>
       <c r="B197" s="30">
@@ -9181,7 +9272,7 @@
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="43" t="s">
+      <c r="A198" s="42" t="s">
         <v>356</v>
       </c>
       <c r="B198" s="30">
@@ -9215,7 +9306,7 @@
       </c>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="43" t="s">
+      <c r="A199" s="42" t="s">
         <v>357</v>
       </c>
       <c r="B199" s="30">
@@ -9246,7 +9337,7 @@
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="43" t="s">
+      <c r="A200" s="42" t="s">
         <v>358</v>
       </c>
       <c r="B200" s="30">
@@ -9280,7 +9371,7 @@
       </c>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="43" t="s">
+      <c r="A201" s="42" t="s">
         <v>359</v>
       </c>
       <c r="B201" s="30">
@@ -9314,7 +9405,7 @@
       </c>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="43" t="s">
+      <c r="A202" s="42" t="s">
         <v>361</v>
       </c>
       <c r="B202" s="30">
@@ -9382,7 +9473,7 @@
       </c>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="42" t="s">
+      <c r="A204" s="43" t="s">
         <v>364</v>
       </c>
       <c r="B204" s="30">
@@ -9416,7 +9507,7 @@
       </c>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="43" t="s">
+      <c r="A205" s="42" t="s">
         <v>366</v>
       </c>
       <c r="B205" s="30">
@@ -9447,7 +9538,7 @@
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="43" t="s">
+      <c r="A206" s="42" t="s">
         <v>367</v>
       </c>
       <c r="B206" s="30">
@@ -9481,7 +9572,7 @@
       </c>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="43" t="s">
+      <c r="A207" s="42" t="s">
         <v>368</v>
       </c>
       <c r="B207" s="30">
@@ -9512,7 +9603,7 @@
       </c>
     </row>
     <row r="208" ht="27" spans="1:11">
-      <c r="A208" s="43" t="s">
+      <c r="A208" s="42" t="s">
         <v>369</v>
       </c>
       <c r="B208" s="30">
@@ -9546,7 +9637,7 @@
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="43" t="s">
+      <c r="A209" s="42" t="s">
         <v>371</v>
       </c>
       <c r="B209" s="30">
@@ -9611,7 +9702,7 @@
       </c>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="43" t="s">
+      <c r="A211" s="42" t="s">
         <v>373</v>
       </c>
       <c r="B211" s="30">
@@ -9645,7 +9736,7 @@
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="43" t="s">
+      <c r="A212" s="42" t="s">
         <v>374</v>
       </c>
       <c r="B212" s="30">
@@ -9679,7 +9770,7 @@
       </c>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="43" t="s">
+      <c r="A213" s="42" t="s">
         <v>375</v>
       </c>
       <c r="B213" s="30">
@@ -9713,7 +9804,7 @@
       </c>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="43" t="s">
+      <c r="A214" s="42" t="s">
         <v>376</v>
       </c>
       <c r="B214" s="30">
@@ -9747,11 +9838,11 @@
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="42" t="s">
+      <c r="A215" s="43" t="s">
         <v>378</v>
       </c>
       <c r="B215" s="30">
-        <v>42868</v>
+        <v>42867</v>
       </c>
       <c r="C215" t="s">
         <v>39</v>
@@ -9778,7 +9869,7 @@
       </c>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="43" t="s">
+      <c r="A216" s="42" t="s">
         <v>379</v>
       </c>
       <c r="B216" s="30">
@@ -9809,7 +9900,7 @@
       </c>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="43" t="s">
+      <c r="A217" s="42" t="s">
         <v>380</v>
       </c>
       <c r="B217" s="30">
@@ -9840,7 +9931,7 @@
       </c>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="43" t="s">
+      <c r="A218" s="42" t="s">
         <v>381</v>
       </c>
       <c r="B218" s="30">
@@ -9871,39 +9962,60 @@
       </c>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="43" t="s">
+      <c r="A219" s="42" t="s">
         <v>382</v>
       </c>
       <c r="B219" s="30">
-        <v>42866</v>
+        <v>42876</v>
+      </c>
+      <c r="C219" t="s">
+        <v>383</v>
+      </c>
+      <c r="D219" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E219" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F219" s="23">
+        <v>51000</v>
+      </c>
+      <c r="G219" t="s">
+        <v>16</v>
+      </c>
+      <c r="H219" s="23">
+        <v>51500</v>
+      </c>
+      <c r="I219" s="23">
+        <v>51000</v>
       </c>
       <c r="J219" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="J219:J282" si="8">H219*5%</f>
+        <v>2575</v>
       </c>
       <c r="K219" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="K219:K282" si="9">J219-(H219-F219)</f>
+        <v>2075</v>
       </c>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="43" t="s">
-        <v>383</v>
+      <c r="A220" s="20" t="s">
+        <v>386</v>
       </c>
       <c r="B220" s="30">
-        <v>42876</v>
+        <v>42877</v>
       </c>
       <c r="C220" t="s">
-        <v>384</v>
+        <v>138</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>386</v>
+        <v>140</v>
       </c>
       <c r="F220" s="23">
-        <v>51000</v>
+        <v>50000</v>
       </c>
       <c r="G220" t="s">
         <v>16</v>
@@ -9912,52 +10024,52 @@
         <v>51500</v>
       </c>
       <c r="I220" s="23">
-        <v>51000</v>
+        <v>51500</v>
       </c>
       <c r="J220" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2575</v>
       </c>
       <c r="K220" s="23">
-        <f t="shared" si="7"/>
-        <v>2075</v>
+        <f t="shared" si="9"/>
+        <v>1075</v>
       </c>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="20" t="s">
-        <v>387</v>
+      <c r="A221" s="42" t="s">
+        <v>388</v>
       </c>
       <c r="B221" s="30">
         <v>42877</v>
       </c>
       <c r="C221" t="s">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="E221" s="22" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="E221" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="F221" s="23">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="G221" t="s">
         <v>16</v>
       </c>
       <c r="H221" s="23">
-        <v>51500</v>
+        <v>201500</v>
       </c>
       <c r="I221" s="23">
-        <v>51500</v>
+        <v>200000</v>
       </c>
       <c r="J221" s="35">
-        <f t="shared" si="6"/>
-        <v>2575</v>
+        <f t="shared" si="8"/>
+        <v>10075</v>
       </c>
       <c r="K221" s="23">
-        <f t="shared" si="7"/>
-        <v>1075</v>
+        <f t="shared" si="9"/>
+        <v>8575</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9968,67 +10080,64 @@
         <v>42877</v>
       </c>
       <c r="C222" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E222" s="33" t="s">
-        <v>58</v>
+        <v>391</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>392</v>
       </c>
       <c r="F222" s="23">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="G222" t="s">
         <v>16</v>
       </c>
       <c r="H222" s="23">
-        <v>201500</v>
-      </c>
-      <c r="I222" s="23">
-        <v>200000</v>
+        <v>101500</v>
       </c>
       <c r="J222" s="35">
-        <f t="shared" si="6"/>
-        <v>10075</v>
+        <f t="shared" si="8"/>
+        <v>5075</v>
       </c>
       <c r="K222" s="23">
-        <f t="shared" si="7"/>
-        <v>8575</v>
+        <f t="shared" si="9"/>
+        <v>3575</v>
       </c>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="42" t="s">
-        <v>390</v>
+      <c r="A223" s="43" t="s">
+        <v>393</v>
       </c>
       <c r="B223" s="30">
         <v>42877</v>
       </c>
       <c r="C223" t="s">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="F223" s="23">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="G223" t="s">
         <v>16</v>
       </c>
       <c r="H223" s="23">
-        <v>101500</v>
+        <v>20500</v>
       </c>
       <c r="J223" s="35">
-        <f t="shared" si="6"/>
-        <v>5075</v>
+        <f t="shared" si="8"/>
+        <v>1025</v>
       </c>
       <c r="K223" s="23">
-        <f t="shared" si="7"/>
-        <v>3575</v>
+        <f t="shared" si="9"/>
+        <v>1525</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -10039,81 +10148,84 @@
         <v>42877</v>
       </c>
       <c r="C224" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="F224" s="23">
-        <v>21000</v>
+        <v>51000</v>
       </c>
       <c r="G224" t="s">
         <v>16</v>
       </c>
       <c r="H224" s="23">
-        <v>20500</v>
+        <v>51500</v>
       </c>
       <c r="J224" s="35">
-        <f t="shared" si="6"/>
-        <v>1025</v>
+        <f t="shared" si="8"/>
+        <v>2575</v>
       </c>
       <c r="K224" s="23">
-        <f t="shared" si="7"/>
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
-      <c r="A225" s="43" t="s">
-        <v>395</v>
+        <f t="shared" si="9"/>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="225" ht="30" spans="1:11">
+      <c r="A225" s="20" t="s">
+        <v>398</v>
       </c>
       <c r="B225" s="30">
         <v>42878</v>
       </c>
       <c r="C225" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F225" s="23">
-        <v>51000</v>
+        <v>100000</v>
       </c>
       <c r="G225" t="s">
         <v>16</v>
       </c>
       <c r="H225" s="23">
-        <v>51500</v>
+        <v>101500</v>
+      </c>
+      <c r="I225" s="23">
+        <v>100000</v>
       </c>
       <c r="J225" s="35">
-        <f t="shared" si="6"/>
-        <v>2575</v>
+        <f t="shared" si="8"/>
+        <v>5075</v>
       </c>
       <c r="K225" s="23">
-        <f t="shared" si="7"/>
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="226" ht="30" spans="1:11">
-      <c r="A226" s="20" t="s">
-        <v>399</v>
+        <f t="shared" si="9"/>
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="42" t="s">
+        <v>402</v>
       </c>
       <c r="B226" s="30">
-        <v>42878</v>
+        <v>42879</v>
       </c>
       <c r="C226" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F226" s="23">
         <v>100000</v>
@@ -10128,29 +10240,29 @@
         <v>100000</v>
       </c>
       <c r="J226" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5075</v>
       </c>
       <c r="K226" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3575</v>
       </c>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="46" t="s">
-        <v>403</v>
+      <c r="A227" s="43" t="s">
+        <v>406</v>
       </c>
       <c r="B227" s="30">
         <v>42879</v>
       </c>
       <c r="C227" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D227" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="E227" s="22" t="s">
         <v>405</v>
-      </c>
-      <c r="E227" s="22" t="s">
-        <v>406</v>
       </c>
       <c r="F227" s="23">
         <v>100000</v>
@@ -10161,237 +10273,312 @@
       <c r="H227" s="23">
         <v>101500</v>
       </c>
-      <c r="I227" s="23">
-        <v>100000</v>
-      </c>
       <c r="J227" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5075</v>
       </c>
       <c r="K227" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3575</v>
       </c>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="47" t="s">
-        <v>407</v>
+      <c r="A228" s="42" t="s">
+        <v>409</v>
       </c>
       <c r="B228" s="30">
-        <v>42879</v>
+        <v>42876</v>
       </c>
       <c r="C228" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>406</v>
+        <v>290</v>
       </c>
       <c r="F228" s="23">
-        <v>100000</v>
+        <v>495000</v>
       </c>
       <c r="G228" t="s">
         <v>16</v>
       </c>
       <c r="H228" s="23">
-        <v>101500</v>
+        <v>501500</v>
       </c>
       <c r="J228" s="35">
-        <f t="shared" si="6"/>
-        <v>5075</v>
+        <f t="shared" si="8"/>
+        <v>25075</v>
       </c>
       <c r="K228" s="23">
-        <f t="shared" si="7"/>
-        <v>3575</v>
+        <f t="shared" si="9"/>
+        <v>18575</v>
       </c>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="46" t="s">
+      <c r="A229" s="42" t="s">
         <v>410</v>
       </c>
       <c r="B229" s="30">
-        <v>42876</v>
+        <v>42879</v>
       </c>
       <c r="C229" t="s">
-        <v>288</v>
+        <v>411</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>289</v>
+        <v>412</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="F229" s="23">
-        <v>495000</v>
+        <v>12000</v>
       </c>
       <c r="G229" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H229" s="23">
-        <v>501500</v>
+        <v>11300</v>
+      </c>
+      <c r="I229" s="23">
+        <v>11300</v>
       </c>
       <c r="J229" s="35">
-        <f t="shared" si="6"/>
-        <v>25075</v>
+        <f t="shared" si="8"/>
+        <v>565</v>
       </c>
       <c r="K229" s="23">
-        <f t="shared" si="7"/>
-        <v>18575</v>
+        <f t="shared" si="9"/>
+        <v>1265</v>
       </c>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="46" t="s">
-        <v>411</v>
+      <c r="A230" s="42" t="s">
+        <v>413</v>
       </c>
       <c r="B230" s="30">
         <v>42879</v>
       </c>
       <c r="C230" t="s">
-        <v>412</v>
+        <v>195</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E230" s="22" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F230" s="23">
+        <v>7000</v>
+      </c>
+      <c r="G230" t="s">
+        <v>12</v>
+      </c>
+      <c r="H230" s="23">
+        <v>6500</v>
+      </c>
+      <c r="J230" s="35">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+      <c r="K230" s="23">
+        <f t="shared" si="9"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="B231" s="30">
+        <v>42877</v>
+      </c>
+      <c r="C231" t="s">
+        <v>390</v>
+      </c>
+      <c r="D231" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="F231" s="23">
+        <v>50000</v>
+      </c>
+      <c r="G231" t="s">
+        <v>12</v>
+      </c>
+      <c r="H231" s="23">
+        <v>49000</v>
+      </c>
+      <c r="J231" s="35">
+        <f t="shared" si="8"/>
+        <v>2450</v>
+      </c>
+      <c r="K231" s="23">
+        <f t="shared" si="9"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="B232" s="30">
+        <v>42877</v>
+      </c>
+      <c r="C232" t="s">
+        <v>24</v>
+      </c>
+      <c r="D232" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F232" s="23">
+        <v>12000</v>
+      </c>
+      <c r="G232" t="s">
+        <v>12</v>
+      </c>
+      <c r="H232" s="23">
         <v>11300</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
-      <c r="H230" s="23">
+      <c r="J232" s="35">
+        <f t="shared" si="8"/>
+        <v>565</v>
+      </c>
+      <c r="K232" s="23">
+        <f t="shared" si="9"/>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B233" s="30">
+        <v>42877</v>
+      </c>
+      <c r="C233" t="s">
+        <v>419</v>
+      </c>
+      <c r="D233" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F233" s="23">
+        <v>59000</v>
+      </c>
+      <c r="G233" t="s">
+        <v>10</v>
+      </c>
+      <c r="H233" s="23">
+        <v>58000</v>
+      </c>
+      <c r="J233" s="35">
+        <f t="shared" si="8"/>
+        <v>2900</v>
+      </c>
+      <c r="K233" s="23">
+        <f t="shared" si="9"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="B234" s="30">
+        <v>42877</v>
+      </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F234" s="23">
+        <v>12000</v>
+      </c>
+      <c r="H234" s="23">
         <v>11300</v>
       </c>
-      <c r="I230" s="23">
-        <v>11300</v>
-      </c>
-      <c r="J230" s="35">
-        <f t="shared" si="6"/>
+      <c r="J234" s="35">
+        <f t="shared" si="8"/>
         <v>565</v>
       </c>
-      <c r="K230" s="23">
-        <f t="shared" si="7"/>
-        <v>565</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
-      <c r="A231" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="B231" s="30">
-        <v>42876</v>
-      </c>
-      <c r="D231" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="J231" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K231" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="2:11">
-      <c r="B232" s="30">
-        <v>42876</v>
-      </c>
-      <c r="J232" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K232" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="2:11">
-      <c r="B233" s="30">
-        <v>42876</v>
-      </c>
-      <c r="J233" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K233" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="2:11">
-      <c r="B234" s="30">
-        <v>42876</v>
-      </c>
-      <c r="J234" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="K234" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="2:11">
+        <f t="shared" si="9"/>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="42" t="s">
+        <v>421</v>
+      </c>
       <c r="B235" s="30">
-        <v>42876</v>
+        <v>42880</v>
+      </c>
+      <c r="C235" t="s">
+        <v>123</v>
+      </c>
+      <c r="D235" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F235" s="23">
+        <v>50000</v>
+      </c>
+      <c r="G235" t="s">
+        <v>12</v>
+      </c>
+      <c r="H235" s="23">
+        <v>49000</v>
       </c>
       <c r="J235" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2450</v>
       </c>
       <c r="K235" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3450</v>
       </c>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="43" t="s">
-        <v>416</v>
+      <c r="A236" s="42" t="s">
+        <v>422</v>
       </c>
       <c r="B236" s="30">
         <v>42880</v>
       </c>
       <c r="C236" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F236" s="23">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="G236" t="s">
         <v>12</v>
       </c>
       <c r="H236" s="23">
-        <v>49000</v>
+        <v>11300</v>
       </c>
       <c r="J236" s="35">
-        <f t="shared" si="6"/>
-        <v>2450</v>
+        <f t="shared" si="8"/>
+        <v>565</v>
       </c>
       <c r="K236" s="23">
-        <f t="shared" si="7"/>
-        <v>3450</v>
+        <f t="shared" si="9"/>
+        <v>1265</v>
       </c>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="43" t="s">
-        <v>417</v>
+      <c r="A237" s="42" t="s">
+        <v>423</v>
       </c>
       <c r="B237" s="30">
         <v>42880</v>
       </c>
       <c r="C237" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="F237" s="23">
         <v>12000</v>
@@ -10403,212 +10590,933 @@
         <v>11300</v>
       </c>
       <c r="J237" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>565</v>
       </c>
       <c r="K237" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1265</v>
       </c>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="43" t="s">
-        <v>418</v>
+      <c r="A238" s="42" t="s">
+        <v>426</v>
       </c>
       <c r="B238" s="30">
         <v>42880</v>
       </c>
       <c r="C238" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>420</v>
+        <v>428</v>
+      </c>
+      <c r="E238" s="22" t="s">
+        <v>429</v>
       </c>
       <c r="F238" s="23">
-        <v>12000</v>
+        <v>51000</v>
       </c>
       <c r="G238" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H238" s="23">
-        <v>11300</v>
+        <v>51500</v>
       </c>
       <c r="J238" s="35">
-        <f t="shared" si="6"/>
-        <v>565</v>
+        <f t="shared" si="8"/>
+        <v>2575</v>
       </c>
       <c r="K238" s="23">
-        <f t="shared" si="7"/>
-        <v>1265</v>
+        <f t="shared" si="9"/>
+        <v>2075</v>
       </c>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="43" t="s">
-        <v>421</v>
+      <c r="A239" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="B239" s="30">
         <v>42880</v>
       </c>
       <c r="C239" t="s">
-        <v>422</v>
+        <v>23</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="E239" s="22" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F239" s="23">
-        <v>51000</v>
+        <v>50000</v>
       </c>
       <c r="G239" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H239" s="23">
-        <v>51500</v>
+        <v>49000</v>
       </c>
       <c r="J239" s="35">
-        <f t="shared" si="6"/>
-        <v>2575</v>
+        <f t="shared" si="8"/>
+        <v>2450</v>
       </c>
       <c r="K239" s="23">
-        <f t="shared" si="7"/>
-        <v>2075</v>
+        <f t="shared" si="9"/>
+        <v>3450</v>
       </c>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="20" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B240" s="30">
+        <v>42882</v>
+      </c>
+      <c r="C240" t="s">
+        <v>39</v>
+      </c>
+      <c r="D240" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E240" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F240" s="23">
+        <v>100000</v>
+      </c>
+      <c r="G240" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" s="23">
+        <v>101500</v>
+      </c>
+      <c r="J240" s="35">
+        <f t="shared" si="8"/>
+        <v>5075</v>
+      </c>
+      <c r="K240" s="23">
+        <f t="shared" si="9"/>
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="B241" s="30">
+        <v>42878</v>
+      </c>
+      <c r="C241" t="s">
+        <v>434</v>
+      </c>
+      <c r="D241" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="F241" s="23">
+        <v>12000</v>
+      </c>
+      <c r="G241" t="s">
+        <v>12</v>
+      </c>
+      <c r="H241" s="23">
+        <v>11300</v>
+      </c>
+      <c r="J241" s="35">
+        <f t="shared" si="8"/>
+        <v>565</v>
+      </c>
+      <c r="K241" s="23">
+        <f t="shared" si="9"/>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B242" s="30">
         <v>42880</v>
       </c>
-      <c r="C240" t="s">
-        <v>23</v>
-      </c>
-      <c r="D240" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="F240" s="23">
+      <c r="C242" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F242" s="23">
+        <v>12000</v>
+      </c>
+      <c r="G242" t="s">
+        <v>12</v>
+      </c>
+      <c r="H242" s="23">
+        <v>11300</v>
+      </c>
+      <c r="J242" s="35">
+        <f t="shared" si="8"/>
+        <v>565</v>
+      </c>
+      <c r="K242" s="23">
+        <f t="shared" si="9"/>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="B243" s="30">
+        <v>42880</v>
+      </c>
+      <c r="C243" t="s">
+        <v>97</v>
+      </c>
+      <c r="D243" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="F243" s="23">
         <v>50000</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
-      <c r="H240" s="23">
+      <c r="G243" t="s">
+        <v>12</v>
+      </c>
+      <c r="H243" s="23">
         <v>49000</v>
       </c>
-      <c r="J240" s="35">
-        <f t="shared" si="6"/>
+      <c r="J243" s="35">
+        <f t="shared" si="8"/>
         <v>2450</v>
       </c>
-      <c r="K240" s="23">
-        <f t="shared" si="7"/>
+      <c r="K243" s="23">
+        <f t="shared" si="9"/>
         <v>3450</v>
       </c>
     </row>
-    <row r="241" spans="10:11">
-      <c r="J241" s="35">
-        <f t="shared" si="6"/>
+    <row r="244" spans="1:11">
+      <c r="A244" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="B244" s="30">
+        <v>42880</v>
+      </c>
+      <c r="C244" t="s">
+        <v>407</v>
+      </c>
+      <c r="D244" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="F244" s="23">
+        <v>22000</v>
+      </c>
+      <c r="G244" t="s">
+        <v>12</v>
+      </c>
+      <c r="H244" s="23">
+        <v>21000</v>
+      </c>
+      <c r="J244" s="35">
+        <f t="shared" si="8"/>
+        <v>1050</v>
+      </c>
+      <c r="K244" s="23">
+        <f t="shared" si="9"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="B245" s="30">
+        <v>42881</v>
+      </c>
+      <c r="C245" t="s">
+        <v>24</v>
+      </c>
+      <c r="D245" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E245" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F245" s="23">
+        <v>51000</v>
+      </c>
+      <c r="G245" t="s">
+        <v>16</v>
+      </c>
+      <c r="H245" s="23">
+        <v>51500</v>
+      </c>
+      <c r="J245" s="35">
+        <f t="shared" si="8"/>
+        <v>2575</v>
+      </c>
+      <c r="K245" s="23">
+        <f t="shared" si="9"/>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="B246" s="30">
+        <v>42881</v>
+      </c>
+      <c r="C246" t="s">
+        <v>442</v>
+      </c>
+      <c r="D246" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="E246" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="F246" s="23">
+        <v>200000</v>
+      </c>
+      <c r="G246" t="s">
+        <v>16</v>
+      </c>
+      <c r="H246" s="23">
+        <v>201500</v>
+      </c>
+      <c r="I246" s="23">
+        <v>200000</v>
+      </c>
+      <c r="J246" s="35">
+        <f t="shared" si="8"/>
+        <v>10075</v>
+      </c>
+      <c r="K246" s="23">
+        <f t="shared" si="9"/>
+        <v>8575</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="B247" s="30">
+        <v>42881</v>
+      </c>
+      <c r="C247" t="s">
+        <v>442</v>
+      </c>
+      <c r="D247" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="F247" s="23">
+        <v>100000</v>
+      </c>
+      <c r="G247" t="s">
+        <v>12</v>
+      </c>
+      <c r="H247" s="23">
+        <v>100000</v>
+      </c>
+      <c r="I247" s="23">
+        <v>100000</v>
+      </c>
+      <c r="J247" s="35">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="K247" s="23">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="B248" s="30">
+        <v>42881</v>
+      </c>
+      <c r="C248" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E248" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F248" s="23">
+        <v>51000</v>
+      </c>
+      <c r="G248" t="s">
+        <v>16</v>
+      </c>
+      <c r="H248" s="23">
+        <v>51500</v>
+      </c>
+      <c r="J248" s="35">
+        <f t="shared" si="8"/>
+        <v>2575</v>
+      </c>
+      <c r="K248" s="23">
+        <f t="shared" si="9"/>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B249" s="30">
+        <v>42881</v>
+      </c>
+      <c r="C249" t="s">
+        <v>22</v>
+      </c>
+      <c r="D249" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="F249" s="23">
+        <v>12000</v>
+      </c>
+      <c r="G249" t="s">
+        <v>12</v>
+      </c>
+      <c r="H249" s="23">
+        <v>11300</v>
+      </c>
+      <c r="J249" s="35">
+        <f t="shared" si="8"/>
+        <v>565</v>
+      </c>
+      <c r="K249" s="23">
+        <f t="shared" si="9"/>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="B250" s="30">
+        <v>42881</v>
+      </c>
+      <c r="C250" t="s">
+        <v>142</v>
+      </c>
+      <c r="D250" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F250" s="23">
+        <v>20500</v>
+      </c>
+      <c r="G250" t="s">
+        <v>16</v>
+      </c>
+      <c r="H250" s="23">
+        <v>20500</v>
+      </c>
+      <c r="I250" s="23">
+        <v>20500</v>
+      </c>
+      <c r="J250" s="35">
+        <f t="shared" si="8"/>
+        <v>1025</v>
+      </c>
+      <c r="K250" s="23">
+        <f t="shared" si="9"/>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="B251" s="30">
+        <v>42881</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D251" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E251" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F251" s="31">
+        <v>495000</v>
+      </c>
+      <c r="G251" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H251" s="31">
+        <v>501500</v>
+      </c>
+      <c r="I251" s="31">
+        <v>495000</v>
+      </c>
+      <c r="J251" s="35">
+        <f t="shared" si="8"/>
+        <v>25075</v>
+      </c>
+      <c r="K251" s="23">
+        <f t="shared" si="9"/>
+        <v>18575</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="B252" s="30">
+        <v>42882</v>
+      </c>
+      <c r="C252" t="s">
+        <v>111</v>
+      </c>
+      <c r="D252" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F252" s="31">
+        <v>50000</v>
+      </c>
+      <c r="G252" t="s">
+        <v>12</v>
+      </c>
+      <c r="H252" s="23">
+        <v>49000</v>
+      </c>
+      <c r="J252" s="35">
+        <f t="shared" si="8"/>
+        <v>2450</v>
+      </c>
+      <c r="K252" s="23">
+        <f t="shared" si="9"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11">
+      <c r="B253" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J253" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K241" s="23">
-        <f t="shared" si="7"/>
+      <c r="K253" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="10:11">
-      <c r="J242" s="35">
-        <f t="shared" si="6"/>
+    <row r="254" spans="2:11">
+      <c r="B254" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J254" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K242" s="23">
-        <f t="shared" si="7"/>
+      <c r="K254" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="10:11">
-      <c r="J243" s="35">
-        <f t="shared" si="6"/>
+    <row r="255" spans="2:11">
+      <c r="B255" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J255" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K243" s="23">
-        <f t="shared" si="7"/>
+      <c r="K255" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="10:11">
-      <c r="J244" s="35">
-        <f t="shared" si="6"/>
+    <row r="256" spans="2:11">
+      <c r="B256" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J256" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K244" s="23">
-        <f t="shared" si="7"/>
+      <c r="K256" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="10:11">
-      <c r="J245" s="35">
-        <f t="shared" si="6"/>
+    <row r="257" spans="2:11">
+      <c r="B257" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J257" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K245" s="23">
-        <f t="shared" si="7"/>
+      <c r="K257" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="10:11">
-      <c r="J246" s="35">
-        <f t="shared" si="6"/>
+    <row r="258" spans="2:11">
+      <c r="B258" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J258" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K246" s="23">
-        <f t="shared" si="7"/>
+      <c r="K258" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="10:11">
-      <c r="J247" s="35">
-        <f t="shared" si="6"/>
+    <row r="259" spans="2:11">
+      <c r="B259" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J259" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K247" s="23">
-        <f t="shared" si="7"/>
+      <c r="K259" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="10:11">
-      <c r="J248" s="35">
-        <f t="shared" si="6"/>
+    <row r="260" spans="2:11">
+      <c r="B260" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J260" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K248" s="23">
-        <f t="shared" si="7"/>
+      <c r="K260" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="10:11">
-      <c r="J249" s="35">
-        <f t="shared" si="6"/>
+    <row r="261" spans="2:11">
+      <c r="B261" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J261" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K249" s="23">
-        <f t="shared" si="7"/>
+      <c r="K261" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="10:11">
-      <c r="J250" s="35">
-        <f t="shared" si="6"/>
+    <row r="262" spans="2:11">
+      <c r="B262" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J262" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K250" s="23">
-        <f t="shared" si="7"/>
+      <c r="K262" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
+    <row r="263" spans="2:11">
+      <c r="B263" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J263" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K263" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:11">
+      <c r="B264" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J264" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K264" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11">
+      <c r="B265" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J265" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K265" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:11">
+      <c r="B266" s="30">
+        <v>42882</v>
+      </c>
+      <c r="J266" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K266" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="10:11">
+      <c r="J267" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K267" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="10:11">
+      <c r="J268" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K268" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="10:11">
+      <c r="J269" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K269" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="10:11">
+      <c r="J270" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K270" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="10:11">
+      <c r="J271" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K271" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="10:11">
+      <c r="J272" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K272" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="10:11">
+      <c r="J273" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K273" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="10:11">
+      <c r="J274" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K274" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="10:11">
+      <c r="J275" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K275" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="10:11">
+      <c r="J276" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K276" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="10:11">
+      <c r="J277" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K277" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="10:11">
+      <c r="J278" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K278" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="10:11">
+      <c r="J279" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K279" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="10:11">
+      <c r="J280" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K280" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="10:11">
+      <c r="J281" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K281" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="10:11">
+      <c r="J282" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K282" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="10:11">
+      <c r="J283" s="35">
+        <f t="shared" ref="J283:J290" si="10">H283*5%</f>
+        <v>0</v>
+      </c>
+      <c r="K283" s="23">
+        <f t="shared" ref="K283:K290" si="11">J283-(H283-F283)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="10:11">
+      <c r="J284" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K284" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="10:11">
+      <c r="J285" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K285" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="10:11">
+      <c r="J286" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K286" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="10:11">
+      <c r="J287" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K287" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="10:11">
+      <c r="J288" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K288" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="10:11">
+      <c r="J289" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K289" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="10:11">
+      <c r="J290" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K290" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:I241"/>
+  <autoFilter ref="B1:I240"/>
   <hyperlinks>
     <hyperlink ref="A173" r:id="rId1" display="BL171111JKC7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/795416"/>
     <hyperlink ref="A174" r:id="rId2" display="BL171111JMU2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/798491"/>
@@ -10654,21 +11562,32 @@
     <hyperlink ref="A216" r:id="rId42" display="BL171136E5QCINV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136E5QCINV"/>
     <hyperlink ref="A217" r:id="rId43" display="BL171136E2V7INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136E2V7INV"/>
     <hyperlink ref="A218" r:id="rId44" display="BL171136A5C2INV" tooltip="https://www.bukalapak.com/payment/invoices/BL171136A5C2INV"/>
-    <hyperlink ref="A219" r:id="rId45" display="BL1711368E97INV" tooltip="https://www.bukalapak.com/payment/invoices/BL1711368E97INV"/>
-    <hyperlink ref="A239" r:id="rId46" display="BL171111RN27ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1141741"/>
-    <hyperlink ref="A238" r:id="rId47" display="BL17113AVLIHINV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113AVLIHINV"/>
-    <hyperlink ref="A237" r:id="rId48" display="BL17113AUYZ7INV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113AUYZ7INV"/>
-    <hyperlink ref="A236" r:id="rId49" display="BL17113AUY17INV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113AUY17INV"/>
-    <hyperlink ref="A220" r:id="rId50" display="BL171111OORCELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1015221"/>
-    <hyperlink ref="A222" r:id="rId51" display="BL171111PNL7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1056656"/>
-    <hyperlink ref="A223" r:id="rId52" display="BL171111PU62ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1064701"/>
-    <hyperlink ref="A224" r:id="rId53" display="BL171111PVLMELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1066471"/>
-    <hyperlink ref="A225" r:id="rId54" display="BL171111Q9XCELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1082806"/>
-    <hyperlink ref="A227" r:id="rId55" display="BL171111R1P7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1115596"/>
-    <hyperlink ref="A228" r:id="rId56" display="BL171111RDTMELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1130451"/>
-    <hyperlink ref="A229" r:id="rId57" display="BL171111O6RRELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/993186"/>
-    <hyperlink ref="A230" r:id="rId58" display="BL17113ALYFRINV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113ALYFRINV"/>
-    <hyperlink ref="A231" r:id="rId59" display="BL17113AGNQMINV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113AGNQMINV"/>
+    <hyperlink ref="A238" r:id="rId45" display="BL171111RN27ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1141741"/>
+    <hyperlink ref="A237" r:id="rId46" display="BL17113AVLIHINV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113AVLIHINV"/>
+    <hyperlink ref="A236" r:id="rId47" display="BL17113AUYZ7INV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113AUYZ7INV"/>
+    <hyperlink ref="A235" r:id="rId48" display="BL17113AUY17INV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113AUY17INV"/>
+    <hyperlink ref="A219" r:id="rId49" display="BL171111OORCELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1015221"/>
+    <hyperlink ref="A221" r:id="rId50" display="BL171111PNL7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1056656"/>
+    <hyperlink ref="A222" r:id="rId51" display="BL171111PU62ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1064701"/>
+    <hyperlink ref="A223" r:id="rId52" display="BL171111PVLMELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1066471"/>
+    <hyperlink ref="A224" r:id="rId53" display="BL171111Q9XCELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1082806"/>
+    <hyperlink ref="A226" r:id="rId54" display="BL171111R1P7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1115596"/>
+    <hyperlink ref="A227" r:id="rId55" display="BL171111RDTMELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1130451"/>
+    <hyperlink ref="A228" r:id="rId56" display="BL171111O6RRELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/993186"/>
+    <hyperlink ref="A229" r:id="rId57" display="BL17113ALYFRINV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113ALYFRINV"/>
+    <hyperlink ref="A230" r:id="rId58" display="BL17113AGNQMINV" tooltip="https://www.bukalapak.com/payment/invoices/BL17113AGNQMINV"/>
+    <hyperlink ref="A241" r:id="rId59" display="BL17113AAPERINV" tooltip="https://www.bukalapak.com/payment/invoices/118965131"/>
+    <hyperlink ref="A242" r:id="rId60" display="BL17113B217RINV" tooltip="https://www.bukalapak.com/payment/invoices/120093111"/>
+    <hyperlink ref="A243" r:id="rId61" display="BL17113B28URINV" tooltip="https://www.bukalapak.com/payment/invoices/120102491"/>
+    <hyperlink ref="A244" r:id="rId62" display="BL17113B2KK2INV" tooltip="https://www.bukalapak.com/payment/invoices/120116816"/>
+    <hyperlink ref="A245" r:id="rId63" display="BL171111RS9MELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1148126"/>
+    <hyperlink ref="A246" r:id="rId64" display="BL171111RSSCELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1148781"/>
+    <hyperlink ref="A247" r:id="rId65" display="BL17113B6CAMINV" tooltip="https://www.bukalapak.com/payment/invoices/120278186"/>
+    <hyperlink ref="A248" r:id="rId66" display="BL171111RT77ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1149266"/>
+    <hyperlink ref="A249" r:id="rId67" display="BL17113B78HWINV" tooltip="https://www.bukalapak.com/payment/invoices/120316416"/>
+    <hyperlink ref="A250" r:id="rId68" display="BL171111S4ZNELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1162512"/>
+    <hyperlink ref="A251" r:id="rId69" display="BL171111S7E8ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1165437"/>
+    <hyperlink ref="A252" r:id="rId70" display="BL17113BJ828INV" tooltip="https://www.bukalapak.com/payment/invoices/120830367"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -10696,19 +11615,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10985,7 +11904,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -10997,7 +11916,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="18" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="E20" s="19">
         <f>5%*E18</f>
@@ -11006,7 +11925,7 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="18" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="E21" s="19">
         <f>10%*E18</f>
@@ -11043,22 +11962,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11137,7 +12056,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -11150,7 +12069,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="11" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E9" s="12">
         <v>1000000</v>
@@ -11158,7 +12077,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="13" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="E10" s="5">
         <f>E9-E6</f>
@@ -11171,7 +12090,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="3" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="E12" s="5">
         <v>300000</v>
@@ -11179,7 +12098,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="13" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -11187,7 +12106,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="11" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="E14" s="12">
         <f>E13+E12</f>
@@ -11200,7 +12119,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="11" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="E16" s="12">
         <f>E10-E14</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$308</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530">
   <si>
     <t>No Transaksi</t>
   </si>
@@ -1423,6 +1423,126 @@
   </si>
   <si>
     <t>BL17113CCQIXINV</t>
+  </si>
+  <si>
+    <t>BL171111TBBIELC</t>
+  </si>
+  <si>
+    <t>BL17113CGXX3INV</t>
+  </si>
+  <si>
+    <t>BL17113CIC9NINV</t>
+  </si>
+  <si>
+    <t>BL17113CID3NINV</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>08156529333</t>
+  </si>
+  <si>
+    <t>BL171111TJYDELC</t>
+  </si>
+  <si>
+    <t>BL171111TKUNELC</t>
+  </si>
+  <si>
+    <t>BL17113CRO78INV</t>
+  </si>
+  <si>
+    <t>BL171111TO88ELC</t>
+  </si>
+  <si>
+    <t>BL171111TSFDELC</t>
+  </si>
+  <si>
+    <t>BL17113CY1IIINV</t>
+  </si>
+  <si>
+    <t>082136753334</t>
+  </si>
+  <si>
+    <t>BL17113CY3C3INV</t>
+  </si>
+  <si>
+    <t>BL17113CY48NINV</t>
+  </si>
+  <si>
+    <t>BL171111TTI8ELC</t>
+  </si>
+  <si>
+    <t>BL17113CZEVDINV</t>
+  </si>
+  <si>
+    <t>Ummu Uswah</t>
+  </si>
+  <si>
+    <t>085759049986</t>
+  </si>
+  <si>
+    <t>BL17113D59EDINV</t>
+  </si>
+  <si>
+    <t>085353845443</t>
+  </si>
+  <si>
+    <t>BL171111U3J8ELC</t>
+  </si>
+  <si>
+    <t>521080685472/45004248022</t>
+  </si>
+  <si>
+    <t>SUMARSONO PS</t>
+  </si>
+  <si>
+    <t>BL171111U6PIELC</t>
+  </si>
+  <si>
+    <t>BL171111U6QNELC</t>
+  </si>
+  <si>
+    <t>BL17113DCIXSINV</t>
+  </si>
+  <si>
+    <t>BL17113DFIZSINV</t>
+  </si>
+  <si>
+    <t>BL17113DGJA3INV</t>
+  </si>
+  <si>
+    <t>BL171111UJXSELC</t>
+  </si>
+  <si>
+    <t>Agus Proof</t>
+  </si>
+  <si>
+    <t>524030043045</t>
+  </si>
+  <si>
+    <t>IMAN MUHADI</t>
+  </si>
+  <si>
+    <t>BL17113DIZLNINV</t>
+  </si>
+  <si>
+    <t>BL171111UK63ELC</t>
+  </si>
+  <si>
+    <t>BL17113DKEL3INV</t>
+  </si>
+  <si>
+    <t>085228250800</t>
+  </si>
+  <si>
+    <t>BL17113D9OBDINV</t>
+  </si>
+  <si>
+    <t>Mbak Maya</t>
+  </si>
+  <si>
+    <t>085878565650</t>
   </si>
   <si>
     <t>NO TRANSAKSI</t>
@@ -1496,12 +1616,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1559,7 +1679,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,8 +1693,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,11 +1730,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1604,14 +1760,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1620,11 +1768,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1651,14 +1799,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1666,43 +1806,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,49 +1837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFAFAFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,7 +1855,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,7 +1939,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,13 +1969,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,49 +2011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,36 +2023,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1963,6 +2089,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFEEEEEE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1974,6 +2109,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2040,34 +2195,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2079,134 +2214,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2229,8 +2364,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2240,7 +2375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2251,7 +2386,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2264,13 +2399,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2296,8 +2431,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2352,6 +2495,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2640,12 +2788,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N289"/>
+  <dimension ref="A1:N368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I266" sqref="I266"/>
+      <selection pane="bottomLeft" activeCell="A296" sqref="A296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5178,7 +5326,6 @@
       <c r="D79" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E79" s="25"/>
       <c r="F79" s="34">
         <v>11000</v>
       </c>
@@ -6968,7 +7115,7 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="52" t="s">
+      <c r="A130" s="55" t="s">
         <v>239</v>
       </c>
       <c r="B130" s="33">
@@ -7005,7 +7152,7 @@
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="55" t="s">
         <v>241</v>
       </c>
       <c r="B131" s="33">
@@ -7040,7 +7187,7 @@
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="52" t="s">
+      <c r="A132" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B132" s="33">
@@ -7077,7 +7224,7 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B133" s="33">
@@ -7151,7 +7298,7 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="52" t="s">
+      <c r="A135" s="55" t="s">
         <v>252</v>
       </c>
       <c r="B135" s="33">
@@ -7188,7 +7335,7 @@
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="55" t="s">
         <v>253</v>
       </c>
       <c r="B136" s="33">
@@ -7225,7 +7372,7 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="55" t="s">
         <v>256</v>
       </c>
       <c r="B137" s="33">
@@ -7262,7 +7409,7 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="52" t="s">
+      <c r="A138" s="55" t="s">
         <v>258</v>
       </c>
       <c r="B138" s="33">
@@ -7296,7 +7443,7 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="55" t="s">
         <v>259</v>
       </c>
       <c r="B139" s="33">
@@ -7555,7 +7702,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="55" t="s">
         <v>270</v>
       </c>
       <c r="B146" s="33">
@@ -7589,7 +7736,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="52" t="s">
+      <c r="A147" s="55" t="s">
         <v>273</v>
       </c>
       <c r="B147" s="33">
@@ -7623,7 +7770,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="55" t="s">
         <v>275</v>
       </c>
       <c r="B148" s="33">
@@ -7657,7 +7804,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="52" t="s">
+      <c r="A149" s="55" t="s">
         <v>277</v>
       </c>
       <c r="B149" s="33">
@@ -7691,7 +7838,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="52" t="s">
+      <c r="A150" s="55" t="s">
         <v>279</v>
       </c>
       <c r="B150" s="33">
@@ -7722,7 +7869,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="52" t="s">
+      <c r="A151" s="55" t="s">
         <v>280</v>
       </c>
       <c r="B151" s="33">
@@ -7793,7 +7940,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="52" t="s">
+      <c r="A153" s="55" t="s">
         <v>286</v>
       </c>
       <c r="B153" s="33">
@@ -7827,7 +7974,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="52" t="s">
+      <c r="A154" s="55" t="s">
         <v>287</v>
       </c>
       <c r="B154" s="33">
@@ -7898,7 +8045,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="52" t="s">
+      <c r="A156" s="55" t="s">
         <v>292</v>
       </c>
       <c r="B156" s="33">
@@ -7969,7 +8116,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="52" t="s">
+      <c r="A158" s="55" t="s">
         <v>295</v>
       </c>
       <c r="B158" s="33">
@@ -8040,7 +8187,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="52" t="s">
+      <c r="A160" s="55" t="s">
         <v>297</v>
       </c>
       <c r="B160" s="33">
@@ -8111,7 +8258,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="52" t="s">
+      <c r="A162" s="55" t="s">
         <v>301</v>
       </c>
       <c r="B162" s="33">
@@ -8145,7 +8292,7 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="52" t="s">
+      <c r="A163" s="55" t="s">
         <v>302</v>
       </c>
       <c r="B163" s="33">
@@ -8179,7 +8326,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="52" t="s">
+      <c r="A164" s="55" t="s">
         <v>303</v>
       </c>
       <c r="B164" s="33">
@@ -8210,7 +8357,7 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="52" t="s">
+      <c r="A165" s="55" t="s">
         <v>306</v>
       </c>
       <c r="B165" s="33">
@@ -8244,7 +8391,7 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="52" t="s">
+      <c r="A166" s="55" t="s">
         <v>307</v>
       </c>
       <c r="B166" s="33">
@@ -8278,7 +8425,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="52" t="s">
+      <c r="A167" s="55" t="s">
         <v>310</v>
       </c>
       <c r="B167" s="33">
@@ -8442,7 +8589,7 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="52" t="s">
+      <c r="A172" s="55" t="s">
         <v>318</v>
       </c>
       <c r="B172" s="33">
@@ -9494,7 +9641,7 @@
       <c r="C201" t="s">
         <v>97</v>
       </c>
-      <c r="D201" s="53" t="s">
+      <c r="D201" s="56" t="s">
         <v>361</v>
       </c>
       <c r="F201" s="26">
@@ -10195,6 +10342,9 @@
       <c r="H221" s="26">
         <v>101500</v>
       </c>
+      <c r="I221" s="26">
+        <v>100000</v>
+      </c>
       <c r="J221" s="38">
         <f t="shared" si="8"/>
         <v>5075</v>
@@ -10891,7 +11041,7 @@
       <c r="C242" t="s">
         <v>438</v>
       </c>
-      <c r="D242" s="53" t="s">
+      <c r="D242" s="56" t="s">
         <v>361</v>
       </c>
       <c r="F242" s="26">
@@ -11627,7 +11777,7 @@
       </c>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="51" t="s">
+      <c r="A264" s="49" t="s">
         <v>467</v>
       </c>
       <c r="B264" s="33">
@@ -11639,7 +11789,6 @@
       <c r="D264" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E264" s="25"/>
       <c r="F264" s="34">
         <v>11300</v>
       </c>
@@ -11661,261 +11810,1810 @@
         <v>565</v>
       </c>
     </row>
-    <row r="265" spans="2:11">
+    <row r="265" ht="30" spans="1:11">
+      <c r="A265" s="49" t="s">
+        <v>468</v>
+      </c>
       <c r="B265" s="33">
-        <v>42883</v>
+        <v>42884</v>
+      </c>
+      <c r="C265" t="s">
+        <v>399</v>
+      </c>
+      <c r="D265" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="E265" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="F265" s="26">
+        <v>100000</v>
+      </c>
+      <c r="G265" t="s">
+        <v>16</v>
+      </c>
+      <c r="H265" s="26">
+        <v>101500</v>
+      </c>
+      <c r="I265" s="26">
+        <v>100000</v>
       </c>
       <c r="J265" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="K265" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="10:11">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B266" s="33">
+        <v>42884</v>
+      </c>
+      <c r="C266" t="s">
+        <v>210</v>
+      </c>
+      <c r="D266" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F266" s="26">
+        <v>59000</v>
+      </c>
+      <c r="G266" t="s">
+        <v>212</v>
+      </c>
+      <c r="H266" s="26">
+        <v>58000</v>
+      </c>
       <c r="J266" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="K266" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="10:11">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
+      <c r="A267" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="B267" s="33">
+        <v>42884</v>
+      </c>
+      <c r="C267" t="s">
+        <v>72</v>
+      </c>
+      <c r="D267" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F267" s="26">
+        <v>50000</v>
+      </c>
+      <c r="G267" t="s">
+        <v>12</v>
+      </c>
+      <c r="H267" s="26">
+        <v>49500</v>
+      </c>
+      <c r="I267" s="26">
+        <v>50000</v>
+      </c>
       <c r="J267" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2475</v>
       </c>
       <c r="K267" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="10:11">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
+      <c r="A268" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="B268" s="33">
+        <v>42884</v>
+      </c>
+      <c r="C268" t="s">
+        <v>472</v>
+      </c>
+      <c r="D268" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="F268" s="26">
+        <v>26000</v>
+      </c>
+      <c r="G268" t="s">
+        <v>12</v>
+      </c>
+      <c r="H268" s="26">
+        <v>25000</v>
+      </c>
       <c r="J268" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="K268" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="10:11">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
+      <c r="A269" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="B269" s="33">
+        <v>42884</v>
+      </c>
+      <c r="C269" t="s">
+        <v>130</v>
+      </c>
+      <c r="D269" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F269" s="26">
+        <v>100000</v>
+      </c>
+      <c r="G269" t="s">
+        <v>16</v>
+      </c>
+      <c r="H269" s="26">
+        <v>101500</v>
+      </c>
       <c r="J269" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="K269" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="10:11">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
+      <c r="A270" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="B270" s="33">
+        <v>42884</v>
+      </c>
+      <c r="C270" t="s">
+        <v>472</v>
+      </c>
+      <c r="D270" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="F270" s="26">
+        <v>51000</v>
+      </c>
+      <c r="G270" t="s">
+        <v>16</v>
+      </c>
+      <c r="H270" s="26">
+        <v>51500</v>
+      </c>
       <c r="J270" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="K270" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="10:11">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
+      <c r="A271" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="B271" s="33">
+        <v>42884</v>
+      </c>
+      <c r="C271" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D271" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="F271" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G271" t="s">
+        <v>12</v>
+      </c>
+      <c r="H271" s="26">
+        <v>10300</v>
+      </c>
+      <c r="I271" s="26">
+        <v>12000</v>
+      </c>
       <c r="J271" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="K271" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="10:11">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
+      <c r="A272" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="B272" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C272" t="s">
+        <v>81</v>
+      </c>
+      <c r="D272" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E272" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F272" s="26">
+        <v>50000</v>
+      </c>
+      <c r="G272" t="s">
+        <v>16</v>
+      </c>
+      <c r="H272" s="26">
+        <v>51500</v>
+      </c>
+      <c r="I272" s="34">
+        <v>51000</v>
+      </c>
       <c r="J272" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="K272" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="10:11">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
+      <c r="A273" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="B273" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C273" t="s">
+        <v>138</v>
+      </c>
+      <c r="D273" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E273" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F273" s="34">
+        <v>51500</v>
+      </c>
+      <c r="G273" t="s">
+        <v>16</v>
+      </c>
+      <c r="H273" s="34">
+        <v>50000</v>
+      </c>
+      <c r="I273" s="34">
+        <v>51500</v>
+      </c>
       <c r="J273" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K273" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="10:11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
+      <c r="A274" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="B274" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C274" t="s">
+        <v>472</v>
+      </c>
+      <c r="D274" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="F274" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G274" t="s">
+        <v>12</v>
+      </c>
+      <c r="H274" s="26">
+        <v>11300</v>
+      </c>
       <c r="J274" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K274" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="10:11">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
+      <c r="A275" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="B275" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C275" t="s">
+        <v>308</v>
+      </c>
+      <c r="D275" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E275" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F275" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G275" t="s">
+        <v>12</v>
+      </c>
+      <c r="H275" s="26">
+        <v>11300</v>
+      </c>
       <c r="J275" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K275" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="10:11">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
+      <c r="A276" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="B276" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C276" t="s">
+        <v>24</v>
+      </c>
+      <c r="D276" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E276" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="F276" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G276" t="s">
+        <v>12</v>
+      </c>
+      <c r="H276" s="26">
+        <v>11300</v>
+      </c>
       <c r="J276" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K276" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="10:11">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
+      <c r="A277" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="B277" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C277" t="s">
+        <v>90</v>
+      </c>
+      <c r="D277" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E277" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F277" s="26">
+        <v>21500</v>
+      </c>
+      <c r="G277" t="s">
+        <v>12</v>
+      </c>
+      <c r="H277" s="26">
+        <v>21500</v>
+      </c>
       <c r="J277" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="K277" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="10:11">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
+      <c r="A278" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="B278" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C278" t="s">
+        <v>485</v>
+      </c>
+      <c r="D278" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="F278" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G278" t="s">
+        <v>12</v>
+      </c>
+      <c r="H278" s="26">
+        <v>11300</v>
+      </c>
       <c r="J278" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K278" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="10:11">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
+      <c r="A279" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="B279" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C279" t="s">
+        <v>308</v>
+      </c>
+      <c r="D279" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="F279" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G279" t="s">
+        <v>12</v>
+      </c>
+      <c r="H279" s="26">
+        <v>11300</v>
+      </c>
       <c r="J279" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K279" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="10:11">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
+      <c r="A280" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="B280" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C280" t="s">
+        <v>472</v>
+      </c>
+      <c r="D280" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E280" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="F280" s="26">
+        <v>51000</v>
+      </c>
+      <c r="G280" t="s">
+        <v>16</v>
+      </c>
+      <c r="H280" s="26">
+        <v>51500</v>
+      </c>
       <c r="J280" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="K280" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="10:11">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
+      <c r="A281" s="49" t="s">
+        <v>492</v>
+      </c>
+      <c r="B281" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C281" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F281" s="26">
+        <v>100000</v>
+      </c>
+      <c r="G281" t="s">
+        <v>16</v>
+      </c>
+      <c r="H281" s="26">
+        <v>101500</v>
+      </c>
       <c r="J281" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="K281" s="26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="10:11">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
+      <c r="A282" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="B282" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C282" t="s">
+        <v>390</v>
+      </c>
+      <c r="D282" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="E282" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F282" s="26">
+        <v>100000</v>
+      </c>
+      <c r="G282" t="s">
+        <v>16</v>
+      </c>
+      <c r="H282" s="26">
+        <v>101500</v>
+      </c>
+      <c r="I282" s="26">
+        <v>100000</v>
+      </c>
       <c r="J282" s="38">
-        <f t="shared" ref="J282:J289" si="10">H282*5%</f>
-        <v>0</v>
+        <f t="shared" ref="J282:J345" si="10">H282*5%</f>
+        <v>5075</v>
       </c>
       <c r="K282" s="26">
-        <f t="shared" ref="K282:K289" si="11">J282-(H282-F282)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="10:11">
+        <f t="shared" ref="K282:K345" si="11">J282-(H282-F282)</f>
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
+      <c r="A283" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="B283" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C283" t="s">
+        <v>11</v>
+      </c>
+      <c r="D283" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F283" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G283" t="s">
+        <v>12</v>
+      </c>
+      <c r="H283" s="26">
+        <v>11300</v>
+      </c>
       <c r="J283" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K283" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="10:11">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
+      <c r="A284" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="B284" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C284" t="s">
+        <v>249</v>
+      </c>
+      <c r="D284" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F284" s="26">
+        <v>34500</v>
+      </c>
+      <c r="G284" t="s">
+        <v>10</v>
+      </c>
+      <c r="H284" s="26">
+        <v>33500</v>
+      </c>
       <c r="J284" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1675</v>
       </c>
       <c r="K284" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="10:11">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="285" ht="15.75" spans="1:11">
+      <c r="A285" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="B285" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C285" t="s">
+        <v>120</v>
+      </c>
+      <c r="D285" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F285" s="26">
+        <v>50000</v>
+      </c>
+      <c r="G285" t="s">
+        <v>16</v>
+      </c>
+      <c r="H285" s="26">
+        <v>51200</v>
+      </c>
       <c r="J285" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2560</v>
       </c>
       <c r="K285" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="10:11">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="A286" s="49" t="s">
+        <v>497</v>
+      </c>
+      <c r="B286" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C286" t="s">
+        <v>498</v>
+      </c>
+      <c r="D286" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="E286" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="F286" s="26">
+        <v>100000</v>
+      </c>
+      <c r="G286" t="s">
+        <v>16</v>
+      </c>
+      <c r="H286" s="26">
+        <v>101500</v>
+      </c>
       <c r="J286" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="K286" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="10:11">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
+      <c r="A287" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="B287" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C287" t="s">
+        <v>120</v>
+      </c>
+      <c r="D287" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F287" s="26">
+        <v>25000</v>
+      </c>
+      <c r="G287" t="s">
+        <v>12</v>
+      </c>
+      <c r="H287" s="26">
+        <v>25500</v>
+      </c>
       <c r="J287" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="K287" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="10:11">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
+      <c r="A288" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="B288" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C288" t="s">
+        <v>142</v>
+      </c>
+      <c r="D288" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E288" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F288" s="34">
+        <v>20500</v>
+      </c>
+      <c r="G288" t="s">
+        <v>16</v>
+      </c>
+      <c r="H288" s="34">
+        <v>20500</v>
+      </c>
       <c r="J288" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="K288" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="10:11">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
+      <c r="A289" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="B289" s="33">
+        <v>42885</v>
+      </c>
+      <c r="C289" t="s">
+        <v>355</v>
+      </c>
+      <c r="D289" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="F289" s="26">
+        <v>100000</v>
+      </c>
+      <c r="G289" t="s">
+        <v>16</v>
+      </c>
+      <c r="H289" s="26">
+        <v>98500</v>
+      </c>
+      <c r="I289" s="26">
+        <v>100000</v>
+      </c>
       <c r="J289" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4925</v>
       </c>
       <c r="K289" s="26">
         <f t="shared" si="11"/>
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
+      <c r="A290" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B290" s="33">
+        <v>42886</v>
+      </c>
+      <c r="C290" t="s">
+        <v>506</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="E290" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="F290" s="26">
+        <v>197500</v>
+      </c>
+      <c r="G290" t="s">
+        <v>12</v>
+      </c>
+      <c r="H290" s="26">
+        <v>195000</v>
+      </c>
+      <c r="I290" s="26">
+        <v>197500</v>
+      </c>
+      <c r="J290" s="38">
+        <f t="shared" si="10"/>
+        <v>9750</v>
+      </c>
+      <c r="K290" s="26">
+        <f t="shared" si="11"/>
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
+      <c r="A291" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="B291" s="33">
+        <v>42886</v>
+      </c>
+      <c r="C291" t="s">
+        <v>11</v>
+      </c>
+      <c r="D291" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="E291" t="s">
+        <v>11</v>
+      </c>
+      <c r="F291" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G291" t="s">
+        <v>12</v>
+      </c>
+      <c r="H291" s="26">
+        <v>11300</v>
+      </c>
+      <c r="I291" s="26">
+        <v>12000</v>
+      </c>
+      <c r="J291" s="38">
+        <f t="shared" si="10"/>
+        <v>565</v>
+      </c>
+      <c r="K291" s="26">
+        <f t="shared" si="11"/>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
+      <c r="A292" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="B292" s="33">
+        <v>42886</v>
+      </c>
+      <c r="C292" t="s">
+        <v>249</v>
+      </c>
+      <c r="D292" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F292" s="26">
+        <v>34500</v>
+      </c>
+      <c r="G292" t="s">
+        <v>10</v>
+      </c>
+      <c r="H292" s="26">
+        <v>33500</v>
+      </c>
+      <c r="J292" s="38">
+        <f t="shared" si="10"/>
+        <v>1675</v>
+      </c>
+      <c r="K292" s="26">
+        <f t="shared" si="11"/>
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="293" ht="15.75" spans="1:11">
+      <c r="A293" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="B293" s="33">
+        <v>42886</v>
+      </c>
+      <c r="C293" t="s">
+        <v>120</v>
+      </c>
+      <c r="D293" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F293" s="34">
+        <v>50000</v>
+      </c>
+      <c r="G293" t="s">
+        <v>12</v>
+      </c>
+      <c r="H293" s="26">
+        <v>51200</v>
+      </c>
+      <c r="I293" s="34">
+        <v>48000</v>
+      </c>
+      <c r="J293" s="38">
+        <f t="shared" si="10"/>
+        <v>2560</v>
+      </c>
+      <c r="K293" s="26">
+        <f t="shared" si="11"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
+      <c r="A294" s="53" t="s">
+        <v>497</v>
+      </c>
+      <c r="B294" s="33">
+        <v>42886</v>
+      </c>
+      <c r="C294" t="s">
+        <v>498</v>
+      </c>
+      <c r="D294" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="E294" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="F294" s="26">
+        <v>100000</v>
+      </c>
+      <c r="G294" t="s">
+        <v>16</v>
+      </c>
+      <c r="H294" s="26">
+        <v>101500</v>
+      </c>
+      <c r="J294" s="38">
+        <f t="shared" si="10"/>
+        <v>5075</v>
+      </c>
+      <c r="K294" s="26">
+        <f t="shared" si="11"/>
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
+      <c r="A295" s="53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B295" s="33">
+        <v>42886</v>
+      </c>
+      <c r="C295" t="s">
+        <v>120</v>
+      </c>
+      <c r="D295" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F295" s="26">
+        <v>25000</v>
+      </c>
+      <c r="G295" t="s">
+        <v>12</v>
+      </c>
+      <c r="H295" s="26">
+        <v>25500</v>
+      </c>
+      <c r="J295" s="38">
+        <f t="shared" si="10"/>
+        <v>1275</v>
+      </c>
+      <c r="K295" s="26">
+        <f t="shared" si="11"/>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="296" spans="2:11">
+      <c r="B296" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J296" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K296" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:11">
+      <c r="B297" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J297" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K297" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:11">
+      <c r="B298" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J298" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K298" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:11">
+      <c r="B299" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J299" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K299" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:11">
+      <c r="B300" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J300" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K300" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:11">
+      <c r="B301" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J301" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K301" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:11">
+      <c r="B302" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J302" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K302" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:11">
+      <c r="B303" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J303" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K303" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:11">
+      <c r="B304" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J304" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K304" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:11">
+      <c r="B305" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J305" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K305" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:11">
+      <c r="B306" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J306" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K306" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:11">
+      <c r="B307" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J307" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K307" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:11">
+      <c r="B308" s="33">
+        <v>42886</v>
+      </c>
+      <c r="J308" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K308" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="10:11">
+      <c r="J309" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K309" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="10:11">
+      <c r="J310" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K310" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="10:11">
+      <c r="J311" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K311" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="10:11">
+      <c r="J312" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K312" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="10:11">
+      <c r="J313" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K313" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="10:11">
+      <c r="J314" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K314" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="10:11">
+      <c r="J315" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K315" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="10:11">
+      <c r="J316" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K316" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="10:11">
+      <c r="J317" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K317" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="10:11">
+      <c r="J318" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K318" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="10:11">
+      <c r="J319" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K319" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="10:11">
+      <c r="J320" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K320" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="10:11">
+      <c r="J321" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K321" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="10:11">
+      <c r="J322" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K322" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="10:11">
+      <c r="J323" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K323" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="10:11">
+      <c r="J324" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K324" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="10:11">
+      <c r="J325" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K325" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="10:11">
+      <c r="J326" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K326" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="10:11">
+      <c r="J327" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K327" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="10:11">
+      <c r="J328" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K328" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="10:11">
+      <c r="J329" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K329" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="10:11">
+      <c r="J330" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K330" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="10:11">
+      <c r="J331" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K331" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="10:11">
+      <c r="J332" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K332" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="10:11">
+      <c r="J333" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K333" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="10:11">
+      <c r="J334" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K334" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="10:11">
+      <c r="J335" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K335" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="10:11">
+      <c r="J336" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K336" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="10:11">
+      <c r="J337" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K337" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="10:11">
+      <c r="J338" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K338" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="10:11">
+      <c r="J339" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K339" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="10:11">
+      <c r="J340" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K340" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="10:11">
+      <c r="J341" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K341" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="10:11">
+      <c r="J342" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K342" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="10:11">
+      <c r="J343" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K343" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="10:11">
+      <c r="J344" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K344" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="10:11">
+      <c r="J345" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K345" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="10:11">
+      <c r="J346" s="38">
+        <f t="shared" ref="J346:J368" si="12">H346*5%</f>
+        <v>0</v>
+      </c>
+      <c r="K346" s="26">
+        <f t="shared" ref="K346:K368" si="13">J346-(H346-F346)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="10:11">
+      <c r="J347" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K347" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="10:11">
+      <c r="J348" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K348" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="10:11">
+      <c r="J349" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K349" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="10:11">
+      <c r="J350" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K350" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="10:11">
+      <c r="J351" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K351" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="10:11">
+      <c r="J352" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K352" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="10:11">
+      <c r="J353" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K353" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="10:11">
+      <c r="J354" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K354" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="10:11">
+      <c r="J355" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K355" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="10:11">
+      <c r="J356" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K356" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="10:11">
+      <c r="J357" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K357" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="10:11">
+      <c r="J358" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K358" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="10:11">
+      <c r="J359" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K359" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="10:11">
+      <c r="J360" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K360" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="10:11">
+      <c r="J361" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K361" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="10:11">
+      <c r="J362" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K362" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="10:11">
+      <c r="J363" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K363" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="10:11">
+      <c r="J364" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K364" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="10:11">
+      <c r="J365" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K365" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="10:11">
+      <c r="J366" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K366" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="10:11">
+      <c r="J367" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K367" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="10:11">
+      <c r="J368" s="38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K368" s="26">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I265"/>
+  <autoFilter ref="B1:I308"/>
   <hyperlinks>
     <hyperlink ref="A173" r:id="rId1" display="BL171111JKC7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/795416"/>
     <hyperlink ref="A174" r:id="rId2" display="BL171111JMU2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/798491"/>
@@ -11999,6 +13697,37 @@
     <hyperlink ref="A262" r:id="rId80" display="BL171111T1SSELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1201472"/>
     <hyperlink ref="A263" r:id="rId81" display="BL17113CAB83INV" tooltip="https://www.bukalapak.com/payment/invoices/121948997"/>
     <hyperlink ref="A264" r:id="rId82" display="BL17113CCQIXINV" tooltip="https://www.bukalapak.com/payment/invoices/122053502"/>
+    <hyperlink ref="A265" r:id="rId83" display="BL171111TBBIELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1213117"/>
+    <hyperlink ref="A266" r:id="rId84" display="BL17113CGXX3INV" tooltip="https://www.bukalapak.com/payment/invoices/122234072"/>
+    <hyperlink ref="A267" r:id="rId85" display="BL17113CIC9NINV" tooltip="https://www.bukalapak.com/payment/invoices/122293277"/>
+    <hyperlink ref="A268" r:id="rId86" display="BL17113CID3NINV" tooltip="https://www.bukalapak.com/payment/invoices/122294292"/>
+    <hyperlink ref="A269" r:id="rId87" display="BL171111TJYDELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1223717"/>
+    <hyperlink ref="A270" r:id="rId88" display="BL171111TKUNELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1224812"/>
+    <hyperlink ref="A271" r:id="rId89" display="BL17113CRO78INV" tooltip="https://www.bukalapak.com/payment/invoices/122693767"/>
+    <hyperlink ref="A273" r:id="rId90" display="BL171111TSFDELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1234077"/>
+    <hyperlink ref="A272" r:id="rId91" display="BL171111TO88ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1228927"/>
+    <hyperlink ref="A274" r:id="rId92" display="BL17113CY1IIINV" tooltip="https://www.bukalapak.com/payment/invoices/122966112"/>
+    <hyperlink ref="A276" r:id="rId93" display="BL17113CY48NINV" tooltip="https://www.bukalapak.com/payment/invoices/122969442"/>
+    <hyperlink ref="A275" r:id="rId94" display="BL17113CY3C3INV" tooltip="https://www.bukalapak.com/payment/invoices/122968337"/>
+    <hyperlink ref="A277" r:id="rId95" display="BL171111TTI8ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1235402"/>
+    <hyperlink ref="A278" r:id="rId96" display="BL17113CZEVDINV" tooltip="https://www.bukalapak.com/payment/invoices/123025362"/>
+    <hyperlink ref="A279" r:id="rId97" display="BL17113D59EDINV" tooltip="https://www.bukalapak.com/payment/invoices/123233017"/>
+    <hyperlink ref="A280" r:id="rId98" display="BL171111U3J8ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1246462"/>
+    <hyperlink ref="A281" r:id="rId99" display="BL171111U6PIELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1250357"/>
+    <hyperlink ref="A282" r:id="rId100" display="BL171111U6QNELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1250397"/>
+    <hyperlink ref="A283" r:id="rId101" display="BL17113DCIXSINV" tooltip="https://www.bukalapak.com/payment/invoices/123544847"/>
+    <hyperlink ref="A284" r:id="rId102" display="BL17113DFIZSINV" tooltip="https://www.bukalapak.com/payment/invoices/123673542"/>
+    <hyperlink ref="A285" r:id="rId103" display="BL17113DGJA3INV" tooltip="https://www.bukalapak.com/payment/invoices/123716742"/>
+    <hyperlink ref="A286" r:id="rId104" display="BL171111UJXSELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1266572"/>
+    <hyperlink ref="A287" r:id="rId105" display="BL17113DIZLNINV" tooltip="https://www.bukalapak.com/payment/invoices/123822497"/>
+    <hyperlink ref="A288" r:id="rId106" display="BL171111UK63ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1266827"/>
+    <hyperlink ref="A289" r:id="rId107" display="BL17113DKEL3INV" tooltip="https://www.bukalapak.com/payment/invoices/123882502"/>
+    <hyperlink ref="A290" r:id="rId108" display="BL17113D9OBDINV" tooltip="https://www.bukalapak.com/payment/invoices/123422787"/>
+    <hyperlink ref="A291" r:id="rId101" display="BL17113DCIXSINV" tooltip="https://www.bukalapak.com/payment/invoices/123544847"/>
+    <hyperlink ref="A292" r:id="rId102" display="BL17113DFIZSINV" tooltip="https://www.bukalapak.com/payment/invoices/123673542"/>
+    <hyperlink ref="A293" r:id="rId103" display="BL17113DGJA3INV" tooltip="https://www.bukalapak.com/payment/invoices/123716742"/>
+    <hyperlink ref="A294" r:id="rId104" display="BL171111UJXSELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1266572"/>
+    <hyperlink ref="A295" r:id="rId105" display="BL17113DIZLNINV" tooltip="https://www.bukalapak.com/payment/invoices/123822497"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -12026,19 +13755,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12315,7 +14044,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -12327,7 +14056,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="21" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="E20" s="22">
         <f>5%*E18</f>
@@ -12336,7 +14065,7 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="21" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="E21" s="22">
         <f>10%*E18</f>
@@ -12373,22 +14102,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12467,7 +14196,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -12480,7 +14209,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="11" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="E9" s="12">
         <v>1000000</v>
@@ -12488,7 +14217,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="13" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="E10" s="5">
         <f>E9-E6</f>
@@ -12501,7 +14230,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="3" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="E12" s="5">
         <v>300000</v>
@@ -12509,7 +14238,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="13" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -12517,7 +14246,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="11" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="E14" s="12">
         <f>E13+E12</f>
@@ -12530,7 +14259,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="11" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="E16" s="12">
         <f>E10-E14</f>
@@ -12765,7 +14494,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="16" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -12778,7 +14507,7 @@
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="11" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="E34" s="19">
         <f>E16</f>
@@ -12795,7 +14524,7 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="11" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="E36" s="19">
         <f>E34+E35</f>
@@ -12808,7 +14537,7 @@
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="11" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="E38" s="19">
         <f>E36-E32</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19500" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539">
   <si>
     <t>No Transaksi</t>
   </si>
@@ -1543,6 +1543,33 @@
   </si>
   <si>
     <t>085878565650</t>
+  </si>
+  <si>
+    <t>BL17113DSL3NINV</t>
+  </si>
+  <si>
+    <t>085799241916</t>
+  </si>
+  <si>
+    <t>BL171111VECXELC</t>
+  </si>
+  <si>
+    <t>BL171111VPTXELC</t>
+  </si>
+  <si>
+    <t>BL17113EBDX8INV</t>
+  </si>
+  <si>
+    <t>BL171111W3C8ELC</t>
+  </si>
+  <si>
+    <t>BL17113EH6LNINV</t>
+  </si>
+  <si>
+    <t>BL17113EH7J8INV</t>
+  </si>
+  <si>
+    <t>085725221058</t>
   </si>
   <si>
     <t>NO TRANSAKSI</t>
@@ -1618,10 +1645,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1678,8 +1705,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,15 +1743,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1716,22 +1780,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1746,77 +1843,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1843,108 +1870,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1957,7 +1882,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,7 +1912,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,7 +2014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,37 +2044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2115,10 +2142,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2129,6 +2154,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2152,7 +2192,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2172,33 +2212,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2214,134 +2241,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2439,6 +2466,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -2495,11 +2523,6 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2791,25 +2814,25 @@
   <dimension ref="A1:N368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A296" sqref="A296"/>
+      <selection pane="bottomLeft" activeCell="H305" sqref="H305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="22.7166666666667" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.71666666666667" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="25.2857142857143" style="24" customWidth="1"/>
-    <col min="5" max="5" width="27.5714285714286" style="25" customWidth="1"/>
-    <col min="6" max="6" width="11.5714285714286" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="25.2833333333333" style="24" customWidth="1"/>
+    <col min="5" max="5" width="27.575" style="25" customWidth="1"/>
+    <col min="6" max="6" width="11.575" style="26" customWidth="1"/>
+    <col min="7" max="7" width="11.1416666666667" customWidth="1"/>
     <col min="8" max="8" width="10" style="26" customWidth="1"/>
-    <col min="9" max="9" width="13.5714285714286" style="26" customWidth="1"/>
-    <col min="10" max="10" width="13.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="11.7142857142857" style="26"/>
-    <col min="12" max="14" width="10.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="13.575" style="26" customWidth="1"/>
+    <col min="10" max="10" width="13.575" customWidth="1"/>
+    <col min="11" max="11" width="11.7166666666667" style="26"/>
+    <col min="12" max="14" width="10.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7115,7 +7138,7 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="55" t="s">
+      <c r="A130" s="56" t="s">
         <v>239</v>
       </c>
       <c r="B130" s="33">
@@ -7152,7 +7175,7 @@
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="55" t="s">
+      <c r="A131" s="56" t="s">
         <v>241</v>
       </c>
       <c r="B131" s="33">
@@ -7187,7 +7210,7 @@
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="55" t="s">
+      <c r="A132" s="56" t="s">
         <v>244</v>
       </c>
       <c r="B132" s="33">
@@ -7224,7 +7247,7 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="55" t="s">
+      <c r="A133" s="56" t="s">
         <v>246</v>
       </c>
       <c r="B133" s="33">
@@ -7298,7 +7321,7 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="55" t="s">
+      <c r="A135" s="56" t="s">
         <v>252</v>
       </c>
       <c r="B135" s="33">
@@ -7335,7 +7358,7 @@
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="55" t="s">
+      <c r="A136" s="56" t="s">
         <v>253</v>
       </c>
       <c r="B136" s="33">
@@ -7372,7 +7395,7 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="56" t="s">
         <v>256</v>
       </c>
       <c r="B137" s="33">
@@ -7409,7 +7432,7 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="55" t="s">
+      <c r="A138" s="56" t="s">
         <v>258</v>
       </c>
       <c r="B138" s="33">
@@ -7443,7 +7466,7 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="55" t="s">
+      <c r="A139" s="56" t="s">
         <v>259</v>
       </c>
       <c r="B139" s="33">
@@ -7702,7 +7725,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="55" t="s">
+      <c r="A146" s="56" t="s">
         <v>270</v>
       </c>
       <c r="B146" s="33">
@@ -7736,7 +7759,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="55" t="s">
+      <c r="A147" s="56" t="s">
         <v>273</v>
       </c>
       <c r="B147" s="33">
@@ -7770,7 +7793,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="55" t="s">
+      <c r="A148" s="56" t="s">
         <v>275</v>
       </c>
       <c r="B148" s="33">
@@ -7804,7 +7827,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="55" t="s">
+      <c r="A149" s="56" t="s">
         <v>277</v>
       </c>
       <c r="B149" s="33">
@@ -7838,7 +7861,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="55" t="s">
+      <c r="A150" s="56" t="s">
         <v>279</v>
       </c>
       <c r="B150" s="33">
@@ -7869,7 +7892,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="55" t="s">
+      <c r="A151" s="56" t="s">
         <v>280</v>
       </c>
       <c r="B151" s="33">
@@ -7940,7 +7963,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="55" t="s">
+      <c r="A153" s="56" t="s">
         <v>286</v>
       </c>
       <c r="B153" s="33">
@@ -7974,7 +7997,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="55" t="s">
+      <c r="A154" s="56" t="s">
         <v>287</v>
       </c>
       <c r="B154" s="33">
@@ -8045,7 +8068,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="55" t="s">
+      <c r="A156" s="56" t="s">
         <v>292</v>
       </c>
       <c r="B156" s="33">
@@ -8116,7 +8139,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="55" t="s">
+      <c r="A158" s="56" t="s">
         <v>295</v>
       </c>
       <c r="B158" s="33">
@@ -8187,7 +8210,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="55" t="s">
+      <c r="A160" s="56" t="s">
         <v>297</v>
       </c>
       <c r="B160" s="33">
@@ -8258,7 +8281,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="55" t="s">
+      <c r="A162" s="56" t="s">
         <v>301</v>
       </c>
       <c r="B162" s="33">
@@ -8292,7 +8315,7 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="55" t="s">
+      <c r="A163" s="56" t="s">
         <v>302</v>
       </c>
       <c r="B163" s="33">
@@ -8326,7 +8349,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="55" t="s">
+      <c r="A164" s="56" t="s">
         <v>303</v>
       </c>
       <c r="B164" s="33">
@@ -8357,7 +8380,7 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="55" t="s">
+      <c r="A165" s="56" t="s">
         <v>306</v>
       </c>
       <c r="B165" s="33">
@@ -8391,7 +8414,7 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="55" t="s">
+      <c r="A166" s="56" t="s">
         <v>307</v>
       </c>
       <c r="B166" s="33">
@@ -8425,7 +8448,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="55" t="s">
+      <c r="A167" s="56" t="s">
         <v>310</v>
       </c>
       <c r="B167" s="33">
@@ -8589,7 +8612,7 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="55" t="s">
+      <c r="A172" s="56" t="s">
         <v>318</v>
       </c>
       <c r="B172" s="33">
@@ -9641,7 +9664,7 @@
       <c r="C201" t="s">
         <v>97</v>
       </c>
-      <c r="D201" s="56" t="s">
+      <c r="D201" s="57" t="s">
         <v>361</v>
       </c>
       <c r="F201" s="26">
@@ -10425,7 +10448,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="224" ht="30" spans="1:11">
+    <row r="224" spans="1:11">
       <c r="A224" s="23" t="s">
         <v>398</v>
       </c>
@@ -11041,7 +11064,7 @@
       <c r="C242" t="s">
         <v>438</v>
       </c>
-      <c r="D242" s="56" t="s">
+      <c r="D242" s="57" t="s">
         <v>361</v>
       </c>
       <c r="F242" s="26">
@@ -11810,7 +11833,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="265" ht="30" spans="1:11">
+    <row r="265" spans="1:11">
       <c r="A265" s="49" t="s">
         <v>468</v>
       </c>
@@ -12622,7 +12645,7 @@
         <v>100000</v>
       </c>
       <c r="G289" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H289" s="26">
         <v>98500</v>
@@ -12640,7 +12663,7 @@
       </c>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="53" t="s">
+      <c r="A290" s="49" t="s">
         <v>505</v>
       </c>
       <c r="B290" s="33">
@@ -12677,7 +12700,7 @@
       </c>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="53" t="s">
+      <c r="A291" s="49" t="s">
         <v>494</v>
       </c>
       <c r="B291" s="33">
@@ -12714,7 +12737,7 @@
       </c>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="53" t="s">
+      <c r="A292" s="49" t="s">
         <v>495</v>
       </c>
       <c r="B292" s="33">
@@ -12745,7 +12768,7 @@
       </c>
     </row>
     <row r="293" ht="15.75" spans="1:11">
-      <c r="A293" s="53" t="s">
+      <c r="A293" s="49" t="s">
         <v>496</v>
       </c>
       <c r="B293" s="33">
@@ -12779,7 +12802,7 @@
       </c>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="53" t="s">
+      <c r="A294" s="49" t="s">
         <v>497</v>
       </c>
       <c r="B294" s="33">
@@ -12813,7 +12836,7 @@
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="53" t="s">
+      <c r="A295" s="49" t="s">
         <v>501</v>
       </c>
       <c r="B295" s="33">
@@ -12843,126 +12866,309 @@
         <v>775</v>
       </c>
     </row>
-    <row r="296" spans="2:11">
+    <row r="296" spans="1:11">
+      <c r="A296" s="53" t="s">
+        <v>502</v>
+      </c>
       <c r="B296" s="33">
         <v>42886</v>
       </c>
+      <c r="C296" t="s">
+        <v>142</v>
+      </c>
+      <c r="D296" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E296" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F296" s="26">
+        <v>21500</v>
+      </c>
+      <c r="G296" t="s">
+        <v>16</v>
+      </c>
+      <c r="H296" s="26">
+        <v>21500</v>
+      </c>
       <c r="J296" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="K296" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="2:11">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
+      <c r="A297" s="53" t="s">
+        <v>503</v>
+      </c>
       <c r="B297" s="33">
         <v>42886</v>
       </c>
+      <c r="C297" t="s">
+        <v>355</v>
+      </c>
+      <c r="D297" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="F297" s="26">
+        <v>100000</v>
+      </c>
+      <c r="G297" t="s">
+        <v>12</v>
+      </c>
+      <c r="H297" s="26">
+        <v>98500</v>
+      </c>
       <c r="J297" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4925</v>
       </c>
       <c r="K297" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="2:11">
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
+      <c r="A298" s="53" t="s">
+        <v>508</v>
+      </c>
       <c r="B298" s="33">
-        <v>42886</v>
+        <v>42887</v>
+      </c>
+      <c r="C298" t="s">
+        <v>142</v>
+      </c>
+      <c r="D298" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="E298" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F298" s="26">
+        <v>11300</v>
+      </c>
+      <c r="G298" t="s">
+        <v>12</v>
+      </c>
+      <c r="H298" s="26">
+        <v>11300</v>
       </c>
       <c r="J298" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K298" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="2:11">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
+      <c r="A299" s="53" t="s">
+        <v>510</v>
+      </c>
       <c r="B299" s="33">
-        <v>42886</v>
+        <v>42887</v>
+      </c>
+      <c r="C299" t="s">
+        <v>90</v>
+      </c>
+      <c r="D299" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E299" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F299" s="26">
+        <v>50000</v>
+      </c>
+      <c r="G299" t="s">
+        <v>16</v>
+      </c>
+      <c r="H299" s="26">
+        <v>51500</v>
       </c>
       <c r="J299" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="K299" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="2:11">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
+      <c r="A300" s="53" t="s">
+        <v>511</v>
+      </c>
       <c r="B300" s="33">
-        <v>42886</v>
+        <v>42887</v>
+      </c>
+      <c r="C300" t="s">
+        <v>438</v>
+      </c>
+      <c r="D300" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E300" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F300" s="26">
+        <v>200000</v>
+      </c>
+      <c r="G300" t="s">
+        <v>16</v>
+      </c>
+      <c r="H300" s="26">
+        <v>201500</v>
       </c>
       <c r="J300" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10075</v>
       </c>
       <c r="K300" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="2:11">
+        <v>8575</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="A301" s="53" t="s">
+        <v>512</v>
+      </c>
       <c r="B301" s="33">
-        <v>42886</v>
+        <v>42887</v>
+      </c>
+      <c r="C301" t="s">
+        <v>438</v>
+      </c>
+      <c r="D301" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="F301" s="26">
+        <v>50000</v>
+      </c>
+      <c r="G301" t="s">
+        <v>12</v>
+      </c>
+      <c r="H301" s="26">
+        <v>49000</v>
       </c>
       <c r="J301" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="K301" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="2:11">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="A302" s="53" t="s">
+        <v>513</v>
+      </c>
       <c r="B302" s="33">
-        <v>42886</v>
+        <v>42887</v>
+      </c>
+      <c r="C302" t="s">
+        <v>78</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E302" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F302" s="26">
+        <v>21000</v>
+      </c>
+      <c r="G302" t="s">
+        <v>16</v>
+      </c>
+      <c r="H302" s="26">
+        <v>20500</v>
       </c>
       <c r="J302" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="K302" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="2:11">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
+      <c r="A303" s="53" t="s">
+        <v>514</v>
+      </c>
       <c r="B303" s="33">
-        <v>42886</v>
+        <v>42887</v>
+      </c>
+      <c r="C303" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D303" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E303" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F303" s="34">
+        <v>25500</v>
+      </c>
+      <c r="G303" t="s">
+        <v>12</v>
+      </c>
+      <c r="H303" s="26">
+        <v>24800</v>
       </c>
       <c r="J303" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="K303" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="2:11">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="A304" s="55" t="s">
+        <v>515</v>
+      </c>
       <c r="B304" s="33">
-        <v>42886</v>
+        <v>42887</v>
+      </c>
+      <c r="C304" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D304" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="E304" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F304" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G304" t="s">
+        <v>12</v>
+      </c>
+      <c r="H304" s="26">
+        <v>11300</v>
       </c>
       <c r="J304" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K304" s="26">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="305" spans="2:11">
       <c r="B305" s="33">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="J305" s="38">
         <f t="shared" si="10"/>
@@ -12975,7 +13181,7 @@
     </row>
     <row r="306" spans="2:11">
       <c r="B306" s="33">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="J306" s="38">
         <f t="shared" si="10"/>
@@ -12988,7 +13194,7 @@
     </row>
     <row r="307" spans="2:11">
       <c r="B307" s="33">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="J307" s="38">
         <f t="shared" si="10"/>
@@ -13001,7 +13207,7 @@
     </row>
     <row r="308" spans="2:11">
       <c r="B308" s="33">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="J308" s="38">
         <f t="shared" si="10"/>
@@ -13728,6 +13934,15 @@
     <hyperlink ref="A293" r:id="rId103" display="BL17113DGJA3INV" tooltip="https://www.bukalapak.com/payment/invoices/123716742"/>
     <hyperlink ref="A294" r:id="rId104" display="BL171111UJXSELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1266572"/>
     <hyperlink ref="A295" r:id="rId105" display="BL17113DIZLNINV" tooltip="https://www.bukalapak.com/payment/invoices/123822497"/>
+    <hyperlink ref="A296" r:id="rId106" display="BL171111UK63ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1266827"/>
+    <hyperlink ref="A297" r:id="rId107" display="BL17113DKEL3INV" tooltip="https://www.bukalapak.com/payment/invoices/123882502"/>
+    <hyperlink ref="A298" r:id="rId109" display="BL17113DSL3NINV" tooltip="https://www.bukalapak.com/payment/invoices/124233467"/>
+    <hyperlink ref="A299" r:id="rId110" display="BL171111VECXELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1302592"/>
+    <hyperlink ref="A300" r:id="rId111" display="BL171111VPTXELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1316662"/>
+    <hyperlink ref="A301" r:id="rId112" display="BL17113EBDX8INV" tooltip="https://www.bukalapak.com/payment/invoices/124996452"/>
+    <hyperlink ref="A302" r:id="rId113" display="BL171111W3C8ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/1331967"/>
+    <hyperlink ref="A303" r:id="rId114" display="BL17113EH6LNINV" tooltip="https://www.bukalapak.com/payment/invoices/125244722"/>
+    <hyperlink ref="A304" r:id="rId115" display="BL17113EH7J8INV" tooltip="https://www.bukalapak.com/payment/invoices/125245862"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -13746,28 +13961,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="26.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="24.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="26.7166666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.7166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14044,7 +14259,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -14056,7 +14271,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="21" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="E20" s="22">
         <f>5%*E18</f>
@@ -14065,7 +14280,7 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="21" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="E21" s="22">
         <f>10%*E18</f>
@@ -14092,32 +14307,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.575" customWidth="1"/>
+    <col min="2" max="2" width="15.2833333333333" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="20.2833333333333" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14196,7 +14411,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -14209,7 +14424,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="11" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="E9" s="12">
         <v>1000000</v>
@@ -14217,7 +14432,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="13" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E10" s="5">
         <f>E9-E6</f>
@@ -14230,7 +14445,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="3" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="E12" s="5">
         <v>300000</v>
@@ -14238,7 +14453,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="13" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -14246,7 +14461,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="11" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E14" s="12">
         <f>E13+E12</f>
@@ -14259,7 +14474,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="11" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E16" s="12">
         <f>E10-E14</f>
@@ -14494,7 +14709,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="16" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -14507,7 +14722,7 @@
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="11" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="E34" s="19">
         <f>E16</f>
@@ -14524,7 +14739,7 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="11" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E36" s="19">
         <f>E34+E35</f>
@@ -14537,7 +14752,7 @@
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="11" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="E38" s="19">
         <f>E36-E32</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Ustadz Fauzan" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$608</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -2875,13 +2875,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2946,13 +2946,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2960,7 +2953,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2974,16 +2975,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2998,25 +2991,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3044,18 +3022,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3068,7 +3054,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3083,7 +3069,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3116,13 +3116,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3134,25 +3188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3164,79 +3200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3248,43 +3218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3297,6 +3231,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,16 +3483,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3501,17 +3501,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3527,21 +3516,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3573,6 +3547,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3582,7 +3582,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3598,137 +3598,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3737,7 +3737,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3745,7 +3745,7 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3772,7 +3772,7 @@
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3847,21 +3847,19 @@
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
@@ -3920,16 +3918,16 @@
   </cellStyles>
   <dxfs count="154">
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="180" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??.0_);_(@_)"/>
@@ -3956,406 +3954,406 @@
       <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="184" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??.0_);_(@_)"/>
@@ -17016,276 +17014,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="77" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="78">
         <v>42862</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="77">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="81">
         <v>42883</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="83">
         <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="81">
         <v>42920</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="83">
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="81">
         <v>42946</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="83">
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="81">
         <v>42946</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="83">
         <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="81">
         <v>42962</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="83">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="81">
         <v>42869</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="83">
         <v>50500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="81">
         <v>42882</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="83">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="81">
         <v>42883</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="83">
         <v>50500</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="81">
         <v>42938</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="83">
         <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89">
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87">
         <v>851000</v>
       </c>
     </row>
@@ -17664,11 +17662,11 @@
   <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B467" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B606" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C489" sqref="C489"/>
+      <selection pane="bottomRight" activeCell="I609" sqref="I609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -21996,7 +21994,7 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="90" t="s">
+      <c r="A130" s="88" t="s">
         <v>259</v>
       </c>
       <c r="B130" s="48">
@@ -22033,7 +22031,7 @@
       </c>
     </row>
     <row r="131" ht="30" spans="1:11">
-      <c r="A131" s="90" t="s">
+      <c r="A131" s="88" t="s">
         <v>261</v>
       </c>
       <c r="B131" s="48">
@@ -22068,7 +22066,7 @@
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="90" t="s">
+      <c r="A132" s="88" t="s">
         <v>264</v>
       </c>
       <c r="B132" s="48">
@@ -22105,7 +22103,7 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="90" t="s">
+      <c r="A133" s="88" t="s">
         <v>266</v>
       </c>
       <c r="B133" s="48">
@@ -22179,7 +22177,7 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="90" t="s">
+      <c r="A135" s="88" t="s">
         <v>272</v>
       </c>
       <c r="B135" s="48">
@@ -22216,7 +22214,7 @@
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="90" t="s">
+      <c r="A136" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B136" s="48">
@@ -22253,7 +22251,7 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="90" t="s">
+      <c r="A137" s="88" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="48">
@@ -22290,7 +22288,7 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="90" t="s">
+      <c r="A138" s="88" t="s">
         <v>278</v>
       </c>
       <c r="B138" s="48">
@@ -22324,7 +22322,7 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="90" t="s">
+      <c r="A139" s="88" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="48">
@@ -22583,7 +22581,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="90" t="s">
+      <c r="A146" s="88" t="s">
         <v>289</v>
       </c>
       <c r="B146" s="48">
@@ -22617,7 +22615,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="90" t="s">
+      <c r="A147" s="88" t="s">
         <v>292</v>
       </c>
       <c r="B147" s="48">
@@ -22651,7 +22649,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="90" t="s">
+      <c r="A148" s="88" t="s">
         <v>294</v>
       </c>
       <c r="B148" s="48">
@@ -22685,7 +22683,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="90" t="s">
+      <c r="A149" s="88" t="s">
         <v>296</v>
       </c>
       <c r="B149" s="48">
@@ -22719,7 +22717,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="90" t="s">
+      <c r="A150" s="88" t="s">
         <v>9</v>
       </c>
       <c r="B150" s="48">
@@ -22753,7 +22751,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="90" t="s">
+      <c r="A151" s="88" t="s">
         <v>298</v>
       </c>
       <c r="B151" s="48">
@@ -22824,7 +22822,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="90" t="s">
+      <c r="A153" s="88" t="s">
         <v>304</v>
       </c>
       <c r="B153" s="48">
@@ -22858,7 +22856,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="90" t="s">
+      <c r="A154" s="88" t="s">
         <v>305</v>
       </c>
       <c r="B154" s="48">
@@ -22929,7 +22927,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="90" t="s">
+      <c r="A156" s="88" t="s">
         <v>310</v>
       </c>
       <c r="B156" s="48">
@@ -23000,7 +22998,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="90" t="s">
+      <c r="A158" s="88" t="s">
         <v>313</v>
       </c>
       <c r="B158" s="48">
@@ -23071,7 +23069,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="90" t="s">
+      <c r="A160" s="88" t="s">
         <v>315</v>
       </c>
       <c r="B160" s="48">
@@ -23142,7 +23140,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="90" t="s">
+      <c r="A162" s="88" t="s">
         <v>319</v>
       </c>
       <c r="B162" s="48">
@@ -23176,7 +23174,7 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="90" t="s">
+      <c r="A163" s="88" t="s">
         <v>320</v>
       </c>
       <c r="B163" s="48">
@@ -23210,7 +23208,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="90" t="s">
+      <c r="A164" s="88" t="s">
         <v>321</v>
       </c>
       <c r="B164" s="48">
@@ -23241,7 +23239,7 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="90" t="s">
+      <c r="A165" s="88" t="s">
         <v>324</v>
       </c>
       <c r="B165" s="48">
@@ -23275,7 +23273,7 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="90" t="s">
+      <c r="A166" s="88" t="s">
         <v>325</v>
       </c>
       <c r="B166" s="48">
@@ -23309,7 +23307,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="90" t="s">
+      <c r="A167" s="88" t="s">
         <v>328</v>
       </c>
       <c r="B167" s="48">
@@ -23473,7 +23471,7 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="90" t="s">
+      <c r="A172" s="88" t="s">
         <v>336</v>
       </c>
       <c r="B172" s="48">
@@ -24525,7 +24523,7 @@
       <c r="C201" t="s">
         <v>120</v>
       </c>
-      <c r="D201" s="91" t="s">
+      <c r="D201" s="89" t="s">
         <v>378</v>
       </c>
       <c r="F201" s="18">
@@ -25937,7 +25935,7 @@
       <c r="C242" t="s">
         <v>454</v>
       </c>
-      <c r="D242" s="91" t="s">
+      <c r="D242" s="89" t="s">
         <v>378</v>
       </c>
       <c r="F242" s="18">
@@ -27597,7 +27595,7 @@
       <c r="C291" t="s">
         <v>35</v>
       </c>
-      <c r="D291" s="91" t="s">
+      <c r="D291" s="89" t="s">
         <v>155</v>
       </c>
       <c r="E291" t="s">
@@ -27906,7 +27904,7 @@
       <c r="C300" t="s">
         <v>454</v>
       </c>
-      <c r="D300" s="91" t="s">
+      <c r="D300" s="89" t="s">
         <v>378</v>
       </c>
       <c r="F300" s="18">
@@ -28694,6 +28692,9 @@
       <c r="H322" s="18">
         <v>20000</v>
       </c>
+      <c r="I322" s="18">
+        <v>21000</v>
+      </c>
       <c r="J322" s="51">
         <f t="shared" si="12"/>
         <v>1000</v>
@@ -37151,7 +37152,7 @@
       <c r="C562" t="s">
         <v>866</v>
       </c>
-      <c r="D562" s="91" t="s">
+      <c r="D562" s="89" t="s">
         <v>867</v>
       </c>
       <c r="E562" s="41" t="s">
@@ -38547,7 +38548,7 @@
       </c>
     </row>
     <row r="602" ht="30" spans="1:11">
-      <c r="A602" s="73" t="s">
+      <c r="A602" s="62" t="s">
         <v>915</v>
       </c>
       <c r="B602" s="48">
@@ -38584,7 +38585,7 @@
       </c>
     </row>
     <row r="603" spans="1:11">
-      <c r="A603" s="73" t="s">
+      <c r="A603" s="62" t="s">
         <v>916</v>
       </c>
       <c r="B603" s="48">
@@ -38615,7 +38616,7 @@
       </c>
     </row>
     <row r="604" spans="1:11">
-      <c r="A604" s="73" t="s">
+      <c r="A604" s="62" t="s">
         <v>917</v>
       </c>
       <c r="B604" s="48">
@@ -38652,7 +38653,7 @@
       </c>
     </row>
     <row r="605" spans="1:11">
-      <c r="A605" s="73" t="s">
+      <c r="A605" s="62" t="s">
         <v>918</v>
       </c>
       <c r="B605" s="48">
@@ -38689,7 +38690,7 @@
       </c>
     </row>
     <row r="606" spans="1:11">
-      <c r="A606" s="73" t="s">
+      <c r="A606" s="62" t="s">
         <v>919</v>
       </c>
       <c r="B606" s="48">
@@ -38726,19 +38727,37 @@
       </c>
     </row>
     <row r="607" spans="1:11">
-      <c r="A607" s="74" t="s">
+      <c r="A607" s="63" t="s">
         <v>921</v>
       </c>
       <c r="B607" s="48">
         <v>42965</v>
       </c>
+      <c r="C607" t="s">
+        <v>36</v>
+      </c>
+      <c r="D607" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F607" s="18">
+        <v>11000</v>
+      </c>
+      <c r="G607" t="s">
+        <v>13</v>
+      </c>
+      <c r="H607" s="18">
+        <v>10300</v>
+      </c>
+      <c r="I607" s="18">
+        <v>11000</v>
+      </c>
       <c r="J607">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="K607" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="608" spans="2:11">
@@ -39105,7 +39124,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I601"/>
+  <autoFilter ref="B1:I608"/>
   <hyperlinks>
     <hyperlink ref="A173" r:id="rId1" display="BL171111JKC7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/795416"/>
     <hyperlink ref="A174" r:id="rId2" display="BL171111JMU2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/798491"/>
@@ -40556,7 +40575,7 @@
       </c>
     </row>
     <row r="7" ht="30" hidden="1" spans="1:9">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="88" t="s">
         <v>261</v>
       </c>
       <c r="B7" s="15">

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="11385" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963">
   <si>
     <t>Dibayar</t>
   </si>
@@ -2790,6 +2790,51 @@
   </si>
   <si>
     <t>BL17114BRED8INV</t>
+  </si>
+  <si>
+    <t>BL17114BXK3DINV </t>
+  </si>
+  <si>
+    <t>BL17114BYCV3INV </t>
+  </si>
+  <si>
+    <t>BL171114MDZIELC </t>
+  </si>
+  <si>
+    <t>BL17114C2BVSINV</t>
+  </si>
+  <si>
+    <t>085834619370</t>
+  </si>
+  <si>
+    <t>BL171114O9VNELC </t>
+  </si>
+  <si>
+    <t>BL171114OA48ELC </t>
+  </si>
+  <si>
+    <t>BL17114D2DHIINV</t>
+  </si>
+  <si>
+    <t>08175421099</t>
+  </si>
+  <si>
+    <t>BL17114D2DTSINV</t>
+  </si>
+  <si>
+    <t>BL17114D2E5NINV</t>
+  </si>
+  <si>
+    <t>081999702131</t>
+  </si>
+  <si>
+    <t>BL17114D6OKSINV</t>
+  </si>
+  <si>
+    <t>BL171114QBR8ELC </t>
+  </si>
+  <si>
+    <t>BL171114QBXIELC</t>
   </si>
   <si>
     <t>NO TRANSAKSI</t>
@@ -2875,13 +2920,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2946,22 +2991,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2976,15 +3006,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3000,15 +3022,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3022,39 +3050,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3075,15 +3079,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3116,7 +3161,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3128,31 +3191,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3164,31 +3239,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3200,37 +3263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3248,7 +3281,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3260,43 +3335,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3482,21 +3527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3521,15 +3551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3547,11 +3568,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3574,19 +3593,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3598,134 +3643,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3733,7 +3778,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3743,15 +3788,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3773,7 +3818,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3804,12 +3849,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3844,24 +3889,25 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -3948,10 +3994,10 @@
       <numFmt numFmtId="183" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
@@ -4374,10 +4420,10 @@
       <numFmt numFmtId="187" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -4420,7 +4466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="105410" y="2638425"/>
-          <a:ext cx="3641090" cy="2838450"/>
+          <a:ext cx="3314700" cy="2838450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5508,7 +5554,7 @@
         <s v="M. SYARIFUDDIN"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Harga" numFmtId="177">
+    <cacheField name="Harga" numFmtId="176">
       <sharedItems containsBlank="1" containsNumber="1" containsInteger="1" containsMixedTypes="1" count="52">
         <m/>
         <s v="Deposit"/>
@@ -5575,7 +5621,7 @@
         <s v="Listrik Pasca"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Nominal" numFmtId="177">
+    <cacheField name="Nominal" numFmtId="176">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5000" maxValue="510000" count="61">
         <n v="57000"/>
         <n v="11000"/>
@@ -5640,7 +5686,7 @@
         <n v="78500"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Dibayar" numFmtId="177">
+    <cacheField name="Dibayar" numFmtId="176">
       <sharedItems containsBlank="1" containsNumber="1" containsInteger="1" containsMixedTypes="1" count="60">
         <n v="57000"/>
         <n v="12000"/>
@@ -5770,7 +5816,7 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Laba" numFmtId="177">
+    <cacheField name="Laba" numFmtId="176">
       <sharedItems containsBlank="1" containsNumber="1" containsMixedTypes="1" count="103">
         <n v="-54150"/>
         <n v="-10450"/>
@@ -17002,288 +17048,288 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.425" customWidth="1"/>
-    <col min="2" max="2" width="15.1416666666667" style="15" customWidth="1"/>
-    <col min="3" max="3" width="27.8083333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.8583333333333" customWidth="1"/>
-    <col min="5" max="5" width="25.425" customWidth="1"/>
-    <col min="6" max="6" width="13.8583333333333"/>
-    <col min="7" max="7" width="14.425" style="18"/>
+    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.1428571428571" style="15" customWidth="1"/>
+    <col min="3" max="3" width="27.8095238095238" customWidth="1"/>
+    <col min="4" max="4" width="20.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="25.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="13.8571428571429"/>
+    <col min="7" max="7" width="14.4285714285714" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="79">
         <v>42862</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="78">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="82">
         <v>42883</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="84">
         <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="82">
         <v>42920</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="84">
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="82">
         <v>42946</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="83">
+      <c r="G7" s="84">
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="82">
         <v>42946</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="84">
         <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="82">
         <v>42962</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="84">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="82">
         <v>42869</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="84">
         <v>50500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="82">
         <v>42882</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="83">
+      <c r="G11" s="84">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="82">
         <v>42883</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="84">
         <v>50500</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="82">
         <v>42938</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="83">
+      <c r="G13" s="84">
         <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87">
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="88">
         <v>851000</v>
       </c>
     </row>
@@ -17662,27 +17708,27 @@
   <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B606" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B615" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I609" sqref="I609"/>
+      <selection pane="bottomRight" activeCell="I620" sqref="I620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7166666666667" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.71666666666667" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="25.2833333333333" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="41" customWidth="1"/>
-    <col min="6" max="6" width="11.575" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.7142857142857" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="21.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.8761904761905" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.5714285714286" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="10" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.575" style="18" customWidth="1"/>
-    <col min="10" max="10" width="13.575" customWidth="1"/>
-    <col min="11" max="11" width="11.7166666666667" style="18"/>
-    <col min="12" max="14" width="10.575" customWidth="1"/>
+    <col min="9" max="9" width="13.5714285714286" style="18" customWidth="1"/>
+    <col min="10" max="10" width="13.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="11.7142857142857" style="18"/>
+    <col min="12" max="14" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -17844,7 +17890,7 @@
         <v>-48925</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:11">
+    <row r="7" ht="45" spans="1:11">
       <c r="A7" s="16"/>
       <c r="B7" s="48">
         <v>42825</v>
@@ -18312,7 +18358,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" ht="30" spans="1:11">
+    <row r="23" ht="45" spans="1:11">
       <c r="A23" s="16"/>
       <c r="B23" s="48">
         <v>42833</v>
@@ -18493,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" ht="30" spans="1:12">
       <c r="A29" s="16"/>
       <c r="B29" s="48">
         <v>42834</v>
@@ -18993,7 +19039,7 @@
       </c>
       <c r="L43" s="52"/>
     </row>
-    <row r="44" ht="30" spans="1:12">
+    <row r="44" ht="45" spans="1:12">
       <c r="A44" s="16"/>
       <c r="B44" s="48">
         <v>42840</v>
@@ -19029,7 +19075,7 @@
       </c>
       <c r="L44" s="52"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" ht="30" spans="1:11">
       <c r="A45" s="16"/>
       <c r="B45" s="48">
         <v>42840</v>
@@ -19230,7 +19276,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" ht="30" spans="1:11">
       <c r="A51" s="16"/>
       <c r="B51" s="48">
         <v>42841</v>
@@ -19329,7 +19375,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="54" ht="30" spans="1:11">
+    <row r="54" ht="45" spans="1:11">
       <c r="A54" s="16"/>
       <c r="B54" s="48">
         <v>42841</v>
@@ -19568,7 +19614,7 @@
         <v>21075</v>
       </c>
     </row>
-    <row r="61" ht="30" spans="1:11">
+    <row r="61" ht="45" spans="1:11">
       <c r="A61" s="16"/>
       <c r="B61" s="48">
         <v>42843</v>
@@ -20015,7 +20061,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" ht="30" spans="1:11">
       <c r="A74" s="16"/>
       <c r="B74" s="48">
         <v>42845</v>
@@ -20155,7 +20201,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" ht="30" spans="1:11">
       <c r="A78" s="16" t="s">
         <v>162</v>
       </c>
@@ -20263,7 +20309,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" ht="30" spans="1:11">
       <c r="A81" s="16" t="s">
         <v>169</v>
       </c>
@@ -20374,7 +20420,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="84" ht="30" spans="1:11">
+    <row r="84" ht="45" spans="1:11">
       <c r="A84" s="16" t="s">
         <v>178</v>
       </c>
@@ -20695,7 +20741,7 @@
       <c r="M92" s="52"/>
       <c r="N92" s="52"/>
     </row>
-    <row r="93" ht="30" spans="1:11">
+    <row r="93" ht="45" spans="1:11">
       <c r="A93" s="54" t="s">
         <v>197</v>
       </c>
@@ -21674,7 +21720,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" ht="30" spans="1:11">
       <c r="A121" s="16"/>
       <c r="B121" s="48">
         <v>42855</v>
@@ -21848,7 +21894,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" ht="30" spans="1:11">
       <c r="A126" s="57" t="s">
         <v>253</v>
       </c>
@@ -21993,8 +22039,8 @@
         <v>18575</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="88" t="s">
+    <row r="130" ht="30" spans="1:11">
+      <c r="A130" s="89" t="s">
         <v>259</v>
       </c>
       <c r="B130" s="48">
@@ -22031,7 +22077,7 @@
       </c>
     </row>
     <row r="131" ht="30" spans="1:11">
-      <c r="A131" s="88" t="s">
+      <c r="A131" s="89" t="s">
         <v>261</v>
       </c>
       <c r="B131" s="48">
@@ -22065,8 +22111,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="88" t="s">
+    <row r="132" ht="30" spans="1:11">
+      <c r="A132" s="89" t="s">
         <v>264</v>
       </c>
       <c r="B132" s="48">
@@ -22102,8 +22148,8 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="88" t="s">
+    <row r="133" ht="30" spans="1:11">
+      <c r="A133" s="89" t="s">
         <v>266</v>
       </c>
       <c r="B133" s="48">
@@ -22177,7 +22223,7 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="88" t="s">
+      <c r="A135" s="89" t="s">
         <v>272</v>
       </c>
       <c r="B135" s="48">
@@ -22213,8 +22259,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="88" t="s">
+    <row r="136" ht="30" spans="1:11">
+      <c r="A136" s="89" t="s">
         <v>273</v>
       </c>
       <c r="B136" s="48">
@@ -22250,8 +22296,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="88" t="s">
+    <row r="137" ht="30" spans="1:11">
+      <c r="A137" s="89" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="48">
@@ -22288,7 +22334,7 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="88" t="s">
+      <c r="A138" s="89" t="s">
         <v>278</v>
       </c>
       <c r="B138" s="48">
@@ -22322,7 +22368,7 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="88" t="s">
+      <c r="A139" s="89" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="48">
@@ -22395,7 +22441,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" ht="30" spans="1:11">
       <c r="A141" s="14" t="s">
         <v>281</v>
       </c>
@@ -22432,7 +22478,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="142" ht="30" spans="1:11">
+    <row r="142" ht="45" spans="1:11">
       <c r="A142" s="14" t="s">
         <v>282</v>
       </c>
@@ -22469,7 +22515,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" ht="30" spans="1:11">
       <c r="A143" s="14" t="s">
         <v>285</v>
       </c>
@@ -22581,7 +22627,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="88" t="s">
+      <c r="A146" s="89" t="s">
         <v>289</v>
       </c>
       <c r="B146" s="48">
@@ -22615,7 +22661,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="88" t="s">
+      <c r="A147" s="89" t="s">
         <v>292</v>
       </c>
       <c r="B147" s="48">
@@ -22649,7 +22695,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="88" t="s">
+      <c r="A148" s="89" t="s">
         <v>294</v>
       </c>
       <c r="B148" s="48">
@@ -22683,7 +22729,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="88" t="s">
+      <c r="A149" s="89" t="s">
         <v>296</v>
       </c>
       <c r="B149" s="48">
@@ -22717,7 +22763,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="88" t="s">
+      <c r="A150" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B150" s="48">
@@ -22751,7 +22797,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="88" t="s">
+      <c r="A151" s="89" t="s">
         <v>298</v>
       </c>
       <c r="B151" s="48">
@@ -22822,7 +22868,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="88" t="s">
+      <c r="A153" s="89" t="s">
         <v>304</v>
       </c>
       <c r="B153" s="48">
@@ -22856,7 +22902,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="88" t="s">
+      <c r="A154" s="89" t="s">
         <v>305</v>
       </c>
       <c r="B154" s="48">
@@ -22927,7 +22973,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="88" t="s">
+      <c r="A156" s="89" t="s">
         <v>310</v>
       </c>
       <c r="B156" s="48">
@@ -22998,7 +23044,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="88" t="s">
+      <c r="A158" s="89" t="s">
         <v>313</v>
       </c>
       <c r="B158" s="48">
@@ -23069,7 +23115,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="88" t="s">
+      <c r="A160" s="89" t="s">
         <v>315</v>
       </c>
       <c r="B160" s="48">
@@ -23140,7 +23186,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="88" t="s">
+      <c r="A162" s="89" t="s">
         <v>319</v>
       </c>
       <c r="B162" s="48">
@@ -23174,7 +23220,7 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="88" t="s">
+      <c r="A163" s="89" t="s">
         <v>320</v>
       </c>
       <c r="B163" s="48">
@@ -23208,7 +23254,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="88" t="s">
+      <c r="A164" s="89" t="s">
         <v>321</v>
       </c>
       <c r="B164" s="48">
@@ -23239,7 +23285,7 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="88" t="s">
+      <c r="A165" s="89" t="s">
         <v>324</v>
       </c>
       <c r="B165" s="48">
@@ -23273,7 +23319,7 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="88" t="s">
+      <c r="A166" s="89" t="s">
         <v>325</v>
       </c>
       <c r="B166" s="48">
@@ -23307,7 +23353,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="88" t="s">
+      <c r="A167" s="89" t="s">
         <v>328</v>
       </c>
       <c r="B167" s="48">
@@ -23471,7 +23517,7 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="88" t="s">
+      <c r="A172" s="89" t="s">
         <v>336</v>
       </c>
       <c r="B172" s="48">
@@ -23504,7 +23550,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" ht="30" spans="1:11">
       <c r="A173" s="59" t="s">
         <v>337</v>
       </c>
@@ -23578,7 +23624,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="175" ht="30" spans="1:11">
+    <row r="175" ht="45" spans="1:11">
       <c r="A175" s="58" t="s">
         <v>342</v>
       </c>
@@ -23763,7 +23809,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" ht="30" spans="1:11">
       <c r="A180" s="58" t="s">
         <v>351</v>
       </c>
@@ -23800,7 +23846,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" ht="30" spans="1:11">
       <c r="A181" s="58" t="s">
         <v>352</v>
       </c>
@@ -23837,7 +23883,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="182" ht="30" spans="1:11">
+    <row r="182" ht="45" spans="1:11">
       <c r="A182" s="58" t="s">
         <v>353</v>
       </c>
@@ -24022,7 +24068,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="187" ht="30" spans="1:11">
+    <row r="187" ht="45" spans="1:11">
       <c r="A187" s="59" t="s">
         <v>361</v>
       </c>
@@ -24096,7 +24142,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" ht="30" spans="1:11">
       <c r="A189" s="58" t="s">
         <v>363</v>
       </c>
@@ -24204,7 +24250,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" ht="30" spans="1:11">
       <c r="A192" s="58" t="s">
         <v>366</v>
       </c>
@@ -24523,7 +24569,7 @@
       <c r="C201" t="s">
         <v>120</v>
       </c>
-      <c r="D201" s="89" t="s">
+      <c r="D201" s="90" t="s">
         <v>378</v>
       </c>
       <c r="F201" s="18">
@@ -24748,7 +24794,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="208" ht="54" spans="1:11">
+    <row r="208" ht="67.5" spans="1:11">
       <c r="A208" s="58" t="s">
         <v>387</v>
       </c>
@@ -25091,7 +25137,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" ht="30" spans="1:11">
       <c r="A218" s="58" t="s">
         <v>398</v>
       </c>
@@ -25165,7 +25211,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" ht="30" spans="1:11">
       <c r="A220" s="58" t="s">
         <v>404</v>
       </c>
@@ -25202,7 +25248,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="221" ht="30" spans="1:11">
+    <row r="221" ht="45" spans="1:11">
       <c r="A221" s="59" t="s">
         <v>405</v>
       </c>
@@ -25239,7 +25285,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="222" ht="30" spans="1:11">
+    <row r="222" ht="45" spans="1:11">
       <c r="A222" s="59" t="s">
         <v>409</v>
       </c>
@@ -25310,7 +25356,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="224" ht="45" spans="1:11">
+    <row r="224" ht="60" spans="1:11">
       <c r="A224" s="14" t="s">
         <v>414</v>
       </c>
@@ -25935,7 +25981,7 @@
       <c r="C242" t="s">
         <v>454</v>
       </c>
-      <c r="D242" s="89" t="s">
+      <c r="D242" s="90" t="s">
         <v>378</v>
       </c>
       <c r="F242" s="18">
@@ -26373,7 +26419,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="255" ht="30" spans="1:11">
+    <row r="255" ht="45" spans="1:11">
       <c r="A255" s="63" t="s">
         <v>472</v>
       </c>
@@ -26444,7 +26490,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" ht="30" spans="1:11">
       <c r="A257" s="63" t="s">
         <v>474</v>
       </c>
@@ -26614,7 +26660,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" ht="30" spans="1:11">
       <c r="A262" s="63" t="s">
         <v>478</v>
       </c>
@@ -26716,7 +26762,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="265" ht="45" spans="1:11">
+    <row r="265" ht="60" spans="1:11">
       <c r="A265" s="62" t="s">
         <v>481</v>
       </c>
@@ -26945,7 +26991,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" ht="30" spans="1:11">
       <c r="A272" s="62" t="s">
         <v>490</v>
       </c>
@@ -27050,7 +27096,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" ht="30" spans="1:11">
       <c r="A275" s="63" t="s">
         <v>494</v>
       </c>
@@ -27084,7 +27130,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" ht="30" spans="1:11">
       <c r="A276" s="63" t="s">
         <v>495</v>
       </c>
@@ -27118,7 +27164,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" ht="30" spans="1:11">
       <c r="A277" s="62" t="s">
         <v>496</v>
       </c>
@@ -27282,7 +27328,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="282" ht="30" spans="1:11">
+    <row r="282" ht="45" spans="1:11">
       <c r="A282" s="62" t="s">
         <v>507</v>
       </c>
@@ -27412,7 +27458,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" ht="27" spans="1:11">
       <c r="A286" s="62" t="s">
         <v>511</v>
       </c>
@@ -27480,7 +27526,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" ht="30" spans="1:11">
       <c r="A288" s="63" t="s">
         <v>516</v>
       </c>
@@ -27595,7 +27641,7 @@
       <c r="C291" t="s">
         <v>35</v>
       </c>
-      <c r="D291" s="89" t="s">
+      <c r="D291" s="90" t="s">
         <v>155</v>
       </c>
       <c r="E291" t="s">
@@ -27687,7 +27733,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" ht="27" spans="1:11">
       <c r="A294" s="62" t="s">
         <v>511</v>
       </c>
@@ -27789,7 +27835,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" ht="30" spans="1:11">
       <c r="A297" s="62" t="s">
         <v>522</v>
       </c>
@@ -27860,7 +27906,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="299" ht="30" spans="1:11">
+    <row r="299" ht="45" spans="1:11">
       <c r="A299" s="62" t="s">
         <v>525</v>
       </c>
@@ -27904,7 +27950,7 @@
       <c r="C300" t="s">
         <v>454</v>
       </c>
-      <c r="D300" s="89" t="s">
+      <c r="D300" s="90" t="s">
         <v>378</v>
       </c>
       <c r="F300" s="18">
@@ -27925,7 +27971,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="301" ht="30" spans="1:11">
+    <row r="301" ht="45" spans="1:11">
       <c r="A301" s="62" t="s">
         <v>527</v>
       </c>
@@ -28030,7 +28076,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="304" ht="45" spans="1:11">
+    <row r="304" ht="60" spans="1:11">
       <c r="A304" s="62" t="s">
         <v>531</v>
       </c>
@@ -28104,7 +28150,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" ht="30" spans="1:11">
       <c r="A306" s="62" t="s">
         <v>533</v>
       </c>
@@ -28249,7 +28295,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" ht="30" spans="1:11">
       <c r="A310" s="63" t="s">
         <v>540</v>
       </c>
@@ -28806,7 +28852,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" ht="30" spans="1:11">
       <c r="A326" s="62" t="s">
         <v>566</v>
       </c>
@@ -29165,7 +29211,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" ht="30" spans="1:11">
       <c r="A337" s="63" t="s">
         <v>584</v>
       </c>
@@ -29363,7 +29409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" ht="30" spans="1:11">
       <c r="A343" s="62" t="s">
         <v>591</v>
       </c>
@@ -29468,7 +29514,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="346" ht="30" spans="1:11">
+    <row r="346" ht="45" spans="1:11">
       <c r="A346" s="62" t="s">
         <v>596</v>
       </c>
@@ -29505,7 +29551,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="347" ht="45" spans="1:11">
+    <row r="347" ht="60" spans="1:11">
       <c r="A347" s="62" t="s">
         <v>597</v>
       </c>
@@ -29681,7 +29727,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" ht="30" spans="1:11">
       <c r="A352" s="62" t="s">
         <v>602</v>
       </c>
@@ -29755,7 +29801,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" ht="30" spans="1:11">
       <c r="A354" s="62" t="s">
         <v>604</v>
       </c>
@@ -29860,7 +29906,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" ht="30" spans="1:11">
       <c r="A357" s="62" t="s">
         <v>610</v>
       </c>
@@ -29894,7 +29940,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" ht="30" spans="1:11">
       <c r="A358" s="62" t="s">
         <v>611</v>
       </c>
@@ -29931,7 +29977,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" ht="30" spans="1:11">
       <c r="A359" s="62" t="s">
         <v>612</v>
       </c>
@@ -30005,7 +30051,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="361" ht="30" spans="1:11">
+    <row r="361" ht="45" spans="1:11">
       <c r="A361" s="62" t="s">
         <v>617</v>
       </c>
@@ -30077,7 +30123,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" ht="30" spans="1:11">
       <c r="A363" s="62" t="s">
         <v>612</v>
       </c>
@@ -30151,7 +30197,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="365" ht="30" spans="1:11">
+    <row r="365" ht="45" spans="1:11">
       <c r="A365" s="62" t="s">
         <v>617</v>
       </c>
@@ -30256,7 +30302,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="368" ht="30" spans="1:11">
+    <row r="368" ht="45" spans="1:11">
       <c r="A368" s="62" t="s">
         <v>624</v>
       </c>
@@ -30330,7 +30376,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="370" ht="45" spans="1:11">
+    <row r="370" ht="60" spans="1:11">
       <c r="A370" s="62" t="s">
         <v>627</v>
       </c>
@@ -30580,7 +30626,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" ht="30" spans="1:11">
       <c r="A377" s="62" t="s">
         <v>635</v>
       </c>
@@ -30617,7 +30663,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="378" ht="30" spans="1:11">
+    <row r="378" ht="45" spans="1:11">
       <c r="A378" s="62" t="s">
         <v>636</v>
       </c>
@@ -30691,7 +30737,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" ht="30" spans="1:11">
       <c r="A380" s="63" t="s">
         <v>638</v>
       </c>
@@ -30728,7 +30774,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" ht="30" spans="1:11">
       <c r="A381" s="62" t="s">
         <v>639</v>
       </c>
@@ -30901,7 +30947,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="386" ht="30" spans="1:11">
+    <row r="386" ht="45" spans="1:11">
       <c r="A386" s="62" t="s">
         <v>644</v>
       </c>
@@ -31043,7 +31089,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" ht="30" spans="1:11">
       <c r="A390" s="62" t="s">
         <v>649</v>
       </c>
@@ -31117,7 +31163,7 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" ht="30" spans="1:11">
       <c r="A392" s="62" t="s">
         <v>653</v>
       </c>
@@ -31216,7 +31262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" ht="30" spans="1:11">
+    <row r="395" ht="45" spans="1:11">
       <c r="A395" s="62" t="s">
         <v>658</v>
       </c>
@@ -31361,7 +31407,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" ht="30" spans="1:11">
       <c r="A399" s="62" t="s">
         <v>665</v>
       </c>
@@ -31642,7 +31688,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" ht="30" spans="1:11">
       <c r="A407" s="62" t="s">
         <v>673</v>
       </c>
@@ -31818,7 +31864,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="412" ht="15.75" spans="1:11">
+    <row r="412" ht="30.75" spans="1:11">
       <c r="A412" s="63" t="s">
         <v>678</v>
       </c>
@@ -31855,7 +31901,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" ht="27" spans="1:11">
       <c r="A413" s="63" t="s">
         <v>679</v>
       </c>
@@ -32000,7 +32046,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" ht="30" spans="1:11">
       <c r="A417" s="62" t="s">
         <v>686</v>
       </c>
@@ -32142,7 +32188,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" ht="30" spans="1:11">
       <c r="A421" s="63" t="s">
         <v>689</v>
       </c>
@@ -32358,7 +32404,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="427" ht="30" spans="1:11">
+    <row r="427" ht="45" spans="1:11">
       <c r="A427" s="62" t="s">
         <v>696</v>
       </c>
@@ -32568,7 +32614,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" ht="30" spans="1:11">
       <c r="A433" s="63" t="s">
         <v>703</v>
       </c>
@@ -32994,7 +33040,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="445" ht="45" spans="1:11">
+    <row r="445" ht="60" spans="1:11">
       <c r="A445" s="62" t="s">
         <v>718</v>
       </c>
@@ -33139,7 +33185,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="449" ht="30" spans="1:11">
+    <row r="449" ht="45" spans="1:11">
       <c r="A449" s="62" t="s">
         <v>723</v>
       </c>
@@ -33244,7 +33290,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" ht="30" spans="1:11">
       <c r="A452" s="62" t="s">
         <v>729</v>
       </c>
@@ -33315,7 +33361,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" ht="30" spans="1:11">
       <c r="A454" s="62" t="s">
         <v>731</v>
       </c>
@@ -33352,7 +33398,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" ht="30" spans="1:11">
       <c r="A455" s="62" t="s">
         <v>732</v>
       </c>
@@ -33769,7 +33815,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" ht="30" spans="1:11">
       <c r="A467" s="62" t="s">
         <v>746</v>
       </c>
@@ -33806,7 +33852,7 @@
         <v>2432.5</v>
       </c>
     </row>
-    <row r="468" ht="45" spans="1:11">
+    <row r="468" ht="60" spans="1:11">
       <c r="A468" s="63" t="s">
         <v>747</v>
       </c>
@@ -34133,7 +34179,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" ht="30" spans="1:11">
       <c r="A477" s="62" t="s">
         <v>757</v>
       </c>
@@ -34204,7 +34250,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" ht="30" spans="1:11">
       <c r="A479" s="62" t="s">
         <v>759</v>
       </c>
@@ -34584,7 +34630,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" ht="30" spans="1:11">
       <c r="A490" s="62" t="s">
         <v>773</v>
       </c>
@@ -34652,7 +34698,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="492" ht="45" spans="1:11">
+    <row r="492" ht="60" spans="1:11">
       <c r="A492" s="62" t="s">
         <v>774</v>
       </c>
@@ -34834,7 +34880,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" ht="30" spans="1:11">
       <c r="A497" s="63" t="s">
         <v>779</v>
       </c>
@@ -34868,7 +34914,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" ht="30" spans="1:11">
       <c r="A498" s="62" t="s">
         <v>780</v>
       </c>
@@ -35164,7 +35210,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" ht="27" spans="1:11">
       <c r="A506" s="62" t="s">
         <v>790</v>
       </c>
@@ -35272,7 +35318,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" ht="30" spans="1:11">
       <c r="A509" s="62" t="s">
         <v>793</v>
       </c>
@@ -35309,7 +35355,7 @@
         <v>2432.5</v>
       </c>
     </row>
-    <row r="510" ht="30" spans="1:11">
+    <row r="510" ht="45" spans="1:11">
       <c r="A510" s="62" t="s">
         <v>794</v>
       </c>
@@ -35631,7 +35677,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" ht="30" spans="1:11">
       <c r="A519" s="62" t="s">
         <v>806</v>
       </c>
@@ -35668,7 +35714,7 @@
         <v>932.5</v>
       </c>
     </row>
-    <row r="520" ht="30" spans="1:11">
+    <row r="520" ht="45" spans="1:11">
       <c r="A520" s="62" t="s">
         <v>807</v>
       </c>
@@ -36014,7 +36060,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="530" ht="45" spans="1:11">
+    <row r="530" ht="60" spans="1:11">
       <c r="A530" s="62" t="s">
         <v>818</v>
       </c>
@@ -36296,7 +36342,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" ht="30" spans="1:11">
       <c r="A538" s="62" t="s">
         <v>827</v>
       </c>
@@ -36568,7 +36614,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" ht="30" spans="1:11">
       <c r="A546" s="62" t="s">
         <v>835</v>
       </c>
@@ -36747,7 +36793,7 @@
         <v>3480.75</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" ht="30" spans="1:11">
       <c r="A551" s="62" t="s">
         <v>843</v>
       </c>
@@ -36886,7 +36932,7 @@
         <v>8925</v>
       </c>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" ht="30" spans="1:11">
       <c r="A555" s="62" t="s">
         <v>853</v>
       </c>
@@ -36923,7 +36969,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" ht="30" spans="1:11">
       <c r="A556" s="62" t="s">
         <v>854</v>
       </c>
@@ -37031,7 +37077,7 @@
         <v>20575</v>
       </c>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" ht="30" spans="1:11">
       <c r="A559" s="62" t="s">
         <v>857</v>
       </c>
@@ -37152,7 +37198,7 @@
       <c r="C562" t="s">
         <v>866</v>
       </c>
-      <c r="D562" s="89" t="s">
+      <c r="D562" s="90" t="s">
         <v>867</v>
       </c>
       <c r="E562" s="41" t="s">
@@ -37210,7 +37256,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="564" ht="30" spans="1:11">
+    <row r="564" ht="45" spans="1:11">
       <c r="A564" s="63" t="s">
         <v>870</v>
       </c>
@@ -37488,7 +37534,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" ht="30" spans="1:11">
       <c r="A572" s="62" t="s">
         <v>880</v>
       </c>
@@ -37667,7 +37713,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="577" ht="45" spans="1:11">
+    <row r="577" ht="60" spans="1:11">
       <c r="A577" s="63" t="s">
         <v>886</v>
       </c>
@@ -37763,7 +37809,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" ht="30" spans="1:11">
       <c r="A580" s="62" t="s">
         <v>889</v>
       </c>
@@ -37800,7 +37846,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="581" ht="30" spans="1:11">
+    <row r="581" ht="45" spans="1:11">
       <c r="A581" s="62" t="s">
         <v>890</v>
       </c>
@@ -38050,7 +38096,7 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="588" ht="30" spans="1:11">
+    <row r="588" ht="45" spans="1:11">
       <c r="A588" s="63" t="s">
         <v>899</v>
       </c>
@@ -38084,7 +38130,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" ht="30" spans="1:11">
       <c r="A589" s="63" t="s">
         <v>900</v>
       </c>
@@ -38155,7 +38201,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="591" ht="30" spans="1:11">
+    <row r="591" ht="45" spans="1:11">
       <c r="A591" s="62" t="s">
         <v>901</v>
       </c>
@@ -38476,7 +38522,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="600" ht="45.75" spans="1:11">
+    <row r="600" ht="60.75" spans="1:11">
       <c r="A600" s="62" t="s">
         <v>910</v>
       </c>
@@ -38510,7 +38556,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="601" ht="27" spans="1:11">
+    <row r="601" ht="40.5" spans="1:11">
       <c r="A601" s="62" t="s">
         <v>911</v>
       </c>
@@ -38760,130 +38806,446 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="608" spans="2:11">
+    <row r="608" spans="1:11">
+      <c r="A608" s="73" t="s">
+        <v>922</v>
+      </c>
       <c r="B608" s="48">
-        <v>42965</v>
-      </c>
-      <c r="J608">
+        <v>42966</v>
+      </c>
+      <c r="C608" t="s">
+        <v>134</v>
+      </c>
+      <c r="D608" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F608" s="19">
+        <v>99000</v>
+      </c>
+      <c r="G608" t="s">
+        <v>13</v>
+      </c>
+      <c r="H608" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I608" s="19">
+        <v>99000</v>
+      </c>
+      <c r="J608" s="51">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K608" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="10:11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="609" ht="15.75" spans="1:11">
+      <c r="A609" s="73" t="s">
+        <v>923</v>
+      </c>
+      <c r="B609" s="48">
+        <v>42966</v>
+      </c>
+      <c r="C609" t="s">
+        <v>35</v>
+      </c>
+      <c r="D609" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F609" s="18">
+        <v>25500</v>
+      </c>
+      <c r="G609" t="s">
+        <v>13</v>
+      </c>
+      <c r="H609" s="18">
+        <v>24500</v>
+      </c>
+      <c r="I609" s="19">
+        <v>25500</v>
+      </c>
       <c r="J609">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="K609" s="18">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="10:11">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="610" ht="27" spans="1:11">
+      <c r="A610" s="73" t="s">
+        <v>924</v>
+      </c>
+      <c r="B610" s="48">
+        <v>42966</v>
+      </c>
+      <c r="C610" t="s">
+        <v>512</v>
+      </c>
+      <c r="D610" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="E610" s="65" t="s">
+        <v>514</v>
+      </c>
+      <c r="F610" s="18">
+        <v>50000</v>
+      </c>
+      <c r="G610" t="s">
+        <v>16</v>
+      </c>
+      <c r="H610" s="18">
+        <v>51650</v>
+      </c>
+      <c r="I610" s="18">
+        <v>51000</v>
+      </c>
       <c r="J610">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2582.5</v>
       </c>
       <c r="K610" s="18">
         <f t="shared" ref="K610:K643" si="27">J610+F610-H610</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="10:11">
+        <v>932.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11">
+      <c r="A611" s="73" t="s">
+        <v>925</v>
+      </c>
+      <c r="B611" s="48">
+        <v>42966</v>
+      </c>
+      <c r="C611" t="s">
+        <v>52</v>
+      </c>
+      <c r="D611" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="E611" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F611" s="18">
+        <v>12000</v>
+      </c>
+      <c r="G611" t="s">
+        <v>13</v>
+      </c>
+      <c r="H611" s="18">
+        <v>11300</v>
+      </c>
+      <c r="I611" s="18">
+        <v>12000</v>
+      </c>
       <c r="J611">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K611" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="10:11">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11">
+      <c r="A612" s="73" t="s">
+        <v>927</v>
+      </c>
+      <c r="B612" s="48">
+        <v>42968</v>
+      </c>
+      <c r="C612" t="s">
+        <v>171</v>
+      </c>
+      <c r="D612" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E612" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F612" s="19">
+        <v>51000</v>
+      </c>
+      <c r="G612" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H612" s="19">
+        <v>51650</v>
+      </c>
+      <c r="I612" s="19">
+        <v>51000</v>
+      </c>
       <c r="J612">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2582.5</v>
       </c>
       <c r="K612" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="10:11">
+        <v>1932.5</v>
+      </c>
+    </row>
+    <row r="613" ht="30" spans="1:11">
+      <c r="A613" s="73" t="s">
+        <v>928</v>
+      </c>
+      <c r="B613" s="48">
+        <v>42968</v>
+      </c>
+      <c r="C613" t="s">
+        <v>605</v>
+      </c>
+      <c r="D613" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="E613" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="F613" s="18">
+        <v>50000</v>
+      </c>
+      <c r="G613" t="s">
+        <v>16</v>
+      </c>
+      <c r="H613" s="18">
+        <v>51500</v>
+      </c>
+      <c r="I613" s="18">
+        <v>50000</v>
+      </c>
       <c r="J613">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="K613" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="10:11">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11">
+      <c r="A614" s="73" t="s">
+        <v>929</v>
+      </c>
+      <c r="B614" s="48">
+        <v>42969</v>
+      </c>
+      <c r="C614" t="s">
+        <v>123</v>
+      </c>
+      <c r="D614" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="E614" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F614" s="18">
+        <v>27000</v>
+      </c>
+      <c r="G614" t="s">
+        <v>13</v>
+      </c>
+      <c r="H614" s="18">
+        <v>26000</v>
+      </c>
+      <c r="I614" s="18">
+        <v>27000</v>
+      </c>
       <c r="J614">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="K614" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="10:11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11">
+      <c r="A615" s="73" t="s">
+        <v>931</v>
+      </c>
+      <c r="B615" s="48">
+        <v>42969</v>
+      </c>
+      <c r="C615" t="s">
+        <v>123</v>
+      </c>
+      <c r="D615" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="E615" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F615" s="18">
+        <v>27000</v>
+      </c>
+      <c r="G615" t="s">
+        <v>13</v>
+      </c>
+      <c r="H615" s="18">
+        <v>26000</v>
+      </c>
+      <c r="I615" s="18">
+        <v>27000</v>
+      </c>
       <c r="J615">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="K615" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="10:11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11">
+      <c r="A616" s="73" t="s">
+        <v>932</v>
+      </c>
+      <c r="B616" s="48">
+        <v>42969</v>
+      </c>
+      <c r="C616" t="s">
+        <v>123</v>
+      </c>
+      <c r="D616" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="E616" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F616" s="18">
+        <v>27000</v>
+      </c>
+      <c r="G616" t="s">
+        <v>13</v>
+      </c>
+      <c r="H616" s="18">
+        <v>26000</v>
+      </c>
+      <c r="I616" s="18">
+        <v>27000</v>
+      </c>
       <c r="J616">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="K616" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="10:11">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11">
+      <c r="A617" s="73" t="s">
+        <v>934</v>
+      </c>
+      <c r="B617" s="48">
+        <v>42969</v>
+      </c>
+      <c r="C617" t="s">
+        <v>36</v>
+      </c>
+      <c r="D617" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="E617" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F617" s="18">
+        <v>11000</v>
+      </c>
+      <c r="G617" t="s">
+        <v>13</v>
+      </c>
+      <c r="H617" s="18">
+        <v>10300</v>
+      </c>
+      <c r="I617" s="18">
+        <v>11000</v>
+      </c>
       <c r="J617">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="K617" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="10:11">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="618" ht="30" spans="1:11">
+      <c r="A618" s="73" t="s">
+        <v>935</v>
+      </c>
+      <c r="B618" s="48">
+        <v>42969</v>
+      </c>
+      <c r="C618" t="s">
+        <v>423</v>
+      </c>
+      <c r="D618" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E618" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="F618" s="18">
+        <v>51000</v>
+      </c>
+      <c r="G618" t="s">
+        <v>16</v>
+      </c>
+      <c r="H618" s="18">
+        <v>51650</v>
+      </c>
+      <c r="I618" s="18">
+        <v>100000</v>
+      </c>
       <c r="J618">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2582.5</v>
       </c>
       <c r="K618" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="10:11">
+        <v>1932.5</v>
+      </c>
+    </row>
+    <row r="619" ht="30" spans="1:11">
+      <c r="A619" s="73" t="s">
+        <v>936</v>
+      </c>
+      <c r="B619" s="48">
+        <v>42969</v>
+      </c>
+      <c r="C619" t="s">
+        <v>103</v>
+      </c>
+      <c r="D619" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E619" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F619" s="18">
+        <v>51000</v>
+      </c>
+      <c r="G619" t="s">
+        <v>16</v>
+      </c>
+      <c r="H619" s="18">
+        <v>51500</v>
+      </c>
+      <c r="I619" s="19"/>
       <c r="J619">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="K619" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="10:11">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="620" spans="2:11">
+      <c r="B620" s="48">
+        <v>42969</v>
+      </c>
       <c r="J620">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -39551,6 +39913,18 @@
     <hyperlink ref="A605" r:id="rId414" display="BL171114LBZNELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5372837"/>
     <hyperlink ref="A606" r:id="rId415" display="BL171114LEMSELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5376062"/>
     <hyperlink ref="A607" r:id="rId416" display="BL17114BRED8INV" tooltip="https://www.bukalapak.com/payment/invoices/173702977"/>
+    <hyperlink ref="A608" r:id="rId417" display="BL17114BXK3DINV " tooltip="https://www.bukalapak.com/payment/invoices/173967232"/>
+    <hyperlink ref="A609" r:id="rId418" display="BL17114BYCV3INV " tooltip="https://www.bukalapak.com/payment/invoices/174001277"/>
+    <hyperlink ref="A610" r:id="rId419" display="BL171114MDZIELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5418157"/>
+    <hyperlink ref="A611" r:id="rId420" display="BL17114C2BVSINV" tooltip="https://www.bukalapak.com/payment/invoices/174128702"/>
+    <hyperlink ref="A612" r:id="rId421" display="BL171114O9VNELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5498872"/>
+    <hyperlink ref="A613" r:id="rId422" display="BL171114OA48ELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5499137"/>
+    <hyperlink ref="A614" r:id="rId423" display="BL17114D2DHIINV" tooltip="https://www.bukalapak.com/payment/invoices/175631277"/>
+    <hyperlink ref="A615" r:id="rId424" display="BL17114D2DTSINV" tooltip="https://www.bukalapak.com/payment/invoices/175631707"/>
+    <hyperlink ref="A616" r:id="rId425" display="BL17114D2E5NINV" tooltip="https://www.bukalapak.com/payment/invoices/175632087"/>
+    <hyperlink ref="A617" r:id="rId426" display="BL17114D6OKSINV" tooltip="https://www.bukalapak.com/payment/invoices/175816367"/>
+    <hyperlink ref="A618" r:id="rId427" display="BL171114QBR8ELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5586917"/>
+    <hyperlink ref="A619" r:id="rId428" display="BL171114QBXIELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5587137"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -39569,28 +39943,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.1416666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.8583333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="26.7166666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.7166666666667" customWidth="1"/>
+    <col min="1" max="1" width="24.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="26.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="37" t="s">
-        <v>922</v>
+        <v>937</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>923</v>
+        <v>938</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>924</v>
+        <v>939</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -39867,7 +40241,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="27" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -39879,7 +40253,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="38" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="E20" s="39">
         <f>5%*E18</f>
@@ -39888,7 +40262,7 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="38" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="E21" s="39">
         <f>10%*E18</f>
@@ -39915,32 +40289,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.575" customWidth="1"/>
-    <col min="2" max="2" width="15.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.1416666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>931</v>
+        <v>946</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>932</v>
+        <v>947</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -40019,7 +40393,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -40032,7 +40406,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="10" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="E9" s="31">
         <v>1000000</v>
@@ -40040,7 +40414,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="3" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="E10" s="25">
         <f>E9-E6</f>
@@ -40053,7 +40427,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="23" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="E12" s="25">
         <v>300000</v>
@@ -40061,7 +40435,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="3" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="E13" s="25">
         <v>300000</v>
@@ -40069,7 +40443,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="10" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="E14" s="31">
         <f>E13+E12</f>
@@ -40082,7 +40456,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="10" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="E16" s="31">
         <f>E10-E14</f>
@@ -40317,7 +40691,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="34" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -40330,7 +40704,7 @@
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="10" t="s">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="E34" s="13">
         <f>E16</f>
@@ -40347,7 +40721,7 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="10" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="E36" s="13">
         <f>E34+E35</f>
@@ -40360,7 +40734,7 @@
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="10" t="s">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="E38" s="13">
         <f>E36-E32</f>
@@ -40387,17 +40761,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="21.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18.575" customWidth="1"/>
+    <col min="3" max="3" width="18.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.425" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.2833333333333" customWidth="1"/>
-    <col min="7" max="7" width="6.85833333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.4285714285714" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="6.85714285714286" customWidth="1"/>
     <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="21.8583333333333" customWidth="1"/>
+    <col min="9" max="9" width="21.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -40455,7 +40829,7 @@
         <v>205000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -40484,7 +40858,7 @@
         <v>205000</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -40513,7 +40887,7 @@
         <v>205000</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:9">
@@ -40542,7 +40916,7 @@
         <v>11300</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -40571,11 +40945,11 @@
         <v>201500</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>945</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" ht="30" hidden="1" spans="1:9">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>261</v>
       </c>
       <c r="B7" s="15">
@@ -40649,7 +41023,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="D12" t="s">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="I12" s="20">
         <v>695000</v>
@@ -40657,7 +41031,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="D13" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="I13" s="20">
         <f>F2+F3+F4+F5</f>
@@ -40669,7 +41043,7 @@
     </row>
     <row r="15" spans="4:9">
       <c r="D15" t="s">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="I15" s="20">
         <f>I12-I13</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="23400" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Ustadz Fauzan" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$608</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$620</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970">
   <si>
     <t>Dibayar</t>
   </si>
@@ -2835,6 +2835,27 @@
   </si>
   <si>
     <t>BL171114QBXIELC</t>
+  </si>
+  <si>
+    <t>BL171114QM3XELC</t>
+  </si>
+  <si>
+    <t>BL171114QSDIELC </t>
+  </si>
+  <si>
+    <t>BL171114R2F3ELC</t>
+  </si>
+  <si>
+    <t>BL17114DKKLSINV</t>
+  </si>
+  <si>
+    <t>BL17114DKLAXINV</t>
+  </si>
+  <si>
+    <t>BL171114R35DELC </t>
+  </si>
+  <si>
+    <t>BL17114DQLSNINV</t>
   </si>
   <si>
     <t>NO TRANSAKSI</t>
@@ -2920,13 +2941,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2991,6 +3012,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3006,59 +3042,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3079,40 +3071,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3128,9 +3088,70 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3161,7 +3182,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3173,25 +3302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3203,91 +3320,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3299,49 +3356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3529,24 +3550,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3566,11 +3583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3599,6 +3622,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3613,25 +3645,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3643,137 +3664,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3782,7 +3803,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3790,7 +3811,7 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3892,20 +3913,21 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
@@ -3964,16 +3986,16 @@
   </cellStyles>
   <dxfs count="154">
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="180" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??.0_);_(@_)"/>
@@ -4000,406 +4022,406 @@
       <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="184" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??.0_);_(@_)"/>
@@ -4466,7 +4488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="105410" y="2638425"/>
-          <a:ext cx="3314700" cy="2838450"/>
+          <a:ext cx="3641090" cy="2838450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17048,288 +17070,288 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="15.1428571428571" style="15" customWidth="1"/>
-    <col min="3" max="3" width="27.8095238095238" customWidth="1"/>
-    <col min="4" max="4" width="20.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="25.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="13.8571428571429"/>
-    <col min="7" max="7" width="14.4285714285714" style="18"/>
+    <col min="1" max="1" width="21.425" customWidth="1"/>
+    <col min="2" max="2" width="15.1416666666667" style="15" customWidth="1"/>
+    <col min="3" max="3" width="27.8083333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.8583333333333" customWidth="1"/>
+    <col min="5" max="5" width="25.425" customWidth="1"/>
+    <col min="6" max="6" width="13.8583333333333"/>
+    <col min="7" max="7" width="14.425" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="80">
         <v>42862</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="79">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="83">
         <v>42883</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="85">
         <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="83">
         <v>42920</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="85">
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="83">
         <v>42946</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="85">
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="83">
         <v>42946</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="85">
         <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="83">
         <v>42962</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="85">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="83">
         <v>42869</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="85">
         <v>50500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="83">
         <v>42882</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="85">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="83">
         <v>42883</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="85">
         <v>50500</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="83">
         <v>42938</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="85">
         <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89">
         <v>851000</v>
       </c>
     </row>
@@ -17708,27 +17730,27 @@
   <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B615" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B601" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I620" sqref="I620"/>
+      <selection pane="bottomRight" activeCell="I629" sqref="I629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="21.3714285714286" customWidth="1"/>
-    <col min="4" max="4" width="25.2857142857143" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.8761904761905" style="41" customWidth="1"/>
-    <col min="6" max="6" width="11.5714285714286" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="22.7166666666667" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.71666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="25.2833333333333" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.575" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.1416666666667" customWidth="1"/>
     <col min="8" max="8" width="10" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.5714285714286" style="18" customWidth="1"/>
-    <col min="10" max="10" width="13.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="11.7142857142857" style="18"/>
-    <col min="12" max="14" width="10.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="13.575" style="18" customWidth="1"/>
+    <col min="10" max="10" width="13.575" customWidth="1"/>
+    <col min="11" max="11" width="11.7166666666667" style="18"/>
+    <col min="12" max="14" width="10.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -17890,7 +17912,7 @@
         <v>-48925</v>
       </c>
     </row>
-    <row r="7" ht="45" spans="1:11">
+    <row r="7" ht="30" spans="1:11">
       <c r="A7" s="16"/>
       <c r="B7" s="48">
         <v>42825</v>
@@ -18358,7 +18380,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" ht="45" spans="1:11">
+    <row r="23" ht="30" spans="1:11">
       <c r="A23" s="16"/>
       <c r="B23" s="48">
         <v>42833</v>
@@ -18539,7 +18561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="30" spans="1:12">
+    <row r="29" spans="1:12">
       <c r="A29" s="16"/>
       <c r="B29" s="48">
         <v>42834</v>
@@ -19039,7 +19061,7 @@
       </c>
       <c r="L43" s="52"/>
     </row>
-    <row r="44" ht="45" spans="1:12">
+    <row r="44" ht="30" spans="1:12">
       <c r="A44" s="16"/>
       <c r="B44" s="48">
         <v>42840</v>
@@ -19075,7 +19097,7 @@
       </c>
       <c r="L44" s="52"/>
     </row>
-    <row r="45" ht="30" spans="1:11">
+    <row r="45" spans="1:11">
       <c r="A45" s="16"/>
       <c r="B45" s="48">
         <v>42840</v>
@@ -19276,7 +19298,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="51" ht="30" spans="1:11">
+    <row r="51" spans="1:11">
       <c r="A51" s="16"/>
       <c r="B51" s="48">
         <v>42841</v>
@@ -19375,7 +19397,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="54" ht="45" spans="1:11">
+    <row r="54" ht="30" spans="1:11">
       <c r="A54" s="16"/>
       <c r="B54" s="48">
         <v>42841</v>
@@ -19614,7 +19636,7 @@
         <v>21075</v>
       </c>
     </row>
-    <row r="61" ht="45" spans="1:11">
+    <row r="61" ht="30" spans="1:11">
       <c r="A61" s="16"/>
       <c r="B61" s="48">
         <v>42843</v>
@@ -20061,7 +20083,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="74" ht="30" spans="1:11">
+    <row r="74" spans="1:11">
       <c r="A74" s="16"/>
       <c r="B74" s="48">
         <v>42845</v>
@@ -20201,7 +20223,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="78" ht="30" spans="1:11">
+    <row r="78" spans="1:11">
       <c r="A78" s="16" t="s">
         <v>162</v>
       </c>
@@ -20309,7 +20331,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="81" ht="30" spans="1:11">
+    <row r="81" spans="1:11">
       <c r="A81" s="16" t="s">
         <v>169</v>
       </c>
@@ -20420,7 +20442,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="84" ht="45" spans="1:11">
+    <row r="84" ht="30" spans="1:11">
       <c r="A84" s="16" t="s">
         <v>178</v>
       </c>
@@ -20741,7 +20763,7 @@
       <c r="M92" s="52"/>
       <c r="N92" s="52"/>
     </row>
-    <row r="93" ht="45" spans="1:11">
+    <row r="93" ht="30" spans="1:11">
       <c r="A93" s="54" t="s">
         <v>197</v>
       </c>
@@ -21720,7 +21742,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="121" ht="30" spans="1:11">
+    <row r="121" spans="1:11">
       <c r="A121" s="16"/>
       <c r="B121" s="48">
         <v>42855</v>
@@ -21894,7 +21916,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="126" ht="30" spans="1:11">
+    <row r="126" spans="1:11">
       <c r="A126" s="57" t="s">
         <v>253</v>
       </c>
@@ -22039,8 +22061,8 @@
         <v>18575</v>
       </c>
     </row>
-    <row r="130" ht="30" spans="1:11">
-      <c r="A130" s="89" t="s">
+    <row r="130" spans="1:11">
+      <c r="A130" s="90" t="s">
         <v>259</v>
       </c>
       <c r="B130" s="48">
@@ -22077,7 +22099,7 @@
       </c>
     </row>
     <row r="131" ht="30" spans="1:11">
-      <c r="A131" s="89" t="s">
+      <c r="A131" s="90" t="s">
         <v>261</v>
       </c>
       <c r="B131" s="48">
@@ -22111,8 +22133,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="132" ht="30" spans="1:11">
-      <c r="A132" s="89" t="s">
+    <row r="132" spans="1:11">
+      <c r="A132" s="90" t="s">
         <v>264</v>
       </c>
       <c r="B132" s="48">
@@ -22148,8 +22170,8 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="133" ht="30" spans="1:11">
-      <c r="A133" s="89" t="s">
+    <row r="133" spans="1:11">
+      <c r="A133" s="90" t="s">
         <v>266</v>
       </c>
       <c r="B133" s="48">
@@ -22223,7 +22245,7 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="89" t="s">
+      <c r="A135" s="90" t="s">
         <v>272</v>
       </c>
       <c r="B135" s="48">
@@ -22259,8 +22281,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="136" ht="30" spans="1:11">
-      <c r="A136" s="89" t="s">
+    <row r="136" spans="1:11">
+      <c r="A136" s="90" t="s">
         <v>273</v>
       </c>
       <c r="B136" s="48">
@@ -22296,8 +22318,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="137" ht="30" spans="1:11">
-      <c r="A137" s="89" t="s">
+    <row r="137" spans="1:11">
+      <c r="A137" s="90" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="48">
@@ -22334,7 +22356,7 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="89" t="s">
+      <c r="A138" s="90" t="s">
         <v>278</v>
       </c>
       <c r="B138" s="48">
@@ -22368,7 +22390,7 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="89" t="s">
+      <c r="A139" s="90" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="48">
@@ -22441,7 +22463,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="141" ht="30" spans="1:11">
+    <row r="141" spans="1:11">
       <c r="A141" s="14" t="s">
         <v>281</v>
       </c>
@@ -22478,7 +22500,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="142" ht="45" spans="1:11">
+    <row r="142" ht="30" spans="1:11">
       <c r="A142" s="14" t="s">
         <v>282</v>
       </c>
@@ -22515,7 +22537,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="143" ht="30" spans="1:11">
+    <row r="143" spans="1:11">
       <c r="A143" s="14" t="s">
         <v>285</v>
       </c>
@@ -22627,7 +22649,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="89" t="s">
+      <c r="A146" s="90" t="s">
         <v>289</v>
       </c>
       <c r="B146" s="48">
@@ -22661,7 +22683,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="89" t="s">
+      <c r="A147" s="90" t="s">
         <v>292</v>
       </c>
       <c r="B147" s="48">
@@ -22695,7 +22717,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="89" t="s">
+      <c r="A148" s="90" t="s">
         <v>294</v>
       </c>
       <c r="B148" s="48">
@@ -22729,7 +22751,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="89" t="s">
+      <c r="A149" s="90" t="s">
         <v>296</v>
       </c>
       <c r="B149" s="48">
@@ -22763,7 +22785,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="89" t="s">
+      <c r="A150" s="90" t="s">
         <v>9</v>
       </c>
       <c r="B150" s="48">
@@ -22797,7 +22819,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="89" t="s">
+      <c r="A151" s="90" t="s">
         <v>298</v>
       </c>
       <c r="B151" s="48">
@@ -22868,7 +22890,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="89" t="s">
+      <c r="A153" s="90" t="s">
         <v>304</v>
       </c>
       <c r="B153" s="48">
@@ -22902,7 +22924,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="89" t="s">
+      <c r="A154" s="90" t="s">
         <v>305</v>
       </c>
       <c r="B154" s="48">
@@ -22973,7 +22995,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="89" t="s">
+      <c r="A156" s="90" t="s">
         <v>310</v>
       </c>
       <c r="B156" s="48">
@@ -23044,7 +23066,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="89" t="s">
+      <c r="A158" s="90" t="s">
         <v>313</v>
       </c>
       <c r="B158" s="48">
@@ -23115,7 +23137,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="89" t="s">
+      <c r="A160" s="90" t="s">
         <v>315</v>
       </c>
       <c r="B160" s="48">
@@ -23186,7 +23208,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="89" t="s">
+      <c r="A162" s="90" t="s">
         <v>319</v>
       </c>
       <c r="B162" s="48">
@@ -23220,7 +23242,7 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="89" t="s">
+      <c r="A163" s="90" t="s">
         <v>320</v>
       </c>
       <c r="B163" s="48">
@@ -23254,7 +23276,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="89" t="s">
+      <c r="A164" s="90" t="s">
         <v>321</v>
       </c>
       <c r="B164" s="48">
@@ -23285,7 +23307,7 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="89" t="s">
+      <c r="A165" s="90" t="s">
         <v>324</v>
       </c>
       <c r="B165" s="48">
@@ -23319,7 +23341,7 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="89" t="s">
+      <c r="A166" s="90" t="s">
         <v>325</v>
       </c>
       <c r="B166" s="48">
@@ -23353,7 +23375,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="89" t="s">
+      <c r="A167" s="90" t="s">
         <v>328</v>
       </c>
       <c r="B167" s="48">
@@ -23517,7 +23539,7 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="89" t="s">
+      <c r="A172" s="90" t="s">
         <v>336</v>
       </c>
       <c r="B172" s="48">
@@ -23550,7 +23572,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="173" ht="30" spans="1:11">
+    <row r="173" spans="1:11">
       <c r="A173" s="59" t="s">
         <v>337</v>
       </c>
@@ -23624,7 +23646,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="175" ht="45" spans="1:11">
+    <row r="175" ht="30" spans="1:11">
       <c r="A175" s="58" t="s">
         <v>342</v>
       </c>
@@ -23809,7 +23831,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="180" ht="30" spans="1:11">
+    <row r="180" spans="1:11">
       <c r="A180" s="58" t="s">
         <v>351</v>
       </c>
@@ -23846,7 +23868,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="181" ht="30" spans="1:11">
+    <row r="181" spans="1:11">
       <c r="A181" s="58" t="s">
         <v>352</v>
       </c>
@@ -23883,7 +23905,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="182" ht="45" spans="1:11">
+    <row r="182" ht="30" spans="1:11">
       <c r="A182" s="58" t="s">
         <v>353</v>
       </c>
@@ -24068,7 +24090,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="187" ht="45" spans="1:11">
+    <row r="187" ht="30" spans="1:11">
       <c r="A187" s="59" t="s">
         <v>361</v>
       </c>
@@ -24142,7 +24164,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="189" ht="30" spans="1:11">
+    <row r="189" spans="1:11">
       <c r="A189" s="58" t="s">
         <v>363</v>
       </c>
@@ -24250,7 +24272,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="192" ht="30" spans="1:11">
+    <row r="192" spans="1:11">
       <c r="A192" s="58" t="s">
         <v>366</v>
       </c>
@@ -24569,7 +24591,7 @@
       <c r="C201" t="s">
         <v>120</v>
       </c>
-      <c r="D201" s="90" t="s">
+      <c r="D201" s="91" t="s">
         <v>378</v>
       </c>
       <c r="F201" s="18">
@@ -24794,7 +24816,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="208" ht="67.5" spans="1:11">
+    <row r="208" ht="54" spans="1:11">
       <c r="A208" s="58" t="s">
         <v>387</v>
       </c>
@@ -25137,7 +25159,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="218" ht="30" spans="1:11">
+    <row r="218" spans="1:11">
       <c r="A218" s="58" t="s">
         <v>398</v>
       </c>
@@ -25211,7 +25233,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="220" ht="30" spans="1:11">
+    <row r="220" spans="1:11">
       <c r="A220" s="58" t="s">
         <v>404</v>
       </c>
@@ -25248,7 +25270,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="221" ht="45" spans="1:11">
+    <row r="221" ht="30" spans="1:11">
       <c r="A221" s="59" t="s">
         <v>405</v>
       </c>
@@ -25285,7 +25307,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="222" ht="45" spans="1:11">
+    <row r="222" ht="30" spans="1:11">
       <c r="A222" s="59" t="s">
         <v>409</v>
       </c>
@@ -25356,7 +25378,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="224" ht="60" spans="1:11">
+    <row r="224" ht="45" spans="1:11">
       <c r="A224" s="14" t="s">
         <v>414</v>
       </c>
@@ -25981,7 +26003,7 @@
       <c r="C242" t="s">
         <v>454</v>
       </c>
-      <c r="D242" s="90" t="s">
+      <c r="D242" s="91" t="s">
         <v>378</v>
       </c>
       <c r="F242" s="18">
@@ -26419,7 +26441,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="255" ht="45" spans="1:11">
+    <row r="255" ht="30" spans="1:11">
       <c r="A255" s="63" t="s">
         <v>472</v>
       </c>
@@ -26490,7 +26512,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="257" ht="30" spans="1:11">
+    <row r="257" spans="1:11">
       <c r="A257" s="63" t="s">
         <v>474</v>
       </c>
@@ -26660,7 +26682,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="262" ht="30" spans="1:11">
+    <row r="262" spans="1:11">
       <c r="A262" s="63" t="s">
         <v>478</v>
       </c>
@@ -26762,7 +26784,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="265" ht="60" spans="1:11">
+    <row r="265" ht="45" spans="1:11">
       <c r="A265" s="62" t="s">
         <v>481</v>
       </c>
@@ -26991,7 +27013,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="272" ht="30" spans="1:11">
+    <row r="272" spans="1:11">
       <c r="A272" s="62" t="s">
         <v>490</v>
       </c>
@@ -27096,7 +27118,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="275" ht="30" spans="1:11">
+    <row r="275" spans="1:11">
       <c r="A275" s="63" t="s">
         <v>494</v>
       </c>
@@ -27130,7 +27152,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="276" ht="30" spans="1:11">
+    <row r="276" spans="1:11">
       <c r="A276" s="63" t="s">
         <v>495</v>
       </c>
@@ -27164,7 +27186,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="277" ht="30" spans="1:11">
+    <row r="277" spans="1:11">
       <c r="A277" s="62" t="s">
         <v>496</v>
       </c>
@@ -27328,7 +27350,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="282" ht="45" spans="1:11">
+    <row r="282" ht="30" spans="1:11">
       <c r="A282" s="62" t="s">
         <v>507</v>
       </c>
@@ -27458,7 +27480,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="286" ht="27" spans="1:11">
+    <row r="286" spans="1:11">
       <c r="A286" s="62" t="s">
         <v>511</v>
       </c>
@@ -27526,7 +27548,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="288" ht="30" spans="1:11">
+    <row r="288" spans="1:11">
       <c r="A288" s="63" t="s">
         <v>516</v>
       </c>
@@ -27641,7 +27663,7 @@
       <c r="C291" t="s">
         <v>35</v>
       </c>
-      <c r="D291" s="90" t="s">
+      <c r="D291" s="91" t="s">
         <v>155</v>
       </c>
       <c r="E291" t="s">
@@ -27733,7 +27755,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="294" ht="27" spans="1:11">
+    <row r="294" spans="1:11">
       <c r="A294" s="62" t="s">
         <v>511</v>
       </c>
@@ -27835,7 +27857,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="297" ht="30" spans="1:11">
+    <row r="297" spans="1:11">
       <c r="A297" s="62" t="s">
         <v>522</v>
       </c>
@@ -27906,7 +27928,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="299" ht="45" spans="1:11">
+    <row r="299" ht="30" spans="1:11">
       <c r="A299" s="62" t="s">
         <v>525</v>
       </c>
@@ -27950,7 +27972,7 @@
       <c r="C300" t="s">
         <v>454</v>
       </c>
-      <c r="D300" s="90" t="s">
+      <c r="D300" s="91" t="s">
         <v>378</v>
       </c>
       <c r="F300" s="18">
@@ -27971,7 +27993,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="301" ht="45" spans="1:11">
+    <row r="301" ht="30" spans="1:11">
       <c r="A301" s="62" t="s">
         <v>527</v>
       </c>
@@ -28076,7 +28098,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="304" ht="60" spans="1:11">
+    <row r="304" ht="45" spans="1:11">
       <c r="A304" s="62" t="s">
         <v>531</v>
       </c>
@@ -28150,7 +28172,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="306" ht="30" spans="1:11">
+    <row r="306" spans="1:11">
       <c r="A306" s="62" t="s">
         <v>533</v>
       </c>
@@ -28295,7 +28317,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="310" ht="30" spans="1:11">
+    <row r="310" spans="1:11">
       <c r="A310" s="63" t="s">
         <v>540</v>
       </c>
@@ -28852,7 +28874,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="326" ht="30" spans="1:11">
+    <row r="326" spans="1:11">
       <c r="A326" s="62" t="s">
         <v>566</v>
       </c>
@@ -29211,7 +29233,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="337" ht="30" spans="1:11">
+    <row r="337" spans="1:11">
       <c r="A337" s="63" t="s">
         <v>584</v>
       </c>
@@ -29409,7 +29431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" ht="30" spans="1:11">
+    <row r="343" spans="1:11">
       <c r="A343" s="62" t="s">
         <v>591</v>
       </c>
@@ -29514,7 +29536,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="346" ht="45" spans="1:11">
+    <row r="346" ht="30" spans="1:11">
       <c r="A346" s="62" t="s">
         <v>596</v>
       </c>
@@ -29551,7 +29573,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="347" ht="60" spans="1:11">
+    <row r="347" ht="45" spans="1:11">
       <c r="A347" s="62" t="s">
         <v>597</v>
       </c>
@@ -29727,7 +29749,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="352" ht="30" spans="1:11">
+    <row r="352" spans="1:11">
       <c r="A352" s="62" t="s">
         <v>602</v>
       </c>
@@ -29801,7 +29823,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="354" ht="30" spans="1:11">
+    <row r="354" spans="1:11">
       <c r="A354" s="62" t="s">
         <v>604</v>
       </c>
@@ -29906,7 +29928,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="357" ht="30" spans="1:11">
+    <row r="357" spans="1:11">
       <c r="A357" s="62" t="s">
         <v>610</v>
       </c>
@@ -29940,7 +29962,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="358" ht="30" spans="1:11">
+    <row r="358" spans="1:11">
       <c r="A358" s="62" t="s">
         <v>611</v>
       </c>
@@ -29977,7 +29999,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="359" ht="30" spans="1:11">
+    <row r="359" spans="1:11">
       <c r="A359" s="62" t="s">
         <v>612</v>
       </c>
@@ -30051,7 +30073,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="361" ht="45" spans="1:11">
+    <row r="361" ht="30" spans="1:11">
       <c r="A361" s="62" t="s">
         <v>617</v>
       </c>
@@ -30123,7 +30145,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="363" ht="30" spans="1:11">
+    <row r="363" spans="1:11">
       <c r="A363" s="62" t="s">
         <v>612</v>
       </c>
@@ -30197,7 +30219,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="365" ht="45" spans="1:11">
+    <row r="365" ht="30" spans="1:11">
       <c r="A365" s="62" t="s">
         <v>617</v>
       </c>
@@ -30302,7 +30324,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="368" ht="45" spans="1:11">
+    <row r="368" ht="30" spans="1:11">
       <c r="A368" s="62" t="s">
         <v>624</v>
       </c>
@@ -30376,7 +30398,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="370" ht="60" spans="1:11">
+    <row r="370" ht="45" spans="1:11">
       <c r="A370" s="62" t="s">
         <v>627</v>
       </c>
@@ -30626,7 +30648,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="377" ht="30" spans="1:11">
+    <row r="377" spans="1:11">
       <c r="A377" s="62" t="s">
         <v>635</v>
       </c>
@@ -30663,7 +30685,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="378" ht="45" spans="1:11">
+    <row r="378" ht="30" spans="1:11">
       <c r="A378" s="62" t="s">
         <v>636</v>
       </c>
@@ -30737,7 +30759,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="380" ht="30" spans="1:11">
+    <row r="380" spans="1:11">
       <c r="A380" s="63" t="s">
         <v>638</v>
       </c>
@@ -30774,7 +30796,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="381" ht="30" spans="1:11">
+    <row r="381" spans="1:11">
       <c r="A381" s="62" t="s">
         <v>639</v>
       </c>
@@ -30947,7 +30969,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="386" ht="45" spans="1:11">
+    <row r="386" ht="30" spans="1:11">
       <c r="A386" s="62" t="s">
         <v>644</v>
       </c>
@@ -31089,7 +31111,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="390" ht="30" spans="1:11">
+    <row r="390" spans="1:11">
       <c r="A390" s="62" t="s">
         <v>649</v>
       </c>
@@ -31163,7 +31185,7 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="392" ht="30" spans="1:11">
+    <row r="392" spans="1:11">
       <c r="A392" s="62" t="s">
         <v>653</v>
       </c>
@@ -31262,7 +31284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" ht="45" spans="1:11">
+    <row r="395" ht="30" spans="1:11">
       <c r="A395" s="62" t="s">
         <v>658</v>
       </c>
@@ -31407,7 +31429,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="399" ht="30" spans="1:11">
+    <row r="399" spans="1:11">
       <c r="A399" s="62" t="s">
         <v>665</v>
       </c>
@@ -31688,7 +31710,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="407" ht="30" spans="1:11">
+    <row r="407" spans="1:11">
       <c r="A407" s="62" t="s">
         <v>673</v>
       </c>
@@ -31864,7 +31886,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="412" ht="30.75" spans="1:11">
+    <row r="412" ht="15.75" spans="1:11">
       <c r="A412" s="63" t="s">
         <v>678</v>
       </c>
@@ -31901,7 +31923,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="413" ht="27" spans="1:11">
+    <row r="413" spans="1:11">
       <c r="A413" s="63" t="s">
         <v>679</v>
       </c>
@@ -32046,7 +32068,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="417" ht="30" spans="1:11">
+    <row r="417" spans="1:11">
       <c r="A417" s="62" t="s">
         <v>686</v>
       </c>
@@ -32188,7 +32210,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="421" ht="30" spans="1:11">
+    <row r="421" spans="1:11">
       <c r="A421" s="63" t="s">
         <v>689</v>
       </c>
@@ -32404,7 +32426,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="427" ht="45" spans="1:11">
+    <row r="427" ht="30" spans="1:11">
       <c r="A427" s="62" t="s">
         <v>696</v>
       </c>
@@ -32614,7 +32636,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="433" ht="30" spans="1:11">
+    <row r="433" spans="1:11">
       <c r="A433" s="63" t="s">
         <v>703</v>
       </c>
@@ -33040,7 +33062,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="445" ht="60" spans="1:11">
+    <row r="445" ht="45" spans="1:11">
       <c r="A445" s="62" t="s">
         <v>718</v>
       </c>
@@ -33185,7 +33207,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="449" ht="45" spans="1:11">
+    <row r="449" ht="30" spans="1:11">
       <c r="A449" s="62" t="s">
         <v>723</v>
       </c>
@@ -33290,7 +33312,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="452" ht="30" spans="1:11">
+    <row r="452" spans="1:11">
       <c r="A452" s="62" t="s">
         <v>729</v>
       </c>
@@ -33361,7 +33383,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="454" ht="30" spans="1:11">
+    <row r="454" spans="1:11">
       <c r="A454" s="62" t="s">
         <v>731</v>
       </c>
@@ -33398,7 +33420,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="455" ht="30" spans="1:11">
+    <row r="455" spans="1:11">
       <c r="A455" s="62" t="s">
         <v>732</v>
       </c>
@@ -33815,7 +33837,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="467" ht="30" spans="1:11">
+    <row r="467" spans="1:11">
       <c r="A467" s="62" t="s">
         <v>746</v>
       </c>
@@ -33852,7 +33874,7 @@
         <v>2432.5</v>
       </c>
     </row>
-    <row r="468" ht="60" spans="1:11">
+    <row r="468" ht="45" spans="1:11">
       <c r="A468" s="63" t="s">
         <v>747</v>
       </c>
@@ -34179,7 +34201,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="477" ht="30" spans="1:11">
+    <row r="477" spans="1:11">
       <c r="A477" s="62" t="s">
         <v>757</v>
       </c>
@@ -34250,7 +34272,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="479" ht="30" spans="1:11">
+    <row r="479" spans="1:11">
       <c r="A479" s="62" t="s">
         <v>759</v>
       </c>
@@ -34630,7 +34652,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="490" ht="30" spans="1:11">
+    <row r="490" spans="1:11">
       <c r="A490" s="62" t="s">
         <v>773</v>
       </c>
@@ -34698,7 +34720,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="492" ht="60" spans="1:11">
+    <row r="492" ht="45" spans="1:11">
       <c r="A492" s="62" t="s">
         <v>774</v>
       </c>
@@ -34880,7 +34902,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="497" ht="30" spans="1:11">
+    <row r="497" spans="1:11">
       <c r="A497" s="63" t="s">
         <v>779</v>
       </c>
@@ -34914,7 +34936,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="498" ht="30" spans="1:11">
+    <row r="498" spans="1:11">
       <c r="A498" s="62" t="s">
         <v>780</v>
       </c>
@@ -35210,7 +35232,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="506" ht="27" spans="1:11">
+    <row r="506" spans="1:11">
       <c r="A506" s="62" t="s">
         <v>790</v>
       </c>
@@ -35318,7 +35340,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="509" ht="30" spans="1:11">
+    <row r="509" spans="1:11">
       <c r="A509" s="62" t="s">
         <v>793</v>
       </c>
@@ -35355,7 +35377,7 @@
         <v>2432.5</v>
       </c>
     </row>
-    <row r="510" ht="45" spans="1:11">
+    <row r="510" ht="30" spans="1:11">
       <c r="A510" s="62" t="s">
         <v>794</v>
       </c>
@@ -35677,7 +35699,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="519" ht="30" spans="1:11">
+    <row r="519" spans="1:11">
       <c r="A519" s="62" t="s">
         <v>806</v>
       </c>
@@ -35714,7 +35736,7 @@
         <v>932.5</v>
       </c>
     </row>
-    <row r="520" ht="45" spans="1:11">
+    <row r="520" ht="30" spans="1:11">
       <c r="A520" s="62" t="s">
         <v>807</v>
       </c>
@@ -36060,7 +36082,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="530" ht="60" spans="1:11">
+    <row r="530" ht="45" spans="1:11">
       <c r="A530" s="62" t="s">
         <v>818</v>
       </c>
@@ -36342,7 +36364,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="538" ht="30" spans="1:11">
+    <row r="538" spans="1:11">
       <c r="A538" s="62" t="s">
         <v>827</v>
       </c>
@@ -36614,7 +36636,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="546" ht="30" spans="1:11">
+    <row r="546" spans="1:11">
       <c r="A546" s="62" t="s">
         <v>835</v>
       </c>
@@ -36793,7 +36815,7 @@
         <v>3480.75</v>
       </c>
     </row>
-    <row r="551" ht="30" spans="1:11">
+    <row r="551" spans="1:11">
       <c r="A551" s="62" t="s">
         <v>843</v>
       </c>
@@ -36932,7 +36954,7 @@
         <v>8925</v>
       </c>
     </row>
-    <row r="555" ht="30" spans="1:11">
+    <row r="555" spans="1:11">
       <c r="A555" s="62" t="s">
         <v>853</v>
       </c>
@@ -36969,7 +36991,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="556" ht="30" spans="1:11">
+    <row r="556" spans="1:11">
       <c r="A556" s="62" t="s">
         <v>854</v>
       </c>
@@ -37077,7 +37099,7 @@
         <v>20575</v>
       </c>
     </row>
-    <row r="559" ht="30" spans="1:11">
+    <row r="559" spans="1:11">
       <c r="A559" s="62" t="s">
         <v>857</v>
       </c>
@@ -37198,7 +37220,7 @@
       <c r="C562" t="s">
         <v>866</v>
       </c>
-      <c r="D562" s="90" t="s">
+      <c r="D562" s="91" t="s">
         <v>867</v>
       </c>
       <c r="E562" s="41" t="s">
@@ -37256,7 +37278,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="564" ht="45" spans="1:11">
+    <row r="564" ht="30" spans="1:11">
       <c r="A564" s="63" t="s">
         <v>870</v>
       </c>
@@ -37534,7 +37556,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="572" ht="30" spans="1:11">
+    <row r="572" spans="1:11">
       <c r="A572" s="62" t="s">
         <v>880</v>
       </c>
@@ -37713,7 +37735,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="577" ht="60" spans="1:11">
+    <row r="577" ht="45" spans="1:11">
       <c r="A577" s="63" t="s">
         <v>886</v>
       </c>
@@ -37809,7 +37831,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="580" ht="30" spans="1:11">
+    <row r="580" spans="1:11">
       <c r="A580" s="62" t="s">
         <v>889</v>
       </c>
@@ -37846,7 +37868,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="581" ht="45" spans="1:11">
+    <row r="581" ht="30" spans="1:11">
       <c r="A581" s="62" t="s">
         <v>890</v>
       </c>
@@ -38096,7 +38118,7 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="588" ht="45" spans="1:11">
+    <row r="588" ht="30" spans="1:11">
       <c r="A588" s="63" t="s">
         <v>899</v>
       </c>
@@ -38130,7 +38152,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="589" ht="30" spans="1:11">
+    <row r="589" spans="1:11">
       <c r="A589" s="63" t="s">
         <v>900</v>
       </c>
@@ -38201,7 +38223,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="591" ht="45" spans="1:11">
+    <row r="591" ht="30" spans="1:11">
       <c r="A591" s="62" t="s">
         <v>901</v>
       </c>
@@ -38522,7 +38544,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="600" ht="60.75" spans="1:11">
+    <row r="600" ht="45.75" spans="1:11">
       <c r="A600" s="62" t="s">
         <v>910</v>
       </c>
@@ -38556,7 +38578,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="601" ht="40.5" spans="1:11">
+    <row r="601" ht="27" spans="1:11">
       <c r="A601" s="62" t="s">
         <v>911</v>
       </c>
@@ -38807,7 +38829,7 @@
       </c>
     </row>
     <row r="608" spans="1:11">
-      <c r="A608" s="73" t="s">
+      <c r="A608" s="62" t="s">
         <v>922</v>
       </c>
       <c r="B608" s="48">
@@ -38841,7 +38863,7 @@
       </c>
     </row>
     <row r="609" ht="15.75" spans="1:11">
-      <c r="A609" s="73" t="s">
+      <c r="A609" s="62" t="s">
         <v>923</v>
       </c>
       <c r="B609" s="48">
@@ -38874,8 +38896,8 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="610" ht="27" spans="1:11">
-      <c r="A610" s="73" t="s">
+    <row r="610" spans="1:11">
+      <c r="A610" s="62" t="s">
         <v>924</v>
       </c>
       <c r="B610" s="48">
@@ -38912,7 +38934,7 @@
       </c>
     </row>
     <row r="611" spans="1:11">
-      <c r="A611" s="73" t="s">
+      <c r="A611" s="62" t="s">
         <v>925</v>
       </c>
       <c r="B611" s="48">
@@ -38949,7 +38971,7 @@
       </c>
     </row>
     <row r="612" spans="1:11">
-      <c r="A612" s="73" t="s">
+      <c r="A612" s="62" t="s">
         <v>927</v>
       </c>
       <c r="B612" s="48">
@@ -38985,8 +39007,8 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="613" ht="30" spans="1:11">
-      <c r="A613" s="73" t="s">
+    <row r="613" spans="1:11">
+      <c r="A613" s="62" t="s">
         <v>928</v>
       </c>
       <c r="B613" s="48">
@@ -39023,7 +39045,7 @@
       </c>
     </row>
     <row r="614" spans="1:11">
-      <c r="A614" s="73" t="s">
+      <c r="A614" s="62" t="s">
         <v>929</v>
       </c>
       <c r="B614" s="48">
@@ -39060,7 +39082,7 @@
       </c>
     </row>
     <row r="615" spans="1:11">
-      <c r="A615" s="73" t="s">
+      <c r="A615" s="62" t="s">
         <v>931</v>
       </c>
       <c r="B615" s="48">
@@ -39097,7 +39119,7 @@
       </c>
     </row>
     <row r="616" spans="1:11">
-      <c r="A616" s="73" t="s">
+      <c r="A616" s="62" t="s">
         <v>932</v>
       </c>
       <c r="B616" s="48">
@@ -39134,7 +39156,7 @@
       </c>
     </row>
     <row r="617" spans="1:11">
-      <c r="A617" s="73" t="s">
+      <c r="A617" s="62" t="s">
         <v>934</v>
       </c>
       <c r="B617" s="48">
@@ -39171,7 +39193,7 @@
       </c>
     </row>
     <row r="618" ht="30" spans="1:11">
-      <c r="A618" s="73" t="s">
+      <c r="A618" s="62" t="s">
         <v>935</v>
       </c>
       <c r="B618" s="48">
@@ -39207,8 +39229,8 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="619" ht="30" spans="1:11">
-      <c r="A619" s="73" t="s">
+    <row r="619" spans="1:11">
+      <c r="A619" s="62" t="s">
         <v>936</v>
       </c>
       <c r="B619" s="48">
@@ -39232,7 +39254,9 @@
       <c r="H619" s="18">
         <v>51500</v>
       </c>
-      <c r="I619" s="19"/>
+      <c r="I619" s="19" t="s">
+        <v>920</v>
+      </c>
       <c r="J619">
         <f t="shared" si="26"/>
         <v>2575</v>
@@ -39242,77 +39266,260 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="620" spans="2:11">
+    <row r="620" spans="1:11">
+      <c r="A620" s="73" t="s">
+        <v>937</v>
+      </c>
       <c r="B620" s="48">
-        <v>42969</v>
+        <v>42970</v>
+      </c>
+      <c r="C620" t="s">
+        <v>88</v>
+      </c>
+      <c r="D620" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E620" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="F620" s="18">
+        <v>100000</v>
+      </c>
+      <c r="G620" t="s">
+        <v>16</v>
+      </c>
+      <c r="H620" s="18">
+        <v>102500</v>
+      </c>
+      <c r="I620" s="19" t="s">
+        <v>920</v>
       </c>
       <c r="J620">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5125</v>
       </c>
       <c r="K620" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="10:11">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="621" ht="30.75" spans="1:11">
+      <c r="A621" s="73" t="s">
+        <v>938</v>
+      </c>
+      <c r="B621" s="48">
+        <v>42970</v>
+      </c>
+      <c r="C621" t="s">
+        <v>179</v>
+      </c>
+      <c r="D621" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E621" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F621" s="18">
+        <v>101500</v>
+      </c>
+      <c r="G621" t="s">
+        <v>16</v>
+      </c>
+      <c r="H621" s="18">
+        <v>101500</v>
+      </c>
+      <c r="I621" s="18">
+        <v>100000</v>
+      </c>
       <c r="J621">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="K621" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="10:11">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="622" ht="27" spans="1:11">
+      <c r="A622" s="74" t="s">
+        <v>939</v>
+      </c>
+      <c r="B622" s="48">
+        <v>42970</v>
+      </c>
+      <c r="C622" t="s">
+        <v>912</v>
+      </c>
+      <c r="D622" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="E622" s="65" t="s">
+        <v>914</v>
+      </c>
+      <c r="F622" s="18">
+        <v>21000</v>
+      </c>
+      <c r="G622" t="s">
+        <v>16</v>
+      </c>
+      <c r="H622" s="18">
+        <v>21000</v>
+      </c>
+      <c r="I622" s="18">
+        <v>21000</v>
+      </c>
       <c r="J622">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="K622" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="10:11">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11">
+      <c r="A623" s="74" t="s">
+        <v>940</v>
+      </c>
+      <c r="B623" s="48">
+        <v>42970</v>
+      </c>
+      <c r="C623" t="s">
+        <v>440</v>
+      </c>
+      <c r="D623" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="F623" s="18">
+        <v>12000</v>
+      </c>
+      <c r="G623" t="s">
+        <v>13</v>
+      </c>
+      <c r="H623" s="18">
+        <v>11300</v>
+      </c>
+      <c r="I623" s="18">
+        <v>12000</v>
+      </c>
       <c r="J623">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K623" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="10:11">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11">
+      <c r="A624" s="74" t="s">
+        <v>941</v>
+      </c>
+      <c r="B624" s="48">
+        <v>42970</v>
+      </c>
+      <c r="C624" t="s">
+        <v>415</v>
+      </c>
+      <c r="D624" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="E624" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="F624" s="18">
+        <v>51000</v>
+      </c>
+      <c r="G624" t="s">
+        <v>16</v>
+      </c>
+      <c r="H624" s="18">
+        <v>49500</v>
+      </c>
+      <c r="I624" s="18">
+        <v>51000</v>
+      </c>
       <c r="J624">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2475</v>
       </c>
       <c r="K624" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="10:11">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11">
+      <c r="A625" s="74" t="s">
+        <v>942</v>
+      </c>
+      <c r="B625" s="48">
+        <v>42970</v>
+      </c>
+      <c r="C625" t="s">
+        <v>88</v>
+      </c>
+      <c r="D625" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E625" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="F625" s="18">
+        <v>100000</v>
+      </c>
+      <c r="G625" t="s">
+        <v>16</v>
+      </c>
+      <c r="H625" s="18">
+        <v>102500</v>
+      </c>
+      <c r="I625" s="19" t="s">
+        <v>920</v>
+      </c>
       <c r="J625">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5125</v>
       </c>
       <c r="K625" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="10:11">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11">
+      <c r="A626" s="74" t="s">
+        <v>943</v>
+      </c>
+      <c r="B626" s="48">
+        <v>42970</v>
+      </c>
+      <c r="C626" t="s">
+        <v>415</v>
+      </c>
+      <c r="D626" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="E626" t="s">
+        <v>415</v>
+      </c>
+      <c r="F626" s="18">
+        <v>12000</v>
+      </c>
+      <c r="G626" t="s">
+        <v>13</v>
+      </c>
+      <c r="H626" s="18">
+        <v>11300</v>
+      </c>
+      <c r="I626" s="18">
+        <v>12000</v>
+      </c>
       <c r="J626">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K626" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="627" spans="10:11">
@@ -39486,7 +39693,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I608"/>
+  <autoFilter ref="B1:I620"/>
   <hyperlinks>
     <hyperlink ref="A173" r:id="rId1" display="BL171111JKC7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/795416"/>
     <hyperlink ref="A174" r:id="rId2" display="BL171111JMU2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/798491"/>
@@ -39925,6 +40132,13 @@
     <hyperlink ref="A617" r:id="rId426" display="BL17114D6OKSINV" tooltip="https://www.bukalapak.com/payment/invoices/175816367"/>
     <hyperlink ref="A618" r:id="rId427" display="BL171114QBR8ELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5586917"/>
     <hyperlink ref="A619" r:id="rId428" display="BL171114QBXIELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5587137"/>
+    <hyperlink ref="A620" r:id="rId429" display="BL171114QM3XELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5599577"/>
+    <hyperlink ref="A621" r:id="rId430" display="BL171114QSDIELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5607262"/>
+    <hyperlink ref="A622" r:id="rId431" display="BL171114R2F3ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5618342"/>
+    <hyperlink ref="A623" r:id="rId432" display="BL17114DKKLSINV" tooltip="https://www.bukalapak.com/payment/invoices/176411752"/>
+    <hyperlink ref="A624" r:id="rId433" display="BL17114DKLAXINV" tooltip="https://www.bukalapak.com/payment/invoices/176412597"/>
+    <hyperlink ref="A625" r:id="rId434" display="BL171114R35DELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5619227"/>
+    <hyperlink ref="A626" r:id="rId435" display="BL17114DQLSNINV" tooltip="https://www.bukalapak.com/payment/invoices/176670467"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -39943,28 +40157,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="26.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="24.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="26.7166666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.7166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="37" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -40241,7 +40455,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="27" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -40253,7 +40467,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="38" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="E20" s="39">
         <f>5%*E18</f>
@@ -40262,7 +40476,7 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="38" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="E21" s="39">
         <f>10%*E18</f>
@@ -40289,32 +40503,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.575" customWidth="1"/>
+    <col min="2" max="2" width="15.2833333333333" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="20.2833333333333" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -40393,7 +40607,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -40406,7 +40620,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="10" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="E9" s="31">
         <v>1000000</v>
@@ -40414,7 +40628,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="3" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="E10" s="25">
         <f>E9-E6</f>
@@ -40427,7 +40641,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="23" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="E12" s="25">
         <v>300000</v>
@@ -40435,7 +40649,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="3" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="E13" s="25">
         <v>300000</v>
@@ -40443,7 +40657,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="10" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="E14" s="31">
         <f>E13+E12</f>
@@ -40456,7 +40670,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="10" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="E16" s="31">
         <f>E10-E14</f>
@@ -40691,7 +40905,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="34" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -40704,7 +40918,7 @@
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="10" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="E34" s="13">
         <f>E16</f>
@@ -40721,7 +40935,7 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="10" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="E36" s="13">
         <f>E34+E35</f>
@@ -40734,7 +40948,7 @@
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="10" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="E38" s="13">
         <f>E36-E32</f>
@@ -40761,17 +40975,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="21.2833333333333" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="18.575" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.4285714285714" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="6.85714285714286" customWidth="1"/>
+    <col min="5" max="5" width="10.425" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.2833333333333" customWidth="1"/>
+    <col min="7" max="7" width="6.85833333333333" customWidth="1"/>
     <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="21.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="21.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -40829,7 +41043,7 @@
         <v>205000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -40858,7 +41072,7 @@
         <v>205000</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -40887,7 +41101,7 @@
         <v>205000</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:9">
@@ -40916,7 +41130,7 @@
         <v>11300</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -40945,11 +41159,11 @@
         <v>201500</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
     </row>
     <row r="7" ht="30" hidden="1" spans="1:9">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="90" t="s">
         <v>261</v>
       </c>
       <c r="B7" s="15">
@@ -41023,7 +41237,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="D12" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="I12" s="20">
         <v>695000</v>
@@ -41031,7 +41245,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="D13" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="I13" s="20">
         <f>F2+F3+F4+F5</f>
@@ -41043,7 +41257,7 @@
     </row>
     <row r="15" spans="4:9">
       <c r="D15" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="I15" s="20">
         <f>I12-I13</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Ustadz Fauzan" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$620</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$626</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977">
   <si>
     <t>Dibayar</t>
   </si>
@@ -2856,6 +2856,27 @@
   </si>
   <si>
     <t>BL17114DQLSNINV</t>
+  </si>
+  <si>
+    <t>BL171114RW78ELC</t>
+  </si>
+  <si>
+    <t>BL17114DURYXINV </t>
+  </si>
+  <si>
+    <t>BL17114DUSBXINV</t>
+  </si>
+  <si>
+    <t>BL171114SUQSELC </t>
+  </si>
+  <si>
+    <t>BL171114SV2NELC</t>
+  </si>
+  <si>
+    <t>BL171114SV33ELC</t>
+  </si>
+  <si>
+    <t>BL171114TI8MELC </t>
   </si>
   <si>
     <t>NO TRANSAKSI</t>
@@ -2941,12 +2962,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="28">
@@ -3011,16 +3032,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3041,8 +3055,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3050,7 +3141,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3072,86 +3163,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3182,7 +3203,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3194,31 +3287,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3230,25 +3341,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3260,109 +3383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3548,13 +3569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3564,6 +3589,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3583,17 +3623,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3616,39 +3661,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3664,160 +3685,160 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3839,7 +3860,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3870,12 +3891,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3910,26 +3931,26 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -3986,16 +4007,16 @@
   </cellStyles>
   <dxfs count="154">
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="180" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??.0_);_(@_)"/>
@@ -4016,412 +4037,412 @@
       <numFmt numFmtId="183" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="184" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??.0_);_(@_)"/>
@@ -4442,10 +4463,10 @@
       <numFmt numFmtId="187" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -5576,7 +5597,7 @@
         <s v="M. SYARIFUDDIN"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Harga" numFmtId="176">
+    <cacheField name="Harga" numFmtId="177">
       <sharedItems containsBlank="1" containsNumber="1" containsInteger="1" containsMixedTypes="1" count="52">
         <m/>
         <s v="Deposit"/>
@@ -5643,7 +5664,7 @@
         <s v="Listrik Pasca"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Nominal" numFmtId="176">
+    <cacheField name="Nominal" numFmtId="177">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5000" maxValue="510000" count="61">
         <n v="57000"/>
         <n v="11000"/>
@@ -5708,7 +5729,7 @@
         <n v="78500"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Dibayar" numFmtId="176">
+    <cacheField name="Dibayar" numFmtId="177">
       <sharedItems containsBlank="1" containsNumber="1" containsInteger="1" containsMixedTypes="1" count="60">
         <n v="57000"/>
         <n v="12000"/>
@@ -5838,7 +5859,7 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Laba" numFmtId="176">
+    <cacheField name="Laba" numFmtId="177">
       <sharedItems containsBlank="1" containsNumber="1" containsMixedTypes="1" count="103">
         <n v="-54150"/>
         <n v="-10450"/>
@@ -17730,11 +17751,11 @@
   <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B601" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B610" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I629" sqref="I629"/>
+      <selection pane="bottomRight" activeCell="B633" sqref="B633:G633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -39267,7 +39288,7 @@
       </c>
     </row>
     <row r="620" spans="1:11">
-      <c r="A620" s="73" t="s">
+      <c r="A620" s="63" t="s">
         <v>937</v>
       </c>
       <c r="B620" s="48">
@@ -39304,7 +39325,7 @@
       </c>
     </row>
     <row r="621" ht="30.75" spans="1:11">
-      <c r="A621" s="73" t="s">
+      <c r="A621" s="63" t="s">
         <v>938</v>
       </c>
       <c r="B621" s="48">
@@ -39341,7 +39362,7 @@
       </c>
     </row>
     <row r="622" ht="27" spans="1:11">
-      <c r="A622" s="74" t="s">
+      <c r="A622" s="62" t="s">
         <v>939</v>
       </c>
       <c r="B622" s="48">
@@ -39378,7 +39399,7 @@
       </c>
     </row>
     <row r="623" spans="1:11">
-      <c r="A623" s="74" t="s">
+      <c r="A623" s="62" t="s">
         <v>940</v>
       </c>
       <c r="B623" s="48">
@@ -39412,7 +39433,7 @@
       </c>
     </row>
     <row r="624" spans="1:11">
-      <c r="A624" s="74" t="s">
+      <c r="A624" s="62" t="s">
         <v>941</v>
       </c>
       <c r="B624" s="48">
@@ -39449,7 +39470,7 @@
       </c>
     </row>
     <row r="625" spans="1:11">
-      <c r="A625" s="74" t="s">
+      <c r="A625" s="62" t="s">
         <v>942</v>
       </c>
       <c r="B625" s="48">
@@ -39486,7 +39507,7 @@
       </c>
     </row>
     <row r="626" spans="1:11">
-      <c r="A626" s="74" t="s">
+      <c r="A626" s="62" t="s">
         <v>943</v>
       </c>
       <c r="B626" s="48">
@@ -39522,74 +39543,257 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="627" spans="10:11">
+    <row r="627" ht="30" spans="1:11">
+      <c r="A627" s="73" t="s">
+        <v>944</v>
+      </c>
+      <c r="B627" s="48">
+        <v>42971</v>
+      </c>
+      <c r="C627" t="s">
+        <v>123</v>
+      </c>
+      <c r="D627" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E627" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F627" s="18">
+        <v>100000</v>
+      </c>
+      <c r="G627" t="s">
+        <v>16</v>
+      </c>
+      <c r="H627" s="18">
+        <v>102500</v>
+      </c>
+      <c r="I627" s="18">
+        <v>100000</v>
+      </c>
       <c r="J627">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5125</v>
       </c>
       <c r="K627" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="10:11">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11">
+      <c r="A628" s="74" t="s">
+        <v>945</v>
+      </c>
+      <c r="B628" s="48">
+        <v>42971</v>
+      </c>
+      <c r="C628" t="s">
+        <v>134</v>
+      </c>
+      <c r="D628" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F628" s="19">
+        <v>51000</v>
+      </c>
+      <c r="G628" t="s">
+        <v>13</v>
+      </c>
+      <c r="H628" s="18">
+        <v>50000</v>
+      </c>
+      <c r="I628" s="19">
+        <v>51000</v>
+      </c>
       <c r="J628">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K628" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="10:11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11">
+      <c r="A629" s="73" t="s">
+        <v>946</v>
+      </c>
+      <c r="B629" s="48">
+        <v>42971</v>
+      </c>
+      <c r="C629" t="s">
+        <v>134</v>
+      </c>
+      <c r="D629" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F629" s="19">
+        <v>51000</v>
+      </c>
+      <c r="G629" t="s">
+        <v>13</v>
+      </c>
+      <c r="H629" s="18">
+        <v>50000</v>
+      </c>
+      <c r="I629" s="19">
+        <v>51000</v>
+      </c>
       <c r="J629">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K629" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="10:11">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="630" ht="45" spans="1:11">
+      <c r="A630" s="73" t="s">
+        <v>947</v>
+      </c>
+      <c r="B630" s="48">
+        <v>42972</v>
+      </c>
+      <c r="C630" t="s">
+        <v>307</v>
+      </c>
+      <c r="D630" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E630" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="F630" s="18">
+        <v>495000</v>
+      </c>
+      <c r="G630" t="s">
+        <v>16</v>
+      </c>
+      <c r="H630" s="18">
+        <v>515000</v>
+      </c>
+      <c r="I630" s="18">
+        <v>495000</v>
+      </c>
       <c r="J630">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>25750</v>
       </c>
       <c r="K630" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="10:11">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="631" ht="30" spans="1:11">
+      <c r="A631" s="73" t="s">
+        <v>948</v>
+      </c>
+      <c r="B631" s="48">
+        <v>42972</v>
+      </c>
+      <c r="C631" t="s">
+        <v>618</v>
+      </c>
+      <c r="D631" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="E631" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="F631" s="18">
+        <v>100000</v>
+      </c>
+      <c r="G631" t="s">
+        <v>16</v>
+      </c>
+      <c r="H631" s="18">
+        <v>102500</v>
+      </c>
+      <c r="I631" s="18">
+        <v>100000</v>
+      </c>
       <c r="J631">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5125</v>
       </c>
       <c r="K631" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="10:11">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11">
+      <c r="A632" s="74" t="s">
+        <v>949</v>
+      </c>
+      <c r="B632" s="48">
+        <v>42972</v>
+      </c>
+      <c r="C632" t="s">
+        <v>163</v>
+      </c>
+      <c r="D632" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E632" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F632" s="19">
+        <v>51500</v>
+      </c>
+      <c r="G632" t="s">
+        <v>16</v>
+      </c>
+      <c r="H632" s="19">
+        <v>51500</v>
+      </c>
+      <c r="I632" s="19">
+        <v>51500</v>
+      </c>
       <c r="J632">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="K632" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="10:11">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="633" ht="30" spans="1:11">
+      <c r="A633" s="73" t="s">
+        <v>950</v>
+      </c>
+      <c r="B633" s="48">
+        <v>42972</v>
+      </c>
+      <c r="C633" t="s">
+        <v>100</v>
+      </c>
+      <c r="D633" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E633" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F633" s="18">
+        <v>21000</v>
+      </c>
+      <c r="G633" t="s">
+        <v>16</v>
+      </c>
+      <c r="H633" s="18">
+        <v>20500</v>
+      </c>
+      <c r="I633" s="18">
+        <v>21000</v>
+      </c>
       <c r="J633">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="K633" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="634" spans="10:11">
@@ -39693,7 +39897,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I620"/>
+  <autoFilter ref="B1:I626"/>
   <hyperlinks>
     <hyperlink ref="A173" r:id="rId1" display="BL171111JKC7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/795416"/>
     <hyperlink ref="A174" r:id="rId2" display="BL171111JMU2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/798491"/>
@@ -40139,6 +40343,13 @@
     <hyperlink ref="A624" r:id="rId433" display="BL17114DKLAXINV" tooltip="https://www.bukalapak.com/payment/invoices/176412597"/>
     <hyperlink ref="A625" r:id="rId434" display="BL171114R35DELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5619227"/>
     <hyperlink ref="A626" r:id="rId435" display="BL17114DQLSNINV" tooltip="https://www.bukalapak.com/payment/invoices/176670467"/>
+    <hyperlink ref="A627" r:id="rId436" display="BL171114RW78ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5654817"/>
+    <hyperlink ref="A628" r:id="rId437" display="BL17114DURYXINV " tooltip="https://www.bukalapak.com/payment/invoices/176849537"/>
+    <hyperlink ref="A629" r:id="rId438" display="BL17114DUSBXINV" tooltip="https://www.bukalapak.com/payment/invoices/176849957"/>
+    <hyperlink ref="A630" r:id="rId439" display="BL171114SUQSELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5695927"/>
+    <hyperlink ref="A631" r:id="rId440" display="BL171114SV2NELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5696307"/>
+    <hyperlink ref="A632" r:id="rId441" display="BL171114SV33ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5696322"/>
+    <hyperlink ref="A633" r:id="rId442" display="BL171114TI8MELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5723466"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -40166,19 +40377,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="37" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -40455,7 +40666,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="27" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -40467,7 +40678,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="38" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="E20" s="39">
         <f>5%*E18</f>
@@ -40476,7 +40687,7 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="38" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="E21" s="39">
         <f>10%*E18</f>
@@ -40513,22 +40724,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -40607,7 +40818,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -40620,7 +40831,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="10" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="E9" s="31">
         <v>1000000</v>
@@ -40628,7 +40839,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="3" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="E10" s="25">
         <f>E9-E6</f>
@@ -40641,7 +40852,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="23" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="E12" s="25">
         <v>300000</v>
@@ -40649,7 +40860,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="3" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="E13" s="25">
         <v>300000</v>
@@ -40657,7 +40868,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="10" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="E14" s="31">
         <f>E13+E12</f>
@@ -40670,7 +40881,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="10" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="E16" s="31">
         <f>E10-E14</f>
@@ -40905,7 +41116,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="34" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -40918,7 +41129,7 @@
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="10" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="E34" s="13">
         <f>E16</f>
@@ -40935,7 +41146,7 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="10" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="E36" s="13">
         <f>E34+E35</f>
@@ -40948,7 +41159,7 @@
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="10" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="E38" s="13">
         <f>E36-E32</f>
@@ -41043,7 +41254,7 @@
         <v>205000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -41072,7 +41283,7 @@
         <v>205000</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -41101,7 +41312,7 @@
         <v>205000</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:9">
@@ -41130,7 +41341,7 @@
         <v>11300</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -41159,7 +41370,7 @@
         <v>201500</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="7" ht="30" hidden="1" spans="1:9">
@@ -41237,7 +41448,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="D12" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="I12" s="20">
         <v>695000</v>
@@ -41245,7 +41456,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="D13" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="I13" s="20">
         <f>F2+F3+F4+F5</f>
@@ -41257,7 +41468,7 @@
     </row>
     <row r="15" spans="4:9">
       <c r="D15" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="I15" s="20">
         <f>I12-I13</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="11385" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Ustadz Fauzan" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$626</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$633</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984">
   <si>
     <t>Dibayar</t>
   </si>
@@ -2877,6 +2877,27 @@
   </si>
   <si>
     <t>BL171114TI8MELC </t>
+  </si>
+  <si>
+    <t>BL171114TRVXELC </t>
+  </si>
+  <si>
+    <t>BL171114U1Y8ELC</t>
+  </si>
+  <si>
+    <t>BL17114EY4AIINV</t>
+  </si>
+  <si>
+    <t>BL171114USZXELC </t>
+  </si>
+  <si>
+    <t>BL171114UTB8ELC </t>
+  </si>
+  <si>
+    <t>BL17114EYMOXINV</t>
+  </si>
+  <si>
+    <t>BL171114UTISELC</t>
   </si>
   <si>
     <t>NO TRANSAKSI</t>
@@ -2962,12 +2983,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="28">
@@ -3032,14 +3053,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3047,19 +3060,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3072,14 +3076,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3102,22 +3138,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3132,16 +3153,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3156,21 +3184,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3203,13 +3224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,19 +3248,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3251,37 +3326,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,25 +3356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3323,67 +3392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3569,6 +3590,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3586,24 +3631,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3619,17 +3660,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3657,23 +3687,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3685,160 +3706,160 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3860,7 +3881,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3891,12 +3912,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3931,26 +3952,25 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -4007,16 +4027,16 @@
   </cellStyles>
   <dxfs count="154">
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="180" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??.0_);_(@_)"/>
@@ -4037,412 +4057,412 @@
       <numFmt numFmtId="183" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="184" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??.0_);_(@_)"/>
@@ -4463,10 +4483,10 @@
       <numFmt numFmtId="187" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -4509,7 +4529,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="105410" y="2638425"/>
-          <a:ext cx="3641090" cy="2838450"/>
+          <a:ext cx="3314700" cy="2838450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5597,7 +5617,7 @@
         <s v="M. SYARIFUDDIN"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Harga" numFmtId="177">
+    <cacheField name="Harga" numFmtId="176">
       <sharedItems containsBlank="1" containsNumber="1" containsInteger="1" containsMixedTypes="1" count="52">
         <m/>
         <s v="Deposit"/>
@@ -5664,7 +5684,7 @@
         <s v="Listrik Pasca"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Nominal" numFmtId="177">
+    <cacheField name="Nominal" numFmtId="176">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5000" maxValue="510000" count="61">
         <n v="57000"/>
         <n v="11000"/>
@@ -5729,7 +5749,7 @@
         <n v="78500"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Dibayar" numFmtId="177">
+    <cacheField name="Dibayar" numFmtId="176">
       <sharedItems containsBlank="1" containsNumber="1" containsInteger="1" containsMixedTypes="1" count="60">
         <n v="57000"/>
         <n v="12000"/>
@@ -5859,7 +5879,7 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Laba" numFmtId="177">
+    <cacheField name="Laba" numFmtId="176">
       <sharedItems containsBlank="1" containsNumber="1" containsMixedTypes="1" count="103">
         <n v="-54150"/>
         <n v="-10450"/>
@@ -17091,288 +17111,288 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.425" customWidth="1"/>
-    <col min="2" max="2" width="15.1416666666667" style="15" customWidth="1"/>
-    <col min="3" max="3" width="27.8083333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.8583333333333" customWidth="1"/>
-    <col min="5" max="5" width="25.425" customWidth="1"/>
-    <col min="6" max="6" width="13.8583333333333"/>
-    <col min="7" max="7" width="14.425" style="18"/>
+    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.1428571428571" style="15" customWidth="1"/>
+    <col min="3" max="3" width="27.8095238095238" customWidth="1"/>
+    <col min="4" max="4" width="20.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="25.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="13.8571428571429"/>
+    <col min="7" max="7" width="14.4285714285714" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="79">
         <v>42862</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="78">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="82">
         <v>42883</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="84">
         <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="82">
         <v>42920</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="84">
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="82">
         <v>42946</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="84">
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>42946</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="84">
         <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="82">
         <v>42962</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="84">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="82">
         <v>42869</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="84">
         <v>50500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="82">
         <v>42882</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="84">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="82">
         <v>42883</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="84">
         <v>50500</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="82">
         <v>42938</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="84">
         <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89">
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="88">
         <v>851000</v>
       </c>
     </row>
@@ -17751,27 +17771,27 @@
   <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B610" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B627" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B633" sqref="B633:G633"/>
+      <selection pane="bottomRight" activeCell="H640" sqref="H640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7166666666667" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.71666666666667" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="25.2833333333333" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="41" customWidth="1"/>
-    <col min="6" max="6" width="11.575" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.7142857142857" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="21.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.8761904761905" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.5714285714286" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="10" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.575" style="18" customWidth="1"/>
-    <col min="10" max="10" width="13.575" customWidth="1"/>
-    <col min="11" max="11" width="11.7166666666667" style="18"/>
-    <col min="12" max="14" width="10.575" customWidth="1"/>
+    <col min="9" max="9" width="13.5714285714286" style="18" customWidth="1"/>
+    <col min="10" max="10" width="13.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="11.7142857142857" style="18"/>
+    <col min="12" max="14" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -17933,7 +17953,7 @@
         <v>-48925</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:11">
+    <row r="7" ht="45" spans="1:11">
       <c r="A7" s="16"/>
       <c r="B7" s="48">
         <v>42825</v>
@@ -18401,7 +18421,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" ht="30" spans="1:11">
+    <row r="23" ht="45" spans="1:11">
       <c r="A23" s="16"/>
       <c r="B23" s="48">
         <v>42833</v>
@@ -18582,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" ht="30" spans="1:12">
       <c r="A29" s="16"/>
       <c r="B29" s="48">
         <v>42834</v>
@@ -19082,7 +19102,7 @@
       </c>
       <c r="L43" s="52"/>
     </row>
-    <row r="44" ht="30" spans="1:12">
+    <row r="44" ht="45" spans="1:12">
       <c r="A44" s="16"/>
       <c r="B44" s="48">
         <v>42840</v>
@@ -19118,7 +19138,7 @@
       </c>
       <c r="L44" s="52"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" ht="30" spans="1:11">
       <c r="A45" s="16"/>
       <c r="B45" s="48">
         <v>42840</v>
@@ -19319,7 +19339,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" ht="30" spans="1:11">
       <c r="A51" s="16"/>
       <c r="B51" s="48">
         <v>42841</v>
@@ -19418,7 +19438,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="54" ht="30" spans="1:11">
+    <row r="54" ht="45" spans="1:11">
       <c r="A54" s="16"/>
       <c r="B54" s="48">
         <v>42841</v>
@@ -19657,7 +19677,7 @@
         <v>21075</v>
       </c>
     </row>
-    <row r="61" ht="30" spans="1:11">
+    <row r="61" ht="45" spans="1:11">
       <c r="A61" s="16"/>
       <c r="B61" s="48">
         <v>42843</v>
@@ -20104,7 +20124,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" ht="30" spans="1:11">
       <c r="A74" s="16"/>
       <c r="B74" s="48">
         <v>42845</v>
@@ -20244,7 +20264,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" ht="30" spans="1:11">
       <c r="A78" s="16" t="s">
         <v>162</v>
       </c>
@@ -20352,7 +20372,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" ht="30" spans="1:11">
       <c r="A81" s="16" t="s">
         <v>169</v>
       </c>
@@ -20463,7 +20483,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="84" ht="30" spans="1:11">
+    <row r="84" ht="45" spans="1:11">
       <c r="A84" s="16" t="s">
         <v>178</v>
       </c>
@@ -20784,7 +20804,7 @@
       <c r="M92" s="52"/>
       <c r="N92" s="52"/>
     </row>
-    <row r="93" ht="30" spans="1:11">
+    <row r="93" ht="45" spans="1:11">
       <c r="A93" s="54" t="s">
         <v>197</v>
       </c>
@@ -21763,7 +21783,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" ht="30" spans="1:11">
       <c r="A121" s="16"/>
       <c r="B121" s="48">
         <v>42855</v>
@@ -21937,7 +21957,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" ht="30" spans="1:11">
       <c r="A126" s="57" t="s">
         <v>253</v>
       </c>
@@ -22082,8 +22102,8 @@
         <v>18575</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="90" t="s">
+    <row r="130" ht="30" spans="1:11">
+      <c r="A130" s="89" t="s">
         <v>259</v>
       </c>
       <c r="B130" s="48">
@@ -22120,7 +22140,7 @@
       </c>
     </row>
     <row r="131" ht="30" spans="1:11">
-      <c r="A131" s="90" t="s">
+      <c r="A131" s="89" t="s">
         <v>261</v>
       </c>
       <c r="B131" s="48">
@@ -22154,8 +22174,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="90" t="s">
+    <row r="132" ht="30" spans="1:11">
+      <c r="A132" s="89" t="s">
         <v>264</v>
       </c>
       <c r="B132" s="48">
@@ -22191,8 +22211,8 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="90" t="s">
+    <row r="133" ht="30" spans="1:11">
+      <c r="A133" s="89" t="s">
         <v>266</v>
       </c>
       <c r="B133" s="48">
@@ -22266,7 +22286,7 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="90" t="s">
+      <c r="A135" s="89" t="s">
         <v>272</v>
       </c>
       <c r="B135" s="48">
@@ -22302,8 +22322,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="90" t="s">
+    <row r="136" ht="30" spans="1:11">
+      <c r="A136" s="89" t="s">
         <v>273</v>
       </c>
       <c r="B136" s="48">
@@ -22339,8 +22359,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="90" t="s">
+    <row r="137" ht="30" spans="1:11">
+      <c r="A137" s="89" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="48">
@@ -22377,7 +22397,7 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="90" t="s">
+      <c r="A138" s="89" t="s">
         <v>278</v>
       </c>
       <c r="B138" s="48">
@@ -22411,7 +22431,7 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="90" t="s">
+      <c r="A139" s="89" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="48">
@@ -22484,7 +22504,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" ht="30" spans="1:11">
       <c r="A141" s="14" t="s">
         <v>281</v>
       </c>
@@ -22521,7 +22541,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="142" ht="30" spans="1:11">
+    <row r="142" ht="45" spans="1:11">
       <c r="A142" s="14" t="s">
         <v>282</v>
       </c>
@@ -22558,7 +22578,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" ht="30" spans="1:11">
       <c r="A143" s="14" t="s">
         <v>285</v>
       </c>
@@ -22670,7 +22690,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="90" t="s">
+      <c r="A146" s="89" t="s">
         <v>289</v>
       </c>
       <c r="B146" s="48">
@@ -22704,7 +22724,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="90" t="s">
+      <c r="A147" s="89" t="s">
         <v>292</v>
       </c>
       <c r="B147" s="48">
@@ -22738,7 +22758,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="90" t="s">
+      <c r="A148" s="89" t="s">
         <v>294</v>
       </c>
       <c r="B148" s="48">
@@ -22772,7 +22792,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="90" t="s">
+      <c r="A149" s="89" t="s">
         <v>296</v>
       </c>
       <c r="B149" s="48">
@@ -22806,7 +22826,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="90" t="s">
+      <c r="A150" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B150" s="48">
@@ -22840,7 +22860,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="90" t="s">
+      <c r="A151" s="89" t="s">
         <v>298</v>
       </c>
       <c r="B151" s="48">
@@ -22911,7 +22931,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="90" t="s">
+      <c r="A153" s="89" t="s">
         <v>304</v>
       </c>
       <c r="B153" s="48">
@@ -22945,7 +22965,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="90" t="s">
+      <c r="A154" s="89" t="s">
         <v>305</v>
       </c>
       <c r="B154" s="48">
@@ -23016,7 +23036,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="90" t="s">
+      <c r="A156" s="89" t="s">
         <v>310</v>
       </c>
       <c r="B156" s="48">
@@ -23087,7 +23107,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="90" t="s">
+      <c r="A158" s="89" t="s">
         <v>313</v>
       </c>
       <c r="B158" s="48">
@@ -23158,7 +23178,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="90" t="s">
+      <c r="A160" s="89" t="s">
         <v>315</v>
       </c>
       <c r="B160" s="48">
@@ -23229,7 +23249,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="90" t="s">
+      <c r="A162" s="89" t="s">
         <v>319</v>
       </c>
       <c r="B162" s="48">
@@ -23263,7 +23283,7 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="90" t="s">
+      <c r="A163" s="89" t="s">
         <v>320</v>
       </c>
       <c r="B163" s="48">
@@ -23297,7 +23317,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="90" t="s">
+      <c r="A164" s="89" t="s">
         <v>321</v>
       </c>
       <c r="B164" s="48">
@@ -23328,7 +23348,7 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="90" t="s">
+      <c r="A165" s="89" t="s">
         <v>324</v>
       </c>
       <c r="B165" s="48">
@@ -23362,7 +23382,7 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="90" t="s">
+      <c r="A166" s="89" t="s">
         <v>325</v>
       </c>
       <c r="B166" s="48">
@@ -23396,7 +23416,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="90" t="s">
+      <c r="A167" s="89" t="s">
         <v>328</v>
       </c>
       <c r="B167" s="48">
@@ -23560,7 +23580,7 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="90" t="s">
+      <c r="A172" s="89" t="s">
         <v>336</v>
       </c>
       <c r="B172" s="48">
@@ -23593,7 +23613,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" ht="30" spans="1:11">
       <c r="A173" s="59" t="s">
         <v>337</v>
       </c>
@@ -23667,7 +23687,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="175" ht="30" spans="1:11">
+    <row r="175" ht="45" spans="1:11">
       <c r="A175" s="58" t="s">
         <v>342</v>
       </c>
@@ -23852,7 +23872,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" ht="30" spans="1:11">
       <c r="A180" s="58" t="s">
         <v>351</v>
       </c>
@@ -23889,7 +23909,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" ht="30" spans="1:11">
       <c r="A181" s="58" t="s">
         <v>352</v>
       </c>
@@ -23926,7 +23946,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="182" ht="30" spans="1:11">
+    <row r="182" ht="45" spans="1:11">
       <c r="A182" s="58" t="s">
         <v>353</v>
       </c>
@@ -24111,7 +24131,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="187" ht="30" spans="1:11">
+    <row r="187" ht="45" spans="1:11">
       <c r="A187" s="59" t="s">
         <v>361</v>
       </c>
@@ -24185,7 +24205,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" ht="30" spans="1:11">
       <c r="A189" s="58" t="s">
         <v>363</v>
       </c>
@@ -24293,7 +24313,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" ht="30" spans="1:11">
       <c r="A192" s="58" t="s">
         <v>366</v>
       </c>
@@ -24612,7 +24632,7 @@
       <c r="C201" t="s">
         <v>120</v>
       </c>
-      <c r="D201" s="91" t="s">
+      <c r="D201" s="90" t="s">
         <v>378</v>
       </c>
       <c r="F201" s="18">
@@ -24837,7 +24857,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="208" ht="54" spans="1:11">
+    <row r="208" ht="67.5" spans="1:11">
       <c r="A208" s="58" t="s">
         <v>387</v>
       </c>
@@ -25180,7 +25200,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" ht="30" spans="1:11">
       <c r="A218" s="58" t="s">
         <v>398</v>
       </c>
@@ -25254,7 +25274,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" ht="30" spans="1:11">
       <c r="A220" s="58" t="s">
         <v>404</v>
       </c>
@@ -25291,7 +25311,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="221" ht="30" spans="1:11">
+    <row r="221" ht="45" spans="1:11">
       <c r="A221" s="59" t="s">
         <v>405</v>
       </c>
@@ -25328,7 +25348,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="222" ht="30" spans="1:11">
+    <row r="222" ht="45" spans="1:11">
       <c r="A222" s="59" t="s">
         <v>409</v>
       </c>
@@ -25399,7 +25419,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="224" ht="45" spans="1:11">
+    <row r="224" ht="60" spans="1:11">
       <c r="A224" s="14" t="s">
         <v>414</v>
       </c>
@@ -26024,7 +26044,7 @@
       <c r="C242" t="s">
         <v>454</v>
       </c>
-      <c r="D242" s="91" t="s">
+      <c r="D242" s="90" t="s">
         <v>378</v>
       </c>
       <c r="F242" s="18">
@@ -26462,7 +26482,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="255" ht="30" spans="1:11">
+    <row r="255" ht="45" spans="1:11">
       <c r="A255" s="63" t="s">
         <v>472</v>
       </c>
@@ -26533,7 +26553,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" ht="30" spans="1:11">
       <c r="A257" s="63" t="s">
         <v>474</v>
       </c>
@@ -26703,7 +26723,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" ht="30" spans="1:11">
       <c r="A262" s="63" t="s">
         <v>478</v>
       </c>
@@ -26805,7 +26825,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="265" ht="45" spans="1:11">
+    <row r="265" ht="60" spans="1:11">
       <c r="A265" s="62" t="s">
         <v>481</v>
       </c>
@@ -27034,7 +27054,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" ht="30" spans="1:11">
       <c r="A272" s="62" t="s">
         <v>490</v>
       </c>
@@ -27139,7 +27159,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" ht="30" spans="1:11">
       <c r="A275" s="63" t="s">
         <v>494</v>
       </c>
@@ -27173,7 +27193,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" ht="30" spans="1:11">
       <c r="A276" s="63" t="s">
         <v>495</v>
       </c>
@@ -27207,7 +27227,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" ht="30" spans="1:11">
       <c r="A277" s="62" t="s">
         <v>496</v>
       </c>
@@ -27371,7 +27391,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="282" ht="30" spans="1:11">
+    <row r="282" ht="45" spans="1:11">
       <c r="A282" s="62" t="s">
         <v>507</v>
       </c>
@@ -27501,7 +27521,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" ht="27" spans="1:11">
       <c r="A286" s="62" t="s">
         <v>511</v>
       </c>
@@ -27569,7 +27589,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" ht="30" spans="1:11">
       <c r="A288" s="63" t="s">
         <v>516</v>
       </c>
@@ -27684,7 +27704,7 @@
       <c r="C291" t="s">
         <v>35</v>
       </c>
-      <c r="D291" s="91" t="s">
+      <c r="D291" s="90" t="s">
         <v>155</v>
       </c>
       <c r="E291" t="s">
@@ -27776,7 +27796,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" ht="27" spans="1:11">
       <c r="A294" s="62" t="s">
         <v>511</v>
       </c>
@@ -27878,7 +27898,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" ht="30" spans="1:11">
       <c r="A297" s="62" t="s">
         <v>522</v>
       </c>
@@ -27949,7 +27969,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="299" ht="30" spans="1:11">
+    <row r="299" ht="45" spans="1:11">
       <c r="A299" s="62" t="s">
         <v>525</v>
       </c>
@@ -27993,7 +28013,7 @@
       <c r="C300" t="s">
         <v>454</v>
       </c>
-      <c r="D300" s="91" t="s">
+      <c r="D300" s="90" t="s">
         <v>378</v>
       </c>
       <c r="F300" s="18">
@@ -28014,7 +28034,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="301" ht="30" spans="1:11">
+    <row r="301" ht="45" spans="1:11">
       <c r="A301" s="62" t="s">
         <v>527</v>
       </c>
@@ -28119,7 +28139,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="304" ht="45" spans="1:11">
+    <row r="304" ht="60" spans="1:11">
       <c r="A304" s="62" t="s">
         <v>531</v>
       </c>
@@ -28193,7 +28213,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" ht="30" spans="1:11">
       <c r="A306" s="62" t="s">
         <v>533</v>
       </c>
@@ -28338,7 +28358,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" ht="30" spans="1:11">
       <c r="A310" s="63" t="s">
         <v>540</v>
       </c>
@@ -28895,7 +28915,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" ht="30" spans="1:11">
       <c r="A326" s="62" t="s">
         <v>566</v>
       </c>
@@ -29254,7 +29274,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" ht="30" spans="1:11">
       <c r="A337" s="63" t="s">
         <v>584</v>
       </c>
@@ -29452,7 +29472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" ht="30" spans="1:11">
       <c r="A343" s="62" t="s">
         <v>591</v>
       </c>
@@ -29557,7 +29577,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="346" ht="30" spans="1:11">
+    <row r="346" ht="45" spans="1:11">
       <c r="A346" s="62" t="s">
         <v>596</v>
       </c>
@@ -29594,7 +29614,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="347" ht="45" spans="1:11">
+    <row r="347" ht="60" spans="1:11">
       <c r="A347" s="62" t="s">
         <v>597</v>
       </c>
@@ -29770,7 +29790,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" ht="30" spans="1:11">
       <c r="A352" s="62" t="s">
         <v>602</v>
       </c>
@@ -29844,7 +29864,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" ht="30" spans="1:11">
       <c r="A354" s="62" t="s">
         <v>604</v>
       </c>
@@ -29949,7 +29969,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" ht="30" spans="1:11">
       <c r="A357" s="62" t="s">
         <v>610</v>
       </c>
@@ -29983,7 +30003,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" ht="30" spans="1:11">
       <c r="A358" s="62" t="s">
         <v>611</v>
       </c>
@@ -30020,7 +30040,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" ht="30" spans="1:11">
       <c r="A359" s="62" t="s">
         <v>612</v>
       </c>
@@ -30094,7 +30114,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="361" ht="30" spans="1:11">
+    <row r="361" ht="45" spans="1:11">
       <c r="A361" s="62" t="s">
         <v>617</v>
       </c>
@@ -30166,7 +30186,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" ht="30" spans="1:11">
       <c r="A363" s="62" t="s">
         <v>612</v>
       </c>
@@ -30240,7 +30260,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="365" ht="30" spans="1:11">
+    <row r="365" ht="45" spans="1:11">
       <c r="A365" s="62" t="s">
         <v>617</v>
       </c>
@@ -30345,7 +30365,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="368" ht="30" spans="1:11">
+    <row r="368" ht="45" spans="1:11">
       <c r="A368" s="62" t="s">
         <v>624</v>
       </c>
@@ -30419,7 +30439,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="370" ht="45" spans="1:11">
+    <row r="370" ht="60" spans="1:11">
       <c r="A370" s="62" t="s">
         <v>627</v>
       </c>
@@ -30669,7 +30689,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" ht="30" spans="1:11">
       <c r="A377" s="62" t="s">
         <v>635</v>
       </c>
@@ -30706,7 +30726,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="378" ht="30" spans="1:11">
+    <row r="378" ht="45" spans="1:11">
       <c r="A378" s="62" t="s">
         <v>636</v>
       </c>
@@ -30780,7 +30800,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" ht="30" spans="1:11">
       <c r="A380" s="63" t="s">
         <v>638</v>
       </c>
@@ -30817,7 +30837,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" ht="30" spans="1:11">
       <c r="A381" s="62" t="s">
         <v>639</v>
       </c>
@@ -30990,7 +31010,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="386" ht="30" spans="1:11">
+    <row r="386" ht="45" spans="1:11">
       <c r="A386" s="62" t="s">
         <v>644</v>
       </c>
@@ -31132,7 +31152,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" ht="30" spans="1:11">
       <c r="A390" s="62" t="s">
         <v>649</v>
       </c>
@@ -31206,7 +31226,7 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" ht="30" spans="1:11">
       <c r="A392" s="62" t="s">
         <v>653</v>
       </c>
@@ -31305,7 +31325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" ht="30" spans="1:11">
+    <row r="395" ht="45" spans="1:11">
       <c r="A395" s="62" t="s">
         <v>658</v>
       </c>
@@ -31450,7 +31470,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" ht="30" spans="1:11">
       <c r="A399" s="62" t="s">
         <v>665</v>
       </c>
@@ -31731,7 +31751,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" ht="30" spans="1:11">
       <c r="A407" s="62" t="s">
         <v>673</v>
       </c>
@@ -31907,7 +31927,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="412" ht="15.75" spans="1:11">
+    <row r="412" ht="30.75" spans="1:11">
       <c r="A412" s="63" t="s">
         <v>678</v>
       </c>
@@ -31944,7 +31964,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" ht="27" spans="1:11">
       <c r="A413" s="63" t="s">
         <v>679</v>
       </c>
@@ -32089,7 +32109,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" ht="30" spans="1:11">
       <c r="A417" s="62" t="s">
         <v>686</v>
       </c>
@@ -32231,7 +32251,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" ht="30" spans="1:11">
       <c r="A421" s="63" t="s">
         <v>689</v>
       </c>
@@ -32447,7 +32467,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="427" ht="30" spans="1:11">
+    <row r="427" ht="45" spans="1:11">
       <c r="A427" s="62" t="s">
         <v>696</v>
       </c>
@@ -32657,7 +32677,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" ht="30" spans="1:11">
       <c r="A433" s="63" t="s">
         <v>703</v>
       </c>
@@ -33083,7 +33103,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="445" ht="45" spans="1:11">
+    <row r="445" ht="60" spans="1:11">
       <c r="A445" s="62" t="s">
         <v>718</v>
       </c>
@@ -33228,7 +33248,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="449" ht="30" spans="1:11">
+    <row r="449" ht="45" spans="1:11">
       <c r="A449" s="62" t="s">
         <v>723</v>
       </c>
@@ -33333,7 +33353,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" ht="30" spans="1:11">
       <c r="A452" s="62" t="s">
         <v>729</v>
       </c>
@@ -33404,7 +33424,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" ht="30" spans="1:11">
       <c r="A454" s="62" t="s">
         <v>731</v>
       </c>
@@ -33441,7 +33461,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" ht="30" spans="1:11">
       <c r="A455" s="62" t="s">
         <v>732</v>
       </c>
@@ -33858,7 +33878,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" ht="30" spans="1:11">
       <c r="A467" s="62" t="s">
         <v>746</v>
       </c>
@@ -33895,7 +33915,7 @@
         <v>2432.5</v>
       </c>
     </row>
-    <row r="468" ht="45" spans="1:11">
+    <row r="468" ht="60" spans="1:11">
       <c r="A468" s="63" t="s">
         <v>747</v>
       </c>
@@ -34222,7 +34242,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" ht="30" spans="1:11">
       <c r="A477" s="62" t="s">
         <v>757</v>
       </c>
@@ -34293,7 +34313,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" ht="30" spans="1:11">
       <c r="A479" s="62" t="s">
         <v>759</v>
       </c>
@@ -34673,7 +34693,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" ht="30" spans="1:11">
       <c r="A490" s="62" t="s">
         <v>773</v>
       </c>
@@ -34741,7 +34761,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="492" ht="45" spans="1:11">
+    <row r="492" ht="60" spans="1:11">
       <c r="A492" s="62" t="s">
         <v>774</v>
       </c>
@@ -34923,7 +34943,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" ht="30" spans="1:11">
       <c r="A497" s="63" t="s">
         <v>779</v>
       </c>
@@ -34957,7 +34977,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" ht="30" spans="1:11">
       <c r="A498" s="62" t="s">
         <v>780</v>
       </c>
@@ -35253,7 +35273,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" ht="27" spans="1:11">
       <c r="A506" s="62" t="s">
         <v>790</v>
       </c>
@@ -35361,7 +35381,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" ht="30" spans="1:11">
       <c r="A509" s="62" t="s">
         <v>793</v>
       </c>
@@ -35398,7 +35418,7 @@
         <v>2432.5</v>
       </c>
     </row>
-    <row r="510" ht="30" spans="1:11">
+    <row r="510" ht="45" spans="1:11">
       <c r="A510" s="62" t="s">
         <v>794</v>
       </c>
@@ -35720,7 +35740,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" ht="30" spans="1:11">
       <c r="A519" s="62" t="s">
         <v>806</v>
       </c>
@@ -35757,7 +35777,7 @@
         <v>932.5</v>
       </c>
     </row>
-    <row r="520" ht="30" spans="1:11">
+    <row r="520" ht="45" spans="1:11">
       <c r="A520" s="62" t="s">
         <v>807</v>
       </c>
@@ -36103,7 +36123,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="530" ht="45" spans="1:11">
+    <row r="530" ht="60" spans="1:11">
       <c r="A530" s="62" t="s">
         <v>818</v>
       </c>
@@ -36385,7 +36405,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" ht="30" spans="1:11">
       <c r="A538" s="62" t="s">
         <v>827</v>
       </c>
@@ -36657,7 +36677,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" ht="30" spans="1:11">
       <c r="A546" s="62" t="s">
         <v>835</v>
       </c>
@@ -36836,7 +36856,7 @@
         <v>3480.75</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" ht="30" spans="1:11">
       <c r="A551" s="62" t="s">
         <v>843</v>
       </c>
@@ -36975,7 +36995,7 @@
         <v>8925</v>
       </c>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" ht="30" spans="1:11">
       <c r="A555" s="62" t="s">
         <v>853</v>
       </c>
@@ -37012,7 +37032,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" ht="30" spans="1:11">
       <c r="A556" s="62" t="s">
         <v>854</v>
       </c>
@@ -37120,7 +37140,7 @@
         <v>20575</v>
       </c>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" ht="30" spans="1:11">
       <c r="A559" s="62" t="s">
         <v>857</v>
       </c>
@@ -37241,7 +37261,7 @@
       <c r="C562" t="s">
         <v>866</v>
       </c>
-      <c r="D562" s="91" t="s">
+      <c r="D562" s="90" t="s">
         <v>867</v>
       </c>
       <c r="E562" s="41" t="s">
@@ -37299,7 +37319,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="564" ht="30" spans="1:11">
+    <row r="564" ht="45" spans="1:11">
       <c r="A564" s="63" t="s">
         <v>870</v>
       </c>
@@ -37577,7 +37597,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" ht="30" spans="1:11">
       <c r="A572" s="62" t="s">
         <v>880</v>
       </c>
@@ -37756,7 +37776,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="577" ht="45" spans="1:11">
+    <row r="577" ht="60" spans="1:11">
       <c r="A577" s="63" t="s">
         <v>886</v>
       </c>
@@ -37852,7 +37872,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" ht="30" spans="1:11">
       <c r="A580" s="62" t="s">
         <v>889</v>
       </c>
@@ -37889,7 +37909,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="581" ht="30" spans="1:11">
+    <row r="581" ht="45" spans="1:11">
       <c r="A581" s="62" t="s">
         <v>890</v>
       </c>
@@ -38139,7 +38159,7 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="588" ht="30" spans="1:11">
+    <row r="588" ht="45" spans="1:11">
       <c r="A588" s="63" t="s">
         <v>899</v>
       </c>
@@ -38173,7 +38193,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" ht="30" spans="1:11">
       <c r="A589" s="63" t="s">
         <v>900</v>
       </c>
@@ -38244,7 +38264,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="591" ht="30" spans="1:11">
+    <row r="591" ht="45" spans="1:11">
       <c r="A591" s="62" t="s">
         <v>901</v>
       </c>
@@ -38565,7 +38585,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="600" ht="45.75" spans="1:11">
+    <row r="600" ht="60.75" spans="1:11">
       <c r="A600" s="62" t="s">
         <v>910</v>
       </c>
@@ -38599,7 +38619,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="601" ht="27" spans="1:11">
+    <row r="601" ht="40.5" spans="1:11">
       <c r="A601" s="62" t="s">
         <v>911</v>
       </c>
@@ -38917,7 +38937,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" ht="27" spans="1:11">
       <c r="A610" s="62" t="s">
         <v>924</v>
       </c>
@@ -39028,7 +39048,7 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" ht="30" spans="1:11">
       <c r="A613" s="62" t="s">
         <v>928</v>
       </c>
@@ -39250,7 +39270,7 @@
         <v>1932.5</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" ht="30" spans="1:11">
       <c r="A619" s="62" t="s">
         <v>936</v>
       </c>
@@ -39324,7 +39344,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="621" ht="30.75" spans="1:11">
+    <row r="621" ht="45.75" spans="1:11">
       <c r="A621" s="63" t="s">
         <v>938</v>
       </c>
@@ -39361,7 +39381,7 @@
         <v>5075</v>
       </c>
     </row>
-    <row r="622" ht="27" spans="1:11">
+    <row r="622" ht="40.5" spans="1:11">
       <c r="A622" s="62" t="s">
         <v>939</v>
       </c>
@@ -39544,7 +39564,7 @@
       </c>
     </row>
     <row r="627" ht="30" spans="1:11">
-      <c r="A627" s="73" t="s">
+      <c r="A627" s="62" t="s">
         <v>944</v>
       </c>
       <c r="B627" s="48">
@@ -39581,7 +39601,7 @@
       </c>
     </row>
     <row r="628" spans="1:11">
-      <c r="A628" s="74" t="s">
+      <c r="A628" s="63" t="s">
         <v>945</v>
       </c>
       <c r="B628" s="48">
@@ -39615,7 +39635,7 @@
       </c>
     </row>
     <row r="629" spans="1:11">
-      <c r="A629" s="73" t="s">
+      <c r="A629" s="62" t="s">
         <v>946</v>
       </c>
       <c r="B629" s="48">
@@ -39649,7 +39669,7 @@
       </c>
     </row>
     <row r="630" ht="45" spans="1:11">
-      <c r="A630" s="73" t="s">
+      <c r="A630" s="62" t="s">
         <v>947</v>
       </c>
       <c r="B630" s="48">
@@ -39685,8 +39705,8 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="631" ht="30" spans="1:11">
-      <c r="A631" s="73" t="s">
+    <row r="631" ht="45" spans="1:11">
+      <c r="A631" s="62" t="s">
         <v>948</v>
       </c>
       <c r="B631" s="48">
@@ -39722,8 +39742,8 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="632" spans="1:11">
-      <c r="A632" s="74" t="s">
+    <row r="632" ht="30" spans="1:11">
+      <c r="A632" s="63" t="s">
         <v>949</v>
       </c>
       <c r="B632" s="48">
@@ -39759,8 +39779,8 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="633" ht="30" spans="1:11">
-      <c r="A633" s="73" t="s">
+    <row r="633" ht="45" spans="1:11">
+      <c r="A633" s="62" t="s">
         <v>950</v>
       </c>
       <c r="B633" s="48">
@@ -39796,47 +39816,158 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="634" spans="10:11">
+    <row r="634" ht="30" spans="1:11">
+      <c r="A634" s="73" t="s">
+        <v>951</v>
+      </c>
+      <c r="B634" s="48">
+        <v>42973</v>
+      </c>
+      <c r="C634" t="s">
+        <v>46</v>
+      </c>
+      <c r="D634" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E634" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F634" s="18">
+        <v>51500</v>
+      </c>
+      <c r="G634" t="s">
+        <v>16</v>
+      </c>
+      <c r="H634" s="18">
+        <v>51500</v>
+      </c>
+      <c r="I634" s="18">
+        <v>51500</v>
+      </c>
       <c r="J634">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="K634" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="10:11">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="635" ht="30" spans="1:11">
+      <c r="A635" s="73" t="s">
+        <v>952</v>
+      </c>
+      <c r="B635" s="48">
+        <v>42973</v>
+      </c>
+      <c r="C635" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D635" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E635" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F635" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G635" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H635" s="19">
+        <v>102500</v>
+      </c>
+      <c r="I635" s="19">
+        <v>100000</v>
+      </c>
       <c r="J635">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5125</v>
       </c>
       <c r="K635" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="10:11">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11">
+      <c r="A636" s="73" t="s">
+        <v>953</v>
+      </c>
+      <c r="B636" s="48">
+        <v>42973</v>
+      </c>
+      <c r="C636" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D636" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="F636" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G636" t="s">
+        <v>13</v>
+      </c>
+      <c r="H636" s="18">
+        <v>25000</v>
+      </c>
+      <c r="I636" s="18">
+        <v>26000</v>
+      </c>
       <c r="J636">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="K636" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="10:11">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11">
+      <c r="A637" s="73" t="s">
+        <v>954</v>
+      </c>
+      <c r="B637" s="48">
+        <v>42973</v>
+      </c>
+      <c r="C637" t="s">
+        <v>159</v>
+      </c>
+      <c r="D637" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E637" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F637" s="19">
+        <v>50000</v>
+      </c>
+      <c r="G637" t="s">
+        <v>16</v>
+      </c>
+      <c r="H637" s="19">
+        <v>51650</v>
+      </c>
+      <c r="I637" s="19">
+        <v>51500</v>
+      </c>
       <c r="J637">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2582.5</v>
       </c>
       <c r="K637" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="10:11">
+        <v>932.5</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11">
+      <c r="A638" s="73" t="s">
+        <v>955</v>
+      </c>
+      <c r="B638" s="48">
+        <v>42973</v>
+      </c>
       <c r="J638">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -39846,7 +39977,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="10:11">
+    <row r="639" spans="1:11">
+      <c r="A639" s="73" t="s">
+        <v>956</v>
+      </c>
+      <c r="B639" s="48">
+        <v>42973</v>
+      </c>
       <c r="J639">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -39856,7 +39993,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="10:11">
+    <row r="640" spans="1:11">
+      <c r="A640" s="73" t="s">
+        <v>957</v>
+      </c>
+      <c r="B640" s="48">
+        <v>42973</v>
+      </c>
       <c r="J640">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -39897,7 +40040,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I626"/>
+  <autoFilter ref="B1:I633"/>
   <hyperlinks>
     <hyperlink ref="A173" r:id="rId1" display="BL171111JKC7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/795416"/>
     <hyperlink ref="A174" r:id="rId2" display="BL171111JMU2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/798491"/>
@@ -40350,6 +40493,13 @@
     <hyperlink ref="A631" r:id="rId440" display="BL171114SV2NELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5696307"/>
     <hyperlink ref="A632" r:id="rId441" display="BL171114SV33ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5696322"/>
     <hyperlink ref="A633" r:id="rId442" display="BL171114TI8MELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5723466"/>
+    <hyperlink ref="A634" r:id="rId443" display="BL171114TRVXELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5735307"/>
+    <hyperlink ref="A635" r:id="rId444" display="BL171114U1Y8ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5746412"/>
+    <hyperlink ref="A636" r:id="rId445" display="BL17114EY4AIINV" tooltip="https://www.bukalapak.com/payment/invoices/178492632"/>
+    <hyperlink ref="A637" r:id="rId446" display="BL171114USZXELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5779547"/>
+    <hyperlink ref="A638" r:id="rId447" display="BL171114UTB8ELC " tooltip="https://www.bukalapak.com/payment/electricity/transactions/5779907"/>
+    <hyperlink ref="A639" r:id="rId448" display="BL17114EYMOXINV" tooltip="https://www.bukalapak.com/payment/invoices/178515187"/>
+    <hyperlink ref="A640" r:id="rId449" display="BL171114UTISELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/5780172"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -40368,28 +40518,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.1416666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.8583333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="26.7166666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.7166666666667" customWidth="1"/>
+    <col min="1" max="1" width="24.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="26.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="37" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -40666,7 +40816,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="27" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -40678,7 +40828,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="38" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="E20" s="39">
         <f>5%*E18</f>
@@ -40687,7 +40837,7 @@
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="38" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="E21" s="39">
         <f>10%*E18</f>
@@ -40714,32 +40864,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.575" customWidth="1"/>
-    <col min="2" max="2" width="15.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.1416666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -40818,7 +40968,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -40831,7 +40981,7 @@
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="10" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="E9" s="31">
         <v>1000000</v>
@@ -40839,7 +40989,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="3" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="E10" s="25">
         <f>E9-E6</f>
@@ -40852,7 +41002,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="23" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="E12" s="25">
         <v>300000</v>
@@ -40860,7 +41010,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" s="3" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="E13" s="25">
         <v>300000</v>
@@ -40868,7 +41018,7 @@
     </row>
     <row r="14" spans="4:5">
       <c r="D14" s="10" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="E14" s="31">
         <f>E13+E12</f>
@@ -40881,7 +41031,7 @@
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="10" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="E16" s="31">
         <f>E10-E14</f>
@@ -41116,7 +41266,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="34" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -41129,7 +41279,7 @@
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="10" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="E34" s="13">
         <f>E16</f>
@@ -41146,7 +41296,7 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="10" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="E36" s="13">
         <f>E34+E35</f>
@@ -41159,7 +41309,7 @@
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="10" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E38" s="13">
         <f>E36-E32</f>
@@ -41186,17 +41336,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="21.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18.575" customWidth="1"/>
+    <col min="3" max="3" width="18.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.425" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.2833333333333" customWidth="1"/>
-    <col min="7" max="7" width="6.85833333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.4285714285714" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="6.85714285714286" customWidth="1"/>
     <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="21.8583333333333" customWidth="1"/>
+    <col min="9" max="9" width="21.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -41254,7 +41404,7 @@
         <v>205000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -41283,7 +41433,7 @@
         <v>205000</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -41312,7 +41462,7 @@
         <v>205000</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:9">
@@ -41341,7 +41491,7 @@
         <v>11300</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -41370,11 +41520,11 @@
         <v>201500</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" ht="30" hidden="1" spans="1:9">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>261</v>
       </c>
       <c r="B7" s="15">
@@ -41448,7 +41598,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="D12" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="I12" s="20">
         <v>695000</v>
@@ -41456,7 +41606,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="D13" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="I13" s="20">
         <f>F2+F3+F4+F5</f>
@@ -41468,7 +41618,7 @@
     </row>
     <row r="15" spans="4:9">
       <c r="D15" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="I15" s="20">
         <f>I12-I13</f>

--- a/Jual Pulsa.xlsx
+++ b/Jual Pulsa.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Ustadz Fauzan" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$633</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$I$640</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -2983,13 +2983,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3054,14 +3054,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3075,21 +3075,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3098,71 +3083,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3190,10 +3112,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3224,13 +3224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3242,19 +3254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3284,7 +3290,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3296,49 +3350,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3356,55 +3386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3607,6 +3607,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3615,27 +3626,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3664,6 +3664,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3672,29 +3687,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3706,134 +3706,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3841,7 +3841,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3851,15 +3851,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3880,8 +3880,8 @@
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3912,12 +3912,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3952,25 +3952,24 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -4057,10 +4056,10 @@
       <numFmt numFmtId="183" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
@@ -4483,10 +4482,10 @@
       <numFmt numFmtId="187" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -5617,7 +5616,7 @@
         <s v="M. SYARIFUDDIN"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Harga" numFmtId="176">
+    <cacheField name="Harga" numFmtId="177">
       <sharedItems containsBlank="1" containsNumber="1" containsInteger="1" containsMixedTypes="1" count="52">
         <m/>
         <s v="Deposit"/>
@@ -5684,7 +5683,7 @@
         <s v="Listrik Pasca"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Nominal" numFmtId="176">
+    <cacheField name="Nominal" numFmtId="177">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5000" maxValue="510000" count="61">
         <n v="57000"/>
         <n v="11000"/>
@@ -5749,7 +5748,7 @@
         <n v="78500"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Dibayar" numFmtId="176">
+    <cacheField name="Dibayar" numFmtId="177">
       <sharedItems containsBlank="1" containsNumber="1" containsInteger="1" containsMixedTypes="1" count="60">
         <n v="57000"/>
         <n v="12000"/>
@@ -5879,7 +5878,7 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Laba" numFmtId="176">
+    <cacheField name="Laba" numFmtId="177">
       <sharedItems containsBlank="1" containsNumber="1" containsMixedTypes="1" count="103">
         <n v="-54150"/>
         <n v="-10450"/>
@@ -17123,276 +17122,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="78">
         <v>42862</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="77">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="81">
         <v>42883</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="83">
         <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="81">
         <v>42920</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="83">
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="81">
         <v>42946</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="83">
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="81">
         <v>42946</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="83">
         <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="81">
         <v>42962</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="83">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="81">
         <v>42869</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="83">
         <v>50500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="81">
         <v>42882</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="83">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="81">
         <v>42883</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="83">
         <v>50500</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="81">
         <v>42938</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="83">
         <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88">
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87">
         <v>851000</v>
       </c>
     </row>
@@ -17771,11 +17770,11 @@
   <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B627" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H640" sqref="H640"/>
+      <selection pane="bottomRight" activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -22103,7 +22102,7 @@
       </c>
     </row>
     <row r="130" ht="30" spans="1:11">
-      <c r="A130" s="89" t="s">
+      <c r="A130" s="88" t="s">
         <v>259</v>
       </c>
       <c r="B130" s="48">
@@ -22140,7 +22139,7 @@
       </c>
     </row>
     <row r="131" ht="30" spans="1:11">
-      <c r="A131" s="89" t="s">
+      <c r="A131" s="88" t="s">
         <v>261</v>
       </c>
       <c r="B131" s="48">
@@ -22175,7 +22174,7 @@
       </c>
     </row>
     <row r="132" ht="30" spans="1:11">
-      <c r="A132" s="89" t="s">
+      <c r="A132" s="88" t="s">
         <v>264</v>
       </c>
       <c r="B132" s="48">
@@ -22212,7 +22211,7 @@
       </c>
     </row>
     <row r="133" ht="30" spans="1:11">
-      <c r="A133" s="89" t="s">
+      <c r="A133" s="88" t="s">
         <v>266</v>
       </c>
       <c r="B133" s="48">
@@ -22286,7 +22285,7 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="89" t="s">
+      <c r="A135" s="88" t="s">
         <v>272</v>
       </c>
       <c r="B135" s="48">
@@ -22323,7 +22322,7 @@
       </c>
     </row>
     <row r="136" ht="30" spans="1:11">
-      <c r="A136" s="89" t="s">
+      <c r="A136" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B136" s="48">
@@ -22360,7 +22359,7 @@
       </c>
     </row>
     <row r="137" ht="30" spans="1:11">
-      <c r="A137" s="89" t="s">
+      <c r="A137" s="88" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="48">
@@ -22397,7 +22396,7 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="89" t="s">
+      <c r="A138" s="88" t="s">
         <v>278</v>
       </c>
       <c r="B138" s="48">
@@ -22431,7 +22430,7 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="89" t="s">
+      <c r="A139" s="88" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="48">
@@ -22690,7 +22689,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="89" t="s">
+      <c r="A146" s="88" t="s">
         <v>289</v>
       </c>
       <c r="B146" s="48">
@@ -22724,7 +22723,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="89" t="s">
+      <c r="A147" s="88" t="s">
         <v>292</v>
       </c>
       <c r="B147" s="48">
@@ -22758,7 +22757,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="89" t="s">
+      <c r="A148" s="88" t="s">
         <v>294</v>
       </c>
       <c r="B148" s="48">
@@ -22792,7 +22791,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="89" t="s">
+      <c r="A149" s="88" t="s">
         <v>296</v>
       </c>
       <c r="B149" s="48">
@@ -22826,7 +22825,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="89" t="s">
+      <c r="A150" s="88" t="s">
         <v>9</v>
       </c>
       <c r="B150" s="48">
@@ -22860,7 +22859,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="89" t="s">
+      <c r="A151" s="88" t="s">
         <v>298</v>
       </c>
       <c r="B151" s="48">
@@ -22931,7 +22930,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="89" t="s">
+      <c r="A153" s="88" t="s">
         <v>304</v>
       </c>
       <c r="B153" s="48">
@@ -22965,7 +22964,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="89" t="s">
+      <c r="A154" s="88" t="s">
         <v>305</v>
       </c>
       <c r="B154" s="48">
@@ -23036,7 +23035,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="89" t="s">
+      <c r="A156" s="88" t="s">
         <v>310</v>
       </c>
       <c r="B156" s="48">
@@ -23107,7 +23106,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="89" t="s">
+      <c r="A158" s="88" t="s">
         <v>313</v>
       </c>
       <c r="B158" s="48">
@@ -23178,7 +23177,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="89" t="s">
+      <c r="A160" s="88" t="s">
         <v>315</v>
       </c>
       <c r="B160" s="48">
@@ -23249,7 +23248,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="89" t="s">
+      <c r="A162" s="88" t="s">
         <v>319</v>
       </c>
       <c r="B162" s="48">
@@ -23283,7 +23282,7 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="89" t="s">
+      <c r="A163" s="88" t="s">
         <v>320</v>
       </c>
       <c r="B163" s="48">
@@ -23317,7 +23316,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="89" t="s">
+      <c r="A164" s="88" t="s">
         <v>321</v>
       </c>
       <c r="B164" s="48">
@@ -23348,7 +23347,7 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="89" t="s">
+      <c r="A165" s="88" t="s">
         <v>324</v>
       </c>
       <c r="B165" s="48">
@@ -23382,7 +23381,7 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="89" t="s">
+      <c r="A166" s="88" t="s">
         <v>325</v>
       </c>
       <c r="B166" s="48">
@@ -23416,7 +23415,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="89" t="s">
+      <c r="A167" s="88" t="s">
         <v>328</v>
       </c>
       <c r="B167" s="48">
@@ -23580,7 +23579,7 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="89" t="s">
+      <c r="A172" s="88" t="s">
         <v>336</v>
       </c>
       <c r="B172" s="48">
@@ -24632,7 +24631,7 @@
       <c r="C201" t="s">
         <v>120</v>
       </c>
-      <c r="D201" s="90" t="s">
+      <c r="D201" s="89" t="s">
         <v>378</v>
       </c>
       <c r="F201" s="18">
@@ -26044,7 +26043,7 @@
       <c r="C242" t="s">
         <v>454</v>
       </c>
-      <c r="D242" s="90" t="s">
+      <c r="D242" s="89" t="s">
         <v>378</v>
       </c>
       <c r="F242" s="18">
@@ -27704,7 +27703,7 @@
       <c r="C291" t="s">
         <v>35</v>
       </c>
-      <c r="D291" s="90" t="s">
+      <c r="D291" s="89" t="s">
         <v>155</v>
       </c>
       <c r="E291" t="s">
@@ -28013,7 +28012,7 @@
       <c r="C300" t="s">
         <v>454</v>
       </c>
-      <c r="D300" s="90" t="s">
+      <c r="D300" s="89" t="s">
         <v>378</v>
       </c>
       <c r="F300" s="18">
@@ -37261,7 +37260,7 @@
       <c r="C562" t="s">
         <v>866</v>
       </c>
-      <c r="D562" s="90" t="s">
+      <c r="D562" s="89" t="s">
         <v>867</v>
       </c>
       <c r="E562" s="41" t="s">
@@ -39817,7 +39816,7 @@
       </c>
     </row>
     <row r="634" ht="30" spans="1:11">
-      <c r="A634" s="73" t="s">
+      <c r="A634" s="62" t="s">
         <v>951</v>
       </c>
       <c r="B634" s="48">
@@ -39854,7 +39853,7 @@
       </c>
     </row>
     <row r="635" ht="30" spans="1:11">
-      <c r="A635" s="73" t="s">
+      <c r="A635" s="62" t="s">
         <v>952</v>
       </c>
       <c r="B635" s="48">
@@ -39891,7 +39890,7 @@
       </c>
     </row>
     <row r="636" spans="1:11">
-      <c r="A636" s="73" t="s">
+      <c r="A636" s="62" t="s">
         <v>953</v>
       </c>
       <c r="B636" s="48">
@@ -39925,7 +39924,7 @@
       </c>
     </row>
     <row r="637" spans="1:11">
-      <c r="A637" s="73" t="s">
+      <c r="A637" s="62" t="s">
         <v>954</v>
       </c>
       <c r="B637" s="48">
@@ -39962,7 +39961,7 @@
       </c>
     </row>
     <row r="638" spans="1:11">
-      <c r="A638" s="73" t="s">
+      <c r="A638" s="62" t="s">
         <v>955</v>
       </c>
       <c r="B638" s="48">
@@ -39978,7 +39977,7 @@
       </c>
     </row>
     <row r="639" spans="1:11">
-      <c r="A639" s="73" t="s">
+      <c r="A639" s="62" t="s">
         <v>956</v>
       </c>
       <c r="B639" s="48">
@@ -39994,7 +39993,7 @@
       </c>
     </row>
     <row r="640" spans="1:11">
-      <c r="A640" s="73" t="s">
+      <c r="A640" s="62" t="s">
         <v>957</v>
       </c>
       <c r="B640" s="48">
@@ -40040,7 +40039,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I633"/>
+  <autoFilter ref="B1:I640"/>
   <hyperlinks>
     <hyperlink ref="A173" r:id="rId1" display="BL171111JKC7ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/795416"/>
     <hyperlink ref="A174" r:id="rId2" display="BL171111JMU2ELC" tooltip="https://www.bukalapak.com/payment/electricity/transactions/798491"/>
@@ -41524,7 +41523,7 @@
       </c>
     </row>
     <row r="7" ht="30" hidden="1" spans="1:9">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>261</v>
       </c>
       <c r="B7" s="15">
